--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FDBCF7-6823-400A-B167-B9CC25D604B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656B0BF0-508D-4C53-B84B-065B190962F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="2910" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3735" yWindow="2235" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クッキーベース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>empty</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -158,14 +154,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>butter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>suger</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>success_rate</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -333,18 +321,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>小麦粉</t>
-    <rPh sb="0" eb="3">
-      <t>コムギコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>hakurikiko</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kyorikiko</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -379,60 +356,6 @@
     </r>
     <rPh sb="0" eb="3">
       <t>ハクリキコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>薄力粉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>砂糖</t>
-    </r>
-    <rPh sb="8" eb="10">
-      <t>サトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -480,98 +403,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>強力粉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アパレイユ</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>キョウリキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>強力粉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>砂糖</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>キョウリキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cookie_base</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -785,6 +616,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>armond_powder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>financier_base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -812,220 +651,12 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>バター</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>honey</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cookie_base_honey</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>薄力粉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>はちみつ</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>薄力粉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>たまご</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>薄力粉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>たまご</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>砂糖</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>armond_powder</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>financier_base</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>薄力粉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
       <t>アーモンドプードル</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>フィナンシェベース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アパレイユ系</t>
-    <rPh sb="5" eb="6">
-      <t>ケイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1185,6 +816,287 @@
     <rPh sb="16" eb="17">
       <t>コ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>無塩バター</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ムエン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バターと砂糖を混ぜた生地</t>
+    <rPh sb="4" eb="6">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>クリーム混ぜ生地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>たまご</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>無塩バター</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>たまご</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ムエン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バターと砂糖、たまごを混ぜた生地</t>
+    <rPh sb="4" eb="6">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アパレイユ系（粉入れる前の生地の状態）</t>
+    <rPh sb="5" eb="6">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mazekiji</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whitekiji</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>白生地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>たまご</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クッキ生地の基本（3個同時に入れて作る）</t>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クッキ生地の基本（工程が2回）</t>
+    <rPh sb="9" eb="11">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑の続き</t>
+    <rPh sb="2" eb="3">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pink_bloodorange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>クッキーベース</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ピンクブラッドオレンジ</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1605,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1622,7 +1534,7 @@
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
     <col min="11" max="11" width="13.140625" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="33.5703125" customWidth="1"/>
     <col min="14" max="14" width="34.5703125" customWidth="1"/>
     <col min="15" max="15" width="30.5703125" customWidth="1"/>
   </cols>
@@ -1644,25 +1556,25 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -1689,7 +1601,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -1716,28 +1628,28 @@
         <v>6</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A37" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A30" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
@@ -1762,10 +1674,10 @@
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1777,13 +1689,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -1808,10 +1720,10 @@
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1823,13 +1735,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -1854,10 +1766,10 @@
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1873,48 +1785,6 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>90</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1922,25 +1792,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
@@ -1949,16 +1819,19 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L8">
-        <v>5</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1967,16 +1840,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1985,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
@@ -1994,16 +1867,17 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L9">
-        <v>5</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -2012,16 +1886,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -2030,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
@@ -2039,17 +1913,19 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L10">
-        <v>5</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="9" t="s">
-        <v>77</v>
+        <v>3</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2058,16 +1934,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -2085,16 +1961,19 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L11">
-        <v>5</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -2103,16 +1982,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -2130,16 +2009,19 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L12">
-        <v>5</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -2148,16 +2030,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -2175,16 +2057,17 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L13">
-        <v>5</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>83</v>
+        <v>3</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -2192,12 +2075,91 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>9999</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -2216,18 +2178,106 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="8"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>9999</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>90</v>
+      </c>
+      <c r="L19">
+        <v>34</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>9999</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>90</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -2238,10 +2288,10 @@
         <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>57</v>
@@ -2253,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
@@ -2265,13 +2315,11 @@
         <v>90</v>
       </c>
       <c r="L21">
-        <v>5</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M21" s="4"/>
       <c r="N21" s="12" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="O21" s="8" t="s">
         <v>58</v>
@@ -2286,13 +2334,13 @@
         <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
@@ -2301,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
@@ -2313,13 +2361,14 @@
         <v>90</v>
       </c>
       <c r="L22">
-        <v>5</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O22" s="10" t="s">
         <v>11</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -2327,16 +2376,46 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="10"/>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>9999</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>90</v>
+      </c>
+      <c r="L23">
+        <v>11</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -2344,16 +2423,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -2371,19 +2450,17 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L24">
-        <v>3</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>84</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M24" s="6"/>
       <c r="N24" s="12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -2391,261 +2468,111 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2">
-        <v>9999</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>95</v>
-      </c>
-      <c r="L25">
-        <v>3</v>
-      </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>88</v>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="7"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="8"/>
+      <c r="B26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>90</v>
+      </c>
+      <c r="L26">
+        <v>34</v>
+      </c>
+      <c r="M26" s="6"/>
+      <c r="N26" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2">
-        <v>9999</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>90</v>
-      </c>
-      <c r="L27">
-        <v>34</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="7"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2">
-        <v>9999</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>90</v>
-      </c>
-      <c r="L28">
-        <v>10</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="N28" s="9"/>
+      <c r="O28" s="7"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2">
-        <v>9999</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>90</v>
-      </c>
-      <c r="L29">
-        <v>11</v>
-      </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2">
-        <v>9999</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>90</v>
-      </c>
-      <c r="L30">
-        <v>11</v>
-      </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A31" si="1">ROW()-2</f>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -2663,159 +2590,19 @@
         <v>1</v>
       </c>
       <c r="K31">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="L31">
-        <v>34</v>
-      </c>
-      <c r="M31" s="6"/>
-      <c r="N31" s="12" t="s">
-        <v>72</v>
+        <v>32</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="7"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2">
-        <v>1</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>90</v>
-      </c>
-      <c r="L33">
-        <v>34</v>
-      </c>
-      <c r="M33" s="6"/>
-      <c r="N33" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="7"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="7"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <f t="shared" ref="A38" si="1">ROW()-2</f>
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="2">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2">
-        <v>9999</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>50</v>
-      </c>
-      <c r="L38">
-        <v>32</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N38" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656B0BF0-508D-4C53-B84B-065B190962F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F788DA7B-139D-4311-A229-136279F2756C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="3735" yWindow="2235" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1520,7 +1520,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F788DA7B-139D-4311-A229-136279F2756C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956E6C2F-E382-44BD-B2D4-8BC335C7C7F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3735" yWindow="2235" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="2535" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="96">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -89,14 +89,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>egg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>butter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -249,42 +241,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>blue_berry</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>オレンジ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ブルーベリー</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ハロウィーンジュース</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -318,10 +274,6 @@
   </si>
   <si>
     <t>cmpitem_kosu3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hakurikiko</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1097,6 +1049,42 @@
       </rPr>
       <t>ピンクブラッドオレンジ</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cmp_subtype_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cmp_subtype_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cmp_subtype_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>empty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fruits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Egg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Suger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Butter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Komugiko</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1517,29 +1505,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="33.5703125" customWidth="1"/>
-    <col min="14" max="14" width="34.5703125" customWidth="1"/>
-    <col min="15" max="15" width="30.5703125" customWidth="1"/>
+    <col min="4" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="33.5703125" customWidth="1"/>
+    <col min="17" max="17" width="34.5703125" customWidth="1"/>
+    <col min="18" max="18" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1553,40 +1541,49 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>ROW()-2</f>
         <v>0</v>
@@ -1601,86 +1598,104 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
+        <v>90</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
         <v>9999</v>
       </c>
-      <c r="I2" s="2">
+      <c r="L2" s="2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>95</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>2</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A30" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A29" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
+        <v>90</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
         <v>9999</v>
       </c>
-      <c r="I3" s="2">
+      <c r="L3" s="2">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>95</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>3</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1689,839 +1704,958 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
+        <v>91</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
         <v>9999</v>
       </c>
-      <c r="I4" s="2">
+      <c r="L4" s="2">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>95</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>3</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R4" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>9999</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>95</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>9999</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
         <v>9999</v>
       </c>
-      <c r="I8" s="2">
+      <c r="L8" s="2">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>100</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>3</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="6"/>
+      <c r="Q8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
+        <v>94</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
         <v>9999</v>
       </c>
-      <c r="I9" s="2">
+      <c r="L9" s="2">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>100</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>3</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="O9" s="8" t="s">
+      <c r="P9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" s="12" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R9" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
+        <v>90</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
         <v>9999</v>
       </c>
-      <c r="I10" s="2">
+      <c r="L10" s="2">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <v>100</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>3</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2">
-        <v>9999</v>
+        <v>94</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>100</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>3</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="O11" s="8" t="s">
+      <c r="P11" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>9999</v>
+      </c>
+      <c r="L12" s="2">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>100</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>3</v>
       </c>
-      <c r="M12" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="6"/>
+      <c r="Q12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>9999</v>
+        <v>90</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>100</v>
       </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>9999</v>
+      </c>
+      <c r="L14" s="2">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
         <v>100</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>5</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
-        <v>9999</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>100</v>
-      </c>
-      <c r="L15">
-        <v>5</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="8"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="8"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>9999</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>90</v>
+      </c>
+      <c r="O18">
+        <v>34</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>9999</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>90</v>
+      </c>
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
-        <v>9999</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>90</v>
-      </c>
-      <c r="L19">
-        <v>34</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
+        <v>90</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
         <v>9999</v>
       </c>
-      <c r="I20" s="2">
+      <c r="L20" s="2">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>90</v>
-      </c>
-      <c r="L20">
-        <v>10</v>
-      </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>90</v>
+      </c>
+      <c r="O20">
+        <v>10</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2">
+        <v>90</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
         <v>9999</v>
       </c>
-      <c r="I21" s="2">
+      <c r="L21" s="2">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>90</v>
-      </c>
-      <c r="L21">
-        <v>10</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>90</v>
+      </c>
+      <c r="O21">
+        <v>11</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
+        <v>90</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
         <v>9999</v>
       </c>
-      <c r="I22" s="2">
+      <c r="L22" s="2">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>90</v>
-      </c>
-      <c r="L22">
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>90</v>
+      </c>
+      <c r="O22">
         <v>11</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="4"/>
+      <c r="Q22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2">
+        <v>90</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
         <v>9999</v>
       </c>
-      <c r="I23" s="2">
+      <c r="L23" s="2">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>90</v>
-      </c>
-      <c r="L23">
-        <v>11</v>
-      </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>90</v>
+      </c>
+      <c r="O23">
+        <v>34</v>
+      </c>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2">
-        <v>9999</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>90</v>
-      </c>
-      <c r="L24">
-        <v>34</v>
-      </c>
-      <c r="M24" s="6"/>
-      <c r="N24" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="7"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>90</v>
+      </c>
+      <c r="O25">
+        <v>34</v>
+      </c>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>90</v>
-      </c>
-      <c r="L26">
-        <v>34</v>
-      </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="7"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2529,80 +2663,80 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="7"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="7"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="7"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A30" si="1">ROW()-2</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <f t="shared" ref="A31" si="1">ROW()-2</f>
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>9999</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>50</v>
+      </c>
+      <c r="O30">
+        <v>32</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2">
-        <v>9999</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>50</v>
-      </c>
-      <c r="L31">
-        <v>32</v>
-      </c>
-      <c r="M31" s="6" t="s">
+      <c r="R30" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956E6C2F-E382-44BD-B2D4-8BC335C7C7F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D9B00A-5DDE-41AC-958A-F380D443B3EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="2535" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="106">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -576,38 +576,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>薄力粉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アーモンドプードル</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フィナンシェベース</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -830,44 +798,6 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>クリーム混ぜ生地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>たまご</t>
-    </r>
-    <rPh sb="4" eb="5">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
       <t>無塩バター</t>
     </r>
     <r>
@@ -930,13 +860,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アパレイユ系（粉入れる前の生地の状態）</t>
-    <rPh sb="5" eb="6">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mazekiji</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -983,59 +906,344 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クッキ生地の基本（3個同時に入れて作る）</t>
-    <rPh sb="10" eb="11">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クッキ生地の基本（工程が2回）</t>
+    <t>pink_bloodorange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>クッキーベース</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ピンクブラッドオレンジ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cmp_subtype_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cmp_subtype_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cmp_subtype_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>empty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fruits</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Egg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Suger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Butter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Komugiko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>empty</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小麦粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バター</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>薄力粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アパレイユ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バター</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>ハクリキコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>薄力粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アーモンドプードル</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アパレイユ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本のクッキー生地</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アパレイユ（好きに調合した生地の素）</t>
+    <rPh sb="6" eb="7">
+      <t>ス</t>
+    </rPh>
     <rPh sb="9" eb="11">
-      <t>コウテイ</t>
+      <t>チョウゴウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本のクッキー生地（サラダ油使用）</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キジ</t>
     </rPh>
     <rPh sb="13" eb="14">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>↑の続き</t>
-    <rPh sb="2" eb="3">
-      <t>ツヅ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pink_bloodorange</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>クッキーベース</t>
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cookie_base_salad_Oil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>salad_Oil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hakurikiko</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>suger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie_base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡単クッキー生地</t>
+    <rPh sb="0" eb="2">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本バタークッキー生地</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小麦粉</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <family val="3"/>
       </rPr>
       <t>×</t>
     </r>
@@ -1044,47 +1252,39 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ピンクブラッドオレンジ</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cmp_subtype_1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cmp_subtype_2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cmp_subtype_3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>empty</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fruits</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Egg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Suger</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Butter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Komugiko</t>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サラダ油</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サトウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1177,7 +1377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1189,8 +1389,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1505,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1516,7 +1718,7 @@
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
     <col min="9" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" customWidth="1"/>
@@ -1541,13 +1743,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -1598,13 +1800,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>30</v>
@@ -1642,7 +1844,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A29" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A31" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1655,13 +1857,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>31</v>
@@ -1688,7 +1890,7 @@
         <v>3</v>
       </c>
       <c r="P3" s="3"/>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>24</v>
       </c>
       <c r="R3" s="8" t="s">
@@ -1710,13 +1912,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>42</v>
@@ -1743,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>27</v>
       </c>
       <c r="R4" s="8" t="s">
@@ -1755,14 +1957,65 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>95</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1770,55 +2023,55 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>90</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
-        <v>9999</v>
-      </c>
-      <c r="L7" s="2">
+        <v>97</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O7">
         <v>3</v>
       </c>
-      <c r="P7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>13</v>
+      <c r="P7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1826,55 +2079,6 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2">
-        <v>9999</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>100</v>
-      </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1891,16 +2095,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -1909,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -1918,19 +2122,19 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O9">
         <v>3</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>73</v>
+        <v>95</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1939,7 +2143,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1948,16 +2152,16 @@
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -1975,19 +2179,17 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O10">
         <v>3</v>
       </c>
-      <c r="P10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>81</v>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1996,7 +2198,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -2005,16 +2207,16 @@
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -2023,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -2032,19 +2234,17 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O11">
         <v>3</v>
       </c>
-      <c r="P11" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>76</v>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -2053,7 +2253,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -2062,16 +2262,16 @@
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -2089,17 +2289,17 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O12">
         <v>3</v>
       </c>
       <c r="P12" s="6"/>
-      <c r="Q12" s="12" t="s">
-        <v>75</v>
+      <c r="Q12" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -2108,7 +2308,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
@@ -2117,16 +2317,16 @@
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
@@ -2135,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -2144,17 +2344,17 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="Q13" s="12" t="s">
-        <v>37</v>
+      <c r="Q13" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -2163,7 +2363,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -2172,16 +2372,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
@@ -2190,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="2">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -2199,16 +2399,17 @@
         <v>1</v>
       </c>
       <c r="N14">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O14">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>64</v>
+        <v>3</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -2216,139 +2417,136 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>95</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>95</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2">
-        <v>9999</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>90</v>
-      </c>
-      <c r="O18">
-        <v>34</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2">
-        <v>9999</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>90</v>
-      </c>
-      <c r="O19">
-        <v>10</v>
-      </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="8"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -2356,25 +2554,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
@@ -2395,14 +2593,16 @@
         <v>90</v>
       </c>
       <c r="O20">
-        <v>10</v>
-      </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="12" t="s">
-        <v>86</v>
+        <v>34</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -2411,25 +2611,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -2450,14 +2650,14 @@
         <v>90</v>
       </c>
       <c r="O21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P21" s="4"/>
-      <c r="Q21" s="12" t="s">
-        <v>55</v>
+      <c r="Q21" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -2469,22 +2669,22 @@
         <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
@@ -2505,14 +2705,14 @@
         <v>90</v>
       </c>
       <c r="O22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P22" s="4"/>
-      <c r="Q22" s="12" t="s">
-        <v>39</v>
+      <c r="Q22" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -2524,22 +2724,22 @@
         <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
@@ -2560,14 +2760,14 @@
         <v>90</v>
       </c>
       <c r="O23">
-        <v>34</v>
-      </c>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="12" t="s">
-        <v>59</v>
+        <v>11</v>
+      </c>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -2575,15 +2775,55 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>9999</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>90</v>
+      </c>
+      <c r="O24">
+        <v>11</v>
+      </c>
       <c r="P24" s="4"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="7"/>
+      <c r="Q24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -2591,25 +2831,25 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
@@ -2618,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
@@ -2633,11 +2873,11 @@
         <v>34</v>
       </c>
       <c r="P25" s="6"/>
-      <c r="Q25" s="12" t="s">
-        <v>72</v>
+      <c r="Q25" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -2660,82 +2900,152 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="7"/>
+      <c r="B27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>90</v>
+      </c>
+      <c r="O27">
+        <v>34</v>
+      </c>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="7"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="7"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" ref="A30" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" ref="A32" si="1">ROW()-2</f>
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="2">
-        <v>1</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2">
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
         <v>9999</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L32" s="2">
         <v>0</v>
       </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
         <v>50</v>
       </c>
-      <c r="O30">
+      <c r="O32">
         <v>32</v>
       </c>
-      <c r="P30" s="6" t="s">
+      <c r="P32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q30" s="8" t="s">
+      <c r="Q32" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R30" s="8" t="s">
+      <c r="R32" s="8" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D9B00A-5DDE-41AC-958A-F380D443B3EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE9AEFA-32D9-4C2D-A75C-182265FE4158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="2535" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="2625" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="107">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -1285,6 +1285,10 @@
     <rPh sb="9" eb="11">
       <t>サトウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orange</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1710,7 +1714,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2611,10 +2615,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>10</v>
@@ -2623,7 +2627,7 @@
         <v>84</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>84</v>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE9AEFA-32D9-4C2D-A75C-182265FE4158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D32213-1D2C-4AEB-B168-584BBD508F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="2625" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="3315" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -1144,48 +1144,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>基本のクッキー生地</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アパレイユ（好きに調合した生地の素）</t>
-    <rPh sb="6" eb="7">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>チョウゴウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>モト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基本のクッキー生地（サラダ油使用）</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>アブラ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cookie_base_salad_Oil</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1201,10 +1159,6 @@
   </si>
   <si>
     <t>suger</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cookie_base</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1289,6 +1243,126 @@
   </si>
   <si>
     <t>orange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>butter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>egg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アパレイユ（生地の素）</t>
+    <rPh sb="6" eb="8">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィナンシェベース系</t>
+    <rPh sb="9" eb="10">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cmpitemName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orange_juice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>haloween_juice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mix_fruits_juice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cookie_base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cookie_base_salad_Oil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whitekiji</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appaleil_whitekiji</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mazekiji</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appaleil_white</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cookie_base_appaleil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cake_base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケーキベース系</t>
+    <rPh sb="6" eb="7">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cookie_base_cheese</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cookie_base_orange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cookie_base_pinkorange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cookie_base_grape</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cookie_base_cocoa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cookie_base_icebox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>financier_base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chocolate_base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>financier_base_Hard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appaleil</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1381,7 +1455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1395,7 +1469,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1711,101 +1784,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
-    <col min="9" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1"/>
-    <col min="16" max="16" width="33.5703125" customWidth="1"/>
-    <col min="17" max="17" width="34.5703125" customWidth="1"/>
-    <col min="18" max="18" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="33.5703125" customWidth="1"/>
+    <col min="18" max="18" width="34.5703125" customWidth="1"/>
+    <col min="19" max="19" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F2" s="2" t="s">
         <v>84</v>
       </c>
@@ -1813,56 +1890,59 @@
         <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
       <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
         <v>9999</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
       <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>95</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A31" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A33" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F3" s="2" t="s">
         <v>84</v>
       </c>
@@ -1870,249 +1950,259 @@
         <v>84</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
         <v>9999</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
       <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>95</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>3</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
       <c r="J4" s="2">
         <v>1</v>
       </c>
       <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
         <v>9999</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
       <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
         <v>95</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>3</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="3"/>
+      <c r="R4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="S4" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>95</v>
-      </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>104</v>
-      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
       <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
         <v>95</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>3</v>
       </c>
-      <c r="P7" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q7" s="13" t="s">
+      <c r="Q7" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="R7" s="14" t="s">
-        <v>103</v>
+      <c r="R7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>95</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
       <c r="J9" s="2">
         <v>1</v>
       </c>
@@ -2120,34 +2210,35 @@
         <v>1</v>
       </c>
       <c r="L9" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M9" s="2">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
       <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
         <v>95</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>3</v>
       </c>
-      <c r="P9" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" s="8" t="s">
+      <c r="Q9" s="6"/>
+      <c r="R9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="S9" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -2156,531 +2247,559 @@
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
       </c>
       <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
         <v>9999</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
       <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
         <v>95</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>3</v>
       </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>73</v>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>84</v>
+        <v>84</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
         <v>9999</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
       <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
         <v>95</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>3</v>
       </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>75</v>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
       </c>
       <c r="K12" s="2">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
       <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
         <v>95</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>3</v>
       </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>13</v>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2">
-        <v>9999</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>95</v>
-      </c>
-      <c r="O13">
-        <v>3</v>
-      </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>95</v>
-      </c>
-      <c r="O14">
-        <v>3</v>
-      </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>95</v>
-      </c>
-      <c r="O15">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="6"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
-      <c r="L16" s="2">
+        <v>90</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
       <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
         <v>95</v>
       </c>
-      <c r="O16">
-        <v>5</v>
-      </c>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>45</v>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="B17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>95</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>90</v>
+      </c>
+      <c r="P18">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="8"/>
+      <c r="B19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>90</v>
+      </c>
+      <c r="P19">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
       </c>
       <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
         <v>9999</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
       <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
         <v>90</v>
       </c>
-      <c r="O20">
-        <v>34</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q20" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="R20" s="8" t="s">
-        <v>51</v>
+      <c r="P20">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>84</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
       </c>
       <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
         <v>9999</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
         <v>0</v>
       </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
       <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
         <v>90</v>
       </c>
-      <c r="O21">
-        <v>10</v>
-      </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>53</v>
+      <c r="P21">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>84</v>
       </c>
@@ -2688,54 +2807,57 @@
         <v>84</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
       </c>
       <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
         <v>9999</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
       <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
         <v>90</v>
       </c>
-      <c r="O22">
-        <v>10</v>
-      </c>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>53</v>
+      <c r="P22">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>84</v>
       </c>
@@ -2743,314 +2865,338 @@
         <v>84</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I23" s="2">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
       </c>
       <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
         <v>9999</v>
       </c>
-      <c r="L23" s="2">
+      <c r="M23" s="2">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
       <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
         <v>90</v>
       </c>
-      <c r="O23">
-        <v>11</v>
-      </c>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>56</v>
+      <c r="P23">
+        <v>34</v>
+      </c>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2">
-        <v>9999</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>90</v>
-      </c>
-      <c r="O24">
-        <v>11</v>
-      </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="R24" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="H25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I25" s="2">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
       </c>
       <c r="K25" s="2">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2">
         <v>0</v>
       </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
       <c r="N25">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>34</v>
-      </c>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="R25" s="8" t="s">
-        <v>60</v>
+        <v>95</v>
+      </c>
+      <c r="P25">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="7"/>
+      <c r="B26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>90</v>
+      </c>
+      <c r="P26">
+        <v>34</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="2">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2">
-        <v>1</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>90</v>
-      </c>
-      <c r="O27">
-        <v>34</v>
-      </c>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="R27" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="7"/>
+      <c r="H28" s="2"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="7"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
+        <f>ROW()-2</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" ref="A31" si="1">ROW()-2</f>
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>50</v>
+      </c>
+      <c r="P31">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f>ROW()-2</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <f t="shared" ref="A32" si="1">ROW()-2</f>
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="2">
-        <v>1</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2">
-        <v>9999</v>
-      </c>
-      <c r="L32" s="2">
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2">
         <v>0</v>
       </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>50</v>
-      </c>
-      <c r="O32">
-        <v>32</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R32" s="8" t="s">
-        <v>18</v>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>95</v>
+      </c>
+      <c r="P33">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="S33" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D32213-1D2C-4AEB-B168-584BBD508F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5241FEF3-B232-4E7E-8E11-2485EB7DDCDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="3315" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="2715" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="129">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -89,38 +89,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>クッキーベース</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>オレンジ</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cacao_beans</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -410,50 +378,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クッキーベース系</t>
-    <rPh sb="7" eb="8">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cream_cheese</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cookie_base_cheese</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>クッキーベース</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>クリームチーズ</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1144,15 +1069,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cookie_base_salad_Oil</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>salad_Oil</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hakurikiko</t>
   </si>
   <si>
     <t>butter</t>
@@ -1287,14 +1205,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cookie_base</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cookie_base_salad_Oil</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>whitekiji</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1326,14 +1236,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cookie_base_cheese</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cookie_base_orange</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cookie_base_pinkorange</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1363,6 +1265,104 @@
   </si>
   <si>
     <t>appaleil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>neko_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>neko_cookie_salad_Oil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クッキー系</t>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>クッキー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>クリームチーズ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>クッキー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>オレンジ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cheese_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orange_neko_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>komugiko</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1423,7 +1423,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1442,6 +1442,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1455,7 +1461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1470,12 +1476,19 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1784,18 +1797,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="8" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="15" customWidth="1"/>
+    <col min="5" max="8" width="15.140625" style="15" customWidth="1"/>
     <col min="9" max="9" width="21.85546875" customWidth="1"/>
     <col min="10" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
@@ -1812,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1824,37 +1837,37 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
@@ -1872,28 +1885,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>84</v>
+      <c r="F2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -1920,40 +1933,40 @@
         <v>6</v>
       </c>
       <c r="R2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A33" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A34" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>84</v>
+      <c r="F3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -1978,10 +1991,10 @@
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -1990,28 +2003,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>84</v>
+      <c r="F4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
@@ -2036,10 +2049,10 @@
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -2062,28 +2075,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -2107,13 +2120,13 @@
         <v>3</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -2122,28 +2135,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="F8" s="14" t="s">
         <v>84</v>
       </c>
+      <c r="G8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="I8" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -2168,10 +2181,10 @@
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -2180,28 +2193,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>84</v>
+      <c r="F9" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -2226,10 +2239,10 @@
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -2238,28 +2251,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>84</v>
+      <c r="F10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -2284,7 +2297,7 @@
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S10" s="8" t="s">
         <v>13</v>
@@ -2296,28 +2309,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>84</v>
+      <c r="F11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -2342,10 +2355,10 @@
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -2354,28 +2367,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>84</v>
+      <c r="F12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -2400,10 +2413,10 @@
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -2423,12 +2436,12 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="6"/>
@@ -2439,28 +2452,28 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -2484,13 +2497,13 @@
         <v>3</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -2499,28 +2512,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>90</v>
+      <c r="E17" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -2545,10 +2558,10 @@
       </c>
       <c r="Q17" s="13"/>
       <c r="R17" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -2556,58 +2569,17 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>90</v>
-      </c>
-      <c r="P18">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S18" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="2"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="10"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -2615,28 +2587,28 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>84</v>
+      <c r="H19" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -2657,14 +2629,16 @@
         <v>90</v>
       </c>
       <c r="P19">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="R19" s="11" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
@@ -2673,28 +2647,28 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>84</v>
+      <c r="F20" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -2719,10 +2693,10 @@
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="11" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
@@ -2731,28 +2705,28 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>84</v>
+      <c r="F21" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -2773,14 +2747,14 @@
         <v>90</v>
       </c>
       <c r="P21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="11" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -2789,28 +2763,28 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>84</v>
+      <c r="F22" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -2835,10 +2809,10 @@
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="11" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -2847,28 +2821,28 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>84</v>
+      <c r="F23" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -2889,14 +2863,14 @@
         <v>90</v>
       </c>
       <c r="P23">
-        <v>34</v>
-      </c>
-      <c r="Q23" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="Q23" s="4"/>
       <c r="R23" s="11" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -2904,75 +2878,73 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="7"/>
+      <c r="B24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>90</v>
+      </c>
+      <c r="P24">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1</v>
-      </c>
-      <c r="L25" s="2">
-        <v>1</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>95</v>
-      </c>
-      <c r="P25">
-        <v>5</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="S25" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="7"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -2980,28 +2952,28 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>84</v>
+      <c r="F26" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
@@ -3019,16 +2991,19 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P26">
-        <v>34</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="S26" s="8" t="s">
-        <v>70</v>
+        <v>5</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -3036,27 +3011,69 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="7"/>
+      <c r="B27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>90</v>
+      </c>
+      <c r="P27">
+        <v>34</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="9"/>
       <c r="S28" s="7"/>
@@ -3066,137 +3083,152 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="7"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" ref="A31" si="1">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" s="2">
-        <v>1</v>
-      </c>
-      <c r="K31" s="2">
-        <v>1</v>
-      </c>
-      <c r="L31" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>50</v>
-      </c>
-      <c r="P31">
-        <v>32</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="S31" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A32" si="1">ROW()-2</f>
         <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>50</v>
+      </c>
+      <c r="P32">
+        <v>32</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
+        <f>ROW()-2</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>95</v>
+      </c>
+      <c r="P34">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R34" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="S34" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="J33" s="2">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2">
-        <v>1</v>
-      </c>
-      <c r="L33" s="2">
-        <v>1</v>
-      </c>
-      <c r="M33" s="2">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>95</v>
-      </c>
-      <c r="P33">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="R33" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="S33" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5241FEF3-B232-4E7E-8E11-2485EB7DDCDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E62E91-8228-4218-88B7-509A3318467F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2715" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="3405" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="136">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -1182,13 +1182,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フィナンシェベース系</t>
-    <rPh sb="9" eb="10">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cmpitemName</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1363,6 +1356,97 @@
   </si>
   <si>
     <t>komugiko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィナンシェ系</t>
+    <rPh sb="6" eb="7">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>komugiko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>egg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>milk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンケーキ系</t>
+    <rPh sb="5" eb="6">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小麦粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>たまご</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>牛乳</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ギュウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンケーキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pan_cake</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1474,10 +1558,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1797,18 +1881,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="15" customWidth="1"/>
-    <col min="5" max="8" width="15.140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="14" customWidth="1"/>
+    <col min="5" max="8" width="15.140625" style="14" customWidth="1"/>
     <col min="9" max="9" width="21.85546875" customWidth="1"/>
     <col min="10" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
@@ -1825,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1885,24 +1969,24 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="E2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>80</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -1941,28 +2025,28 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A34" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A42" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="14" t="s">
+      <c r="E3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>80</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -2003,24 +2087,24 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>80</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -2060,14 +2144,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -2075,24 +2161,24 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="F7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -2135,24 +2221,24 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>80</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -2193,24 +2279,24 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="14" t="s">
+      <c r="D9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>80</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -2251,24 +2337,24 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>80</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -2309,24 +2395,24 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="D11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>80</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -2367,24 +2453,24 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="D12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="13" t="s">
         <v>80</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -2424,27 +2510,31 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="6"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -2452,28 +2542,28 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="13" t="s">
         <v>86</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -2497,7 +2587,7 @@
         <v>3</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R16" s="9" t="s">
         <v>87</v>
@@ -2512,28 +2602,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="13" t="s">
         <v>86</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -2556,7 +2646,7 @@
       <c r="P17">
         <v>3</v>
       </c>
-      <c r="Q17" s="13"/>
+      <c r="Q17" s="12"/>
       <c r="R17" s="9" t="s">
         <v>95</v>
       </c>
@@ -2570,14 +2660,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="2"/>
-      <c r="Q18" s="13"/>
+      <c r="Q18" s="12"/>
       <c r="R18" s="9"/>
       <c r="S18" s="10"/>
     </row>
@@ -2587,28 +2677,28 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="14" t="s">
+      <c r="F19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>80</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -2632,10 +2722,10 @@
         <v>34</v>
       </c>
       <c r="Q19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="R19" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>124</v>
       </c>
       <c r="S19" s="8" t="s">
         <v>47</v>
@@ -2647,28 +2737,28 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="14" t="s">
+      <c r="E20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>80</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -2693,7 +2783,7 @@
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S20" s="8" t="s">
         <v>49</v>
@@ -2705,24 +2795,24 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="14" t="s">
+      <c r="E21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>80</v>
       </c>
       <c r="I21" s="2" t="s">
@@ -2763,24 +2853,24 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="14" t="s">
+      <c r="E22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="13" t="s">
         <v>80</v>
       </c>
       <c r="I22" s="2" t="s">
@@ -2821,24 +2911,24 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="14" t="s">
+      <c r="E23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>80</v>
       </c>
       <c r="I23" s="2" t="s">
@@ -2879,24 +2969,24 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="14" t="s">
+      <c r="E24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="13" t="s">
         <v>80</v>
       </c>
       <c r="I24" s="2" t="s">
@@ -2936,12 +3026,12 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="9"/>
       <c r="S25" s="7"/>
@@ -2952,24 +3042,24 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="14" t="s">
+      <c r="E26" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -2997,7 +3087,7 @@
         <v>5</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="R26" s="9" t="s">
         <v>89</v>
@@ -3012,24 +3102,24 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="14" t="s">
+      <c r="F27" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="13" t="s">
         <v>80</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -3068,12 +3158,12 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="9"/>
       <c r="S28" s="7"/>
@@ -3083,151 +3173,273 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="7"/>
+      <c r="B29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>90</v>
+      </c>
+      <c r="P29">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" ref="A32" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2">
-        <v>1</v>
-      </c>
-      <c r="L32" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>50</v>
-      </c>
-      <c r="P32">
-        <v>32</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="R32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S32" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="7"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f>ROW()-2</f>
+        <v>37</v>
+      </c>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" ref="A40" si="1">ROW()-2</f>
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>50</v>
+      </c>
+      <c r="P40">
+        <v>32</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S40" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f>ROW()-2</f>
+        <v>39</v>
+      </c>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>95</v>
+      </c>
+      <c r="P42">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J34" s="2">
-        <v>1</v>
-      </c>
-      <c r="K34" s="2">
-        <v>1</v>
-      </c>
-      <c r="L34" s="2">
-        <v>1</v>
-      </c>
-      <c r="M34" s="2">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>95</v>
-      </c>
-      <c r="P34">
-        <v>5</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="R34" s="11" t="s">
+      <c r="R42" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="S34" s="8" t="s">
+      <c r="S42" s="8" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E62E91-8228-4218-88B7-509A3318467F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD8B4F2-E1B8-4FEF-8AD5-D17E7CAF673B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="3405" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="3060" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -1884,7 +1884,7 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2551,7 +2551,7 @@
         <v>91</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>86</v>
@@ -2560,13 +2560,13 @@
         <v>86</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>119</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -2626,7 +2626,7 @@
         <v>119</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>1</v>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD8B4F2-E1B8-4FEF-8AD5-D17E7CAF673B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE20030D-1040-46A6-87B5-93E598E4A58C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="3060" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="2595" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="138">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -1447,6 +1447,14 @@
   </si>
   <si>
     <t>pan_cake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emerald_suger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emerald_neko_cookie</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1881,10 +1889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2025,7 +2033,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A42" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A43" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2551,7 +2559,7 @@
         <v>91</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>86</v>
@@ -2560,7 +2568,7 @@
         <v>86</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>119</v>
@@ -2602,28 +2610,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>127</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2646,12 +2654,14 @@
       <c r="P17">
         <v>3</v>
       </c>
-      <c r="Q17" s="12"/>
+      <c r="Q17" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="R17" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -2659,77 +2669,75 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>95</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
       <c r="Q18" s="12"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="10"/>
+      <c r="R18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>90</v>
-      </c>
-      <c r="P19">
-        <v>34</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="S19" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="2"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="10"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -2737,16 +2745,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>119</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>80</v>
@@ -2758,7 +2766,7 @@
         <v>80</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -2779,14 +2787,16 @@
         <v>90</v>
       </c>
       <c r="P20">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="R20" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
@@ -2795,13 +2805,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>10</v>
@@ -2810,13 +2820,13 @@
         <v>80</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>80</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -2841,7 +2851,7 @@
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="11" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="S21" s="8" t="s">
         <v>49</v>
@@ -2853,13 +2863,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>10</v>
@@ -2874,7 +2884,7 @@
         <v>80</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -2895,14 +2905,14 @@
         <v>90</v>
       </c>
       <c r="P22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="11" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -2911,13 +2921,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>10</v>
@@ -2932,7 +2942,7 @@
         <v>80</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -2957,10 +2967,10 @@
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="11" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -2969,28 +2979,28 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -3011,14 +3021,14 @@
         <v>90</v>
       </c>
       <c r="P24">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="Q24" s="4"/>
       <c r="R24" s="11" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -3026,75 +3036,73 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="7"/>
+      <c r="B25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>90</v>
+      </c>
+      <c r="P25">
+        <v>34</v>
+      </c>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1</v>
-      </c>
-      <c r="L26" s="2">
-        <v>1</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>95</v>
-      </c>
-      <c r="P26">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="R26" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="S26" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="7"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -3102,25 +3110,25 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>80</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>58</v>
@@ -3141,16 +3149,19 @@
         <v>1</v>
       </c>
       <c r="O27">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P27">
-        <v>34</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="S27" s="8" t="s">
-        <v>66</v>
+        <v>5</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
@@ -3158,83 +3169,132 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="7"/>
+      <c r="B28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>90</v>
+      </c>
+      <c r="P28">
+        <v>34</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>90</v>
-      </c>
-      <c r="P29">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="R29" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>134</v>
-      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="7"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
+      <c r="B30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>90</v>
+      </c>
+      <c r="P30">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="S30" s="10" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -3289,27 +3349,27 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="7"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="7"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="R39" s="15"/>
@@ -3317,129 +3377,137 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" ref="A40" si="1">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>38</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J40" s="2">
-        <v>1</v>
-      </c>
-      <c r="K40" s="2">
-        <v>1</v>
-      </c>
-      <c r="L40" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M40" s="2">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>50</v>
-      </c>
-      <c r="P40">
-        <v>32</v>
-      </c>
-      <c r="Q40" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="R40" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S40" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A41" si="1">ROW()-2</f>
         <v>39</v>
       </c>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
+      <c r="B41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>50</v>
+      </c>
+      <c r="P41">
+        <v>32</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" s="13" t="s">
+      <c r="D43" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H43" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J42" s="2">
-        <v>1</v>
-      </c>
-      <c r="K42" s="2">
-        <v>1</v>
-      </c>
-      <c r="L42" s="2">
-        <v>1</v>
-      </c>
-      <c r="M42" s="2">
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1</v>
+      </c>
+      <c r="M43" s="2">
         <v>0</v>
       </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
         <v>95</v>
       </c>
-      <c r="P42">
+      <c r="P43">
         <v>5</v>
       </c>
-      <c r="Q42" s="6" t="s">
+      <c r="Q43" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="R42" s="11" t="s">
+      <c r="R43" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="S42" s="8" t="s">
+      <c r="S43" s="8" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE20030D-1040-46A6-87B5-93E598E4A58C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9130644-2355-4F7F-93F7-5F2C5CFD642F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="2595" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="2730" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="139">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -51,13 +51,6 @@
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オレンジ系</t>
-    <rPh sb="4" eb="5">
-      <t>ケイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -335,14 +328,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cake_base</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケーキベース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -389,10 +374,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cookie_base_orange</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>オレンジクッキーの生地</t>
     <rPh sb="9" eb="11">
       <t>キジ</t>
@@ -400,10 +381,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cookie_base_grape</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -969,60 +946,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>薄力粉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アパレイユ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バター</t>
-    </r>
-    <rPh sb="0" eb="3">
-      <t>ハクリキコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
@@ -1077,26 +1000,6 @@
   </si>
   <si>
     <t>suger</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>簡単クッキー生地</t>
-    <rPh sb="0" eb="2">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基本バタークッキー生地</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1218,29 +1121,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cake_base</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケーキベース系</t>
-    <rPh sb="6" eb="7">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cookie_base_pinkorange</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cookie_base_grape</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cookie_base_cocoa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cookie_base_icebox</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1262,17 +1142,6 @@
   </si>
   <si>
     <t>neko_cookie</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>neko_cookie_salad_Oil</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基本</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1378,6 +1247,135 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小麦粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>たまご</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>牛乳</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ギュウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンケーキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pan_cake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emerald_suger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emerald_neko_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>grape_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cocoa_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pinkorange_neko_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジュース系</t>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cookie_salad_oil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sponge_cake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポンジケーキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねこクッキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エメラルドねこクッキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡単クッキー</t>
+    <rPh sb="0" eb="2">
+      <t>カンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>//これより下　お菓子のレシピ</t>
+    <rPh sb="6" eb="7">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>パンケーキ系</t>
     <rPh sb="5" eb="6">
       <t>ケイ</t>
@@ -1385,22 +1383,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>小麦粉</t>
+    <t>ケーキ系</t>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>star_powder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>star_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>クッキー</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="3"/>
+        <family val="2"/>
       </rPr>
       <t>×</t>
     </r>
@@ -1409,52 +1422,18 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>たまご</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>牛乳</t>
-    </r>
-    <rPh sb="0" eb="3">
-      <t>コムギコ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ギュウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パンケーキ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pan_cake</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>emerald_suger</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>emerald_neko_cookie</t>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ほしの粉</t>
+    </r>
+    <rPh sb="8" eb="9">
+      <t>コナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタークッキー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1515,7 +1494,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1540,6 +1519,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1553,7 +1538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1570,6 +1555,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1889,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1907,7 +1896,7 @@
     <col min="14" max="14" width="11.5703125" customWidth="1"/>
     <col min="15" max="15" width="13.140625" customWidth="1"/>
     <col min="16" max="16" width="12.42578125" customWidth="1"/>
-    <col min="17" max="17" width="33.5703125" customWidth="1"/>
+    <col min="17" max="17" width="38.85546875" customWidth="1"/>
     <col min="18" max="18" width="34.5703125" customWidth="1"/>
     <col min="19" max="19" width="30.5703125" customWidth="1"/>
   </cols>
@@ -1917,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1929,46 +1918,46 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -1977,28 +1966,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -2022,13 +2011,13 @@
         <v>2</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="R2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -2037,28 +2026,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -2083,10 +2072,10 @@
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -2095,28 +2084,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
@@ -2141,10 +2130,10 @@
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -2169,28 +2158,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -2214,13 +2203,13 @@
         <v>3</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -2229,28 +2218,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -2275,10 +2264,10 @@
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -2287,28 +2276,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -2333,10 +2322,10 @@
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -2345,28 +2334,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -2391,10 +2380,10 @@
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -2403,28 +2392,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -2449,10 +2438,10 @@
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -2461,28 +2450,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>85</v>
-      </c>
       <c r="H12" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -2507,10 +2496,10 @@
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -2529,80 +2518,39 @@
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="8"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="Q15" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="R15" s="19"/>
+      <c r="S15" s="16"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>95</v>
-      </c>
-      <c r="P16">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="S16" s="10" t="s">
-        <v>94</v>
-      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -2610,28 +2558,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2655,13 +2603,13 @@
         <v>3</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -2670,28 +2618,28 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>92</v>
-      </c>
       <c r="F18" s="13" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2714,12 +2662,12 @@
       <c r="P18">
         <v>3</v>
       </c>
-      <c r="Q18" s="12"/>
+      <c r="Q18" s="6"/>
       <c r="R18" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -2727,17 +2675,58 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>95</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
       <c r="Q19" s="12"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="10"/>
+      <c r="R19" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -2745,28 +2734,28 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -2789,14 +2778,12 @@
       <c r="P20">
         <v>34</v>
       </c>
-      <c r="Q20" s="6" t="s">
-        <v>122</v>
-      </c>
+      <c r="Q20" s="6"/>
       <c r="R20" s="11" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
@@ -2805,28 +2792,28 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -2851,10 +2838,10 @@
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="11" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -2863,28 +2850,28 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -2909,10 +2896,10 @@
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -2921,28 +2908,28 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -2967,10 +2954,10 @@
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -2979,28 +2966,28 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -3025,10 +3012,10 @@
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S24" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="S24" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -3037,28 +3024,28 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -3083,10 +3070,10 @@
       </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
@@ -3094,132 +3081,92 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="B26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>90</v>
+      </c>
+      <c r="P26">
+        <v>10</v>
+      </c>
       <c r="Q26" s="4"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="7"/>
+      <c r="R26" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2">
-        <v>1</v>
-      </c>
-      <c r="L27" s="2">
-        <v>1</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>95</v>
-      </c>
-      <c r="P27">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="S27" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="2"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="10"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1</v>
-      </c>
-      <c r="L28" s="2">
-        <v>1</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>90</v>
-      </c>
-      <c r="P28">
-        <v>34</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="S28" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="2"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="10"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -3242,58 +3189,58 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
+        <v>53</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2">
         <v>0</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P30">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="12" t="s">
-        <v>132</v>
+        <v>5</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -3301,16 +3248,72 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
+      <c r="B31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>90</v>
+      </c>
+      <c r="P31">
+        <v>34</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="7"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -3333,8 +3336,60 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
+      <c r="B35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>90</v>
+      </c>
+      <c r="P35">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="S35" s="10" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
@@ -3349,23 +3404,68 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
+      <c r="B37" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>95</v>
+      </c>
+      <c r="P37">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="R37" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="7"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -3377,7 +3477,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="R40" s="15"/>
@@ -3385,131 +3485,110 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f t="shared" ref="A41" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J41" s="2">
-        <v>1</v>
-      </c>
-      <c r="K41" s="2">
-        <v>1</v>
-      </c>
-      <c r="L41" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M41" s="2">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>50</v>
-      </c>
-      <c r="P41">
-        <v>32</v>
-      </c>
-      <c r="Q41" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="R41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S41" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="7"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="13" t="s">
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f>ROW()-2</f>
         <v>42</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I43" s="2" t="s">
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" ref="A45" si="1">ROW()-2</f>
         <v>43</v>
       </c>
-      <c r="J43" s="2">
-        <v>1</v>
-      </c>
-      <c r="K43" s="2">
-        <v>1</v>
-      </c>
-      <c r="L43" s="2">
-        <v>1</v>
-      </c>
-      <c r="M43" s="2">
+      <c r="B45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1</v>
+      </c>
+      <c r="L45" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M45" s="2">
         <v>0</v>
       </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>95</v>
-      </c>
-      <c r="P43">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="R43" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="S43" s="8" t="s">
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>50</v>
+      </c>
+      <c r="P45">
+        <v>32</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R45" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S45" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f>ROW()-2</f>
         <v>44</v>
       </c>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9130644-2355-4F7F-93F7-5F2C5CFD642F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8924BDD7-C34D-43C2-8722-BCE7D887DE6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="2730" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="2565" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -1880,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2591,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>1</v>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8924BDD7-C34D-43C2-8722-BCE7D887DE6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BB9B17-D334-45F5-BD7B-4936FAB001BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3885" yWindow="2565" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="148">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -474,10 +474,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>financier_base</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フィナンシェベース</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1125,15 +1121,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>financier_base</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>chocolate_base</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>financier_base_Hard</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1434,6 +1422,69 @@
   </si>
   <si>
     <t>スタークッキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パフェ系</t>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パフェ容器×コーンフレーク２×アイス１</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バニラパフェ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vanilla_parfe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parfe_base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>financier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>financier_Hard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ice_cream</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>corn_frake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイスクリーム系</t>
+    <rPh sb="7" eb="8">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ice_ball</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミルク×砂糖×アイスの実</t>
+    <rPh sb="4" eb="6">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1878,10 +1929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1906,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1918,13 +1969,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -1966,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>8</v>
@@ -1978,13 +2029,13 @@
         <v>9</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>28</v>
@@ -2011,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>20</v>
@@ -2026,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>8</v>
@@ -2038,13 +2089,13 @@
         <v>9</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>29</v>
@@ -2084,7 +2135,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>8</v>
@@ -2096,13 +2147,13 @@
         <v>9</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>40</v>
@@ -2158,16 +2209,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>9</v>
@@ -2203,13 +2254,13 @@
         <v>3</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="S7" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -2218,7 +2269,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>9</v>
@@ -2230,16 +2281,16 @@
         <v>9</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -2264,10 +2315,10 @@
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="S8" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -2276,10 +2327,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>9</v>
@@ -2288,13 +2339,13 @@
         <v>9</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>41</v>
@@ -2322,10 +2373,10 @@
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -2334,7 +2385,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>9</v>
@@ -2346,16 +2397,16 @@
         <v>9</v>
       </c>
       <c r="F10" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>78</v>
-      </c>
       <c r="H10" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -2392,28 +2443,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -2438,10 +2489,10 @@
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="S11" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -2450,7 +2501,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>41</v>
@@ -2462,13 +2513,13 @@
         <v>9</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>39</v>
@@ -2499,7 +2550,7 @@
         <v>35</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -2532,7 +2583,7 @@
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="Q15" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="R15" s="19"/>
       <c r="S15" s="16"/>
@@ -2558,28 +2609,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2603,13 +2654,13 @@
         <v>3</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -2618,16 +2669,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>9</v>
@@ -2639,7 +2690,7 @@
         <v>9</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2664,10 +2715,10 @@
       </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -2676,28 +2727,28 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2722,10 +2773,10 @@
       </c>
       <c r="Q19" s="12"/>
       <c r="R19" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
@@ -2734,10 +2785,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>43</v>
@@ -2746,16 +2797,16 @@
         <v>10</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -2780,7 +2831,7 @@
       </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="S20" s="8" t="s">
         <v>44</v>
@@ -2792,28 +2843,28 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -2838,7 +2889,7 @@
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S21" s="8" t="s">
         <v>45</v>
@@ -2850,28 +2901,28 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -2896,7 +2947,7 @@
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S22" s="8" t="s">
         <v>45</v>
@@ -2908,10 +2959,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>19</v>
@@ -2920,16 +2971,16 @@
         <v>9</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -2966,10 +3017,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>36</v>
@@ -2978,16 +3029,16 @@
         <v>9</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -3024,7 +3075,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>39</v>
@@ -3036,13 +3087,13 @@
         <v>9</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>49</v>
@@ -3082,13 +3133,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>9</v>
@@ -3103,7 +3154,7 @@
         <v>9</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
@@ -3128,10 +3179,10 @@
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -3189,7 +3240,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>41</v>
@@ -3198,10 +3249,10 @@
         <v>52</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>9</v>
@@ -3210,7 +3261,7 @@
         <v>9</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -3234,13 +3285,13 @@
         <v>5</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -3249,28 +3300,28 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -3294,10 +3345,10 @@
         <v>34</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -3337,28 +3388,28 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E35" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -3382,13 +3433,13 @@
         <v>20</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S35" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -3405,19 +3456,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>9</v>
@@ -3426,7 +3477,7 @@
         <v>9</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -3450,13 +3501,13 @@
         <v>5</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="R37" s="11" t="s">
         <v>35</v>
       </c>
       <c r="S37" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -3524,11 +3575,11 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f t="shared" ref="A45" si="1">ROW()-2</f>
+        <f t="shared" ref="A45:A49" si="1">ROW()-2</f>
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>13</v>
@@ -3540,13 +3591,13 @@
         <v>9</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>30</v>
@@ -3589,6 +3640,132 @@
       </c>
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2">
+        <v>2</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>50</v>
+      </c>
+      <c r="P47">
+        <v>32</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="S47" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2">
+        <v>1</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>50</v>
+      </c>
+      <c r="P49">
+        <v>32</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="S49" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BB9B17-D334-45F5-BD7B-4936FAB001BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D54AAB-672E-4FC9-BCF2-92D13CC3EF79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="2565" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5250" yWindow="3270" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="146">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -872,10 +872,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Komugiko</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>empty</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1110,10 +1106,6 @@
   </si>
   <si>
     <t>appaleil_white</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cookie_base_appaleil</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1931,8 +1923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1957,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2017,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>8</v>
@@ -2062,7 +2054,7 @@
         <v>2</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>20</v>
@@ -2077,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>8</v>
@@ -2135,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>8</v>
@@ -2209,16 +2201,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>9</v>
@@ -2254,7 +2246,7 @@
         <v>3</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R7" s="11" t="s">
         <v>64</v>
@@ -2269,7 +2261,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>9</v>
@@ -2327,7 +2319,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>67</v>
@@ -2385,7 +2377,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>9</v>
@@ -2443,7 +2435,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>54</v>
@@ -2500,58 +2492,21 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>95</v>
-      </c>
-      <c r="P12">
-        <v>3</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
       <c r="Q12" s="6"/>
-      <c r="R12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="R12" s="11"/>
+      <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -2583,7 +2538,7 @@
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="Q15" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R15" s="19"/>
       <c r="S15" s="16"/>
@@ -2609,28 +2564,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2654,13 +2609,13 @@
         <v>3</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -2669,16 +2624,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>9</v>
@@ -2690,7 +2645,7 @@
         <v>9</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2708,17 +2663,17 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="P18">
         <v>3</v>
       </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -2727,28 +2682,28 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2773,10 +2728,10 @@
       </c>
       <c r="Q19" s="12"/>
       <c r="R19" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
@@ -2785,10 +2740,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>43</v>
@@ -2806,7 +2761,7 @@
         <v>74</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -2824,14 +2779,14 @@
         <v>1</v>
       </c>
       <c r="O20">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="P20">
         <v>34</v>
       </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S20" s="8" t="s">
         <v>44</v>
@@ -2843,13 +2798,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>9</v>
@@ -2864,7 +2819,7 @@
         <v>74</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -2889,7 +2844,7 @@
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S21" s="8" t="s">
         <v>45</v>
@@ -2901,10 +2856,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>69</v>
@@ -2922,7 +2877,7 @@
         <v>74</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -2940,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="O22">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="P22">
         <v>10</v>
@@ -2959,10 +2914,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>19</v>
@@ -2980,7 +2935,7 @@
         <v>74</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -2998,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="P23">
         <v>11</v>
@@ -3017,10 +2972,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>36</v>
@@ -3038,7 +2993,7 @@
         <v>74</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -3056,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="O24">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="P24">
         <v>11</v>
@@ -3075,7 +3030,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>39</v>
@@ -3114,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="P25">
         <v>34</v>
@@ -3133,13 +3088,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>9</v>
@@ -3154,7 +3109,7 @@
         <v>9</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
@@ -3172,17 +3127,17 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="P26">
         <v>10</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -3240,7 +3195,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>41</v>
@@ -3249,7 +3204,7 @@
         <v>52</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>74</v>
@@ -3261,7 +3216,7 @@
         <v>9</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -3285,10 +3240,10 @@
         <v>5</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S30" s="10" t="s">
         <v>53</v>
@@ -3300,7 +3255,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>59</v>
@@ -3321,7 +3276,7 @@
         <v>74</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -3339,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="P31">
         <v>34</v>
@@ -3388,17 +3343,17 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C35" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>113</v>
-      </c>
       <c r="F35" s="13" t="s">
         <v>9</v>
       </c>
@@ -3409,7 +3364,7 @@
         <v>9</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -3427,19 +3382,19 @@
         <v>1</v>
       </c>
       <c r="O35">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="P35">
         <v>20</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="S35" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -3456,13 +3411,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>9</v>
@@ -3477,7 +3432,7 @@
         <v>9</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -3495,19 +3450,19 @@
         <v>1</v>
       </c>
       <c r="O37">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="P37">
         <v>5</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R37" s="11" t="s">
         <v>35</v>
       </c>
       <c r="S37" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -3579,7 +3534,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>13</v>
@@ -3647,16 +3602,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F47" s="13" t="s">
         <v>9</v>
@@ -3668,7 +3623,7 @@
         <v>9</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
@@ -3692,13 +3647,13 @@
         <v>32</v>
       </c>
       <c r="Q47" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="S47" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="R47" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="S47" s="8" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
@@ -3713,16 +3668,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>9</v>
@@ -3734,7 +3689,7 @@
         <v>9</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
@@ -3758,13 +3713,13 @@
         <v>32</v>
       </c>
       <c r="Q49" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="R49" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="R49" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="S49" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D54AAB-672E-4FC9-BCF2-92D13CC3EF79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B4C963-6B8A-4FB3-99A7-BF3DC2EE8C04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="3270" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4815" yWindow="1965" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -1924,7 +1924,7 @@
   <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2597,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>1</v>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B4C963-6B8A-4FB3-99A7-BF3DC2EE8C04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C793CB0D-F918-43A2-B3A5-A4B196CE9338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="1965" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="2595" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C793CB0D-F918-43A2-B3A5-A4B196CE9338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9457D3B-7C89-4FC5-AAE0-71A0D4B1C60C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="2595" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4710" yWindow="2700" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1925,7 +1924,7 @@
   <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2589,7 +2588,7 @@
         <v>101</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17">
         <v>1</v>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9457D3B-7C89-4FC5-AAE0-71A0D4B1C60C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4158D7D-4138-4D43-AB69-438B19BA65E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="2700" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="2640" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="151">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -1476,6 +1476,60 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orange_jam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャム系</t>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オレンジジャム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>クッキー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>オレンジジャム</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オレンジ×砂糖</t>
+    <rPh sb="5" eb="7">
+      <t>サトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1581,7 +1635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1602,6 +1656,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1921,10 +1976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2051,7 +2106,7 @@
         <v>95</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>120</v>
@@ -2065,7 +2120,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A43" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A44" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2518,337 +2573,140 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>12</v>
       </c>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-    </row>
-    <row r="15" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>95</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="Q15" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="R15" s="19"/>
-      <c r="S15" s="16"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>95</v>
-      </c>
-      <c r="P17">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>30</v>
-      </c>
-      <c r="P18">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>95</v>
-      </c>
-      <c r="P19">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>60</v>
-      </c>
-      <c r="P20">
-        <v>34</v>
-      </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="S20" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="R20" s="19"/>
+      <c r="S20" s="16"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
-      <c r="L21" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>90</v>
-      </c>
-      <c r="P21">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="S21" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -2856,56 +2714,58 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M22" s="2">
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
         <v>1</v>
       </c>
       <c r="O22">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="P22">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="S22" s="8" t="s">
-        <v>45</v>
+        <v>3</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -2914,56 +2774,56 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2">
-        <v>1</v>
-      </c>
-      <c r="L23" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M23" s="2">
+        <v>116</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
         <v>1</v>
       </c>
       <c r="O23">
+        <v>30</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="P23">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="S23" s="8" t="s">
-        <v>47</v>
+      <c r="S23" s="10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -2972,56 +2832,56 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1</v>
-      </c>
-      <c r="L24" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M24" s="2">
+        <v>121</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
       <c r="O24">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="P24">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="S24" s="8" t="s">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -3030,28 +2890,28 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>74</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -3069,17 +2929,17 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="P25">
         <v>34</v>
       </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="11" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
@@ -3088,28 +2948,28 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>101</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
@@ -3127,17 +2987,17 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="P26">
         <v>10</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="11" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -3145,49 +3005,174 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="2"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="10"/>
+      <c r="B27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>90</v>
+      </c>
+      <c r="P27">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="2"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="10"/>
+      <c r="B28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>75</v>
+      </c>
+      <c r="P28">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="B29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>80</v>
+      </c>
+      <c r="P29">
+        <v>11</v>
+      </c>
       <c r="Q29" s="4"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="7"/>
+      <c r="R29" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -3195,28 +3180,28 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -3225,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M30" s="2">
         <v>0</v>
@@ -3234,19 +3219,17 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="P30">
-        <v>5</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="R30" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="S30" s="10" t="s">
-        <v>53</v>
+        <v>11</v>
+      </c>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -3255,16 +3238,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>74</v>
@@ -3276,7 +3259,7 @@
         <v>74</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -3285,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M31" s="2">
         <v>0</v>
@@ -3294,16 +3277,17 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="P31">
         <v>34</v>
       </c>
+      <c r="Q31" s="6"/>
       <c r="R31" s="11" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -3311,99 +3295,167 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
+      <c r="B32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>20</v>
+      </c>
+      <c r="P32">
+        <v>10</v>
+      </c>
       <c r="Q32" s="4"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="7"/>
+      <c r="R32" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="2"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="10"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="2"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="10"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>80</v>
-      </c>
-      <c r="P35">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="R35" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="S35" s="10" t="s">
-        <v>113</v>
-      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="7"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
+      <c r="B36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>95</v>
+      </c>
+      <c r="P36">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="R36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="S36" s="10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -3411,28 +3463,28 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -3450,19 +3502,16 @@
         <v>1</v>
       </c>
       <c r="O37">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="P37">
-        <v>5</v>
-      </c>
-      <c r="Q37" s="6" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="S37" s="8" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -3470,8 +3519,15 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="7"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -3494,35 +3550,132 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
+      <c r="B41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>80</v>
+      </c>
+      <c r="P41">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="R41" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="S41" s="10" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="7"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
+      <c r="B43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>50</v>
+      </c>
+      <c r="P43">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="R43" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="R44" s="15"/>
@@ -3530,195 +3683,203 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f t="shared" ref="A45:A49" si="1">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J45" s="2">
-        <v>1</v>
-      </c>
-      <c r="K45" s="2">
-        <v>1</v>
-      </c>
-      <c r="L45" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M45" s="2">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>50</v>
-      </c>
-      <c r="P45">
-        <v>32</v>
-      </c>
-      <c r="Q45" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="R45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="S45" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A46:A50" si="1">ROW()-2</f>
         <v>44</v>
       </c>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
+      <c r="B46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1</v>
+      </c>
+      <c r="L46" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>50</v>
+      </c>
+      <c r="P46">
+        <v>32</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S46" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J47" s="2">
-        <v>1</v>
-      </c>
-      <c r="K47" s="2">
-        <v>1</v>
-      </c>
-      <c r="L47" s="2">
-        <v>2</v>
-      </c>
-      <c r="M47" s="2">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>50</v>
-      </c>
-      <c r="P47">
-        <v>32</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="R47" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="S47" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
+      <c r="B48" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2">
+        <v>1</v>
+      </c>
+      <c r="L48" s="2">
+        <v>2</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>50</v>
+      </c>
+      <c r="P48">
+        <v>32</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="R48" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="S48" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="s">
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E50" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" s="2" t="s">
+      <c r="F50" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="J49" s="2">
-        <v>1</v>
-      </c>
-      <c r="K49" s="2">
-        <v>1</v>
-      </c>
-      <c r="L49" s="2">
-        <v>1</v>
-      </c>
-      <c r="M49" s="2">
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2">
+        <v>1</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1</v>
+      </c>
+      <c r="M50" s="2">
         <v>0</v>
       </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
         <v>50</v>
       </c>
-      <c r="P49">
+      <c r="P50">
         <v>32</v>
       </c>
-      <c r="Q49" s="6" t="s">
+      <c r="Q50" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="R49" s="8" t="s">
+      <c r="R50" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="S49" s="8" t="s">
+      <c r="S50" s="8" t="s">
         <v>136</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4158D7D-4138-4D43-AB69-438B19BA65E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08921428-6785-447A-BFDE-8269FFAF06E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="2640" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="141">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -75,10 +75,6 @@
   </si>
   <si>
     <t>suger</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アパレイユ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -103,10 +99,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チョコベース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>success_rate</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -123,13 +115,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>濃縮オレンジジュース</t>
-    <rPh sb="0" eb="2">
-      <t>ノウシュク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -162,10 +147,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ミックスジュース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>strawberry</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -199,10 +180,6 @@
       </rPr>
       <t>いちご</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハロウィーンジュース</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -309,13 +286,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ココアクッキー生地</t>
-    <rPh sb="7" eb="9">
-      <t>キジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cookie_base</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -367,20 +337,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チーズクッキーの生地</t>
-    <rPh sb="8" eb="10">
-      <t>キジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オレンジクッキーの生地</t>
-    <rPh sb="9" eb="11">
-      <t>キジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -410,13 +366,6 @@
       </rPr>
       <t>ぶどう</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ぶどうクッキーの生地</t>
-    <rPh sb="8" eb="10">
-      <t>キジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -463,18 +412,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイスボックスクッキーの生地</t>
-    <rPh sb="12" eb="14">
-      <t>キジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>armond_powder</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フィナンシェベース</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -530,25 +468,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>卵白ベースのアパレイユ</t>
-    <rPh sb="0" eb="2">
-      <t>ランパク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>kogashi_butter</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>financier_powder</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フィナンシェ生地</t>
-    <rPh sb="6" eb="8">
-      <t>キジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -666,94 +590,30 @@
       </rPr>
       <t>砂糖</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>たまご</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>ムエン</t>
     </rPh>
     <rPh sb="6" eb="8">
       <t>サトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バターと砂糖を混ぜた生地</t>
-    <rPh sb="4" eb="6">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>無塩バター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>砂糖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>たまご</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ムエン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バターと砂糖、たまごを混ぜた生地</t>
-    <rPh sb="4" eb="6">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1284,10 +1144,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パンケーキ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>pan_cake</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1327,25 +1183,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スポンジケーキ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ねこクッキー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エメラルドねこクッキー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>簡単クッキー</t>
-    <rPh sb="0" eb="2">
-      <t>カンタン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>//これより下　お菓子のレシピ</t>
     <rPh sb="6" eb="7">
       <t>シタ</t>
@@ -1413,10 +1250,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スタークッキー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パフェ系</t>
     <rPh sb="3" eb="4">
       <t>ケイ</t>
@@ -1431,10 +1264,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バニラパフェ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>vanilla_parfe</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1484,17 +1313,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ジャム系</t>
-    <rPh sb="3" eb="4">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オレンジジャム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1531,6 +1349,237 @@
     <rPh sb="5" eb="7">
       <t>サトウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はちみつ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>たまご</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>honey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appaleil_honey</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小麦粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アーモンドパウダー</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>コムギコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラスク系</t>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バゲット</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バター</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rusk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bugget</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>焦がしバター</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バター×ホットパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>water</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パン系</t>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>薄力粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>水</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>milkpan</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1976,10 +2025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2004,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2016,37 +2065,37 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
@@ -2064,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>8</v>
@@ -2076,16 +2125,16 @@
         <v>9</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -2109,43 +2158,41 @@
         <v>3</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A44" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A46" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -2170,11 +2217,9 @@
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -2182,28 +2227,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
@@ -2228,11 +2273,9 @@
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -2256,16 +2299,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>9</v>
@@ -2277,7 +2320,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -2301,14 +2344,12 @@
         <v>3</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>65</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -2316,28 +2357,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -2346,7 +2387,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -2362,11 +2403,9 @@
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -2374,10 +2413,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>9</v>
@@ -2386,16 +2425,16 @@
         <v>9</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -2420,11 +2459,9 @@
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>65</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -2432,10 +2469,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>9</v>
@@ -2444,16 +2481,16 @@
         <v>9</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -2478,11 +2515,9 @@
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>12</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -2490,10 +2525,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>9</v>
@@ -2502,16 +2537,16 @@
         <v>9</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>77</v>
+        <v>60</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -2536,31 +2571,64 @@
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>95</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
       <c r="Q12" s="6"/>
-      <c r="R12" s="11"/>
+      <c r="R12" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -2568,92 +2636,192 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>95</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15">
         <f>ROW()-2</f>
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2">
+      <c r="E15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
         <v>9999</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M15" s="2">
         <v>0</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
         <v>95</v>
       </c>
-      <c r="P14">
+      <c r="P15">
         <v>3</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="Q15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>15</v>
       </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>95</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="S17" s="8"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -2668,105 +2836,51 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
+      <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="R20" s="19"/>
-      <c r="S20" s="16"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="8"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="R21" s="19"/>
+      <c r="S21" s="16"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>95</v>
-      </c>
-      <c r="P22">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -2774,31 +2888,31 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2813,18 +2927,18 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="P23">
         <v>3</v>
       </c>
-      <c r="Q23" s="6"/>
+      <c r="Q23" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="R23" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="S23" s="10" t="s">
-        <v>125</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -2832,28 +2946,28 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -2871,18 +2985,16 @@
         <v>1</v>
       </c>
       <c r="O24">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="P24">
         <v>3</v>
       </c>
-      <c r="Q24" s="12"/>
+      <c r="Q24" s="6"/>
       <c r="R24" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="S24" s="10" t="s">
-        <v>126</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="S24" s="10"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -2890,57 +3002,55 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1</v>
-      </c>
-      <c r="L25" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M25" s="2">
+        <v>104</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
       <c r="O25">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="P25">
-        <v>34</v>
-      </c>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="S25" s="8" t="s">
-        <v>44</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="S25" s="10"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -2948,28 +3058,28 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
@@ -2987,18 +3097,16 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="P26">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="Q26" s="6"/>
       <c r="R26" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="S26" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="S26" s="8"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -3006,28 +3114,28 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
@@ -3052,11 +3160,9 @@
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="S27" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -3064,28 +3170,28 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -3103,18 +3209,16 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="P28">
         <v>10</v>
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="S28" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -3122,28 +3226,28 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -3161,18 +3265,16 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="S29" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -3180,28 +3282,28 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -3226,11 +3328,9 @@
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="S30" s="8" t="s">
         <v>38</v>
       </c>
+      <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -3238,28 +3338,28 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -3280,15 +3380,13 @@
         <v>80</v>
       </c>
       <c r="P31">
-        <v>34</v>
-      </c>
-      <c r="Q31" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="Q31" s="4"/>
       <c r="R31" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="S31" s="8" t="s">
-        <v>51</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="S31" s="8"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -3296,28 +3394,28 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -3335,35 +3433,72 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="P32">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="Q32" s="6"/>
       <c r="R32" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="S32" s="8" t="s">
-        <v>133</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="2"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="10"/>
+      <c r="B33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>20</v>
+      </c>
+      <c r="P33">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="S33" s="8"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -3387,75 +3522,73 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="7"/>
+      <c r="B35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>95</v>
+      </c>
+      <c r="P35">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="S35" s="10"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J36" s="2">
-        <v>1</v>
-      </c>
-      <c r="K36" s="2">
-        <v>1</v>
-      </c>
-      <c r="L36" s="2">
-        <v>1</v>
-      </c>
-      <c r="M36" s="2">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>95</v>
-      </c>
-      <c r="P36">
-        <v>5</v>
-      </c>
-      <c r="Q36" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="R36" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="S36" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="7"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -3463,28 +3596,28 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E37" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>74</v>
-      </c>
       <c r="G37" s="13" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -3502,108 +3635,154 @@
         <v>1</v>
       </c>
       <c r="O37">
+        <v>95</v>
+      </c>
+      <c r="P37">
         <v>5</v>
       </c>
-      <c r="P37">
-        <v>34</v>
-      </c>
-      <c r="R37" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="S37" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q37" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="S37" s="10"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="7"/>
+      <c r="B38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>5</v>
+      </c>
+      <c r="P38">
+        <v>34</v>
+      </c>
+      <c r="R38" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S38" s="8"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="7"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
+      <c r="B40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>95</v>
+      </c>
+      <c r="P40">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="R40" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="S40" s="10"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>80</v>
-      </c>
-      <c r="P41">
-        <v>20</v>
-      </c>
-      <c r="Q41" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="R41" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="S41" s="10" t="s">
-        <v>113</v>
-      </c>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -3619,59 +3798,57 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D43" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>80</v>
+      </c>
+      <c r="P43">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J43" s="2">
-        <v>1</v>
-      </c>
-      <c r="K43" s="2">
-        <v>1</v>
-      </c>
-      <c r="L43" s="2">
-        <v>1</v>
-      </c>
-      <c r="M43" s="2">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>50</v>
-      </c>
-      <c r="P43">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="R43" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="S43" s="8" t="s">
-        <v>123</v>
-      </c>
+      <c r="R43" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="S43" s="10"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -3683,71 +3860,69 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
+      <c r="B45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>50</v>
+      </c>
+      <c r="P45">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="R45" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="S45" s="8"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f t="shared" ref="A46:A50" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J46" s="2">
-        <v>1</v>
-      </c>
-      <c r="K46" s="2">
-        <v>1</v>
-      </c>
-      <c r="L46" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M46" s="2">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>50</v>
-      </c>
-      <c r="P46">
-        <v>32</v>
-      </c>
-      <c r="Q46" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="R46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="S46" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -3759,32 +3934,32 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A48:A52" si="1">ROW()-2</f>
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
@@ -3793,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="2">
-        <v>2</v>
+        <v>9999</v>
       </c>
       <c r="M48" s="2">
         <v>0</v>
@@ -3808,20 +3983,20 @@
         <v>32</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="S48" s="8" t="s">
-        <v>136</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="S48" s="8"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>47</v>
       </c>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50">
@@ -3829,16 +4004,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>9</v>
@@ -3850,7 +4025,7 @@
         <v>9</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -3859,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50" s="2">
         <v>0</v>
@@ -3874,14 +4049,76 @@
         <v>32</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="R50" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="S50" s="8" t="s">
-        <v>136</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="S50" s="8"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2">
+        <v>1</v>
+      </c>
+      <c r="L52" s="2">
+        <v>1</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>50</v>
+      </c>
+      <c r="P52">
+        <v>32</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="R52" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="S52" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08921428-6785-447A-BFDE-8269FFAF06E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6750AF-CA15-44D2-8B3D-27C238B0C664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="2835" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="142">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -1580,6 +1580,10 @@
   </si>
   <si>
     <t>milkpan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>financier_Orange</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2025,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2167,7 +2171,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A46" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A66" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2970,7 +2974,7 @@
         <v>99</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2988,7 +2992,7 @@
         <v>30</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="9" t="s">
@@ -3708,417 +3712,577 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="7"/>
+      <c r="B39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>95</v>
+      </c>
+      <c r="P39">
+        <v>8</v>
+      </c>
+      <c r="R39" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S39" s="8"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J40" s="2">
-        <v>1</v>
-      </c>
-      <c r="K40" s="2">
-        <v>1</v>
-      </c>
-      <c r="L40" s="2">
-        <v>1</v>
-      </c>
-      <c r="M40" s="2">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>95</v>
-      </c>
-      <c r="P40">
-        <v>5</v>
-      </c>
-      <c r="Q40" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="R40" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="S40" s="10"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>80</v>
-      </c>
-      <c r="P43">
-        <v>20</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="R43" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="S43" s="10"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J45" s="2">
-        <v>1</v>
-      </c>
-      <c r="K45" s="2">
-        <v>1</v>
-      </c>
-      <c r="L45" s="2">
-        <v>1</v>
-      </c>
-      <c r="M45" s="2">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>50</v>
-      </c>
-      <c r="P45">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="R45" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S45" s="8"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f t="shared" ref="A48:A52" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J48" s="2">
-        <v>1</v>
-      </c>
-      <c r="K48" s="2">
-        <v>1</v>
-      </c>
-      <c r="L48" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M48" s="2">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>50</v>
-      </c>
-      <c r="P48">
-        <v>32</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="R48" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S48" s="8"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J50" s="2">
-        <v>1</v>
-      </c>
-      <c r="K50" s="2">
-        <v>1</v>
-      </c>
-      <c r="L50" s="2">
-        <v>2</v>
-      </c>
-      <c r="M50" s="2">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>50</v>
-      </c>
-      <c r="P50">
-        <v>32</v>
-      </c>
-      <c r="Q50" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="R50" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="S50" s="8"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1</v>
+      </c>
+      <c r="L60" s="2">
+        <v>1</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>95</v>
+      </c>
+      <c r="P60">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="R60" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="S60" s="10"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>80</v>
+      </c>
+      <c r="P63">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R63" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="S63" s="10"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="R64" s="15"/>
+      <c r="S64" s="15"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1</v>
+      </c>
+      <c r="L65" s="2">
+        <v>1</v>
+      </c>
+      <c r="M65" s="2">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>50</v>
+      </c>
+      <c r="P65">
+        <v>5</v>
+      </c>
+      <c r="Q65" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="R65" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="S65" s="8"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="R66" s="15"/>
+      <c r="S66" s="15"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f>ROW()-2</f>
+        <v>65</v>
+      </c>
+      <c r="R67" s="15"/>
+      <c r="S67" s="15"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f t="shared" ref="A68:A72" si="1">ROW()-2</f>
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1</v>
+      </c>
+      <c r="L68" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M68" s="2">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>50</v>
+      </c>
+      <c r="P68">
+        <v>32</v>
+      </c>
+      <c r="Q68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R68" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S68" s="8"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f>ROW()-2</f>
+        <v>67</v>
+      </c>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70">
         <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1</v>
+      </c>
+      <c r="K70" s="2">
+        <v>1</v>
+      </c>
+      <c r="L70" s="2">
+        <v>2</v>
+      </c>
+      <c r="M70" s="2">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
         <v>50</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="P70">
+        <v>32</v>
+      </c>
+      <c r="Q70" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="R70" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="S70" s="8"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D72" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E72" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I52" s="2" t="s">
+      <c r="F72" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J52" s="2">
-        <v>1</v>
-      </c>
-      <c r="K52" s="2">
-        <v>1</v>
-      </c>
-      <c r="L52" s="2">
-        <v>1</v>
-      </c>
-      <c r="M52" s="2">
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1</v>
+      </c>
+      <c r="L72" s="2">
+        <v>1</v>
+      </c>
+      <c r="M72" s="2">
         <v>0</v>
       </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
         <v>50</v>
       </c>
-      <c r="P52">
+      <c r="P72">
         <v>32</v>
       </c>
-      <c r="Q52" s="6" t="s">
+      <c r="Q72" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="R52" s="8" t="s">
+      <c r="R72" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="S52" s="8"/>
+      <c r="S72" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6750AF-CA15-44D2-8B3D-27C238B0C664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47825439-A967-4DB4-8D81-815FC2048770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="2835" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="2310" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="144">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -147,42 +147,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>strawberry</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>オレンジ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>いちご</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cost_time</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1529,10 +1493,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バター×ホットパン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>water</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1584,6 +1544,100 @@
   </si>
   <si>
     <t>financier_Orange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バター×ミルクパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cookie_nonsuger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小麦粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バター</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>コムギコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フルーツ２つの組み合わせ</t>
+    <rPh sb="7" eb="8">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小麦粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バター砂糖は好きなもの</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ス</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2029,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2057,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2069,31 +2123,31 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>15</v>
@@ -2117,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>8</v>
@@ -2129,16 +2183,16 @@
         <v>9</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -2162,7 +2216,7 @@
         <v>3</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>18</v>
@@ -2171,11 +2225,11 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A68" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>8</v>
@@ -2187,16 +2241,16 @@
         <v>9</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -2231,28 +2285,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
@@ -2276,8 +2330,8 @@
         <v>3</v>
       </c>
       <c r="Q4" s="3"/>
-      <c r="R4" s="11" t="s">
-        <v>21</v>
+      <c r="R4" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="S4" s="8"/>
     </row>
@@ -2303,16 +2357,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>9</v>
@@ -2324,7 +2378,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -2348,10 +2402,10 @@
         <v>3</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S7" s="8"/>
     </row>
@@ -2361,16 +2415,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>9</v>
@@ -2382,7 +2436,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -2407,7 +2461,7 @@
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S8" s="8"/>
     </row>
@@ -2417,7 +2471,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>9</v>
@@ -2429,16 +2483,16 @@
         <v>9</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -2463,7 +2517,7 @@
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S9" s="8"/>
     </row>
@@ -2473,10 +2527,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>9</v>
@@ -2485,16 +2539,16 @@
         <v>9</v>
       </c>
       <c r="F10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>60</v>
-      </c>
       <c r="H10" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -2519,7 +2573,7 @@
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S10" s="8"/>
     </row>
@@ -2529,7 +2583,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>9</v>
@@ -2541,16 +2595,16 @@
         <v>9</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -2575,7 +2629,7 @@
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S11" s="8"/>
     </row>
@@ -2585,10 +2639,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>9</v>
@@ -2597,16 +2651,16 @@
         <v>9</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -2631,7 +2685,7 @@
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S12" s="8"/>
     </row>
@@ -2641,13 +2695,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>9</v>
@@ -2662,7 +2716,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -2687,7 +2741,7 @@
       </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="S13" s="8"/>
     </row>
@@ -2705,7 +2759,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>8</v>
@@ -2726,7 +2780,7 @@
         <v>9</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
@@ -2750,10 +2804,10 @@
         <v>3</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S15" s="8"/>
     </row>
@@ -2775,13 +2829,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>9</v>
@@ -2796,7 +2850,7 @@
         <v>9</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
@@ -2820,10 +2874,10 @@
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="S17" s="8"/>
     </row>
@@ -2866,7 +2920,7 @@
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="16"/>
@@ -2892,28 +2946,28 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -2937,10 +2991,10 @@
         <v>3</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S23" s="10"/>
     </row>
@@ -2950,16 +3004,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>9</v>
@@ -2971,7 +3025,7 @@
         <v>9</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -2980,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2989,14 +3043,14 @@
         <v>1</v>
       </c>
       <c r="O24">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="P24">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="9" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="S24" s="10"/>
     </row>
@@ -3006,31 +3060,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -3045,14 +3099,14 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="P25">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="Q25" s="6"/>
       <c r="R25" s="9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="S25" s="10"/>
     </row>
@@ -3062,55 +3116,57 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>85</v>
-      </c>
       <c r="D26" s="13" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1</v>
-      </c>
-      <c r="L26" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M26" s="2">
+        <v>83</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
         <v>1</v>
       </c>
       <c r="O26">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="P26">
-        <v>34</v>
-      </c>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="S26" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="S26" s="10"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -3118,55 +3174,55 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2">
-        <v>1</v>
-      </c>
-      <c r="L27" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M27" s="2">
+        <v>102</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P27">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="S27" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="S27" s="10"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -3174,28 +3230,28 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -3213,14 +3269,14 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="P28">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="Q28" s="6"/>
       <c r="R28" s="11" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="S28" s="8"/>
     </row>
@@ -3230,28 +3286,28 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -3269,14 +3325,14 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="P29">
         <v>10</v>
       </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="11" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="S29" s="8"/>
     </row>
@@ -3286,28 +3342,28 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -3325,14 +3381,14 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="11" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="S30" s="8"/>
     </row>
@@ -3342,28 +3398,28 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -3381,14 +3437,14 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="11" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="S31" s="8"/>
     </row>
@@ -3398,28 +3454,28 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -3440,11 +3496,11 @@
         <v>80</v>
       </c>
       <c r="P32">
-        <v>34</v>
-      </c>
-      <c r="Q32" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="Q32" s="4"/>
       <c r="R32" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="S32" s="8"/>
     </row>
@@ -3454,28 +3510,28 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
@@ -3493,14 +3549,14 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="P33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q33" s="4"/>
       <c r="R33" s="11" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="S33" s="8"/>
     </row>
@@ -3509,17 +3565,56 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="2"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="10"/>
+      <c r="B34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>80</v>
+      </c>
+      <c r="P34">
+        <v>34</v>
+      </c>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S34" s="8"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35">
@@ -3527,13 +3622,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>9</v>
@@ -3548,7 +3643,7 @@
         <v>9</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
@@ -3566,33 +3661,33 @@
         <v>1</v>
       </c>
       <c r="O35">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="P35">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="R35" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="S35" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="S35" s="8"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
+      <c r="B36" s="2"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-      <c r="Q36" s="4"/>
+      <c r="I36" s="2"/>
+      <c r="Q36" s="12"/>
       <c r="R36" s="9"/>
-      <c r="S36" s="7"/>
+      <c r="S36" s="10"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -3600,19 +3695,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>9</v>
@@ -3621,7 +3716,7 @@
         <v>9</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -3630,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M37" s="2">
         <v>0</v>
@@ -3645,10 +3740,10 @@
         <v>5</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="S37" s="10"/>
     </row>
@@ -3657,55 +3752,15 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J38" s="2">
-        <v>1</v>
-      </c>
-      <c r="K38" s="2">
-        <v>1</v>
-      </c>
-      <c r="L38" s="2">
-        <v>1</v>
-      </c>
-      <c r="M38" s="2">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>5</v>
-      </c>
-      <c r="P38">
-        <v>34</v>
-      </c>
-      <c r="R38" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="S38" s="8"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="7"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -3713,19 +3768,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>9</v>
@@ -3734,7 +3789,7 @@
         <v>9</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
@@ -3755,24 +3810,125 @@
         <v>95</v>
       </c>
       <c r="P39">
-        <v>8</v>
-      </c>
-      <c r="R39" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="S39" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="R39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="S39" s="10"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
+      <c r="B40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>5</v>
+      </c>
+      <c r="P40">
+        <v>34</v>
+      </c>
+      <c r="R40" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S40" s="8"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
+      <c r="B41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>95</v>
+      </c>
+      <c r="P41">
+        <v>8</v>
+      </c>
+      <c r="R41" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S41" s="8"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -3887,132 +4043,78 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J60" s="2">
-        <v>1</v>
-      </c>
-      <c r="K60" s="2">
-        <v>1</v>
-      </c>
-      <c r="L60" s="2">
-        <v>1</v>
-      </c>
-      <c r="M60" s="2">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>95</v>
-      </c>
-      <c r="P60">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="R60" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="S60" s="10"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="R61" s="15"/>
-      <c r="S61" s="15"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
+      <c r="B62" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1</v>
+      </c>
+      <c r="L62" s="2">
+        <v>1</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>95</v>
+      </c>
+      <c r="P62">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="R62" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="S62" s="10"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>80</v>
-      </c>
-      <c r="P63">
-        <v>20</v>
-      </c>
-      <c r="Q63" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="R63" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="S63" s="10"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -4028,57 +4130,57 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>80</v>
+      </c>
+      <c r="P65">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J65" s="2">
-        <v>1</v>
-      </c>
-      <c r="K65" s="2">
-        <v>1</v>
-      </c>
-      <c r="L65" s="2">
-        <v>1</v>
-      </c>
-      <c r="M65" s="2">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>50</v>
-      </c>
-      <c r="P65">
-        <v>5</v>
-      </c>
-      <c r="Q65" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="R65" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S65" s="8"/>
+      <c r="R65" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="S65" s="10"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66">
@@ -4090,69 +4192,69 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="R67" s="15"/>
-      <c r="S67" s="15"/>
+      <c r="B67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>50</v>
+      </c>
+      <c r="P67">
+        <v>5</v>
+      </c>
+      <c r="Q67" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="R67" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S67" s="8"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" ref="A68:A72" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J68" s="2">
-        <v>1</v>
-      </c>
-      <c r="K68" s="2">
-        <v>1</v>
-      </c>
-      <c r="L68" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M68" s="2">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68">
-        <v>50</v>
-      </c>
-      <c r="P68">
-        <v>32</v>
-      </c>
-      <c r="Q68" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="R68" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S68" s="8"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="15"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69">
@@ -4164,32 +4266,32 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A70:A74" si="1">ROW()-2</f>
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="J70" s="2">
         <v>1</v>
@@ -4198,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="L70" s="2">
-        <v>2</v>
+        <v>9999</v>
       </c>
       <c r="M70" s="2">
         <v>0</v>
@@ -4213,18 +4315,20 @@
         <v>32</v>
       </c>
       <c r="Q70" s="6" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="S70" s="8"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>69</v>
       </c>
+      <c r="R71" s="15"/>
+      <c r="S71" s="15"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72">
@@ -4232,16 +4336,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F72" s="13" t="s">
         <v>9</v>
@@ -4253,7 +4357,7 @@
         <v>9</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J72" s="2">
         <v>1</v>
@@ -4262,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M72" s="2">
         <v>0</v>
@@ -4277,12 +4381,76 @@
         <v>32</v>
       </c>
       <c r="Q72" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="R72" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="S72" s="8"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J74" s="2">
+        <v>1</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1</v>
+      </c>
+      <c r="L74" s="2">
+        <v>1</v>
+      </c>
+      <c r="M74" s="2">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>50</v>
+      </c>
+      <c r="P74">
+        <v>32</v>
+      </c>
+      <c r="Q74" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="R74" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="R72" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="S72" s="8"/>
+      <c r="S74" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47825439-A967-4DB4-8D81-815FC2048770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2297BD06-C3BB-4C4C-8628-D9EDB797D3DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="2310" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="3345" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -1420,60 +1420,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バゲット</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>砂糖</t>
-    </r>
-    <rPh sb="9" eb="11">
-      <t>サトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>rusk</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1637,6 +1583,41 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バゲット</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>サトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2085,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2331,7 +2312,7 @@
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S4" s="8"/>
     </row>
@@ -2804,7 +2785,7 @@
         <v>3</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R15" s="8" t="s">
         <v>123</v>
@@ -2835,7 +2816,7 @@
         <v>69</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>9</v>
@@ -2874,10 +2855,10 @@
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S17" s="8"/>
     </row>
@@ -3004,7 +2985,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>89</v>
@@ -3025,7 +3006,7 @@
         <v>9</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -3050,7 +3031,7 @@
       </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S24" s="10"/>
     </row>
@@ -3164,7 +3145,7 @@
         <v>84</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S26" s="10"/>
     </row>
@@ -3695,13 +3676,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>89</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>9</v>
@@ -3716,7 +3697,7 @@
         <v>9</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -3740,10 +3721,10 @@
         <v>5</v>
       </c>
       <c r="Q37" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="R37" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="R37" s="9" t="s">
-        <v>136</v>
       </c>
       <c r="S37" s="10"/>
     </row>
@@ -3881,7 +3862,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>114</v>
@@ -3902,7 +3883,7 @@
         <v>9</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J41" s="2">
         <v>1</v>
@@ -4056,16 +4037,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="D62" s="13" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>9</v>
@@ -4077,7 +4058,7 @@
         <v>9</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
@@ -4086,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="L62" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M62" s="2">
         <v>0</v>
@@ -4104,7 +4085,7 @@
         <v>128</v>
       </c>
       <c r="R62" s="9" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="S62" s="10"/>
     </row>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2297BD06-C3BB-4C4C-8628-D9EDB797D3DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA21D42-00A2-4AA8-937B-61F9646ED0FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="3345" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="2775" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="155">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -525,63 +525,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>無塩バター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>砂糖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>たまご</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ムエン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mazekiji</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1039,14 +982,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>komugiko</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>egg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>milk</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1316,60 +1251,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>はちみつ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>砂糖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>たまご</t>
-    </r>
-    <rPh sb="5" eb="7">
-      <t>サトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>honey</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1619,6 +1500,256 @@
     <rPh sb="5" eb="7">
       <t>サトウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>無塩バター</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ムエン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appaleil_milk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>たまご</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>無縁バター</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ムエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>たまご</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はちみつ</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>たまご</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>牛乳</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ギュウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンケーキ*チョコ*バナナ*ホイップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chocolate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>banana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>choco_banana_pan_cake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blueberry_pan_cake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blue_berry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whipped cream</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sugerbutter_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zarame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クッキー*ザラメ*ホイップクリーム</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2064,10 +2195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2092,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2104,13 +2235,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -2152,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>8</v>
@@ -2164,13 +2295,13 @@
         <v>9</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
@@ -2197,7 +2328,7 @@
         <v>3</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>18</v>
@@ -2206,11 +2337,11 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A68" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A59" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>8</v>
@@ -2222,13 +2353,13 @@
         <v>9</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -2266,7 +2397,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>9</v>
@@ -2278,13 +2409,13 @@
         <v>9</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>32</v>
@@ -2312,7 +2443,7 @@
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="S4" s="8"/>
     </row>
@@ -2338,16 +2469,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>9</v>
@@ -2383,10 +2514,10 @@
         <v>3</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="S7" s="8"/>
     </row>
@@ -2396,16 +2527,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>9</v>
@@ -2417,7 +2548,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -2442,7 +2573,7 @@
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="11" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="S8" s="8"/>
     </row>
@@ -2452,28 +2583,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -2482,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -2498,7 +2629,7 @@
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="11" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="S9" s="8"/>
     </row>
@@ -2508,10 +2639,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>9</v>
@@ -2520,16 +2651,16 @@
         <v>9</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>58</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -2554,7 +2685,7 @@
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="11" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="S10" s="8"/>
     </row>
@@ -2564,10 +2695,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>9</v>
@@ -2576,16 +2707,16 @@
         <v>9</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -2610,7 +2741,7 @@
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="11" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="S11" s="8"/>
     </row>
@@ -2620,10 +2751,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>9</v>
@@ -2632,16 +2763,16 @@
         <v>9</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -2666,7 +2797,7 @@
       </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="11" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="S12" s="8"/>
     </row>
@@ -2676,28 +2807,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -2718,11 +2849,11 @@
         <v>95</v>
       </c>
       <c r="P13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="11" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="S13" s="8"/>
     </row>
@@ -2731,142 +2862,192 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>95</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16">
         <f>ROW()-2</f>
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2">
+      <c r="E16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
         <v>9999</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M16" s="2">
         <v>0</v>
       </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
         <v>95</v>
       </c>
-      <c r="P15">
+      <c r="P16">
         <v>3</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="S15" s="8"/>
-    </row>
-    <row r="16" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f>ROW()-2</f>
+      <c r="Q16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>95</v>
-      </c>
-      <c r="P17">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="S17" s="8"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>16</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>95</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -2881,103 +3062,51 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="17">
+      <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="R21" s="19"/>
-      <c r="S21" s="16"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="8"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="R22" s="19"/>
+      <c r="S22" s="16"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>95</v>
-      </c>
-      <c r="P23">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="S23" s="10"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -2985,28 +3114,28 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -3015,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3027,11 +3156,13 @@
         <v>95</v>
       </c>
       <c r="P24">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="R24" s="9" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="S24" s="10"/>
     </row>
@@ -3041,16 +3172,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>9</v>
@@ -3062,7 +3193,7 @@
         <v>9</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -3071,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -3080,14 +3211,14 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="P25">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="9" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="S25" s="10"/>
     </row>
@@ -3097,28 +3228,28 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -3136,16 +3267,14 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="P26">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>84</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="Q26" s="6"/>
       <c r="R26" s="9" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="S26" s="10"/>
     </row>
@@ -3155,31 +3284,31 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -3199,9 +3328,9 @@
       <c r="P27">
         <v>3</v>
       </c>
-      <c r="Q27" s="12"/>
+      <c r="Q27" s="6"/>
       <c r="R27" s="9" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="S27" s="10"/>
     </row>
@@ -3211,55 +3340,55 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1</v>
-      </c>
-      <c r="L28" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M28" s="2">
+        <v>99</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
       <c r="O28">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="P28">
-        <v>34</v>
-      </c>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="S28" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S28" s="10"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -3267,28 +3396,28 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -3306,14 +3435,14 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="P29">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="Q29" s="6"/>
       <c r="R29" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S29" s="8"/>
     </row>
@@ -3323,28 +3452,28 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -3369,7 +3498,7 @@
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="11" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="S30" s="8"/>
     </row>
@@ -3379,28 +3508,28 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -3418,14 +3547,14 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="P31">
         <v>10</v>
       </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="11" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="S31" s="8"/>
     </row>
@@ -3435,28 +3564,28 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -3474,14 +3603,14 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="11" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="S32" s="8"/>
     </row>
@@ -3491,28 +3620,28 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
@@ -3537,7 +3666,7 @@
       </c>
       <c r="Q33" s="4"/>
       <c r="R33" s="11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="S33" s="8"/>
     </row>
@@ -3547,28 +3676,28 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
@@ -3589,11 +3718,11 @@
         <v>80</v>
       </c>
       <c r="P34">
-        <v>34</v>
-      </c>
-      <c r="Q34" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="Q34" s="4"/>
       <c r="R34" s="11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="S34" s="8"/>
     </row>
@@ -3603,28 +3732,28 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
@@ -3642,14 +3771,14 @@
         <v>1</v>
       </c>
       <c r="O35">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="P35">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="Q35" s="6"/>
       <c r="R35" s="11" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="S35" s="8"/>
     </row>
@@ -3658,17 +3787,56 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="2"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="10"/>
+      <c r="B36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>20</v>
+      </c>
+      <c r="P36">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="S36" s="8"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -3676,16 +3844,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>9</v>
@@ -3697,18 +3865,18 @@
         <v>9</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J37" s="2">
-        <v>1</v>
-      </c>
-      <c r="K37" s="2">
-        <v>1</v>
-      </c>
-      <c r="L37" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M37" s="2">
+        <v>152</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
@@ -3718,13 +3886,11 @@
         <v>95</v>
       </c>
       <c r="P37">
-        <v>5</v>
-      </c>
-      <c r="Q37" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="R37" s="9" t="s">
-        <v>135</v>
+        <v>3</v>
+      </c>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="S37" s="10"/>
     </row>
@@ -3733,15 +3899,17 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
+      <c r="B38" s="2"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-      <c r="Q38" s="4"/>
+      <c r="I38" s="2"/>
+      <c r="Q38" s="12"/>
       <c r="R38" s="9"/>
-      <c r="S38" s="7"/>
+      <c r="S38" s="10"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -3749,29 +3917,29 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C39" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="J39" s="2">
         <v>1</v>
       </c>
@@ -3779,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M39" s="2">
         <v>0</v>
@@ -3794,10 +3962,10 @@
         <v>5</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="S39" s="10"/>
     </row>
@@ -3806,55 +3974,15 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J40" s="2">
-        <v>1</v>
-      </c>
-      <c r="K40" s="2">
-        <v>1</v>
-      </c>
-      <c r="L40" s="2">
-        <v>1</v>
-      </c>
-      <c r="M40" s="2">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>5</v>
-      </c>
-      <c r="P40">
-        <v>34</v>
-      </c>
-      <c r="R40" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="S40" s="8"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="7"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -3862,19 +3990,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>9</v>
@@ -3883,7 +4011,7 @@
         <v>9</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="J41" s="2">
         <v>1</v>
@@ -3904,24 +4032,125 @@
         <v>95</v>
       </c>
       <c r="P41">
-        <v>8</v>
-      </c>
-      <c r="R41" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="S41" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="R41" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S41" s="10"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
+      <c r="B42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>5</v>
+      </c>
+      <c r="P42">
+        <v>34</v>
+      </c>
+      <c r="R42" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S42" s="8"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
+      <c r="B43" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>95</v>
+      </c>
+      <c r="P43">
+        <v>8</v>
+      </c>
+      <c r="R43" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S43" s="8"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -3970,157 +4199,473 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
+      <c r="B51" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2">
+        <v>1</v>
+      </c>
+      <c r="L51" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>95</v>
+      </c>
+      <c r="P51">
+        <v>5</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="R51" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="S51" s="10"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
+      <c r="B54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>95</v>
+      </c>
+      <c r="P54">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="R54" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="S54" s="10"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
+      <c r="B55" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>95</v>
+      </c>
+      <c r="P55">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="S55" s="10"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
+      <c r="B56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>95</v>
+      </c>
+      <c r="P56">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="S56" s="10"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
+      <c r="R57" s="15"/>
+      <c r="S57" s="15"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
+      <c r="B58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1</v>
+      </c>
+      <c r="L58" s="2">
+        <v>1</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>50</v>
+      </c>
+      <c r="P58">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="R58" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S58" s="8"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
+      <c r="R59" s="15"/>
+      <c r="S59" s="15"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>58</v>
       </c>
+      <c r="R60" s="15"/>
+      <c r="S60" s="15"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A61:A65" si="1">ROW()-2</f>
         <v>59</v>
       </c>
+      <c r="B61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" s="2">
+        <v>1</v>
+      </c>
+      <c r="L61" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>50</v>
+      </c>
+      <c r="P61">
+        <v>32</v>
+      </c>
+      <c r="Q61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R61" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S61" s="8"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>60</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J62" s="2">
-        <v>1</v>
-      </c>
-      <c r="K62" s="2">
-        <v>1</v>
-      </c>
-      <c r="L62" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M62" s="2">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>95</v>
-      </c>
-      <c r="P62">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="R62" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="S62" s="10"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
+      <c r="B63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1</v>
+      </c>
+      <c r="L63" s="2">
+        <v>2</v>
+      </c>
+      <c r="M63" s="2">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>50</v>
+      </c>
+      <c r="P63">
+        <v>32</v>
+      </c>
+      <c r="Q63" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R63" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="S63" s="8"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="F65" s="13" t="s">
         <v>9</v>
@@ -4132,306 +4677,36 @@
         <v>9</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
+        <v>113</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1</v>
+      </c>
+      <c r="L65" s="2">
+        <v>1</v>
+      </c>
+      <c r="M65" s="2">
         <v>0</v>
       </c>
       <c r="N65">
         <v>1</v>
       </c>
       <c r="O65">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="P65">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="R65" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="S65" s="10"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="R66" s="15"/>
-      <c r="S66" s="15"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J67" s="2">
-        <v>1</v>
-      </c>
-      <c r="K67" s="2">
-        <v>1</v>
-      </c>
-      <c r="L67" s="2">
-        <v>1</v>
-      </c>
-      <c r="M67" s="2">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>50</v>
-      </c>
-      <c r="P67">
-        <v>5</v>
-      </c>
-      <c r="Q67" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="R67" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S67" s="8"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="R68" s="15"/>
-      <c r="S68" s="15"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <f>ROW()-2</f>
-        <v>67</v>
-      </c>
-      <c r="R69" s="15"/>
-      <c r="S69" s="15"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <f t="shared" ref="A70:A74" si="1">ROW()-2</f>
-        <v>68</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J70" s="2">
-        <v>1</v>
-      </c>
-      <c r="K70" s="2">
-        <v>1</v>
-      </c>
-      <c r="L70" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M70" s="2">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>50</v>
-      </c>
-      <c r="P70">
-        <v>32</v>
-      </c>
-      <c r="Q70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="R70" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S70" s="8"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <f>ROW()-2</f>
-        <v>69</v>
-      </c>
-      <c r="R71" s="15"/>
-      <c r="S71" s="15"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E72" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="R65" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F72" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J72" s="2">
-        <v>1</v>
-      </c>
-      <c r="K72" s="2">
-        <v>1</v>
-      </c>
-      <c r="L72" s="2">
-        <v>2</v>
-      </c>
-      <c r="M72" s="2">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72">
-        <v>50</v>
-      </c>
-      <c r="P72">
-        <v>32</v>
-      </c>
-      <c r="Q72" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="R72" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="S72" s="8"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H74" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J74" s="2">
-        <v>1</v>
-      </c>
-      <c r="K74" s="2">
-        <v>1</v>
-      </c>
-      <c r="L74" s="2">
-        <v>1</v>
-      </c>
-      <c r="M74" s="2">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-      <c r="O74">
-        <v>50</v>
-      </c>
-      <c r="P74">
-        <v>32</v>
-      </c>
-      <c r="Q74" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="R74" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="S74" s="8"/>
+      <c r="S65" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA21D42-00A2-4AA8-937B-61F9646ED0FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76278399-C624-4D2D-A549-297FD761562C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2775" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="3120" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="160">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -872,10 +872,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>appaleil_white</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cookie_base_icebox</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1750,6 +1746,142 @@
   </si>
   <si>
     <t>クッキー*ザラメ*ホイップクリーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meringue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appaleil_yellow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>egg_yellow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>custard_cream</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>卵黄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>卵黄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小麦粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>温かいミルク</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタタ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2195,13 +2327,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="14" customWidth="1"/>
@@ -2218,7 +2350,7 @@
     <col min="19" max="19" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2277,7 +2409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>ROW()-2</f>
         <v>0</v>
@@ -2328,16 +2460,16 @@
         <v>3</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A59" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A61" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2391,7 +2523,7 @@
       </c>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2443,11 +2575,11 @@
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2455,7 +2587,7 @@
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2463,13 +2595,13 @@
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>11</v>
@@ -2517,17 +2649,17 @@
         <v>70</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>11</v>
@@ -2536,19 +2668,19 @@
         <v>69</v>
       </c>
       <c r="E8" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -2573,17 +2705,17 @@
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S8" s="8"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>11</v>
@@ -2592,7 +2724,7 @@
         <v>69</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>9</v>
@@ -2604,7 +2736,7 @@
         <v>9</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -2629,11 +2761,11 @@
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2685,11 +2817,11 @@
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S10" s="8"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2745,7 +2877,7 @@
       </c>
       <c r="S11" s="8"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2801,34 +2933,34 @@
       </c>
       <c r="S12" s="8"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>58</v>
+        <v>9</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -2853,38 +2985,38 @@
       </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="11" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
@@ -2905,35 +3037,83 @@
         <v>95</v>
       </c>
       <c r="P14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="11" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="S14" s="8"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>95</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>118</v>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>9</v>
@@ -2948,7 +3128,7 @@
         <v>9</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
@@ -2969,41 +3149,35 @@
         <v>95</v>
       </c>
       <c r="P16">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>120</v>
+        <v>4</v>
+      </c>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>ROW()-2</f>
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>44</v>
+      <c r="B18" t="s">
+        <v>117</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>9</v>
@@ -3018,7 +3192,7 @@
         <v>9</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -3045,211 +3219,167 @@
         <v>127</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:19" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>95</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="17">
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="R22" s="19"/>
-      <c r="S22" s="16"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="8"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24">
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>95</v>
-      </c>
-      <c r="P24">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="R24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="S24" s="10"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="R24" s="19"/>
+      <c r="S24" s="16"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>9999</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>95</v>
-      </c>
-      <c r="P25">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S25" s="10"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="8"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>64</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -3267,30 +3397,32 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="P26">
-        <v>65</v>
-      </c>
-      <c r="Q26" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="R26" s="9" t="s">
         <v>61</v>
       </c>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>9</v>
@@ -3299,13 +3431,13 @@
         <v>9</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -3314,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3326,45 +3458,45 @@
         <v>95</v>
       </c>
       <c r="P27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q27" s="6"/>
       <c r="R27" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S27" s="10"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -3379,157 +3511,157 @@
         <v>1</v>
       </c>
       <c r="O28">
+        <v>30</v>
+      </c>
+      <c r="P28">
+        <v>65</v>
+      </c>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="S28" s="10"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
         <v>95</v>
       </c>
-      <c r="P28">
+      <c r="P29">
         <v>3</v>
       </c>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="9" t="s">
+      <c r="Q29" s="6"/>
+      <c r="R29" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="S29" s="10"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>95</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S28" s="10"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="13" t="s">
+      <c r="S30" s="10"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E31" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F31" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="13" t="s">
+      <c r="G31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2">
-        <v>1</v>
-      </c>
-      <c r="L29" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>60</v>
-      </c>
-      <c r="P29">
-        <v>34</v>
-      </c>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="S29" s="8"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2">
-        <v>1</v>
-      </c>
-      <c r="L30" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>90</v>
-      </c>
-      <c r="P30">
-        <v>10</v>
-      </c>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="11" t="s">
+      <c r="I31" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="S30" s="8"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -3547,30 +3679,30 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="P31">
-        <v>10</v>
-      </c>
-      <c r="Q31" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="Q31" s="6"/>
       <c r="R31" s="11" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="S31" s="8"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>9</v>
@@ -3579,13 +3711,13 @@
         <v>55</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -3603,45 +3735,45 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="P32">
         <v>10</v>
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="11" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="S32" s="8"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
@@ -3659,18 +3791,18 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q33" s="4"/>
       <c r="R33" s="11" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="S33" s="8"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3679,10 +3811,10 @@
         <v>96</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>9</v>
@@ -3715,30 +3847,30 @@
         <v>1</v>
       </c>
       <c r="O34">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="11" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="S34" s="8"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>9</v>
@@ -3753,7 +3885,7 @@
         <v>55</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
@@ -3774,42 +3906,42 @@
         <v>80</v>
       </c>
       <c r="P35">
+        <v>11</v>
+      </c>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S35" s="8"/>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="S35" s="8"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
       <c r="B36" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -3827,129 +3959,168 @@
         <v>1</v>
       </c>
       <c r="O36">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="P36">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="11" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="S36" s="8"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>80</v>
+      </c>
+      <c r="P37">
+        <v>34</v>
+      </c>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S37" s="8"/>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1</v>
+      </c>
+      <c r="L38" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>20</v>
+      </c>
+      <c r="P38">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="S38" s="8"/>
+    </row>
+    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E37" s="13" t="s">
+      <c r="E39" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>95</v>
-      </c>
-      <c r="P37">
-        <v>3</v>
-      </c>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S37" s="10"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="2"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="10"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J39" s="2">
-        <v>1</v>
-      </c>
-      <c r="K39" s="2">
-        <v>1</v>
-      </c>
-      <c r="L39" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M39" s="2">
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
@@ -3959,50 +4130,50 @@
         <v>95</v>
       </c>
       <c r="P39">
-        <v>5</v>
-      </c>
-      <c r="Q39" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="R39" s="9" t="s">
-        <v>131</v>
+        <v>3</v>
+      </c>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
+      <c r="B40" s="2"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
-      <c r="Q40" s="4"/>
+      <c r="I40" s="2"/>
+      <c r="Q40" s="12"/>
       <c r="R40" s="9"/>
-      <c r="S40" s="7"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S40" s="10"/>
+    </row>
+    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>9</v>
@@ -4011,7 +4182,7 @@
         <v>9</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="J41" s="2">
         <v>1</v>
@@ -4020,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="M41" s="2">
         <v>0</v>
@@ -4035,88 +4206,48 @@
         <v>5</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="7"/>
+    </row>
+    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="13" t="s">
+      <c r="E43" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F43" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G42" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J42" s="2">
-        <v>1</v>
-      </c>
-      <c r="K42" s="2">
-        <v>1</v>
-      </c>
-      <c r="L42" s="2">
-        <v>1</v>
-      </c>
-      <c r="M42" s="2">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>5</v>
-      </c>
-      <c r="P42">
-        <v>34</v>
-      </c>
-      <c r="R42" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="S42" s="8"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="G43" s="13" t="s">
         <v>9</v>
       </c>
@@ -4124,7 +4255,7 @@
         <v>9</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
@@ -4145,271 +4276,270 @@
         <v>95</v>
       </c>
       <c r="P43">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R43" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S43" s="10"/>
+    </row>
+    <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>5</v>
+      </c>
+      <c r="P44">
+        <v>34</v>
+      </c>
+      <c r="R44" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S44" s="8"/>
+    </row>
+    <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R43" s="11" t="s">
+      <c r="E45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>95</v>
+      </c>
+      <c r="P45">
+        <v>8</v>
+      </c>
+      <c r="R45" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="S43" s="8"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S45" s="8"/>
+    </row>
+    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="s">
+    </row>
+    <row r="52" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="13" t="s">
+      <c r="D53" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J51" s="2">
-        <v>1</v>
-      </c>
-      <c r="K51" s="2">
-        <v>1</v>
-      </c>
-      <c r="L51" s="2">
+      <c r="E53" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2">
+        <v>1</v>
+      </c>
+      <c r="L53" s="2">
         <v>9999</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M53" s="2">
         <v>0</v>
       </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
         <v>95</v>
       </c>
-      <c r="P51">
+      <c r="P53">
         <v>5</v>
       </c>
-      <c r="Q51" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="R51" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="S51" s="10"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="R53" s="15"/>
-      <c r="S53" s="15"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q53" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="R53" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="S53" s="10"/>
+    </row>
+    <row r="54" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E54" s="13" t="s">
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+    </row>
+    <row r="55" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15"/>
+    </row>
+    <row r="56" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F54" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>95</v>
-      </c>
-      <c r="P54">
-        <v>20</v>
-      </c>
-      <c r="Q54" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="R54" s="9" t="s">
+      <c r="F56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="S54" s="10"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>95</v>
-      </c>
-      <c r="P55">
-        <v>20</v>
-      </c>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="S55" s="10"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -4432,39 +4562,89 @@
       <c r="P56">
         <v>20</v>
       </c>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="10" t="s">
+      <c r="Q56" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="R56" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S56" s="10"/>
+    </row>
+    <row r="57" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="S56" s="10"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="R57" s="15"/>
-      <c r="S57" s="15"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E57" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>95</v>
+      </c>
+      <c r="P57">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="S57" s="10"/>
+    </row>
+    <row r="58" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>9</v>
@@ -4473,38 +4653,36 @@
         <v>9</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J58" s="2">
-        <v>1</v>
-      </c>
-      <c r="K58" s="2">
-        <v>1</v>
-      </c>
-      <c r="L58" s="2">
-        <v>1</v>
-      </c>
-      <c r="M58" s="2">
+        <v>148</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
         <v>1</v>
       </c>
       <c r="O58">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="P58">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="R58" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S58" s="8"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="S58" s="10"/>
+    </row>
+    <row r="59" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4512,73 +4690,73 @@
       <c r="R59" s="15"/>
       <c r="S59" s="15"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1</v>
+      </c>
+      <c r="L60" s="2">
+        <v>1</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>50</v>
+      </c>
+      <c r="P60">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="R60" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S60" s="8"/>
+    </row>
+    <row r="61" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
-        <f t="shared" ref="A61:A65" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J61" s="2">
-        <v>1</v>
-      </c>
-      <c r="K61" s="2">
-        <v>1</v>
-      </c>
-      <c r="L61" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M61" s="2">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>50</v>
-      </c>
-      <c r="P61">
-        <v>32</v>
-      </c>
-      <c r="Q61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="R61" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S61" s="8"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+    </row>
+    <row r="62" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <f>ROW()-2</f>
         <v>60</v>
@@ -4586,34 +4764,34 @@
       <c r="R62" s="15"/>
       <c r="S62" s="15"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A63:A67" si="1">ROW()-2</f>
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
@@ -4622,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="2">
-        <v>2</v>
+        <v>9999</v>
       </c>
       <c r="M63" s="2">
         <v>0</v>
@@ -4637,36 +4815,38 @@
         <v>32</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="S63" s="8"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R64" s="15"/>
+      <c r="S64" s="15"/>
+    </row>
+    <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E65" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>116</v>
-      </c>
       <c r="F65" s="13" t="s">
         <v>9</v>
       </c>
@@ -4677,7 +4857,7 @@
         <v>9</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J65" s="2">
         <v>1</v>
@@ -4686,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="L65" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M65" s="2">
         <v>0</v>
@@ -4701,12 +4881,76 @@
         <v>32</v>
       </c>
       <c r="Q65" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="R65" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="S65" s="8"/>
+    </row>
+    <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="R65" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="S65" s="8"/>
+      <c r="F67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>50</v>
+      </c>
+      <c r="P67">
+        <v>32</v>
+      </c>
+      <c r="Q67" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="R67" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="S67" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76278399-C624-4D2D-A549-297FD761562C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E59CAB6-5C90-4850-9D98-598F76F4F6EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="3120" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="163">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -1469,6 +1469,400 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>無塩バター</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ムエン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appaleil_milk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>たまご</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>無縁バター</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ムエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>たまご</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>はちみつ</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>たまご</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>牛乳</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ギュウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンケーキ*チョコ*バナナ*ホイップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chocolate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>banana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>choco_banana_pan_cake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blueberry_pan_cake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blue_berry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whipped cream</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sugerbutter_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zarame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クッキー*ザラメ*ホイップクリーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meringue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appaleil_yellow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>egg_yellow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>custard_cream</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>卵黄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>卵黄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小麦粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>温かいミルク</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bugget_sliced</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pan_knife</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
@@ -1491,396 +1885,42 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
+      <t>パンナイフ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>スライスしたバゲット</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t>砂糖</t>
     </r>
-    <rPh sb="5" eb="7">
+    <rPh sb="11" eb="13">
       <t>サトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>無塩バター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>砂糖</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ムエン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>appaleil_milk</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>砂糖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>たまご</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>無縁バター</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ムエン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>砂糖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>たまご</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>はちみつ</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>サトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>砂糖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>たまご</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>牛乳</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ギュウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パンケーキ*チョコ*バナナ*ホイップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>chocolate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>banana</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>choco_banana_pan_cake</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blueberry_pan_cake</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blue_berry</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>whipped cream</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sugerbutter_cookie</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>zarame</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クッキー*ザラメ*ホイップクリーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>meringue</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>appaleil_yellow</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>egg_yellow</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>custard_cream</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>卵黄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>砂糖</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ランオウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>卵黄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>砂糖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>小麦粉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>温かいミルク</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ランオウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>コムギコ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アタタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2327,10 +2367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2469,7 +2509,7 @@
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A61" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A62" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2649,7 +2689,7 @@
         <v>70</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S7" s="8"/>
     </row>
@@ -2705,7 +2745,7 @@
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S8" s="8"/>
     </row>
@@ -2715,7 +2755,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>11</v>
@@ -2736,7 +2776,7 @@
         <v>9</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -2761,7 +2801,7 @@
       </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S9" s="8"/>
     </row>
@@ -2817,7 +2857,7 @@
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S10" s="8"/>
     </row>
@@ -2939,10 +2979,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>156</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>11</v>
@@ -2960,7 +3000,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -2985,7 +3025,7 @@
       </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S13" s="8"/>
     </row>
@@ -2995,7 +3035,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>41</v>
@@ -3016,7 +3056,7 @@
         <v>55</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
@@ -3051,10 +3091,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>87</v>
@@ -3072,7 +3112,7 @@
         <v>9</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
@@ -3097,7 +3137,7 @@
       </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S15" s="8"/>
     </row>
@@ -4088,28 +4128,28 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E39" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -4134,7 +4174,7 @@
       </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S39" s="10"/>
     </row>
@@ -4218,73 +4258,71 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="7"/>
+      <c r="B42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>95</v>
+      </c>
+      <c r="P42">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="S42" s="10"/>
     </row>
     <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J43" s="2">
-        <v>1</v>
-      </c>
-      <c r="K43" s="2">
-        <v>1</v>
-      </c>
-      <c r="L43" s="2">
-        <v>1</v>
-      </c>
-      <c r="M43" s="2">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>95</v>
-      </c>
-      <c r="P43">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="R43" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="S43" s="10"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="7"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -4292,13 +4330,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C44" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>44</v>
@@ -4307,10 +4345,10 @@
         <v>55</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>110</v>
@@ -4331,15 +4369,18 @@
         <v>1</v>
       </c>
       <c r="O44">
+        <v>95</v>
+      </c>
+      <c r="P44">
         <v>5</v>
       </c>
-      <c r="P44">
-        <v>34</v>
-      </c>
-      <c r="R44" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="S44" s="8"/>
+      <c r="Q44" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R44" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S44" s="10"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -4347,28 +4388,28 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C45" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
@@ -4386,10 +4427,10 @@
         <v>1</v>
       </c>
       <c r="O45">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="P45">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="R45" s="11" t="s">
         <v>46</v>
@@ -4401,6 +4442,55 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
+      <c r="B46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1</v>
+      </c>
+      <c r="L46" s="2">
+        <v>1</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>95</v>
+      </c>
+      <c r="P46">
+        <v>8</v>
+      </c>
+      <c r="R46" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S46" s="8"/>
     </row>
     <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -4443,66 +4533,64 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J53" s="2">
-        <v>1</v>
-      </c>
-      <c r="K53" s="2">
-        <v>1</v>
-      </c>
-      <c r="L53" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M53" s="2">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>95</v>
-      </c>
-      <c r="P53">
-        <v>5</v>
-      </c>
-      <c r="Q53" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="R53" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="S53" s="10"/>
     </row>
     <row r="54" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
+      <c r="B54" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1</v>
+      </c>
+      <c r="L54" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>95</v>
+      </c>
+      <c r="P54">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="R54" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="S54" s="10"/>
     </row>
     <row r="55" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
@@ -4517,58 +4605,8 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>95</v>
-      </c>
-      <c r="P56">
-        <v>20</v>
-      </c>
-      <c r="Q56" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="R56" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="S56" s="10"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
     </row>
     <row r="57" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
@@ -4576,28 +4614,28 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="C57" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -4620,9 +4658,11 @@
       <c r="P57">
         <v>20</v>
       </c>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="10" t="s">
-        <v>144</v>
+      <c r="Q57" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="R57" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="S57" s="10"/>
     </row>
@@ -4632,16 +4672,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>9</v>
@@ -4653,7 +4693,7 @@
         <v>9</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -4678,7 +4718,7 @@
       </c>
       <c r="Q58" s="6"/>
       <c r="R58" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S58" s="10"/>
     </row>
@@ -4687,78 +4727,126 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
+      <c r="B59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>95</v>
+      </c>
+      <c r="P59">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="S59" s="10"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J60" s="2">
-        <v>1</v>
-      </c>
-      <c r="K60" s="2">
-        <v>1</v>
-      </c>
-      <c r="L60" s="2">
-        <v>1</v>
-      </c>
-      <c r="M60" s="2">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>50</v>
-      </c>
-      <c r="P60">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="R60" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S60" s="8"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="15"/>
     </row>
     <row r="61" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="R61" s="15"/>
-      <c r="S61" s="15"/>
+      <c r="B61" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" s="2">
+        <v>1</v>
+      </c>
+      <c r="L61" s="2">
+        <v>1</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>50</v>
+      </c>
+      <c r="P61">
+        <v>5</v>
+      </c>
+      <c r="Q61" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="R61" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S61" s="8"/>
     </row>
     <row r="62" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="R62" s="15"/>
@@ -4766,191 +4854,199 @@
     </row>
     <row r="63" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <f t="shared" ref="A63:A67" si="1">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>61</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J63" s="2">
-        <v>1</v>
-      </c>
-      <c r="K63" s="2">
-        <v>1</v>
-      </c>
-      <c r="L63" s="2">
-        <v>9999</v>
-      </c>
-      <c r="M63" s="2">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>50</v>
-      </c>
-      <c r="P63">
-        <v>32</v>
-      </c>
-      <c r="Q63" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="R63" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S63" s="8"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
     </row>
     <row r="64" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A64:A68" si="1">ROW()-2</f>
         <v>62</v>
       </c>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
+      <c r="B64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64" s="2">
+        <v>1</v>
+      </c>
+      <c r="L64" s="2">
+        <v>9999</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>50</v>
+      </c>
+      <c r="P64">
+        <v>32</v>
+      </c>
+      <c r="Q64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R64" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S64" s="8"/>
     </row>
     <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>63</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J65" s="2">
-        <v>1</v>
-      </c>
-      <c r="K65" s="2">
-        <v>1</v>
-      </c>
-      <c r="L65" s="2">
-        <v>2</v>
-      </c>
-      <c r="M65" s="2">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>50</v>
-      </c>
-      <c r="P65">
-        <v>32</v>
-      </c>
-      <c r="Q65" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="R65" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="S65" s="8"/>
+      <c r="R65" s="15"/>
+      <c r="S65" s="15"/>
     </row>
     <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
+      <c r="B66" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
+      <c r="K66" s="2">
+        <v>1</v>
+      </c>
+      <c r="L66" s="2">
+        <v>2</v>
+      </c>
+      <c r="M66" s="2">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>50</v>
+      </c>
+      <c r="P66">
+        <v>32</v>
+      </c>
+      <c r="Q66" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="R66" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="S66" s="8"/>
     </row>
     <row r="67" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B67" s="2" t="s">
+    </row>
+    <row r="68" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D68" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E68" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F67" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I67" s="2" t="s">
+      <c r="F68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J67" s="2">
-        <v>1</v>
-      </c>
-      <c r="K67" s="2">
-        <v>1</v>
-      </c>
-      <c r="L67" s="2">
-        <v>1</v>
-      </c>
-      <c r="M67" s="2">
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1</v>
+      </c>
+      <c r="L68" s="2">
+        <v>1</v>
+      </c>
+      <c r="M68" s="2">
         <v>0</v>
       </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
         <v>50</v>
       </c>
-      <c r="P67">
+      <c r="P68">
         <v>32</v>
       </c>
-      <c r="Q67" s="6" t="s">
+      <c r="Q68" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="R67" s="8" t="s">
+      <c r="R68" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="S67" s="8"/>
+      <c r="S68" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E59CAB6-5C90-4850-9D98-598F76F4F6EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D6FAA8-BA20-4788-8A3F-FD71F1E96B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2369,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="R55" sqref="R55"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3434,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O26">
         <v>95</v>
@@ -3492,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O27">
         <v>95</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O28">
         <v>30</v>
@@ -3604,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O29">
         <v>95</v>
@@ -3660,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O30">
         <v>95</v>
@@ -3716,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O31">
         <v>60</v>
@@ -3772,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O32">
         <v>90</v>
@@ -3828,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O33">
         <v>90</v>
@@ -3884,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O34">
         <v>75</v>
@@ -3940,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O35">
         <v>80</v>
@@ -3996,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O36">
         <v>80</v>
@@ -4052,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O37">
         <v>80</v>
@@ -4108,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O38">
         <v>20</v>
@@ -4164,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O39">
         <v>95</v>
@@ -4237,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O41">
         <v>95</v>
@@ -4298,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="O42">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P42">
         <v>5</v>
@@ -4366,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O44">
         <v>95</v>
@@ -4424,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O45">
         <v>5</v>
@@ -4479,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O46">
         <v>95</v>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D6FAA8-BA20-4788-8A3F-FD71F1E96B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3D5C5A-0FE1-43FF-82F0-D7882D407EAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3030" yWindow="3030" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="164">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -1924,6 +1924,10 @@
     <rPh sb="11" eb="13">
       <t>サトウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_kosu</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2369,10 +2373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2381,18 +2385,18 @@
     <col min="3" max="3" width="17.140625" style="14" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" style="14" customWidth="1"/>
     <col min="5" max="8" width="15.140625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" customWidth="1"/>
-    <col min="10" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
-    <col min="17" max="17" width="38.85546875" customWidth="1"/>
-    <col min="18" max="18" width="34.5703125" customWidth="1"/>
-    <col min="19" max="19" width="30.5703125" customWidth="1"/>
+    <col min="9" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+    <col min="18" max="18" width="38.85546875" customWidth="1"/>
+    <col min="19" max="19" width="34.5703125" customWidth="1"/>
+    <col min="20" max="20" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2421,37 +2425,40 @@
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>ROW()-2</f>
         <v>0</v>
@@ -2487,29 +2494,32 @@
         <v>1</v>
       </c>
       <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
         <v>9999</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>0</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
       <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
         <v>95</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="8"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T2" s="8"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A62" si="0">ROW()-2</f>
         <v>1</v>
@@ -2545,27 +2555,30 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
         <v>9999</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>0</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
       <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>95</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>3</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="3"/>
+      <c r="S3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="8"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T3" s="8"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2601,43 +2614,46 @@
         <v>1</v>
       </c>
       <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
         <v>9999</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
       <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
         <v>95</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>3</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="3"/>
+      <c r="S4" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="S4" s="8"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R5" s="15"/>
       <c r="S5" s="15"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="15"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="R6" s="15"/>
       <c r="S6" s="15"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T6" s="15"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2676,26 +2692,29 @@
         <v>1</v>
       </c>
       <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
         <v>0</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
       <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>95</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>3</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="S7" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="S7" s="8"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T7" s="8"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2734,24 +2753,27 @@
         <v>1</v>
       </c>
       <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
         <v>0</v>
       </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
       <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>95</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>3</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="6"/>
+      <c r="S8" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="S8" s="8"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T8" s="8"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2790,24 +2812,27 @@
         <v>1</v>
       </c>
       <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
         <v>0</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
       <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>95</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>3</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="6"/>
+      <c r="S9" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="S9" s="8"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T9" s="8"/>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2843,27 +2868,30 @@
         <v>1</v>
       </c>
       <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
         <v>9999</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>0</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
       <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
         <v>95</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>3</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="6"/>
+      <c r="S10" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="S10" s="8"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T10" s="8"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2899,27 +2927,30 @@
         <v>1</v>
       </c>
       <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
         <v>9999</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>0</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
       <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
         <v>95</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>3</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="6"/>
+      <c r="S11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="S11" s="8"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T11" s="8"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2955,27 +2986,30 @@
         <v>1</v>
       </c>
       <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
         <v>9999</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>0</v>
       </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
       <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
         <v>95</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>3</v>
       </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="11" t="s">
+      <c r="R12" s="6"/>
+      <c r="S12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="S12" s="8"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T12" s="8"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3011,27 +3045,30 @@
         <v>1</v>
       </c>
       <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
         <v>9999</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>0</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
       <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
         <v>95</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>3</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="11" t="s">
+      <c r="R13" s="6"/>
+      <c r="S13" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="S13" s="8"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T13" s="8"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3067,27 +3104,30 @@
         <v>1</v>
       </c>
       <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
         <v>9999</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>0</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
       <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
         <v>95</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3</v>
       </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="11" t="s">
+      <c r="R14" s="6"/>
+      <c r="S14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="S14" s="8"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T14" s="8"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3126,24 +3166,27 @@
         <v>1</v>
       </c>
       <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
         <v>0</v>
       </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
       <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
         <v>95</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>3</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="11" t="s">
+      <c r="R15" s="6"/>
+      <c r="S15" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="S15" s="8"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T15" s="8"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3179,35 +3222,38 @@
         <v>1</v>
       </c>
       <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
         <v>9999</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>0</v>
       </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
       <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
         <v>95</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>4</v>
       </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="6"/>
+      <c r="S16" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="S16" s="8"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T16" s="8"/>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="R17" s="15"/>
       <c r="S17" s="15"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T17" s="15"/>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>ROW()-2</f>
         <v>16</v>
@@ -3243,29 +3289,32 @@
         <v>1</v>
       </c>
       <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
         <v>9999</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="2">
         <v>0</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
       <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
         <v>95</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>3</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="S18" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="S18" s="8"/>
-    </row>
-    <row r="19" spans="1:19" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T18" s="8"/>
+    </row>
+    <row r="19" spans="1:20" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3277,7 +3326,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <f>ROW()-2</f>
         <v>18</v>
@@ -3306,54 +3355,57 @@
       <c r="I20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="20">
         <v>1</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
       </c>
       <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
         <v>9999</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N20" s="2">
         <v>0</v>
       </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
       <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
         <v>95</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>3</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="R20" s="8" t="s">
+      <c r="S20" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="S20" s="8"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T20" s="8"/>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3366,20 +3418,21 @@
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
-      <c r="J24" s="17"/>
+      <c r="J24" s="18"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
-      <c r="Q24" s="16" t="s">
+      <c r="Q24" s="17"/>
+      <c r="R24" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="R24" s="19"/>
-      <c r="S24" s="16"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S24" s="19"/>
+      <c r="T24" s="16"/>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3390,11 +3443,11 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="8"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R25" s="5"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="8"/>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3423,36 +3476,39 @@
       <c r="I26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
         <v>0</v>
       </c>
-      <c r="N26">
+      <c r="O26">
+        <v>18</v>
+      </c>
+      <c r="P26">
+        <v>95</v>
+      </c>
+      <c r="Q26">
         <v>3</v>
       </c>
-      <c r="O26">
-        <v>95</v>
-      </c>
-      <c r="P26">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="6" t="s">
+      <c r="R26" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="R26" s="9" t="s">
+      <c r="S26" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S26" s="10"/>
-    </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3481,34 +3537,37 @@
       <c r="I27" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27">
         <v>2</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
       <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
         <v>9999</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>3</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>95</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>2</v>
       </c>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="9" t="s">
+      <c r="R27" s="6"/>
+      <c r="S27" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="S27" s="10"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3537,34 +3596,37 @@
       <c r="I28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28">
         <v>2</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
         <v>0</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>3</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>30</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>65</v>
       </c>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="9" t="s">
+      <c r="R28" s="6"/>
+      <c r="S28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S28" s="10"/>
-    </row>
-    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3593,34 +3655,37 @@
       <c r="I29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29">
         <v>2</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
         <v>0</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>3</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>95</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>3</v>
       </c>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="9" t="s">
+      <c r="R29" s="6"/>
+      <c r="S29" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="S29" s="10"/>
-    </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T29" s="10"/>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3649,7 +3714,7 @@
       <c r="I30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="2">
         <v>1</v>
       </c>
       <c r="K30">
@@ -3659,24 +3724,27 @@
         <v>1</v>
       </c>
       <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
         <v>0</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>3</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>95</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>3</v>
       </c>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="9" t="s">
+      <c r="R30" s="12"/>
+      <c r="S30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="S30" s="10"/>
-    </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T30" s="10"/>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3712,27 +3780,30 @@
         <v>1</v>
       </c>
       <c r="L31" s="2">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2">
         <v>9999</v>
       </c>
-      <c r="M31" s="2">
+      <c r="N31" s="2">
         <v>0</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>3</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>60</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>34</v>
       </c>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="11" t="s">
+      <c r="R31" s="6"/>
+      <c r="S31" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="S31" s="8"/>
-    </row>
-    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T31" s="8"/>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3768,27 +3839,30 @@
         <v>1</v>
       </c>
       <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2">
         <v>9999</v>
       </c>
-      <c r="M32" s="2">
+      <c r="N32" s="2">
         <v>0</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>3</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>90</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>10</v>
       </c>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="11" t="s">
+      <c r="R32" s="4"/>
+      <c r="S32" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="S32" s="8"/>
-    </row>
-    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T32" s="8"/>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3824,27 +3898,30 @@
         <v>1</v>
       </c>
       <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2">
         <v>9999</v>
       </c>
-      <c r="M33" s="2">
+      <c r="N33" s="2">
         <v>0</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>3</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>90</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>10</v>
       </c>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="11" t="s">
+      <c r="R33" s="4"/>
+      <c r="S33" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="S33" s="8"/>
-    </row>
-    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T33" s="8"/>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3880,27 +3957,30 @@
         <v>1</v>
       </c>
       <c r="L34" s="2">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2">
         <v>9999</v>
       </c>
-      <c r="M34" s="2">
+      <c r="N34" s="2">
         <v>0</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>3</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>75</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>10</v>
       </c>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="11" t="s">
+      <c r="R34" s="4"/>
+      <c r="S34" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="S34" s="8"/>
-    </row>
-    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T34" s="8"/>
+    </row>
+    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3936,27 +4016,30 @@
         <v>1</v>
       </c>
       <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
         <v>9999</v>
       </c>
-      <c r="M35" s="2">
+      <c r="N35" s="2">
         <v>0</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>3</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>80</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>11</v>
       </c>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="11" t="s">
+      <c r="R35" s="4"/>
+      <c r="S35" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="S35" s="8"/>
-    </row>
-    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T35" s="8"/>
+    </row>
+    <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3992,27 +4075,30 @@
         <v>1</v>
       </c>
       <c r="L36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" s="2">
         <v>9999</v>
       </c>
-      <c r="M36" s="2">
+      <c r="N36" s="2">
         <v>0</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>3</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>80</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>11</v>
       </c>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="11" t="s">
+      <c r="R36" s="4"/>
+      <c r="S36" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="S36" s="8"/>
-    </row>
-    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T36" s="8"/>
+    </row>
+    <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4048,27 +4134,30 @@
         <v>1</v>
       </c>
       <c r="L37" s="2">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2">
         <v>9999</v>
       </c>
-      <c r="M37" s="2">
+      <c r="N37" s="2">
         <v>0</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>3</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>80</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>34</v>
       </c>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="11" t="s">
+      <c r="R37" s="6"/>
+      <c r="S37" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="S37" s="8"/>
-    </row>
-    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T37" s="8"/>
+    </row>
+    <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4104,27 +4193,30 @@
         <v>1</v>
       </c>
       <c r="L38" s="2">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2">
         <v>9999</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>0</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>3</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>20</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>10</v>
       </c>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="11" t="s">
+      <c r="R38" s="4"/>
+      <c r="S38" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="S38" s="8"/>
-    </row>
-    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T38" s="8"/>
+    </row>
+    <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4153,7 +4245,7 @@
       <c r="I39" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="2">
         <v>1</v>
       </c>
       <c r="K39">
@@ -4163,24 +4255,27 @@
         <v>1</v>
       </c>
       <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
         <v>0</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>3</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>95</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>3</v>
       </c>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="10" t="s">
+      <c r="R39" s="6"/>
+      <c r="S39" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="S39" s="10"/>
-    </row>
-    <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T39" s="10"/>
+    </row>
+    <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4193,11 +4288,12 @@
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="2"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="10"/>
-    </row>
-    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J40" s="2"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="10"/>
+    </row>
+    <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4233,29 +4329,32 @@
         <v>1</v>
       </c>
       <c r="L41" s="2">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2">
         <v>9999</v>
       </c>
-      <c r="M41" s="2">
+      <c r="N41" s="2">
         <v>0</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>12</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>95</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>5</v>
       </c>
-      <c r="Q41" s="6" t="s">
+      <c r="R41" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="R41" s="9" t="s">
+      <c r="S41" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="S41" s="10"/>
-    </row>
-    <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T41" s="10"/>
+    </row>
+    <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4285,33 +4384,36 @@
         <v>159</v>
       </c>
       <c r="J42" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K42" s="2">
         <v>1</v>
       </c>
       <c r="L42" s="2">
+        <v>1</v>
+      </c>
+      <c r="M42" s="2">
         <v>9999</v>
       </c>
-      <c r="M42" s="2">
+      <c r="N42" s="2">
         <v>0</v>
       </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
       <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
         <v>100</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>5</v>
       </c>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="9" t="s">
+      <c r="R42" s="6"/>
+      <c r="S42" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="S42" s="10"/>
-    </row>
-    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T42" s="10"/>
+    </row>
+    <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4322,11 +4424,11 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="7"/>
-    </row>
-    <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R43" s="4"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="7"/>
+    </row>
+    <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4365,26 +4467,29 @@
         <v>1</v>
       </c>
       <c r="M44" s="2">
+        <v>1</v>
+      </c>
+      <c r="N44" s="2">
         <v>0</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>3</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>95</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>5</v>
       </c>
-      <c r="Q44" s="6" t="s">
+      <c r="R44" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R44" s="9" t="s">
+      <c r="S44" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="S44" s="10"/>
-    </row>
-    <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T44" s="10"/>
+    </row>
+    <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4423,23 +4528,26 @@
         <v>1</v>
       </c>
       <c r="M45" s="2">
+        <v>1</v>
+      </c>
+      <c r="N45" s="2">
         <v>0</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>3</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>5</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>34</v>
       </c>
-      <c r="R45" s="11" t="s">
+      <c r="S45" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="S45" s="8"/>
-    </row>
-    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T45" s="8"/>
+    </row>
+    <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4478,65 +4586,68 @@
         <v>1</v>
       </c>
       <c r="M46" s="2">
+        <v>1</v>
+      </c>
+      <c r="N46" s="2">
         <v>0</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>3</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>95</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>8</v>
       </c>
-      <c r="R46" s="11" t="s">
+      <c r="S46" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="S46" s="8"/>
-    </row>
-    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T46" s="8"/>
+    </row>
+    <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4565,52 +4676,53 @@
       <c r="I54" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J54" s="2">
-        <v>1</v>
-      </c>
+      <c r="J54" s="2"/>
       <c r="K54" s="2">
         <v>1</v>
       </c>
       <c r="L54" s="2">
+        <v>1</v>
+      </c>
+      <c r="M54" s="2">
         <v>9999</v>
       </c>
-      <c r="M54" s="2">
+      <c r="N54" s="2">
         <v>0</v>
       </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
       <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
         <v>95</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>5</v>
       </c>
-      <c r="Q54" s="6" t="s">
+      <c r="R54" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="R54" s="9" t="s">
+      <c r="S54" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="S54" s="10"/>
-    </row>
-    <row r="55" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T54" s="10"/>
+    </row>
+    <row r="55" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="R55" s="15"/>
       <c r="S55" s="15"/>
-    </row>
-    <row r="56" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T55" s="15"/>
+    </row>
+    <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="R56" s="15"/>
       <c r="S56" s="15"/>
-    </row>
-    <row r="57" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T56" s="15"/>
+    </row>
+    <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4639,9 +4751,7 @@
       <c r="I57" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
+      <c r="J57" s="2"/>
       <c r="K57">
         <v>1</v>
       </c>
@@ -4649,26 +4759,29 @@
         <v>1</v>
       </c>
       <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
         <v>0</v>
       </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
       <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
         <v>95</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>20</v>
       </c>
-      <c r="Q57" s="6" t="s">
+      <c r="R57" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="R57" s="9" t="s">
+      <c r="S57" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="S57" s="10"/>
-    </row>
-    <row r="58" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T57" s="10"/>
+    </row>
+    <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4697,9 +4810,7 @@
       <c r="I58" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
+      <c r="J58" s="2"/>
       <c r="K58">
         <v>1</v>
       </c>
@@ -4707,24 +4818,27 @@
         <v>1</v>
       </c>
       <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
         <v>0</v>
       </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
       <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
         <v>95</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>20</v>
       </c>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="10" t="s">
+      <c r="R58" s="6"/>
+      <c r="S58" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="S58" s="10"/>
-    </row>
-    <row r="59" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T58" s="10"/>
+    </row>
+    <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4753,9 +4867,7 @@
       <c r="I59" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
+      <c r="J59" s="2"/>
       <c r="K59">
         <v>1</v>
       </c>
@@ -4763,32 +4875,35 @@
         <v>1</v>
       </c>
       <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
         <v>0</v>
       </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
       <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
         <v>95</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>20</v>
       </c>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="10" t="s">
+      <c r="R59" s="6"/>
+      <c r="S59" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="S59" s="10"/>
-    </row>
-    <row r="60" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T59" s="10"/>
+    </row>
+    <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="R60" s="15"/>
       <c r="S60" s="15"/>
-    </row>
-    <row r="61" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T60" s="15"/>
+    </row>
+    <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4817,9 +4932,7 @@
       <c r="I61" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J61" s="2">
-        <v>1</v>
-      </c>
+      <c r="J61" s="2"/>
       <c r="K61" s="2">
         <v>1</v>
       </c>
@@ -4827,42 +4940,45 @@
         <v>1</v>
       </c>
       <c r="M61" s="2">
+        <v>1</v>
+      </c>
+      <c r="N61" s="2">
         <v>0</v>
       </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
       <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
         <v>50</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>5</v>
       </c>
-      <c r="Q61" s="6" t="s">
+      <c r="R61" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="R61" s="11" t="s">
+      <c r="S61" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="S61" s="8"/>
-    </row>
-    <row r="62" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T61" s="8"/>
+    </row>
+    <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="R62" s="15"/>
       <c r="S62" s="15"/>
-    </row>
-    <row r="63" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T62" s="15"/>
+    </row>
+    <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <f>ROW()-2</f>
         <v>61</v>
       </c>
-      <c r="R63" s="15"/>
       <c r="S63" s="15"/>
-    </row>
-    <row r="64" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T63" s="15"/>
+    </row>
+    <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" ref="A64:A68" si="1">ROW()-2</f>
         <v>62</v>
@@ -4891,44 +5007,45 @@
       <c r="I64" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J64" s="2">
-        <v>1</v>
-      </c>
+      <c r="J64" s="2"/>
       <c r="K64" s="2">
         <v>1</v>
       </c>
       <c r="L64" s="2">
+        <v>1</v>
+      </c>
+      <c r="M64" s="2">
         <v>9999</v>
       </c>
-      <c r="M64" s="2">
+      <c r="N64" s="2">
         <v>0</v>
       </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
       <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
         <v>50</v>
       </c>
-      <c r="P64">
+      <c r="Q64">
         <v>32</v>
       </c>
-      <c r="Q64" s="6" t="s">
+      <c r="R64" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="R64" s="8" t="s">
+      <c r="S64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="S64" s="8"/>
-    </row>
-    <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T64" s="8"/>
+    </row>
+    <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <f>ROW()-2</f>
         <v>63</v>
       </c>
-      <c r="R65" s="15"/>
       <c r="S65" s="15"/>
-    </row>
-    <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T65" s="15"/>
+    </row>
+    <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -4957,42 +5074,43 @@
       <c r="I66" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="J66" s="2">
-        <v>1</v>
-      </c>
+      <c r="J66" s="2"/>
       <c r="K66" s="2">
         <v>1</v>
       </c>
       <c r="L66" s="2">
+        <v>1</v>
+      </c>
+      <c r="M66" s="2">
         <v>2</v>
       </c>
-      <c r="M66" s="2">
+      <c r="N66" s="2">
         <v>0</v>
       </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
       <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
         <v>50</v>
       </c>
-      <c r="P66">
+      <c r="Q66">
         <v>32</v>
       </c>
-      <c r="Q66" s="6" t="s">
+      <c r="R66" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="R66" s="8" t="s">
+      <c r="S66" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="S66" s="8"/>
-    </row>
-    <row r="67" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T66" s="8"/>
+    </row>
+    <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -5021,9 +5139,7 @@
       <c r="I68" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J68" s="2">
-        <v>1</v>
-      </c>
+      <c r="J68" s="2"/>
       <c r="K68" s="2">
         <v>1</v>
       </c>
@@ -5031,24 +5147,27 @@
         <v>1</v>
       </c>
       <c r="M68" s="2">
+        <v>1</v>
+      </c>
+      <c r="N68" s="2">
         <v>0</v>
       </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
       <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
         <v>50</v>
       </c>
-      <c r="P68">
+      <c r="Q68">
         <v>32</v>
       </c>
-      <c r="Q68" s="6" t="s">
+      <c r="R68" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="R68" s="8" t="s">
+      <c r="S68" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3D5C5A-0FE1-43FF-82F0-D7882D407EAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B99B1B0-3BC3-44D9-9B28-CCAAF9CB822D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="2355" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="173">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -1928,6 +1928,173 @@
   </si>
   <si>
     <t>result_kosu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>スライスしたバゲット</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バター</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <rPh sb="15" eb="17">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rusk_butter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっとサクサク感増し</t>
+    <rPh sb="8" eb="9">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rusk_orange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orange_pele</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bugget_orange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>薄力粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>オレンジピール</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bugget_orange_sliced</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バゲット＜オレンジ＞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>パンナイフ</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2373,10 +2540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:T68"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2385,7 +2552,8 @@
     <col min="3" max="3" width="17.140625" style="14" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" style="14" customWidth="1"/>
     <col min="5" max="8" width="15.140625" style="14" customWidth="1"/>
-    <col min="9" max="10" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="9.140625" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
@@ -2521,7 +2689,7 @@
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A62" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A66" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2620,7 +2788,7 @@
         <v>9999</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -2874,7 +3042,7 @@
         <v>9999</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -2992,7 +3160,7 @@
         <v>9999</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -3668,7 +3836,7 @@
         <v>1</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29">
         <v>3</v>
@@ -4360,16 +4528,16 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>9</v>
@@ -4381,10 +4549,10 @@
         <v>9</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="J42" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K42" s="2">
         <v>1</v>
@@ -4393,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="M42" s="2">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
@@ -4402,14 +4570,14 @@
         <v>1</v>
       </c>
       <c r="P42">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q42">
         <v>5</v>
       </c>
       <c r="R42" s="6"/>
       <c r="S42" s="9" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="T42" s="10"/>
     </row>
@@ -4418,15 +4586,59 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="7"/>
+      <c r="B43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J43" s="2">
+        <v>8</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1</v>
+      </c>
+      <c r="M43" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>100</v>
+      </c>
+      <c r="Q43">
+        <v>5</v>
+      </c>
+      <c r="R43" s="6"/>
+      <c r="S43" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="T43" s="10"/>
     </row>
     <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -4434,19 +4646,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>9</v>
@@ -4455,10 +4667,10 @@
         <v>9</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="J44" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K44" s="2">
         <v>1</v>
@@ -4467,25 +4679,23 @@
         <v>1</v>
       </c>
       <c r="M44" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P44">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q44">
         <v>5</v>
       </c>
-      <c r="R44" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="R44" s="6"/>
       <c r="S44" s="9" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="T44" s="10"/>
     </row>
@@ -4494,58 +4704,15 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J45" s="2">
-        <v>1</v>
-      </c>
-      <c r="K45" s="2">
-        <v>1</v>
-      </c>
-      <c r="L45" s="2">
-        <v>1</v>
-      </c>
-      <c r="M45" s="2">
-        <v>1</v>
-      </c>
-      <c r="N45" s="2">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>3</v>
-      </c>
-      <c r="P45">
-        <v>5</v>
-      </c>
-      <c r="Q45">
-        <v>34</v>
-      </c>
-      <c r="S45" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T45" s="8"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="7"/>
     </row>
     <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -4553,28 +4720,28 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C46" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -4598,24 +4765,131 @@
         <v>95</v>
       </c>
       <c r="Q46">
-        <v>8</v>
-      </c>
-      <c r="S46" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T46" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S46" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T46" s="10"/>
     </row>
     <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
+      <c r="B47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>3</v>
+      </c>
+      <c r="P47">
+        <v>5</v>
+      </c>
+      <c r="Q47">
+        <v>34</v>
+      </c>
+      <c r="S47" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T47" s="8"/>
     </row>
     <row r="48" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
+      <c r="B48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2">
+        <v>1</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1</v>
+      </c>
+      <c r="M48" s="2">
+        <v>1</v>
+      </c>
+      <c r="N48" s="2">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>3</v>
+      </c>
+      <c r="P48">
+        <v>95</v>
+      </c>
+      <c r="Q48">
+        <v>8</v>
+      </c>
+      <c r="S48" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T48" s="8"/>
     </row>
     <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
@@ -4652,75 +4926,73 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2">
-        <v>1</v>
-      </c>
-      <c r="L54" s="2">
-        <v>1</v>
-      </c>
-      <c r="M54" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N54" s="2">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>1</v>
-      </c>
-      <c r="P54">
-        <v>95</v>
-      </c>
-      <c r="Q54">
-        <v>5</v>
-      </c>
-      <c r="R54" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="S54" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="T54" s="10"/>
     </row>
     <row r="55" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
     </row>
     <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="S56" s="15"/>
-      <c r="T56" s="15"/>
+      <c r="B56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2">
+        <v>1</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1</v>
+      </c>
+      <c r="M56" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>95</v>
+      </c>
+      <c r="Q56">
+        <v>5</v>
+      </c>
+      <c r="R56" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="S56" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="T56" s="10"/>
     </row>
     <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
@@ -4728,13 +5000,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>68</v>
@@ -4749,19 +5021,21 @@
         <v>9</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J57" s="2"/>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57">
+        <v>124</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2">
+        <v>1</v>
+      </c>
+      <c r="L57" s="2">
+        <v>1</v>
+      </c>
+      <c r="M57" s="2">
+        <v>1</v>
+      </c>
+      <c r="N57" s="2">
         <v>0</v>
       </c>
       <c r="O57">
@@ -4771,15 +5045,15 @@
         <v>95</v>
       </c>
       <c r="Q57">
-        <v>20</v>
-      </c>
-      <c r="R57" s="6" t="s">
-        <v>101</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R57" s="6"/>
       <c r="S57" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="T57" s="10"/>
+        <v>164</v>
+      </c>
+      <c r="T57" s="10" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
@@ -4787,16 +5061,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>9</v>
@@ -4808,19 +5082,21 @@
         <v>9</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J58" s="2"/>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
+        <v>167</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1</v>
+      </c>
+      <c r="L58" s="2">
+        <v>1</v>
+      </c>
+      <c r="M58" s="2">
+        <v>1</v>
+      </c>
+      <c r="N58" s="2">
         <v>0</v>
       </c>
       <c r="O58">
@@ -4830,70 +5106,23 @@
         <v>95</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R58" s="6"/>
-      <c r="S58" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="T58" s="10"/>
+      <c r="S58" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="T58" s="10" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J59" s="2"/>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>1</v>
-      </c>
-      <c r="P59">
-        <v>95</v>
-      </c>
-      <c r="Q59">
-        <v>20</v>
-      </c>
-      <c r="R59" s="6"/>
-      <c r="S59" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="T59" s="10"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="15"/>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
@@ -4909,19 +5138,19 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>87</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>9</v>
@@ -4930,216 +5159,275 @@
         <v>9</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2">
-        <v>1</v>
-      </c>
-      <c r="L61" s="2">
-        <v>1</v>
-      </c>
-      <c r="M61" s="2">
-        <v>1</v>
-      </c>
-      <c r="N61" s="2">
+        <v>91</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
         <v>0</v>
       </c>
       <c r="O61">
         <v>1</v>
       </c>
       <c r="P61">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="Q61">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R61" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="S61" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T61" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="S61" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="T61" s="10"/>
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
+      <c r="B62" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>95</v>
+      </c>
+      <c r="Q62">
+        <v>20</v>
+      </c>
+      <c r="R62" s="6"/>
+      <c r="S62" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="T62" s="10"/>
     </row>
     <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
+      <c r="B63" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>95</v>
+      </c>
+      <c r="Q63">
+        <v>20</v>
+      </c>
+      <c r="R63" s="6"/>
+      <c r="S63" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="T63" s="10"/>
     </row>
     <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
-        <f t="shared" ref="A64:A68" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2">
-        <v>1</v>
-      </c>
-      <c r="L64" s="2">
-        <v>1</v>
-      </c>
-      <c r="M64" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N64" s="2">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="P64">
-        <v>50</v>
-      </c>
-      <c r="Q64">
-        <v>32</v>
-      </c>
-      <c r="R64" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S64" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T64" s="8"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="15"/>
     </row>
     <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="S65" s="15"/>
-      <c r="T65" s="15"/>
+      <c r="B65" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1</v>
+      </c>
+      <c r="L65" s="2">
+        <v>1</v>
+      </c>
+      <c r="M65" s="2">
+        <v>1</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>50</v>
+      </c>
+      <c r="Q65">
+        <v>5</v>
+      </c>
+      <c r="R65" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="S65" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T65" s="8"/>
     </row>
     <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2">
-        <v>1</v>
-      </c>
-      <c r="L66" s="2">
-        <v>1</v>
-      </c>
-      <c r="M66" s="2">
-        <v>2</v>
-      </c>
-      <c r="N66" s="2">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>1</v>
-      </c>
-      <c r="P66">
-        <v>50</v>
-      </c>
-      <c r="Q66">
-        <v>32</v>
-      </c>
-      <c r="R66" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="S66" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="T66" s="8"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="15"/>
     </row>
     <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>65</v>
       </c>
+      <c r="S67" s="15"/>
+      <c r="T67" s="15"/>
     </row>
     <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A68:A72" si="1">ROW()-2</f>
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J68" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
       <c r="K68" s="2">
         <v>1</v>
       </c>
@@ -5147,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="M68" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N68" s="2">
         <v>0</v>
@@ -5162,16 +5450,152 @@
         <v>32</v>
       </c>
       <c r="R68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S68" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T68" s="8"/>
+    </row>
+    <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f>ROW()-2</f>
+        <v>67</v>
+      </c>
+      <c r="S69" s="15"/>
+      <c r="T69" s="15"/>
+    </row>
+    <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1</v>
+      </c>
+      <c r="K70" s="2">
+        <v>1</v>
+      </c>
+      <c r="L70" s="2">
+        <v>1</v>
+      </c>
+      <c r="M70" s="2">
+        <v>2</v>
+      </c>
+      <c r="N70" s="2">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>50</v>
+      </c>
+      <c r="Q70">
+        <v>32</v>
+      </c>
+      <c r="R70" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="S70" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="T70" s="8"/>
+    </row>
+    <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1</v>
+      </c>
+      <c r="L72" s="2">
+        <v>1</v>
+      </c>
+      <c r="M72" s="2">
+        <v>1</v>
+      </c>
+      <c r="N72" s="2">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>50</v>
+      </c>
+      <c r="Q72">
+        <v>32</v>
+      </c>
+      <c r="R72" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="S68" s="8" t="s">
+      <c r="S72" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="T68" s="8"/>
+      <c r="T72" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B99B1B0-3BC3-44D9-9B28-CCAAF9CB822D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA034027-A302-4D65-AA73-EEC0C5BBBF7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="2355" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="175">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -2095,6 +2095,14 @@
       </rPr>
       <t>パンナイフ</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>neko_cookie_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orange_neko_cookie_jam</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2542,8 +2550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
   <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3800,7 +3808,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>87</v>
@@ -4036,7 +4044,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>81</v>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA034027-A302-4D65-AA73-EEC0C5BBBF7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FE18CE-845D-481B-8334-45F662E17275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="2565" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="178">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -2103,6 +2103,18 @@
   </si>
   <si>
     <t>orange_neko_cookie_jam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>egg_neko_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appaleil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appaleil_mixer</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2548,10 +2560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:T72"/>
+  <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2697,7 +2709,7 @@
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A67" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3791,7 +3803,7 @@
         <v>3</v>
       </c>
       <c r="P28">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="Q28">
         <v>65</v>
@@ -3926,58 +3938,60 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
       </c>
-      <c r="K31" s="2">
-        <v>1</v>
-      </c>
-      <c r="L31" s="2">
-        <v>1</v>
-      </c>
-      <c r="M31" s="2">
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
         <v>9999</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
+        <v>18</v>
+      </c>
+      <c r="P31">
+        <v>95</v>
+      </c>
+      <c r="Q31">
         <v>3</v>
       </c>
-      <c r="P31">
-        <v>60</v>
-      </c>
-      <c r="Q31">
-        <v>34</v>
-      </c>
-      <c r="R31" s="6"/>
-      <c r="S31" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="T31" s="8"/>
+      <c r="R31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T31" s="10"/>
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -3985,16 +3999,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>55</v>
@@ -4006,7 +4020,7 @@
         <v>55</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -4027,14 +4041,14 @@
         <v>3</v>
       </c>
       <c r="P32">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q32">
-        <v>10</v>
-      </c>
-      <c r="R32" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="R32" s="6"/>
       <c r="S32" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T32" s="8"/>
     </row>
@@ -4044,25 +4058,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>86</v>
@@ -4093,7 +4107,7 @@
       </c>
       <c r="R33" s="4"/>
       <c r="S33" s="11" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="T33" s="8"/>
     </row>
@@ -4103,28 +4117,28 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
@@ -4145,14 +4159,14 @@
         <v>3</v>
       </c>
       <c r="P34">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Q34">
         <v>10</v>
       </c>
       <c r="R34" s="4"/>
       <c r="S34" s="11" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="T34" s="8"/>
     </row>
@@ -4162,13 +4176,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>9</v>
@@ -4183,7 +4197,7 @@
         <v>55</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
@@ -4204,14 +4218,14 @@
         <v>3</v>
       </c>
       <c r="P35">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R35" s="4"/>
       <c r="S35" s="11" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="T35" s="8"/>
     </row>
@@ -4221,13 +4235,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>9</v>
@@ -4242,7 +4256,7 @@
         <v>55</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -4263,14 +4277,14 @@
         <v>3</v>
       </c>
       <c r="P36">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Q36">
         <v>11</v>
       </c>
       <c r="R36" s="4"/>
       <c r="S36" s="11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="T36" s="8"/>
     </row>
@@ -4280,13 +4294,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>9</v>
@@ -4301,7 +4315,7 @@
         <v>55</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -4322,14 +4336,14 @@
         <v>3</v>
       </c>
       <c r="P37">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Q37">
-        <v>34</v>
-      </c>
-      <c r="R37" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="R37" s="4"/>
       <c r="S37" s="11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="T37" s="8"/>
     </row>
@@ -4339,28 +4353,28 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
@@ -4381,14 +4395,14 @@
         <v>3</v>
       </c>
       <c r="P38">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="Q38">
-        <v>10</v>
-      </c>
-      <c r="R38" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="R38" s="6"/>
       <c r="S38" s="11" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="T38" s="8"/>
     </row>
@@ -4398,16 +4412,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>9</v>
@@ -4419,54 +4433,95 @@
         <v>9</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
       </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39">
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N39" s="2">
         <v>0</v>
       </c>
       <c r="O39">
         <v>3</v>
       </c>
       <c r="P39">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="Q39">
-        <v>3</v>
-      </c>
-      <c r="R39" s="6"/>
-      <c r="S39" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="T39" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="R39" s="4"/>
+      <c r="S39" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="T39" s="8"/>
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="9"/>
+      <c r="B40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>3</v>
+      </c>
+      <c r="P40">
+        <v>95</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40" s="6"/>
+      <c r="S40" s="10" t="s">
+        <v>152</v>
+      </c>
       <c r="T40" s="10"/>
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4474,60 +4529,17 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J41" s="2">
-        <v>1</v>
-      </c>
-      <c r="K41" s="2">
-        <v>1</v>
-      </c>
-      <c r="L41" s="2">
-        <v>1</v>
-      </c>
-      <c r="M41" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N41" s="2">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>12</v>
-      </c>
-      <c r="P41">
-        <v>95</v>
-      </c>
-      <c r="Q41">
-        <v>5</v>
-      </c>
-      <c r="R41" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="S41" s="9" t="s">
-        <v>130</v>
-      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="9"/>
       <c r="T41" s="10"/>
     </row>
     <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4536,7 +4548,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>87</v>
@@ -4545,7 +4557,7 @@
         <v>128</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>9</v>
@@ -4557,7 +4569,7 @@
         <v>9</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
@@ -4569,13 +4581,13 @@
         <v>1</v>
       </c>
       <c r="M42" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P42">
         <v>95</v>
@@ -4583,9 +4595,11 @@
       <c r="Q42">
         <v>5</v>
       </c>
-      <c r="R42" s="6"/>
+      <c r="R42" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="S42" s="9" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="T42" s="10"/>
     </row>
@@ -4595,16 +4609,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>9</v>
@@ -4616,10 +4630,10 @@
         <v>9</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="J43" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K43" s="2">
         <v>1</v>
@@ -4628,7 +4642,7 @@
         <v>1</v>
       </c>
       <c r="M43" s="2">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N43" s="2">
         <v>0</v>
@@ -4637,14 +4651,14 @@
         <v>1</v>
       </c>
       <c r="P43">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q43">
         <v>5</v>
       </c>
       <c r="R43" s="6"/>
       <c r="S43" s="9" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="T43" s="10"/>
     </row>
@@ -4654,10 +4668,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>160</v>
@@ -4675,7 +4689,7 @@
         <v>9</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J44" s="2">
         <v>8</v>
@@ -4703,7 +4717,7 @@
       </c>
       <c r="R44" s="6"/>
       <c r="S44" s="9" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="T44" s="10"/>
     </row>
@@ -4712,76 +4726,74 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="7"/>
+      <c r="B45" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J45" s="2">
+        <v>8</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
+      <c r="M45" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>100</v>
+      </c>
+      <c r="Q45">
+        <v>5</v>
+      </c>
+      <c r="R45" s="6"/>
+      <c r="S45" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="T45" s="10"/>
     </row>
     <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J46" s="2">
-        <v>1</v>
-      </c>
-      <c r="K46" s="2">
-        <v>1</v>
-      </c>
-      <c r="L46" s="2">
-        <v>1</v>
-      </c>
-      <c r="M46" s="2">
-        <v>1</v>
-      </c>
-      <c r="N46" s="2">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>3</v>
-      </c>
-      <c r="P46">
-        <v>95</v>
-      </c>
-      <c r="Q46">
-        <v>5</v>
-      </c>
-      <c r="R46" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="S46" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="T46" s="10"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="7"/>
     </row>
     <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -4789,13 +4801,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>44</v>
@@ -4804,10 +4816,10 @@
         <v>55</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>110</v>
@@ -4831,15 +4843,18 @@
         <v>3</v>
       </c>
       <c r="P47">
+        <v>95</v>
+      </c>
+      <c r="Q47">
         <v>5</v>
       </c>
-      <c r="Q47">
-        <v>34</v>
-      </c>
-      <c r="S47" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T47" s="8"/>
+      <c r="R47" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S47" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T47" s="10"/>
     </row>
     <row r="48" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -4847,28 +4862,28 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C48" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
@@ -4889,10 +4904,10 @@
         <v>3</v>
       </c>
       <c r="P48">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="Q48">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="S48" s="11" t="s">
         <v>46</v>
@@ -4904,6 +4919,58 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
+      <c r="B49" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2">
+        <v>1</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" s="2">
+        <v>1</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
+      <c r="P49">
+        <v>95</v>
+      </c>
+      <c r="Q49">
+        <v>8</v>
+      </c>
+      <c r="S49" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T49" s="8"/>
     </row>
     <row r="50" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
@@ -4946,61 +5013,6 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J56" s="2">
-        <v>1</v>
-      </c>
-      <c r="K56" s="2">
-        <v>1</v>
-      </c>
-      <c r="L56" s="2">
-        <v>1</v>
-      </c>
-      <c r="M56" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N56" s="2">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>1</v>
-      </c>
-      <c r="P56">
-        <v>95</v>
-      </c>
-      <c r="Q56">
-        <v>5</v>
-      </c>
-      <c r="R56" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="S56" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="T56" s="10"/>
     </row>
     <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
@@ -5008,7 +5020,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>159</v>
@@ -5017,7 +5029,7 @@
         <v>11</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>9</v>
@@ -5041,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="M57" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N57" s="2">
         <v>0</v>
@@ -5055,13 +5067,13 @@
       <c r="Q57">
         <v>5</v>
       </c>
-      <c r="R57" s="6"/>
+      <c r="R57" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="S57" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="T57" s="10" t="s">
-        <v>166</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="T57" s="10"/>
     </row>
     <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
@@ -5069,10 +5081,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>11</v>
@@ -5090,7 +5102,7 @@
         <v>9</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="J58" s="2">
         <v>1</v>
@@ -5129,8 +5141,61 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="S59" s="15"/>
-      <c r="T59" s="15"/>
+      <c r="B59" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2">
+        <v>1</v>
+      </c>
+      <c r="L59" s="2">
+        <v>1</v>
+      </c>
+      <c r="M59" s="2">
+        <v>1</v>
+      </c>
+      <c r="N59" s="2">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>95</v>
+      </c>
+      <c r="Q59">
+        <v>5</v>
+      </c>
+      <c r="R59" s="6"/>
+      <c r="S59" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="T59" s="10" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
@@ -5145,61 +5210,8 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J61" s="2">
-        <v>1</v>
-      </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>1</v>
-      </c>
-      <c r="P61">
-        <v>95</v>
-      </c>
-      <c r="Q61">
-        <v>20</v>
-      </c>
-      <c r="R61" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="S61" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="T61" s="10"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15"/>
     </row>
     <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -5207,28 +5219,28 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="C62" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
@@ -5254,9 +5266,11 @@
       <c r="Q62">
         <v>20</v>
       </c>
-      <c r="R62" s="6"/>
-      <c r="S62" s="10" t="s">
-        <v>143</v>
+      <c r="R62" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="S62" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="T62" s="10"/>
     </row>
@@ -5266,16 +5280,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F63" s="13" t="s">
         <v>9</v>
@@ -5287,7 +5301,7 @@
         <v>9</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
@@ -5324,81 +5338,132 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
+      <c r="B64" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>95</v>
+      </c>
+      <c r="Q64">
+        <v>20</v>
+      </c>
+      <c r="R64" s="6"/>
+      <c r="S64" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="T64" s="10"/>
     </row>
     <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J65" s="2">
-        <v>1</v>
-      </c>
-      <c r="K65" s="2">
-        <v>1</v>
-      </c>
-      <c r="L65" s="2">
-        <v>1</v>
-      </c>
-      <c r="M65" s="2">
-        <v>1</v>
-      </c>
-      <c r="N65" s="2">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>1</v>
-      </c>
-      <c r="P65">
-        <v>50</v>
-      </c>
-      <c r="Q65">
-        <v>5</v>
-      </c>
-      <c r="R65" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="S65" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T65" s="8"/>
+      <c r="S65" s="15"/>
+      <c r="T65" s="15"/>
     </row>
     <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="S66" s="15"/>
-      <c r="T66" s="15"/>
+      <c r="B66" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
+      <c r="K66" s="2">
+        <v>1</v>
+      </c>
+      <c r="L66" s="2">
+        <v>1</v>
+      </c>
+      <c r="M66" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N66" s="2">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>50</v>
+      </c>
+      <c r="Q66">
+        <v>5</v>
+      </c>
+      <c r="R66" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="S66" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T66" s="8"/>
     </row>
     <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="S67" s="15"/>
@@ -5406,200 +5471,208 @@
     </row>
     <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" ref="A68:A72" si="1">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>66</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J68" s="2">
-        <v>1</v>
-      </c>
-      <c r="K68" s="2">
-        <v>1</v>
-      </c>
-      <c r="L68" s="2">
-        <v>1</v>
-      </c>
-      <c r="M68" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N68" s="2">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>1</v>
-      </c>
-      <c r="P68">
-        <v>50</v>
-      </c>
-      <c r="Q68">
-        <v>32</v>
-      </c>
-      <c r="R68" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S68" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T68" s="8"/>
+      <c r="S68" s="15"/>
+      <c r="T68" s="15"/>
     </row>
     <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A69:A73" si="1">ROW()-2</f>
         <v>67</v>
       </c>
-      <c r="S69" s="15"/>
-      <c r="T69" s="15"/>
+      <c r="B69" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69" s="2">
+        <v>1</v>
+      </c>
+      <c r="L69" s="2">
+        <v>1</v>
+      </c>
+      <c r="M69" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N69" s="2">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>50</v>
+      </c>
+      <c r="Q69">
+        <v>32</v>
+      </c>
+      <c r="R69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S69" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T69" s="8"/>
     </row>
     <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>68</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J70" s="2">
-        <v>1</v>
-      </c>
-      <c r="K70" s="2">
-        <v>1</v>
-      </c>
-      <c r="L70" s="2">
-        <v>1</v>
-      </c>
-      <c r="M70" s="2">
-        <v>2</v>
-      </c>
-      <c r="N70" s="2">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>1</v>
-      </c>
-      <c r="P70">
-        <v>50</v>
-      </c>
-      <c r="Q70">
-        <v>32</v>
-      </c>
-      <c r="R70" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="S70" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="T70" s="8"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="15"/>
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
+      <c r="B71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J71" s="2">
+        <v>1</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1</v>
+      </c>
+      <c r="L71" s="2">
+        <v>1</v>
+      </c>
+      <c r="M71" s="2">
+        <v>1</v>
+      </c>
+      <c r="N71" s="2">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>50</v>
+      </c>
+      <c r="Q71">
+        <v>32</v>
+      </c>
+      <c r="R71" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="S71" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="T71" s="8"/>
     </row>
     <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B72" s="2" t="s">
+    </row>
+    <row r="73" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D73" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E73" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F72" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72" s="2" t="s">
+      <c r="F73" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J72" s="2">
-        <v>1</v>
-      </c>
-      <c r="K72" s="2">
-        <v>1</v>
-      </c>
-      <c r="L72" s="2">
-        <v>1</v>
-      </c>
-      <c r="M72" s="2">
-        <v>1</v>
-      </c>
-      <c r="N72" s="2">
+      <c r="J73" s="2">
+        <v>1</v>
+      </c>
+      <c r="K73" s="2">
+        <v>1</v>
+      </c>
+      <c r="L73" s="2">
+        <v>1</v>
+      </c>
+      <c r="M73" s="2">
+        <v>1</v>
+      </c>
+      <c r="N73" s="2">
         <v>0</v>
       </c>
-      <c r="O72">
-        <v>1</v>
-      </c>
-      <c r="P72">
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
         <v>50</v>
       </c>
-      <c r="Q72">
+      <c r="Q73">
         <v>32</v>
       </c>
-      <c r="R72" s="6" t="s">
+      <c r="R73" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="S72" s="8" t="s">
+      <c r="S73" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="T72" s="8"/>
+      <c r="T73" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FE18CE-845D-481B-8334-45F662E17275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6329F77-DD62-4CA7-B4FE-B19C2CA64075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="2565" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="1905" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="183">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -2115,6 +2115,26 @@
   </si>
   <si>
     <t>appaleil_mixer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bugget_powder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bugget_sliced_powder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KeisanMethod</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Non</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>komugiko</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2560,10 +2580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:T73"/>
+  <dimension ref="A1:U74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2582,9 +2602,10 @@
     <col min="18" max="18" width="38.85546875" customWidth="1"/>
     <col min="19" max="19" width="34.5703125" customWidth="1"/>
     <col min="20" max="20" width="30.5703125" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2645,8 +2666,11 @@
       <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>ROW()-2</f>
         <v>0</v>
@@ -2706,10 +2730,13 @@
         <v>18</v>
       </c>
       <c r="T2" s="8"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U2" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A67" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A68" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2765,8 +2792,11 @@
         <v>19</v>
       </c>
       <c r="T3" s="8"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U3" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2824,8 +2854,11 @@
         <v>136</v>
       </c>
       <c r="T4" s="8"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U4" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2833,7 +2866,7 @@
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
     </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2841,7 +2874,7 @@
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
     </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2901,8 +2934,11 @@
         <v>140</v>
       </c>
       <c r="T7" s="8"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U7" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2960,8 +2996,11 @@
         <v>141</v>
       </c>
       <c r="T8" s="8"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U8" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3019,8 +3058,11 @@
         <v>142</v>
       </c>
       <c r="T9" s="8"/>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U9" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3078,8 +3120,11 @@
         <v>138</v>
       </c>
       <c r="T10" s="8"/>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U10" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3137,8 +3182,11 @@
         <v>49</v>
       </c>
       <c r="T11" s="8"/>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U11" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3196,8 +3244,11 @@
         <v>34</v>
       </c>
       <c r="T12" s="8"/>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U12" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3255,8 +3306,11 @@
         <v>157</v>
       </c>
       <c r="T13" s="8"/>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U13" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3314,8 +3368,11 @@
         <v>43</v>
       </c>
       <c r="T14" s="8"/>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U14" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3373,8 +3430,11 @@
         <v>158</v>
       </c>
       <c r="T15" s="8"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U15" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3432,16 +3492,22 @@
         <v>122</v>
       </c>
       <c r="T16" s="8"/>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U16" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U17" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>ROW()-2</f>
         <v>16</v>
@@ -3501,8 +3567,11 @@
         <v>119</v>
       </c>
       <c r="T18" s="8"/>
-    </row>
-    <row r="19" spans="1:20" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U18" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3514,7 +3583,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <f>ROW()-2</f>
         <v>18</v>
@@ -3574,26 +3643,29 @@
         <v>133</v>
       </c>
       <c r="T20" s="8"/>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U20" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3619,8 +3691,9 @@
       </c>
       <c r="S24" s="19"/>
       <c r="T24" s="16"/>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3634,8 +3707,9 @@
       <c r="R25" s="5"/>
       <c r="S25" s="11"/>
       <c r="T25" s="8"/>
-    </row>
-    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U25" s="6"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3695,8 +3769,11 @@
         <v>61</v>
       </c>
       <c r="T26" s="10"/>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U26" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3754,8 +3831,11 @@
         <v>135</v>
       </c>
       <c r="T27" s="10"/>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U27" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3813,8 +3893,11 @@
         <v>61</v>
       </c>
       <c r="T28" s="10"/>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U28" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3872,8 +3955,11 @@
         <v>137</v>
       </c>
       <c r="T29" s="10"/>
-    </row>
-    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U29" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3931,8 +4017,11 @@
         <v>66</v>
       </c>
       <c r="T30" s="10"/>
-    </row>
-    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U30" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3992,8 +4081,11 @@
         <v>61</v>
       </c>
       <c r="T31" s="10"/>
-    </row>
-    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U31" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4051,8 +4143,11 @@
         <v>83</v>
       </c>
       <c r="T32" s="8"/>
-    </row>
-    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U32" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4110,8 +4205,11 @@
         <v>84</v>
       </c>
       <c r="T33" s="8"/>
-    </row>
-    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U33" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4169,8 +4267,11 @@
         <v>118</v>
       </c>
       <c r="T34" s="8"/>
-    </row>
-    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U34" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4228,8 +4329,11 @@
         <v>51</v>
       </c>
       <c r="T35" s="8"/>
-    </row>
-    <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U35" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4287,8 +4391,11 @@
         <v>36</v>
       </c>
       <c r="T36" s="8"/>
-    </row>
-    <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U36" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4346,8 +4453,11 @@
         <v>30</v>
       </c>
       <c r="T37" s="8"/>
-    </row>
-    <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U37" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4405,8 +4515,11 @@
         <v>39</v>
       </c>
       <c r="T38" s="8"/>
-    </row>
-    <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U38" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4464,8 +4577,11 @@
         <v>105</v>
       </c>
       <c r="T39" s="8"/>
-    </row>
-    <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U39" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4523,8 +4639,11 @@
         <v>152</v>
       </c>
       <c r="T40" s="10"/>
-    </row>
-    <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U40" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4541,8 +4660,9 @@
       <c r="R41" s="12"/>
       <c r="S41" s="9"/>
       <c r="T41" s="10"/>
-    </row>
-    <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U41" s="3"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4602,8 +4722,11 @@
         <v>130</v>
       </c>
       <c r="T42" s="10"/>
-    </row>
-    <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U42" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4661,8 +4784,11 @@
         <v>170</v>
       </c>
       <c r="T43" s="10"/>
-    </row>
-    <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U43" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4720,17 +4846,20 @@
         <v>161</v>
       </c>
       <c r="T44" s="10"/>
-    </row>
-    <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U44" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>160</v>
@@ -4748,7 +4877,7 @@
         <v>9</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J45" s="2">
         <v>8</v>
@@ -4776,99 +4905,104 @@
       </c>
       <c r="R45" s="6"/>
       <c r="S45" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="T45" s="10"/>
+      <c r="U45" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J46" s="2">
+        <v>8</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1</v>
+      </c>
+      <c r="L46" s="2">
+        <v>1</v>
+      </c>
+      <c r="M46" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>100</v>
+      </c>
+      <c r="Q46">
+        <v>5</v>
+      </c>
+      <c r="R46" s="6"/>
+      <c r="S46" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="T45" s="10"/>
-    </row>
-    <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="7"/>
-    </row>
-    <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T46" s="10"/>
+      <c r="U46" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="4"/>
+    </row>
+    <row r="48" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J47" s="2">
-        <v>1</v>
-      </c>
-      <c r="K47" s="2">
-        <v>1</v>
-      </c>
-      <c r="L47" s="2">
-        <v>1</v>
-      </c>
-      <c r="M47" s="2">
-        <v>1</v>
-      </c>
-      <c r="N47" s="2">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>3</v>
-      </c>
-      <c r="P47">
-        <v>95</v>
-      </c>
-      <c r="Q47">
-        <v>5</v>
-      </c>
-      <c r="R47" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="S47" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="T47" s="10"/>
-    </row>
-    <row r="48" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>44</v>
@@ -4877,10 +5011,10 @@
         <v>55</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>110</v>
@@ -4904,44 +5038,50 @@
         <v>3</v>
       </c>
       <c r="P48">
+        <v>95</v>
+      </c>
+      <c r="Q48">
         <v>5</v>
       </c>
-      <c r="Q48">
-        <v>34</v>
-      </c>
-      <c r="S48" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T48" s="8"/>
-    </row>
-    <row r="49" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R48" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S48" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T48" s="10"/>
+      <c r="U48" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C49" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
@@ -4962,126 +5102,129 @@
         <v>3</v>
       </c>
       <c r="P49">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="Q49">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="S49" s="11" t="s">
         <v>46</v>
       </c>
       <c r="T49" s="8"/>
-    </row>
-    <row r="50" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U49" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2">
+        <v>1</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>3</v>
+      </c>
+      <c r="P50">
+        <v>95</v>
+      </c>
+      <c r="Q50">
+        <v>8</v>
+      </c>
+      <c r="S50" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T50" s="8"/>
+      <c r="U50" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57" s="2" t="s">
+    </row>
+    <row r="58" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J57" s="2">
-        <v>1</v>
-      </c>
-      <c r="K57" s="2">
-        <v>1</v>
-      </c>
-      <c r="L57" s="2">
-        <v>1</v>
-      </c>
-      <c r="M57" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N57" s="2">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>1</v>
-      </c>
-      <c r="P57">
-        <v>95</v>
-      </c>
-      <c r="Q57">
-        <v>5</v>
-      </c>
-      <c r="R57" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="S57" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="T57" s="10"/>
-    </row>
-    <row r="58" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>159</v>
@@ -5090,7 +5233,7 @@
         <v>11</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>9</v>
@@ -5114,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="M58" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N58" s="2">
         <v>0</v>
@@ -5128,24 +5271,27 @@
       <c r="Q58">
         <v>5</v>
       </c>
-      <c r="R58" s="6"/>
+      <c r="R58" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="S58" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="T58" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="T58" s="10"/>
+      <c r="U58" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>11</v>
@@ -5163,7 +5309,7 @@
         <v>9</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
@@ -5196,16 +5342,75 @@
       <c r="T59" s="10" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U59" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
-    </row>
-    <row r="61" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1</v>
+      </c>
+      <c r="L60" s="2">
+        <v>1</v>
+      </c>
+      <c r="M60" s="2">
+        <v>1</v>
+      </c>
+      <c r="N60" s="2">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>95</v>
+      </c>
+      <c r="Q60">
+        <v>5</v>
+      </c>
+      <c r="R60" s="6"/>
+      <c r="S60" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="T60" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="U60" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -5213,95 +5418,42 @@
       <c r="S61" s="15"/>
       <c r="T61" s="15"/>
     </row>
-    <row r="62" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+    </row>
+    <row r="63" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D63" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E63" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F62" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62" s="2" t="s">
+      <c r="F63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="J62" s="2">
-        <v>1</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>1</v>
-      </c>
-      <c r="P62">
-        <v>95</v>
-      </c>
-      <c r="Q62">
-        <v>20</v>
-      </c>
-      <c r="R62" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="S62" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="T62" s="10"/>
-    </row>
-    <row r="63" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
@@ -5327,28 +5479,33 @@
       <c r="Q63">
         <v>20</v>
       </c>
-      <c r="R63" s="6"/>
-      <c r="S63" s="10" t="s">
-        <v>143</v>
+      <c r="R63" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="S63" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="T63" s="10"/>
-    </row>
-    <row r="64" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U63" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F64" s="13" t="s">
         <v>9</v>
@@ -5360,7 +5517,7 @@
         <v>9</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J64" s="2">
         <v>1</v>
@@ -5391,288 +5548,365 @@
         <v>143</v>
       </c>
       <c r="T64" s="10"/>
-    </row>
-    <row r="65" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U64" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="S65" s="15"/>
-      <c r="T65" s="15"/>
-    </row>
-    <row r="66" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>95</v>
+      </c>
+      <c r="Q65">
+        <v>20</v>
+      </c>
+      <c r="R65" s="6"/>
+      <c r="S65" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="T65" s="10"/>
+      <c r="U65" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="S66" s="15"/>
+      <c r="T66" s="15"/>
+    </row>
+    <row r="67" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D67" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E66" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="13" t="s">
+      <c r="E67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G66" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66" s="2" t="s">
+      <c r="G67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J66" s="2">
-        <v>1</v>
-      </c>
-      <c r="K66" s="2">
-        <v>1</v>
-      </c>
-      <c r="L66" s="2">
-        <v>1</v>
-      </c>
-      <c r="M66" s="2">
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1</v>
+      </c>
+      <c r="M67" s="2">
         <v>9999</v>
       </c>
-      <c r="N66" s="2">
+      <c r="N67" s="2">
         <v>0</v>
       </c>
-      <c r="O66">
-        <v>1</v>
-      </c>
-      <c r="P66">
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
         <v>50</v>
       </c>
-      <c r="Q66">
+      <c r="Q67">
         <v>5</v>
       </c>
-      <c r="R66" s="6" t="s">
+      <c r="R67" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="S66" s="11" t="s">
+      <c r="S67" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="T66" s="8"/>
-    </row>
-    <row r="67" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="S67" s="15"/>
-      <c r="T67" s="15"/>
-    </row>
-    <row r="68" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T67" s="8"/>
+      <c r="U67" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="S68" s="15"/>
       <c r="T68" s="15"/>
     </row>
-    <row r="69" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f t="shared" ref="A69:A73" si="1">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>67</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="S69" s="15"/>
+      <c r="T69" s="15"/>
+    </row>
+    <row r="70" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" ref="A70:A74" si="1">ROW()-2</f>
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D70" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="13" t="s">
+      <c r="E70" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G69" s="13" t="s">
+      <c r="G70" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H69" s="13" t="s">
+      <c r="H70" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J69" s="2">
-        <v>1</v>
-      </c>
-      <c r="K69" s="2">
-        <v>1</v>
-      </c>
-      <c r="L69" s="2">
-        <v>1</v>
-      </c>
-      <c r="M69" s="2">
+      <c r="J70" s="2">
+        <v>1</v>
+      </c>
+      <c r="K70" s="2">
+        <v>1</v>
+      </c>
+      <c r="L70" s="2">
+        <v>1</v>
+      </c>
+      <c r="M70" s="2">
         <v>9999</v>
       </c>
-      <c r="N69" s="2">
+      <c r="N70" s="2">
         <v>0</v>
       </c>
-      <c r="O69">
-        <v>1</v>
-      </c>
-      <c r="P69">
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
         <v>50</v>
       </c>
-      <c r="Q69">
+      <c r="Q70">
         <v>32</v>
       </c>
-      <c r="R69" s="6" t="s">
+      <c r="R70" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S69" s="8" t="s">
+      <c r="S70" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T69" s="8"/>
-    </row>
-    <row r="70" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="T70" s="8"/>
+      <c r="U70" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71">
         <f>ROW()-2</f>
-        <v>68</v>
-      </c>
-      <c r="S70" s="15"/>
-      <c r="T70" s="15"/>
-    </row>
-    <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J71" s="2">
-        <v>1</v>
-      </c>
-      <c r="K71" s="2">
-        <v>1</v>
-      </c>
-      <c r="L71" s="2">
-        <v>1</v>
-      </c>
-      <c r="M71" s="2">
-        <v>1</v>
-      </c>
-      <c r="N71" s="2">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>1</v>
-      </c>
-      <c r="P71">
-        <v>50</v>
-      </c>
-      <c r="Q71">
-        <v>32</v>
-      </c>
-      <c r="R71" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="S71" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="T71" s="8"/>
-    </row>
-    <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S71" s="15"/>
+      <c r="T71" s="15"/>
+    </row>
+    <row r="72" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1</v>
+      </c>
+      <c r="L72" s="2">
+        <v>1</v>
+      </c>
+      <c r="M72" s="2">
+        <v>1</v>
+      </c>
+      <c r="N72" s="2">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>50</v>
+      </c>
+      <c r="Q72">
+        <v>32</v>
+      </c>
+      <c r="R72" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="S72" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="T72" s="8"/>
+      <c r="U72" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B73" s="2" t="s">
+    </row>
+    <row r="74" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C74" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D74" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E74" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F73" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I73" s="2" t="s">
+      <c r="F74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J73" s="2">
-        <v>1</v>
-      </c>
-      <c r="K73" s="2">
-        <v>1</v>
-      </c>
-      <c r="L73" s="2">
-        <v>1</v>
-      </c>
-      <c r="M73" s="2">
-        <v>1</v>
-      </c>
-      <c r="N73" s="2">
+      <c r="J74" s="2">
+        <v>1</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1</v>
+      </c>
+      <c r="L74" s="2">
+        <v>1</v>
+      </c>
+      <c r="M74" s="2">
+        <v>1</v>
+      </c>
+      <c r="N74" s="2">
         <v>0</v>
       </c>
-      <c r="O73">
-        <v>1</v>
-      </c>
-      <c r="P73">
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
         <v>50</v>
       </c>
-      <c r="Q73">
+      <c r="Q74">
         <v>32</v>
       </c>
-      <c r="R73" s="6" t="s">
+      <c r="R74" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="S73" s="8" t="s">
+      <c r="S74" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="T73" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="6" t="s">
+        <v>181</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6329F77-DD62-4CA7-B4FE-B19C2CA64075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072D5771-7F64-428B-B02F-1C5F9563B270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1905" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="2520" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="184">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -2135,6 +2135,41 @@
   </si>
   <si>
     <t>komugiko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>薄力粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>水(やや粉っぽい)</t>
+    </r>
+    <rPh sb="8" eb="9">
+      <t>コナ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2580,10 +2615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:U74"/>
+  <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2736,7 +2771,7 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A68" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A69" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4732,7 +4767,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>87</v>
@@ -4741,7 +4776,7 @@
         <v>128</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>9</v>
@@ -4753,19 +4788,19 @@
         <v>9</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
       </c>
       <c r="K43" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L43" s="2">
         <v>1</v>
       </c>
       <c r="M43" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N43" s="2">
         <v>0</v>
@@ -4781,7 +4816,7 @@
       </c>
       <c r="R43" s="6"/>
       <c r="S43" s="9" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="T43" s="10"/>
       <c r="U43" s="6" t="s">
@@ -4794,16 +4829,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>9</v>
@@ -4815,10 +4850,10 @@
         <v>9</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="J44" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K44" s="2">
         <v>1</v>
@@ -4827,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="M44" s="2">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
@@ -4836,14 +4871,14 @@
         <v>1</v>
       </c>
       <c r="P44">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q44">
         <v>5</v>
       </c>
       <c r="R44" s="6"/>
       <c r="S44" s="9" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="T44" s="10"/>
       <c r="U44" s="6" t="s">
@@ -4856,10 +4891,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>160</v>
@@ -4918,10 +4953,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>160</v>
@@ -4939,7 +4974,7 @@
         <v>9</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J46" s="2">
         <v>8</v>
@@ -4967,7 +5002,7 @@
       </c>
       <c r="R46" s="6"/>
       <c r="S46" s="9" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="T46" s="10"/>
       <c r="U46" s="6" t="s">
@@ -4979,80 +5014,78 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="4"/>
+      <c r="B47" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J47" s="2">
+        <v>8</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1</v>
+      </c>
+      <c r="M47" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>100</v>
+      </c>
+      <c r="Q47">
+        <v>5</v>
+      </c>
+      <c r="R47" s="6"/>
+      <c r="S47" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="T47" s="10"/>
+      <c r="U47" s="6" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="48" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J48" s="2">
-        <v>1</v>
-      </c>
-      <c r="K48" s="2">
-        <v>1</v>
-      </c>
-      <c r="L48" s="2">
-        <v>1</v>
-      </c>
-      <c r="M48" s="2">
-        <v>1</v>
-      </c>
-      <c r="N48" s="2">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>3</v>
-      </c>
-      <c r="P48">
-        <v>95</v>
-      </c>
-      <c r="Q48">
-        <v>5</v>
-      </c>
-      <c r="R48" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="S48" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="T48" s="10"/>
-      <c r="U48" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="4"/>
     </row>
     <row r="49" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
@@ -5060,13 +5093,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C49" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>44</v>
@@ -5075,10 +5108,10 @@
         <v>55</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>110</v>
@@ -5102,15 +5135,18 @@
         <v>3</v>
       </c>
       <c r="P49">
+        <v>95</v>
+      </c>
+      <c r="Q49">
         <v>5</v>
       </c>
-      <c r="Q49">
-        <v>34</v>
-      </c>
-      <c r="S49" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T49" s="8"/>
+      <c r="R49" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S49" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T49" s="10"/>
       <c r="U49" s="6" t="s">
         <v>181</v>
       </c>
@@ -5121,28 +5157,28 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C50" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -5163,10 +5199,10 @@
         <v>3</v>
       </c>
       <c r="P50">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="Q50">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="S50" s="11" t="s">
         <v>46</v>
@@ -5181,6 +5217,61 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
+      <c r="B51" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2">
+        <v>1</v>
+      </c>
+      <c r="L51" s="2">
+        <v>1</v>
+      </c>
+      <c r="M51" s="2">
+        <v>1</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>3</v>
+      </c>
+      <c r="P51">
+        <v>95</v>
+      </c>
+      <c r="Q51">
+        <v>8</v>
+      </c>
+      <c r="S51" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T51" s="8"/>
+      <c r="U51" s="6" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="52" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
@@ -5223,64 +5314,6 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J58" s="2">
-        <v>1</v>
-      </c>
-      <c r="K58" s="2">
-        <v>1</v>
-      </c>
-      <c r="L58" s="2">
-        <v>1</v>
-      </c>
-      <c r="M58" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N58" s="2">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>1</v>
-      </c>
-      <c r="P58">
-        <v>95</v>
-      </c>
-      <c r="Q58">
-        <v>5</v>
-      </c>
-      <c r="R58" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="S58" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="T58" s="10"/>
-      <c r="U58" s="6" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="59" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
@@ -5288,7 +5321,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>159</v>
@@ -5297,7 +5330,7 @@
         <v>11</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>9</v>
@@ -5321,7 +5354,7 @@
         <v>1</v>
       </c>
       <c r="M59" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N59" s="2">
         <v>0</v>
@@ -5335,13 +5368,13 @@
       <c r="Q59">
         <v>5</v>
       </c>
-      <c r="R59" s="6"/>
+      <c r="R59" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="S59" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="T59" s="10" t="s">
-        <v>166</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="T59" s="10"/>
       <c r="U59" s="6" t="s">
         <v>181</v>
       </c>
@@ -5352,10 +5385,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>11</v>
@@ -5373,7 +5406,7 @@
         <v>9</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
@@ -5415,8 +5448,64 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="S61" s="15"/>
-      <c r="T61" s="15"/>
+      <c r="B61" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" s="2">
+        <v>1</v>
+      </c>
+      <c r="L61" s="2">
+        <v>1</v>
+      </c>
+      <c r="M61" s="2">
+        <v>1</v>
+      </c>
+      <c r="N61" s="2">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>95</v>
+      </c>
+      <c r="Q61">
+        <v>5</v>
+      </c>
+      <c r="R61" s="6"/>
+      <c r="S61" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="T61" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="U61" s="6" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="62" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -5431,64 +5520,8 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J63" s="2">
-        <v>1</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>1</v>
-      </c>
-      <c r="P63">
-        <v>95</v>
-      </c>
-      <c r="Q63">
-        <v>20</v>
-      </c>
-      <c r="R63" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="S63" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="T63" s="10"/>
-      <c r="U63" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="S63" s="15"/>
+      <c r="T63" s="15"/>
     </row>
     <row r="64" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -5496,28 +5529,28 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="C64" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="J64" s="2">
         <v>1</v>
@@ -5543,9 +5576,11 @@
       <c r="Q64">
         <v>20</v>
       </c>
-      <c r="R64" s="6"/>
-      <c r="S64" s="10" t="s">
-        <v>143</v>
+      <c r="R64" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="S64" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="T64" s="10"/>
       <c r="U64" s="6" t="s">
@@ -5558,16 +5593,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F65" s="13" t="s">
         <v>9</v>
@@ -5579,7 +5614,7 @@
         <v>9</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J65" s="2">
         <v>1</v>
@@ -5619,84 +5654,138 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="S66" s="15"/>
-      <c r="T66" s="15"/>
+      <c r="B66" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>95</v>
+      </c>
+      <c r="Q66">
+        <v>20</v>
+      </c>
+      <c r="R66" s="6"/>
+      <c r="S66" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="T66" s="10"/>
+      <c r="U66" s="6" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="67" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J67" s="2">
-        <v>1</v>
-      </c>
-      <c r="K67" s="2">
-        <v>1</v>
-      </c>
-      <c r="L67" s="2">
-        <v>1</v>
-      </c>
-      <c r="M67" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N67" s="2">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>1</v>
-      </c>
-      <c r="P67">
-        <v>50</v>
-      </c>
-      <c r="Q67">
-        <v>5</v>
-      </c>
-      <c r="R67" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="S67" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T67" s="8"/>
-      <c r="U67" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="S67" s="15"/>
+      <c r="T67" s="15"/>
     </row>
     <row r="68" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="S68" s="15"/>
-      <c r="T68" s="15"/>
+      <c r="B68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1</v>
+      </c>
+      <c r="L68" s="2">
+        <v>1</v>
+      </c>
+      <c r="M68" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N68" s="2">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>50</v>
+      </c>
+      <c r="Q68">
+        <v>5</v>
+      </c>
+      <c r="R68" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="S68" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T68" s="8"/>
+      <c r="U68" s="6" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="69" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="S69" s="15"/>
@@ -5704,207 +5793,215 @@
     </row>
     <row r="70" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f t="shared" ref="A70:A74" si="1">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>68</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J70" s="2">
-        <v>1</v>
-      </c>
-      <c r="K70" s="2">
-        <v>1</v>
-      </c>
-      <c r="L70" s="2">
-        <v>1</v>
-      </c>
-      <c r="M70" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N70" s="2">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>1</v>
-      </c>
-      <c r="P70">
-        <v>50</v>
-      </c>
-      <c r="Q70">
-        <v>32</v>
-      </c>
-      <c r="R70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S70" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T70" s="8"/>
-      <c r="U70" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="S70" s="15"/>
+      <c r="T70" s="15"/>
     </row>
     <row r="71" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A71:A75" si="1">ROW()-2</f>
         <v>69</v>
       </c>
-      <c r="S71" s="15"/>
-      <c r="T71" s="15"/>
+      <c r="B71" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71" s="2">
+        <v>1</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1</v>
+      </c>
+      <c r="L71" s="2">
+        <v>1</v>
+      </c>
+      <c r="M71" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N71" s="2">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>50</v>
+      </c>
+      <c r="Q71">
+        <v>32</v>
+      </c>
+      <c r="R71" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S71" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T71" s="8"/>
+      <c r="U71" s="6" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="72" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>70</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J72" s="2">
-        <v>1</v>
-      </c>
-      <c r="K72" s="2">
-        <v>1</v>
-      </c>
-      <c r="L72" s="2">
-        <v>1</v>
-      </c>
-      <c r="M72" s="2">
-        <v>1</v>
-      </c>
-      <c r="N72" s="2">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>1</v>
-      </c>
-      <c r="P72">
-        <v>50</v>
-      </c>
-      <c r="Q72">
-        <v>32</v>
-      </c>
-      <c r="R72" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="S72" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="T72" s="8"/>
-      <c r="U72" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="S72" s="15"/>
+      <c r="T72" s="15"/>
     </row>
     <row r="73" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
+      <c r="B73" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J73" s="2">
+        <v>1</v>
+      </c>
+      <c r="K73" s="2">
+        <v>1</v>
+      </c>
+      <c r="L73" s="2">
+        <v>1</v>
+      </c>
+      <c r="M73" s="2">
+        <v>1</v>
+      </c>
+      <c r="N73" s="2">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>50</v>
+      </c>
+      <c r="Q73">
+        <v>32</v>
+      </c>
+      <c r="R73" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="S73" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="T73" s="8"/>
+      <c r="U73" s="6" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="74" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B74" s="2" t="s">
+    </row>
+    <row r="75" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D75" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E75" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F74" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H74" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74" s="2" t="s">
+      <c r="F75" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J74" s="2">
-        <v>1</v>
-      </c>
-      <c r="K74" s="2">
-        <v>1</v>
-      </c>
-      <c r="L74" s="2">
-        <v>1</v>
-      </c>
-      <c r="M74" s="2">
-        <v>1</v>
-      </c>
-      <c r="N74" s="2">
+      <c r="J75" s="2">
+        <v>1</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1</v>
+      </c>
+      <c r="L75" s="2">
+        <v>1</v>
+      </c>
+      <c r="M75" s="2">
+        <v>1</v>
+      </c>
+      <c r="N75" s="2">
         <v>0</v>
       </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-      <c r="P74">
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
         <v>50</v>
       </c>
-      <c r="Q74">
+      <c r="Q75">
         <v>32</v>
       </c>
-      <c r="R74" s="6" t="s">
+      <c r="R75" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="S74" s="8" t="s">
+      <c r="S75" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="T74" s="8"/>
-      <c r="U74" s="6" t="s">
+      <c r="T75" s="8"/>
+      <c r="U75" s="6" t="s">
         <v>181</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072D5771-7F64-428B-B02F-1C5F9563B270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645EEE28-CC6F-4261-B8E7-0C7E754D5161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="2520" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="3210" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="192">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -2169,6 +2169,122 @@
     </r>
     <rPh sb="8" eb="9">
       <t>コナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rusk_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rusk_butter_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rusk_orange_butter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rusk_orange_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rusk_orange_butter_Free</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>スライスしたオレンジバゲット</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <rPh sb="15" eb="17">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>スライスしたオレンジバゲット</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バター</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <rPh sb="19" eb="21">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オレンジピール入り</t>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2615,10 +2731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:U75"/>
+  <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2771,7 +2887,7 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A69" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A74" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -5458,7 +5574,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>9</v>
@@ -5482,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="M61" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N61" s="2">
         <v>0</v>
@@ -5498,10 +5614,10 @@
       </c>
       <c r="R61" s="6"/>
       <c r="S61" s="9" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="T61" s="10" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="U61" s="6" t="s">
         <v>181</v>
@@ -5512,16 +5628,126 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
+      <c r="B62" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1</v>
+      </c>
+      <c r="L62" s="2">
+        <v>1</v>
+      </c>
+      <c r="M62" s="2">
+        <v>1</v>
+      </c>
+      <c r="N62" s="2">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>95</v>
+      </c>
+      <c r="Q62">
+        <v>5</v>
+      </c>
+      <c r="R62" s="6"/>
+      <c r="S62" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="T62" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="U62" s="6" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="63" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
+      <c r="B63" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1</v>
+      </c>
+      <c r="L63" s="2">
+        <v>1</v>
+      </c>
+      <c r="M63" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N63" s="2">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>95</v>
+      </c>
+      <c r="Q63">
+        <v>5</v>
+      </c>
+      <c r="R63" s="6"/>
+      <c r="S63" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="T63" s="10"/>
+      <c r="U63" s="6" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="64" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -5529,42 +5755,42 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F64" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="J64" s="2">
         <v>1</v>
       </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64">
+      <c r="K64" s="2">
+        <v>1</v>
+      </c>
+      <c r="L64" s="2">
+        <v>1</v>
+      </c>
+      <c r="M64" s="2">
+        <v>1</v>
+      </c>
+      <c r="N64" s="2">
         <v>0</v>
       </c>
       <c r="O64">
@@ -5574,13 +5800,11 @@
         <v>95</v>
       </c>
       <c r="Q64">
-        <v>20</v>
-      </c>
-      <c r="R64" s="6" t="s">
-        <v>101</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R64" s="6"/>
       <c r="S64" s="9" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="T64" s="10"/>
       <c r="U64" s="6" t="s">
@@ -5593,42 +5817,42 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="F65" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="J65" s="2">
         <v>1</v>
       </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="N65">
+      <c r="K65" s="2">
+        <v>1</v>
+      </c>
+      <c r="L65" s="2">
+        <v>1</v>
+      </c>
+      <c r="M65" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N65" s="2">
         <v>0</v>
       </c>
       <c r="O65">
@@ -5638,13 +5862,15 @@
         <v>95</v>
       </c>
       <c r="Q65">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R65" s="6"/>
-      <c r="S65" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="T65" s="10"/>
+      <c r="S65" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="T65" s="10" t="s">
+        <v>191</v>
+      </c>
       <c r="U65" s="6" t="s">
         <v>181</v>
       </c>
@@ -5655,42 +5881,42 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>148</v>
+        <v>9</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
       <c r="F66" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="J66" s="2">
         <v>1</v>
       </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="N66">
+      <c r="K66" s="2">
+        <v>1</v>
+      </c>
+      <c r="L66" s="2">
+        <v>1</v>
+      </c>
+      <c r="M66" s="2">
+        <v>1</v>
+      </c>
+      <c r="N66" s="2">
         <v>0</v>
       </c>
       <c r="O66">
@@ -5700,13 +5926,15 @@
         <v>95</v>
       </c>
       <c r="Q66">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R66" s="6"/>
-      <c r="S66" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="T66" s="10"/>
+      <c r="S66" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="T66" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="U66" s="6" t="s">
         <v>181</v>
       </c>
@@ -5724,148 +5952,200 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J68" s="2">
-        <v>1</v>
-      </c>
-      <c r="K68" s="2">
-        <v>1</v>
-      </c>
-      <c r="L68" s="2">
-        <v>1</v>
-      </c>
-      <c r="M68" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N68" s="2">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>1</v>
-      </c>
-      <c r="P68">
-        <v>50</v>
-      </c>
-      <c r="Q68">
-        <v>5</v>
-      </c>
-      <c r="R68" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="S68" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T68" s="8"/>
-      <c r="U68" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="S68" s="15"/>
+      <c r="T68" s="15"/>
     </row>
     <row r="69" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="S69" s="15"/>
-      <c r="T69" s="15"/>
+      <c r="B69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>95</v>
+      </c>
+      <c r="Q69">
+        <v>20</v>
+      </c>
+      <c r="R69" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="S69" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="T69" s="10"/>
+      <c r="U69" s="6" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="70" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="S70" s="15"/>
-      <c r="T70" s="15"/>
+      <c r="B70" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>95</v>
+      </c>
+      <c r="Q70">
+        <v>20</v>
+      </c>
+      <c r="R70" s="6"/>
+      <c r="S70" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="T70" s="10"/>
+      <c r="U70" s="6" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="71" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71">
-        <f t="shared" ref="A71:A75" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
       </c>
-      <c r="K71" s="2">
-        <v>1</v>
-      </c>
-      <c r="L71" s="2">
-        <v>1</v>
-      </c>
-      <c r="M71" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N71" s="2">
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
         <v>0</v>
       </c>
       <c r="O71">
         <v>1</v>
       </c>
       <c r="P71">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="Q71">
-        <v>32</v>
-      </c>
-      <c r="R71" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S71" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T71" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="R71" s="6"/>
+      <c r="S71" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="T71" s="10"/>
       <c r="U71" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="S72" s="15"/>
@@ -5873,23 +6153,23 @@
     </row>
     <row r="73" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>9</v>
@@ -5898,7 +6178,7 @@
         <v>9</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J73" s="2">
         <v>1</v>
@@ -5910,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="M73" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N73" s="2">
         <v>0</v>
@@ -5922,13 +6202,13 @@
         <v>50</v>
       </c>
       <c r="Q73">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="R73" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="S73" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="S73" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="T73" s="8"/>
       <c r="U73" s="6" t="s">
@@ -5937,71 +6217,223 @@
     </row>
     <row r="74" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
+      <c r="S74" s="15"/>
+      <c r="T74" s="15"/>
     </row>
     <row r="75" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
+        <f>ROW()-2</f>
+        <v>73</v>
+      </c>
+      <c r="S75" s="15"/>
+      <c r="T75" s="15"/>
+    </row>
+    <row r="76" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f t="shared" ref="A76:A80" si="1">ROW()-2</f>
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J76" s="2">
+        <v>1</v>
+      </c>
+      <c r="K76" s="2">
+        <v>1</v>
+      </c>
+      <c r="L76" s="2">
+        <v>1</v>
+      </c>
+      <c r="M76" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N76" s="2">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>50</v>
+      </c>
+      <c r="Q76">
+        <v>32</v>
+      </c>
+      <c r="R76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S76" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T76" s="8"/>
+      <c r="U76" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f>ROW()-2</f>
+        <v>75</v>
+      </c>
+      <c r="S77" s="15"/>
+      <c r="T77" s="15"/>
+    </row>
+    <row r="78" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78">
         <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="B75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="E78" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J78" s="2">
+        <v>1</v>
+      </c>
+      <c r="K78" s="2">
+        <v>1</v>
+      </c>
+      <c r="L78" s="2">
+        <v>1</v>
+      </c>
+      <c r="M78" s="2">
+        <v>1</v>
+      </c>
+      <c r="N78" s="2">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>50</v>
+      </c>
+      <c r="Q78">
+        <v>32</v>
+      </c>
+      <c r="R78" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="S78" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="T78" s="8"/>
+      <c r="U78" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D80" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E80" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F75" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I75" s="2" t="s">
+      <c r="F80" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J75" s="2">
-        <v>1</v>
-      </c>
-      <c r="K75" s="2">
-        <v>1</v>
-      </c>
-      <c r="L75" s="2">
-        <v>1</v>
-      </c>
-      <c r="M75" s="2">
-        <v>1</v>
-      </c>
-      <c r="N75" s="2">
+      <c r="J80" s="2">
+        <v>1</v>
+      </c>
+      <c r="K80" s="2">
+        <v>1</v>
+      </c>
+      <c r="L80" s="2">
+        <v>1</v>
+      </c>
+      <c r="M80" s="2">
+        <v>1</v>
+      </c>
+      <c r="N80" s="2">
         <v>0</v>
       </c>
-      <c r="O75">
-        <v>1</v>
-      </c>
-      <c r="P75">
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
         <v>50</v>
       </c>
-      <c r="Q75">
+      <c r="Q80">
         <v>32</v>
       </c>
-      <c r="R75" s="6" t="s">
+      <c r="R80" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="S75" s="8" t="s">
+      <c r="S80" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="T75" s="8"/>
-      <c r="U75" s="6" t="s">
+      <c r="T80" s="8"/>
+      <c r="U80" s="6" t="s">
         <v>181</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645EEE28-CC6F-4261-B8E7-0C7E754D5161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F61B213-CEA5-4A61-90FC-05335EBFA8F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="3210" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="2100" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="206">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -882,10 +882,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>appaleil</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>neko_cookie</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -984,63 +980,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>小麦粉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>たまご</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>牛乳</t>
-    </r>
-    <rPh sb="0" eb="3">
-      <t>コムギコ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ギュウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>pan_cake</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2285,6 +2224,331 @@
     <t>オレンジピール入り</t>
     <rPh sb="7" eb="8">
       <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crepe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレープ系</t>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小麦粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アパレイユミルク</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バター</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>コムギコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小麦粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アパレイユミルク</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>コムギコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maffin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>salt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マフィン系</t>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アパレイユ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バター</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>塩</t>
+    </r>
+    <rPh sb="10" eb="11">
+      <t>シオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>biscotti</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビスコッティ系</t>
+    <rPh sb="6" eb="7">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>baking_powder</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>baking_mix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小麦粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ベーキングパウダー</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コムギコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ベーキングミックス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>たまご</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>princess_tota</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>スポンジケーキ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生クリーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <rPh sb="8" eb="9">
+      <t>ナマ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2731,10 +2995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2785,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>24</v>
@@ -2818,7 +3082,7 @@
         <v>7</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2875,19 +3139,19 @@
         <v>3</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="T2" s="8"/>
       <c r="U2" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A74" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A77" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2944,7 +3208,7 @@
       </c>
       <c r="T3" s="8"/>
       <c r="U3" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3002,11 +3266,11 @@
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T4" s="8"/>
       <c r="U4" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3031,7 +3295,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>11</v>
@@ -3082,11 +3346,11 @@
         <v>70</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T7" s="8"/>
       <c r="U7" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3095,7 +3359,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>11</v>
@@ -3104,7 +3368,7 @@
         <v>69</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>9</v>
@@ -3116,7 +3380,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -3144,11 +3408,11 @@
       </c>
       <c r="R8" s="6"/>
       <c r="S8" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T8" s="8"/>
       <c r="U8" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3157,7 +3421,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>11</v>
@@ -3166,7 +3430,7 @@
         <v>69</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>9</v>
@@ -3178,7 +3442,7 @@
         <v>9</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -3206,11 +3470,11 @@
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T9" s="8"/>
       <c r="U9" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3219,28 +3483,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -3252,10 +3516,10 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N10" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -3268,11 +3532,11 @@
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="11" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="T10" s="8"/>
       <c r="U10" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3281,10 +3545,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>9</v>
@@ -3293,16 +3557,16 @@
         <v>9</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -3317,7 +3581,7 @@
         <v>9999</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -3330,11 +3594,11 @@
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="11" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="T11" s="8"/>
       <c r="U11" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3343,10 +3607,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>9</v>
@@ -3355,16 +3619,16 @@
         <v>9</v>
       </c>
       <c r="F12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -3379,7 +3643,7 @@
         <v>9999</v>
       </c>
       <c r="N12" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -3392,11 +3656,11 @@
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="11" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="T12" s="8"/>
       <c r="U12" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3405,28 +3669,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -3441,7 +3705,7 @@
         <v>9999</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -3454,11 +3718,11 @@
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="11" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="T13" s="8"/>
       <c r="U13" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3467,10 +3731,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>11</v>
@@ -3479,16 +3743,16 @@
         <v>9</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
@@ -3516,11 +3780,11 @@
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="11" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="T14" s="8"/>
       <c r="U14" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3529,28 +3793,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
@@ -3562,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -3578,11 +3842,11 @@
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="11" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="T15" s="8"/>
       <c r="U15" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3591,16 +3855,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>9</v>
@@ -3612,7 +3876,7 @@
         <v>9</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
@@ -3624,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -3636,15 +3900,15 @@
         <v>95</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="11" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="T16" s="8"/>
       <c r="U16" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3652,156 +3916,212 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>95</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17" s="6"/>
+      <c r="S17" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="T17" s="8"/>
       <c r="U17" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19">
         <f>ROW()-2</f>
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>95</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="S19" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1</v>
-      </c>
-      <c r="M18" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>95</v>
-      </c>
-      <c r="Q18">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="S18" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="T18" s="8"/>
-      <c r="U18" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <f>ROW()-2</f>
+      <c r="T19" s="8"/>
+      <c r="U19" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="20">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1</v>
-      </c>
-      <c r="M20" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>95</v>
-      </c>
-      <c r="Q20">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="S20" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="T20" s="8"/>
-      <c r="U20" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="20">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>95</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="T21" s="8"/>
+      <c r="U21" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3817,112 +4137,54 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17">
+      <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="S24" s="19"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="3"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="6"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="S25" s="19"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="3"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>18</v>
-      </c>
-      <c r="P26">
-        <v>95</v>
-      </c>
-      <c r="Q26">
-        <v>3</v>
-      </c>
-      <c r="R26" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="S26" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="T26" s="10"/>
-      <c r="U26" s="6" t="s">
-        <v>182</v>
-      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="6"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -3930,28 +4192,28 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
@@ -3963,27 +4225,29 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P27">
         <v>95</v>
       </c>
       <c r="Q27">
-        <v>2</v>
-      </c>
-      <c r="R27" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="S27" s="9" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="T27" s="10"/>
       <c r="U27" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3992,16 +4256,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>64</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>9</v>
@@ -4013,7 +4277,7 @@
         <v>9</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -4025,27 +4289,27 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P28">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="Q28">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="R28" s="6"/>
       <c r="S28" s="9" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="T28" s="10"/>
       <c r="U28" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4054,28 +4318,28 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -4090,24 +4354,24 @@
         <v>1</v>
       </c>
       <c r="N29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P29">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="9" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="T29" s="10"/>
       <c r="U29" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4116,34 +4380,34 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -4152,10 +4416,10 @@
         <v>1</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O30">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P30">
         <v>95</v>
@@ -4163,13 +4427,13 @@
       <c r="Q30">
         <v>3</v>
       </c>
-      <c r="R30" s="12"/>
+      <c r="R30" s="6"/>
       <c r="S30" s="9" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="T30" s="10"/>
       <c r="U30" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4178,28 +4442,28 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -4211,13 +4475,13 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P31">
         <v>95</v>
@@ -4225,15 +4489,13 @@
       <c r="Q31">
         <v>3</v>
       </c>
-      <c r="R31" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="R31" s="12"/>
       <c r="S31" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="T31" s="10"/>
       <c r="U31" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4242,60 +4504,62 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="C32" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>9999</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>12</v>
+      </c>
+      <c r="P32">
+        <v>95</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2">
-        <v>1</v>
-      </c>
-      <c r="L32" s="2">
-        <v>1</v>
-      </c>
-      <c r="M32" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>3</v>
-      </c>
-      <c r="P32">
-        <v>80</v>
-      </c>
-      <c r="Q32">
-        <v>34</v>
-      </c>
-      <c r="R32" s="6"/>
-      <c r="S32" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="T32" s="8"/>
+      <c r="S32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T32" s="10"/>
       <c r="U32" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4304,16 +4568,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>55</v>
@@ -4325,7 +4589,7 @@
         <v>55</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
@@ -4346,18 +4610,18 @@
         <v>3</v>
       </c>
       <c r="P33">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q33">
-        <v>10</v>
-      </c>
-      <c r="R33" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="R33" s="6"/>
       <c r="S33" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T33" s="8"/>
       <c r="U33" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4366,28 +4630,28 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
@@ -4415,11 +4679,11 @@
       </c>
       <c r="R34" s="4"/>
       <c r="S34" s="11" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="T34" s="8"/>
       <c r="U34" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4428,28 +4692,28 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
@@ -4470,18 +4734,18 @@
         <v>3</v>
       </c>
       <c r="P35">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q35">
         <v>10</v>
       </c>
       <c r="R35" s="4"/>
       <c r="S35" s="11" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="T35" s="8"/>
       <c r="U35" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4493,10 +4757,10 @@
         <v>94</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>9</v>
@@ -4532,18 +4796,18 @@
         <v>3</v>
       </c>
       <c r="P36">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R36" s="4"/>
       <c r="S36" s="11" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="T36" s="8"/>
       <c r="U36" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4552,13 +4816,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>9</v>
@@ -4573,7 +4837,7 @@
         <v>55</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -4601,11 +4865,11 @@
       </c>
       <c r="R37" s="4"/>
       <c r="S37" s="11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="T37" s="8"/>
       <c r="U37" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4614,13 +4878,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>9</v>
@@ -4635,7 +4899,7 @@
         <v>55</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
@@ -4656,18 +4920,18 @@
         <v>3</v>
       </c>
       <c r="P38">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q38">
-        <v>34</v>
-      </c>
-      <c r="R38" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="R38" s="4"/>
       <c r="S38" s="11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="T38" s="8"/>
       <c r="U38" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4676,28 +4940,28 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
@@ -4718,18 +4982,18 @@
         <v>3</v>
       </c>
       <c r="P39">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="Q39">
-        <v>10</v>
-      </c>
-      <c r="R39" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="R39" s="6"/>
       <c r="S39" s="11" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="T39" s="8"/>
       <c r="U39" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4738,16 +5002,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>9</v>
@@ -4759,39 +5023,39 @@
         <v>9</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
       </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N40" s="2">
         <v>0</v>
       </c>
       <c r="O40">
         <v>3</v>
       </c>
       <c r="P40">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="Q40">
-        <v>3</v>
-      </c>
-      <c r="R40" s="6"/>
-      <c r="S40" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="T40" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="R40" s="4"/>
+      <c r="S40" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="T40" s="8"/>
       <c r="U40" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4799,83 +5063,81 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="9"/>
+      <c r="B41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>3</v>
+      </c>
+      <c r="P41">
+        <v>95</v>
+      </c>
+      <c r="Q41">
+        <v>3</v>
+      </c>
+      <c r="R41" s="6"/>
+      <c r="S41" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="T41" s="10"/>
-      <c r="U41" s="3"/>
+      <c r="U41" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="42" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J42" s="2">
-        <v>1</v>
-      </c>
-      <c r="K42" s="2">
-        <v>1</v>
-      </c>
-      <c r="L42" s="2">
-        <v>1</v>
-      </c>
-      <c r="M42" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N42" s="2">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>12</v>
-      </c>
-      <c r="P42">
-        <v>95</v>
-      </c>
-      <c r="Q42">
-        <v>5</v>
-      </c>
-      <c r="R42" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="S42" s="9" t="s">
-        <v>130</v>
-      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="9"/>
       <c r="T42" s="10"/>
-      <c r="U42" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="U42" s="3"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -4883,13 +5145,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>9</v>
@@ -4904,13 +5166,13 @@
         <v>9</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
       </c>
       <c r="K43" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L43" s="2">
         <v>1</v>
@@ -4922,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P43">
         <v>95</v>
@@ -4930,13 +5192,15 @@
       <c r="Q43">
         <v>5</v>
       </c>
-      <c r="R43" s="6"/>
+      <c r="R43" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="S43" s="9" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="T43" s="10"/>
       <c r="U43" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4945,16 +5209,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>9</v>
@@ -4966,25 +5230,25 @@
         <v>9</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
       </c>
       <c r="K44" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L44" s="2">
         <v>1</v>
       </c>
       <c r="M44" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P44">
         <v>95</v>
@@ -4994,11 +5258,11 @@
       </c>
       <c r="R44" s="6"/>
       <c r="S44" s="9" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="T44" s="10"/>
       <c r="U44" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5007,16 +5271,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>9</v>
@@ -5028,10 +5292,10 @@
         <v>9</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="J45" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K45" s="2">
         <v>1</v>
@@ -5040,27 +5304,27 @@
         <v>1</v>
       </c>
       <c r="M45" s="2">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P45">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q45">
         <v>5</v>
       </c>
       <c r="R45" s="6"/>
       <c r="S45" s="9" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="T45" s="10"/>
       <c r="U45" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5069,13 +5333,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>9</v>
@@ -5090,7 +5354,7 @@
         <v>9</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J46" s="2">
         <v>8</v>
@@ -5118,11 +5382,11 @@
       </c>
       <c r="R46" s="6"/>
       <c r="S46" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T46" s="10"/>
       <c r="U46" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5131,13 +5395,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>9</v>
@@ -5152,7 +5416,7 @@
         <v>9</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="J47" s="2">
         <v>8</v>
@@ -5180,11 +5444,11 @@
       </c>
       <c r="R47" s="6"/>
       <c r="S47" s="9" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="T47" s="10"/>
       <c r="U47" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5192,80 +5456,78 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="4"/>
+      <c r="B48" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J48" s="2">
+        <v>8</v>
+      </c>
+      <c r="K48" s="2">
+        <v>1</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1</v>
+      </c>
+      <c r="M48" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N48" s="2">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>100</v>
+      </c>
+      <c r="Q48">
+        <v>5</v>
+      </c>
+      <c r="R48" s="6"/>
+      <c r="S48" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="T48" s="10"/>
+      <c r="U48" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="49" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J49" s="2">
-        <v>1</v>
-      </c>
-      <c r="K49" s="2">
-        <v>1</v>
-      </c>
-      <c r="L49" s="2">
-        <v>1</v>
-      </c>
-      <c r="M49" s="2">
-        <v>1</v>
-      </c>
-      <c r="N49" s="2">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>3</v>
-      </c>
-      <c r="P49">
-        <v>95</v>
-      </c>
-      <c r="Q49">
-        <v>5</v>
-      </c>
-      <c r="R49" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="S49" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="T49" s="10"/>
-      <c r="U49" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="4"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
@@ -5273,13 +5535,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C50" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>44</v>
@@ -5288,13 +5550,13 @@
         <v>55</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -5315,17 +5577,20 @@
         <v>3</v>
       </c>
       <c r="P50">
+        <v>95</v>
+      </c>
+      <c r="Q50">
         <v>5</v>
       </c>
-      <c r="Q50">
-        <v>34</v>
-      </c>
-      <c r="S50" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T50" s="8"/>
+      <c r="R50" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S50" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T50" s="10"/>
       <c r="U50" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5334,28 +5599,28 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
@@ -5376,17 +5641,17 @@
         <v>3</v>
       </c>
       <c r="P51">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="Q51">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="S51" s="11" t="s">
         <v>46</v>
       </c>
       <c r="T51" s="8"/>
       <c r="U51" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5394,6 +5659,61 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
+      <c r="B52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2">
+        <v>1</v>
+      </c>
+      <c r="L52" s="2">
+        <v>1</v>
+      </c>
+      <c r="M52" s="2">
+        <v>1</v>
+      </c>
+      <c r="N52" s="2">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>95</v>
+      </c>
+      <c r="Q52">
+        <v>8</v>
+      </c>
+      <c r="S52" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T52" s="8"/>
+      <c r="U52" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="53" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53">
@@ -5406,6 +5726,64 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
+      <c r="B54" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1</v>
+      </c>
+      <c r="L54" s="2">
+        <v>1</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1</v>
+      </c>
+      <c r="N54" s="2">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>12</v>
+      </c>
+      <c r="P54">
+        <v>95</v>
+      </c>
+      <c r="Q54">
+        <v>5</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="S54" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="T54" s="10"/>
+      <c r="U54" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="55" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
@@ -5418,6 +5796,64 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
+      <c r="B56" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2">
+        <v>1</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1</v>
+      </c>
+      <c r="M56" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>6</v>
+      </c>
+      <c r="P56">
+        <v>95</v>
+      </c>
+      <c r="Q56">
+        <v>5</v>
+      </c>
+      <c r="R56" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="S56" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="T56" s="10"/>
+      <c r="U56" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="57" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
@@ -5436,64 +5872,6 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J59" s="2">
-        <v>1</v>
-      </c>
-      <c r="K59" s="2">
-        <v>1</v>
-      </c>
-      <c r="L59" s="2">
-        <v>1</v>
-      </c>
-      <c r="M59" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N59" s="2">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>1</v>
-      </c>
-      <c r="P59">
-        <v>95</v>
-      </c>
-      <c r="Q59">
-        <v>5</v>
-      </c>
-      <c r="R59" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="S59" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="T59" s="10"/>
-      <c r="U59" s="6" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="60" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
@@ -5501,16 +5879,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>9</v>
@@ -5522,7 +5900,7 @@
         <v>9</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
@@ -5534,13 +5912,13 @@
         <v>1</v>
       </c>
       <c r="M60" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N60" s="2">
         <v>0</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P60">
         <v>95</v>
@@ -5548,15 +5926,15 @@
       <c r="Q60">
         <v>5</v>
       </c>
-      <c r="R60" s="6"/>
+      <c r="R60" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="S60" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="T60" s="10" t="s">
-        <v>166</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="T60" s="10"/>
       <c r="U60" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5565,16 +5943,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>9</v>
@@ -5586,7 +5964,7 @@
         <v>9</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
@@ -5598,13 +5976,13 @@
         <v>1</v>
       </c>
       <c r="M61" s="2">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N61" s="2">
         <v>0</v>
       </c>
       <c r="O61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P61">
         <v>95</v>
@@ -5614,13 +5992,13 @@
       </c>
       <c r="R61" s="6"/>
       <c r="S61" s="9" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="T61" s="10" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="U61" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5629,16 +6007,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>9</v>
@@ -5650,7 +6028,7 @@
         <v>9</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
@@ -5662,13 +6040,13 @@
         <v>1</v>
       </c>
       <c r="M62" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N62" s="2">
         <v>0</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P62">
         <v>95</v>
@@ -5678,13 +6056,13 @@
       </c>
       <c r="R62" s="6"/>
       <c r="S62" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T62" s="10" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="U62" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5696,25 +6074,25 @@
         <v>184</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F63" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H63" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
@@ -5726,13 +6104,13 @@
         <v>1</v>
       </c>
       <c r="M63" s="2">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N63" s="2">
         <v>0</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P63">
         <v>95</v>
@@ -5742,11 +6120,13 @@
       </c>
       <c r="R63" s="6"/>
       <c r="S63" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="T63" s="10"/>
+        <v>188</v>
+      </c>
+      <c r="T63" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="U63" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5755,10 +6135,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>9</v>
@@ -5773,10 +6153,10 @@
         <v>58</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J64" s="2">
         <v>1</v>
@@ -5788,13 +6168,13 @@
         <v>1</v>
       </c>
       <c r="M64" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N64" s="2">
         <v>0</v>
       </c>
       <c r="O64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P64">
         <v>95</v>
@@ -5804,11 +6184,11 @@
       </c>
       <c r="R64" s="6"/>
       <c r="S64" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="T64" s="10"/>
       <c r="U64" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5817,10 +6197,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>9</v>
@@ -5835,10 +6215,10 @@
         <v>58</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="J65" s="2">
         <v>1</v>
@@ -5850,13 +6230,13 @@
         <v>1</v>
       </c>
       <c r="M65" s="2">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N65" s="2">
         <v>0</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P65">
         <v>95</v>
@@ -5866,13 +6246,11 @@
       </c>
       <c r="R65" s="6"/>
       <c r="S65" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="T65" s="10" t="s">
-        <v>191</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="T65" s="10"/>
       <c r="U65" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5881,10 +6259,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>9</v>
@@ -5899,10 +6277,10 @@
         <v>58</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J66" s="2">
         <v>1</v>
@@ -5914,13 +6292,13 @@
         <v>1</v>
       </c>
       <c r="M66" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N66" s="2">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P66">
         <v>95</v>
@@ -5930,13 +6308,13 @@
       </c>
       <c r="R66" s="6"/>
       <c r="S66" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T66" s="10" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="U66" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5944,8 +6322,64 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="S67" s="15"/>
-      <c r="T67" s="15"/>
+      <c r="B67" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1</v>
+      </c>
+      <c r="M67" s="2">
+        <v>1</v>
+      </c>
+      <c r="N67" s="2">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>3</v>
+      </c>
+      <c r="P67">
+        <v>95</v>
+      </c>
+      <c r="Q67">
+        <v>5</v>
+      </c>
+      <c r="R67" s="6"/>
+      <c r="S67" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="T67" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="U67" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="68" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
@@ -5960,64 +6394,8 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J69" s="2">
-        <v>1</v>
-      </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69">
-        <v>1</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>1</v>
-      </c>
-      <c r="P69">
-        <v>95</v>
-      </c>
-      <c r="Q69">
-        <v>20</v>
-      </c>
-      <c r="R69" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="S69" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="T69" s="10"/>
-      <c r="U69" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="S69" s="15"/>
+      <c r="T69" s="15"/>
     </row>
     <row r="70" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
@@ -6025,16 +6403,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>9</v>
@@ -6046,7 +6424,7 @@
         <v>9</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="J70" s="2">
         <v>1</v>
@@ -6064,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="O70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P70">
         <v>95</v>
@@ -6072,13 +6450,15 @@
       <c r="Q70">
         <v>20</v>
       </c>
-      <c r="R70" s="6"/>
-      <c r="S70" s="10" t="s">
-        <v>143</v>
+      <c r="R70" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S70" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="T70" s="10"/>
       <c r="U70" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6087,16 +6467,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F71" s="13" t="s">
         <v>9</v>
@@ -6108,7 +6488,7 @@
         <v>9</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
@@ -6126,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P71">
         <v>95</v>
@@ -6136,11 +6516,11 @@
       </c>
       <c r="R71" s="6"/>
       <c r="S71" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T71" s="10"/>
       <c r="U71" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6148,293 +6528,481 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="S72" s="15"/>
-      <c r="T72" s="15"/>
+      <c r="B72" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>2</v>
+      </c>
+      <c r="P72">
+        <v>95</v>
+      </c>
+      <c r="Q72">
+        <v>20</v>
+      </c>
+      <c r="R72" s="6"/>
+      <c r="S72" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="T72" s="10"/>
+      <c r="U72" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="73" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J73" s="2">
-        <v>1</v>
-      </c>
-      <c r="K73" s="2">
-        <v>1</v>
-      </c>
-      <c r="L73" s="2">
-        <v>1</v>
-      </c>
-      <c r="M73" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N73" s="2">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>1</v>
-      </c>
-      <c r="P73">
-        <v>50</v>
-      </c>
-      <c r="Q73">
-        <v>5</v>
-      </c>
-      <c r="R73" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="S73" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T73" s="8"/>
-      <c r="U73" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15"/>
     </row>
     <row r="74" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="S74" s="15"/>
-      <c r="T74" s="15"/>
+      <c r="B74" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J74" s="2">
+        <v>1</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1</v>
+      </c>
+      <c r="L74" s="2">
+        <v>1</v>
+      </c>
+      <c r="M74" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N74" s="2">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>36</v>
+      </c>
+      <c r="P74">
+        <v>50</v>
+      </c>
+      <c r="Q74">
+        <v>5</v>
+      </c>
+      <c r="R74" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="S74" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T74" s="8"/>
+      <c r="U74" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="75" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="S75" s="15"/>
-      <c r="T75" s="15"/>
+      <c r="B75" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J75" s="2">
+        <v>1</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1</v>
+      </c>
+      <c r="L75" s="2">
+        <v>1</v>
+      </c>
+      <c r="M75" s="2">
+        <v>1</v>
+      </c>
+      <c r="N75" s="2">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>6</v>
+      </c>
+      <c r="P75">
+        <v>50</v>
+      </c>
+      <c r="Q75">
+        <v>5</v>
+      </c>
+      <c r="R75" s="6"/>
+      <c r="S75" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="T75" s="8"/>
+      <c r="U75" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="76" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
-        <f t="shared" ref="A76:A80" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J76" s="2">
-        <v>1</v>
-      </c>
-      <c r="K76" s="2">
-        <v>1</v>
-      </c>
-      <c r="L76" s="2">
-        <v>1</v>
-      </c>
-      <c r="M76" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N76" s="2">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>1</v>
-      </c>
-      <c r="P76">
-        <v>50</v>
-      </c>
-      <c r="Q76">
-        <v>32</v>
-      </c>
-      <c r="R76" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S76" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T76" s="8"/>
-      <c r="U76" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="S76" s="15"/>
+      <c r="T76" s="15"/>
     </row>
     <row r="77" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="S77" s="15"/>
-      <c r="T77" s="15"/>
+      <c r="B77" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J77" s="2">
+        <v>1</v>
+      </c>
+      <c r="K77" s="2">
+        <v>1</v>
+      </c>
+      <c r="L77" s="2">
+        <v>1</v>
+      </c>
+      <c r="M77" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N77" s="2">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>2</v>
+      </c>
+      <c r="P77">
+        <v>95</v>
+      </c>
+      <c r="Q77">
+        <v>5</v>
+      </c>
+      <c r="R77" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="S77" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="T77" s="10"/>
+      <c r="U77" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="78" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>76</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J78" s="2">
-        <v>1</v>
-      </c>
-      <c r="K78" s="2">
-        <v>1</v>
-      </c>
-      <c r="L78" s="2">
-        <v>1</v>
-      </c>
-      <c r="M78" s="2">
-        <v>1</v>
-      </c>
-      <c r="N78" s="2">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>1</v>
-      </c>
-      <c r="P78">
-        <v>50</v>
-      </c>
-      <c r="Q78">
-        <v>32</v>
-      </c>
-      <c r="R78" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="S78" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="T78" s="8"/>
-      <c r="U78" s="6" t="s">
-        <v>181</v>
-      </c>
+      <c r="S78" s="15"/>
+      <c r="T78" s="15"/>
     </row>
     <row r="79" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A79:A83" si="1">ROW()-2</f>
         <v>77</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J79" s="2">
+        <v>1</v>
+      </c>
+      <c r="K79" s="2">
+        <v>1</v>
+      </c>
+      <c r="L79" s="2">
+        <v>1</v>
+      </c>
+      <c r="M79" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N79" s="2">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>72</v>
+      </c>
+      <c r="P79">
+        <v>50</v>
+      </c>
+      <c r="Q79">
+        <v>32</v>
+      </c>
+      <c r="R79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S79" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T79" s="8"/>
+      <c r="U79" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
+        <f>ROW()-2</f>
+        <v>78</v>
+      </c>
+      <c r="S80" s="15"/>
+      <c r="T80" s="15"/>
+    </row>
+    <row r="81" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81">
         <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="B80" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J81" s="2">
+        <v>1</v>
+      </c>
+      <c r="K81" s="2">
+        <v>1</v>
+      </c>
+      <c r="L81" s="2">
+        <v>1</v>
+      </c>
+      <c r="M81" s="2">
+        <v>1</v>
+      </c>
+      <c r="N81" s="2">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>50</v>
+      </c>
+      <c r="Q81">
+        <v>32</v>
+      </c>
+      <c r="R81" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S81" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="T81" s="8"/>
+      <c r="U81" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J83" s="2">
+        <v>1</v>
+      </c>
+      <c r="K83" s="2">
+        <v>1</v>
+      </c>
+      <c r="L83" s="2">
+        <v>1</v>
+      </c>
+      <c r="M83" s="2">
+        <v>1</v>
+      </c>
+      <c r="N83" s="2">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>50</v>
+      </c>
+      <c r="Q83">
+        <v>32</v>
+      </c>
+      <c r="R83" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C80" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H80" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J80" s="2">
-        <v>1</v>
-      </c>
-      <c r="K80" s="2">
-        <v>1</v>
-      </c>
-      <c r="L80" s="2">
-        <v>1</v>
-      </c>
-      <c r="M80" s="2">
-        <v>1</v>
-      </c>
-      <c r="N80" s="2">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
-      <c r="P80">
-        <v>50</v>
-      </c>
-      <c r="Q80">
-        <v>32</v>
-      </c>
-      <c r="R80" s="6" t="s">
+      <c r="S83" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="S80" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="T80" s="8"/>
-      <c r="U80" s="6" t="s">
-        <v>181</v>
+      <c r="T83" s="8"/>
+      <c r="U83" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F61B213-CEA5-4A61-90FC-05335EBFA8F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E774CCC-A679-4D7F-84CE-245B2A52F47C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2100" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="1860" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -2343,60 +2343,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アパレイユ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>バター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>塩</t>
-    </r>
-    <rPh sb="10" eb="11">
-      <t>シオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>biscotti</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2549,6 +2495,63 @@
     </r>
     <rPh sb="8" eb="9">
       <t>ナマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アパレイユ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小麦粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>塩</t>
+    </r>
+    <rPh sb="6" eb="9">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2997,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3483,7 +3486,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>11</v>
@@ -3492,19 +3495,19 @@
         <v>86</v>
       </c>
       <c r="E10" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -3532,7 +3535,7 @@
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T10" s="8"/>
       <c r="U10" s="6" t="s">
@@ -5184,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P43">
         <v>95</v>
@@ -5248,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P44">
         <v>95</v>
@@ -5310,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="O45">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P45">
         <v>95</v>
@@ -5733,7 +5736,7 @@
         <v>33</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>195</v>
@@ -5766,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P54">
         <v>95</v>
@@ -5778,7 +5781,7 @@
         <v>196</v>
       </c>
       <c r="S54" s="9" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="T54" s="10"/>
       <c r="U54" s="6" t="s">
@@ -5797,10 +5800,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>69</v>
@@ -5818,7 +5821,7 @@
         <v>9</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
@@ -5836,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P56">
         <v>95</v>
@@ -5845,10 +5848,10 @@
         <v>5</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S56" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T56" s="10"/>
       <c r="U56" s="6" t="s">
@@ -5918,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P60">
         <v>95</v>
@@ -5982,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P61">
         <v>95</v>
@@ -6046,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P62">
         <v>95</v>
@@ -6110,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="O63">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P63">
         <v>95</v>
@@ -6174,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P64">
         <v>95</v>
@@ -6236,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="O65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P65">
         <v>95</v>
@@ -6298,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="O66">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P66">
         <v>95</v>
@@ -6362,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="O67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P67">
         <v>95</v>
@@ -6442,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="O70">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="P70">
         <v>95</v>
@@ -6506,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="O71">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="P71">
         <v>95</v>
@@ -6568,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="O72">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="P72">
         <v>95</v>
@@ -6663,7 +6666,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>97</v>
@@ -6684,7 +6687,7 @@
         <v>9</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J75" s="2">
         <v>1</v>
@@ -6712,7 +6715,7 @@
       </c>
       <c r="R75" s="6"/>
       <c r="S75" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T75" s="8"/>
       <c r="U75" s="6" t="s">
@@ -6772,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="O77">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P77">
         <v>95</v>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E774CCC-A679-4D7F-84CE-245B2A52F47C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46265580-1785-4C60-A8B4-F282F5025FF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="1860" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="2775" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -3000,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="O68" sqref="O68"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46265580-1785-4C60-A8B4-F282F5025FF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE0AF29-8D46-4BF3-8048-4D54F9A6EB4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="2775" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="3465" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -3000,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE0AF29-8D46-4BF3-8048-4D54F9A6EB4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAFB873-87C3-4DB0-8B8F-818B790B31B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="3465" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="2325" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="221">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -2552,6 +2552,122 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>シオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strawberry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strawberry_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>banana_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blueberry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blueberry_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pear_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>peach</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>peach_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sakura_chip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sakura_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>honey_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kogashi_butter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kogashi_neko_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小麦粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>焦がしバター</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2998,10 +3114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:U83"/>
+  <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3154,7 +3270,7 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A77" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A85" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4259,16 +4375,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>86</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>64</v>
+        <v>218</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>9</v>
@@ -4280,7 +4396,7 @@
         <v>9</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -4292,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -4304,15 +4420,15 @@
         <v>95</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R28" s="6"/>
       <c r="S28" s="9" t="s">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="T28" s="10"/>
       <c r="U28" s="6" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4321,7 +4437,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>86</v>
@@ -4330,7 +4446,7 @@
         <v>64</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>9</v>
@@ -4342,7 +4458,7 @@
         <v>9</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -4354,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -4363,14 +4479,14 @@
         <v>12</v>
       </c>
       <c r="P29">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="Q29">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="R29" s="6"/>
       <c r="S29" s="9" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="T29" s="10"/>
       <c r="U29" s="6" t="s">
@@ -4383,28 +4499,28 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>86</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -4419,20 +4535,20 @@
         <v>1</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O30">
         <v>12</v>
       </c>
       <c r="P30">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="Q30">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="R30" s="6"/>
       <c r="S30" s="9" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="T30" s="10"/>
       <c r="U30" s="6" t="s">
@@ -4445,34 +4561,34 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>86</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -4481,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O31">
         <v>12</v>
@@ -4492,9 +4608,9 @@
       <c r="Q31">
         <v>3</v>
       </c>
-      <c r="R31" s="12"/>
+      <c r="R31" s="6"/>
       <c r="S31" s="9" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="T31" s="10"/>
       <c r="U31" s="6" t="s">
@@ -4507,28 +4623,28 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>86</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -4540,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -4554,11 +4670,9 @@
       <c r="Q32">
         <v>3</v>
       </c>
-      <c r="R32" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="R32" s="12"/>
       <c r="S32" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="T32" s="10"/>
       <c r="U32" s="6" t="s">
@@ -4571,60 +4685,62 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
       </c>
-      <c r="K33" s="2">
-        <v>1</v>
-      </c>
-      <c r="L33" s="2">
-        <v>1</v>
-      </c>
-      <c r="M33" s="2">
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
         <v>9999</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
+        <v>12</v>
+      </c>
+      <c r="P33">
+        <v>95</v>
+      </c>
+      <c r="Q33">
         <v>3</v>
       </c>
-      <c r="P33">
-        <v>80</v>
-      </c>
-      <c r="Q33">
-        <v>34</v>
-      </c>
-      <c r="R33" s="6"/>
-      <c r="S33" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="T33" s="8"/>
+      <c r="R33" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T33" s="10"/>
       <c r="U33" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4633,16 +4749,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>55</v>
@@ -4654,7 +4770,7 @@
         <v>55</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
@@ -4675,14 +4791,14 @@
         <v>3</v>
       </c>
       <c r="P34">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q34">
-        <v>10</v>
-      </c>
-      <c r="R34" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="R34" s="6"/>
       <c r="S34" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T34" s="8"/>
       <c r="U34" s="6" t="s">
@@ -4695,25 +4811,25 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>85</v>
@@ -4744,7 +4860,7 @@
       </c>
       <c r="R35" s="4"/>
       <c r="S35" s="11" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="T35" s="8"/>
       <c r="U35" s="6" t="s">
@@ -4757,28 +4873,28 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -4799,14 +4915,14 @@
         <v>3</v>
       </c>
       <c r="P36">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q36">
         <v>10</v>
       </c>
       <c r="R36" s="4"/>
       <c r="S36" s="11" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="T36" s="8"/>
       <c r="U36" s="6" t="s">
@@ -4819,13 +4935,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>9</v>
@@ -4840,7 +4956,7 @@
         <v>55</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -4861,14 +4977,14 @@
         <v>3</v>
       </c>
       <c r="P37">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R37" s="4"/>
       <c r="S37" s="11" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="T37" s="8"/>
       <c r="U37" s="6" t="s">
@@ -4881,13 +4997,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>9</v>
@@ -4902,7 +5018,7 @@
         <v>55</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
@@ -4930,7 +5046,7 @@
       </c>
       <c r="R38" s="4"/>
       <c r="S38" s="11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="T38" s="8"/>
       <c r="U38" s="6" t="s">
@@ -4943,28 +5059,28 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
@@ -4985,14 +5101,14 @@
         <v>3</v>
       </c>
       <c r="P39">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q39">
-        <v>34</v>
-      </c>
-      <c r="R39" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="R39" s="4"/>
       <c r="S39" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T39" s="8"/>
       <c r="U39" s="6" t="s">
@@ -5005,13 +5121,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>9</v>
@@ -5026,7 +5142,7 @@
         <v>9</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
@@ -5047,14 +5163,14 @@
         <v>3</v>
       </c>
       <c r="P40">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R40" s="4"/>
       <c r="S40" s="11" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="T40" s="8"/>
       <c r="U40" s="6" t="s">
@@ -5067,16 +5183,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>9</v>
@@ -5088,37 +5204,37 @@
         <v>9</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="J41" s="2">
         <v>1</v>
       </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N41" s="2">
         <v>0</v>
       </c>
       <c r="O41">
         <v>3</v>
       </c>
       <c r="P41">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q41">
-        <v>3</v>
-      </c>
-      <c r="R41" s="6"/>
-      <c r="S41" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="T41" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="R41" s="4"/>
+      <c r="S41" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T41" s="8"/>
       <c r="U41" s="6" t="s">
         <v>179</v>
       </c>
@@ -5128,19 +5244,62 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="3"/>
+      <c r="B42" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1</v>
+      </c>
+      <c r="M42" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>3</v>
+      </c>
+      <c r="P42">
+        <v>90</v>
+      </c>
+      <c r="Q42">
+        <v>11</v>
+      </c>
+      <c r="R42" s="4"/>
+      <c r="S42" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T42" s="8"/>
+      <c r="U42" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="43" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -5148,13 +5307,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>9</v>
@@ -5169,7 +5328,7 @@
         <v>9</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
@@ -5187,21 +5346,19 @@
         <v>0</v>
       </c>
       <c r="O43">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P43">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q43">
-        <v>5</v>
-      </c>
-      <c r="R43" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="S43" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="T43" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="R43" s="4"/>
+      <c r="S43" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T43" s="8"/>
       <c r="U43" s="6" t="s">
         <v>179</v>
       </c>
@@ -5212,13 +5369,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>9</v>
@@ -5233,13 +5390,13 @@
         <v>9</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
       </c>
       <c r="K44" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L44" s="2">
         <v>1</v>
@@ -5251,19 +5408,19 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P44">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q44">
-        <v>5</v>
-      </c>
-      <c r="R44" s="6"/>
-      <c r="S44" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="T44" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="R44" s="4"/>
+      <c r="S44" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T44" s="8"/>
       <c r="U44" s="6" t="s">
         <v>179</v>
       </c>
@@ -5274,16 +5431,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>9</v>
@@ -5295,7 +5452,7 @@
         <v>9</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
@@ -5307,25 +5464,25 @@
         <v>1</v>
       </c>
       <c r="M45" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P45">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q45">
-        <v>5</v>
-      </c>
-      <c r="R45" s="6"/>
-      <c r="S45" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="T45" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="R45" s="4"/>
+      <c r="S45" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T45" s="8"/>
       <c r="U45" s="6" t="s">
         <v>179</v>
       </c>
@@ -5336,31 +5493,31 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="J46" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K46" s="2">
         <v>1</v>
@@ -5375,19 +5532,19 @@
         <v>0</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P46">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q46">
-        <v>5</v>
-      </c>
-      <c r="R46" s="6"/>
-      <c r="S46" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="T46" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="R46" s="4"/>
+      <c r="S46" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="T46" s="8"/>
       <c r="U46" s="6" t="s">
         <v>179</v>
       </c>
@@ -5398,31 +5555,31 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="J47" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K47" s="2">
         <v>1</v>
@@ -5437,19 +5594,19 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P47">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q47">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="R47" s="6"/>
-      <c r="S47" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="T47" s="10"/>
+      <c r="S47" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T47" s="8"/>
       <c r="U47" s="6" t="s">
         <v>179</v>
       </c>
@@ -5460,13 +5617,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>9</v>
@@ -5481,10 +5638,10 @@
         <v>9</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="J48" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K48" s="2">
         <v>1</v>
@@ -5499,19 +5656,19 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P48">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="Q48">
-        <v>5</v>
-      </c>
-      <c r="R48" s="6"/>
-      <c r="S48" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="T48" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="R48" s="4"/>
+      <c r="S48" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="T48" s="8"/>
       <c r="U48" s="6" t="s">
         <v>179</v>
       </c>
@@ -5521,80 +5678,81 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="4"/>
+      <c r="B49" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
+      <c r="P49">
+        <v>95</v>
+      </c>
+      <c r="Q49">
+        <v>3</v>
+      </c>
+      <c r="R49" s="6"/>
+      <c r="S49" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="T49" s="10"/>
+      <c r="U49" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="50" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J50" s="2">
-        <v>1</v>
-      </c>
-      <c r="K50" s="2">
-        <v>1</v>
-      </c>
-      <c r="L50" s="2">
-        <v>1</v>
-      </c>
-      <c r="M50" s="2">
-        <v>1</v>
-      </c>
-      <c r="N50" s="2">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>3</v>
-      </c>
-      <c r="P50">
-        <v>95</v>
-      </c>
-      <c r="Q50">
-        <v>5</v>
-      </c>
-      <c r="R50" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="S50" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="9"/>
       <c r="T50" s="10"/>
-      <c r="U50" s="6" t="s">
-        <v>179</v>
-      </c>
+      <c r="U50" s="3"/>
     </row>
     <row r="51" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
@@ -5602,28 +5760,28 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
@@ -5635,24 +5793,27 @@
         <v>1</v>
       </c>
       <c r="M51" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N51" s="2">
         <v>0</v>
       </c>
       <c r="O51">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P51">
+        <v>95</v>
+      </c>
+      <c r="Q51">
         <v>5</v>
       </c>
-      <c r="Q51">
-        <v>34</v>
-      </c>
-      <c r="S51" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T51" s="8"/>
+      <c r="R51" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="S51" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="T51" s="10"/>
       <c r="U51" s="6" t="s">
         <v>179</v>
       </c>
@@ -5663,13 +5824,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>9</v>
@@ -5684,36 +5845,37 @@
         <v>9</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
       </c>
       <c r="K52" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L52" s="2">
         <v>1</v>
       </c>
       <c r="M52" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N52" s="2">
         <v>0</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P52">
         <v>95</v>
       </c>
       <c r="Q52">
-        <v>8</v>
-      </c>
-      <c r="S52" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T52" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="R52" s="6"/>
+      <c r="S52" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="T52" s="10"/>
       <c r="U52" s="6" t="s">
         <v>179</v>
       </c>
@@ -5723,6 +5885,62 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
+      <c r="B53" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2">
+        <v>1</v>
+      </c>
+      <c r="L53" s="2">
+        <v>1</v>
+      </c>
+      <c r="M53" s="2">
+        <v>1</v>
+      </c>
+      <c r="N53" s="2">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>18</v>
+      </c>
+      <c r="P53">
+        <v>95</v>
+      </c>
+      <c r="Q53">
+        <v>5</v>
+      </c>
+      <c r="R53" s="6"/>
+      <c r="S53" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="T53" s="10"/>
+      <c r="U53" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="54" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
@@ -5730,16 +5948,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>9</v>
@@ -5751,10 +5969,10 @@
         <v>9</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="J54" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K54" s="2">
         <v>1</v>
@@ -5763,25 +5981,23 @@
         <v>1</v>
       </c>
       <c r="M54" s="2">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N54" s="2">
         <v>0</v>
       </c>
       <c r="O54">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="P54">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q54">
         <v>5</v>
       </c>
-      <c r="R54" s="6" t="s">
-        <v>196</v>
-      </c>
+      <c r="R54" s="6"/>
       <c r="S54" s="9" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="T54" s="10"/>
       <c r="U54" s="6" t="s">
@@ -5793,6 +6009,62 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
+      <c r="B55" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J55" s="2">
+        <v>8</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1</v>
+      </c>
+      <c r="L55" s="2">
+        <v>1</v>
+      </c>
+      <c r="M55" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N55" s="2">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>100</v>
+      </c>
+      <c r="Q55">
+        <v>5</v>
+      </c>
+      <c r="R55" s="6"/>
+      <c r="S55" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="T55" s="10"/>
+      <c r="U55" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="56" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
@@ -5800,13 +6072,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>9</v>
@@ -5821,10 +6093,10 @@
         <v>9</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="J56" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K56" s="2">
         <v>1</v>
@@ -5839,19 +6111,17 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P56">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q56">
         <v>5</v>
       </c>
-      <c r="R56" s="6" t="s">
-        <v>198</v>
-      </c>
+      <c r="R56" s="6"/>
       <c r="S56" s="9" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="T56" s="10"/>
       <c r="U56" s="6" t="s">
@@ -5863,18 +6133,141 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="4"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
+      <c r="B58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1</v>
+      </c>
+      <c r="L58" s="2">
+        <v>1</v>
+      </c>
+      <c r="M58" s="2">
+        <v>1</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>3</v>
+      </c>
+      <c r="P58">
+        <v>95</v>
+      </c>
+      <c r="Q58">
+        <v>5</v>
+      </c>
+      <c r="R58" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S58" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T58" s="10"/>
+      <c r="U58" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="59" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
+      <c r="B59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2">
+        <v>1</v>
+      </c>
+      <c r="L59" s="2">
+        <v>1</v>
+      </c>
+      <c r="M59" s="2">
+        <v>1</v>
+      </c>
+      <c r="N59" s="2">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>3</v>
+      </c>
+      <c r="P59">
+        <v>5</v>
+      </c>
+      <c r="Q59">
+        <v>34</v>
+      </c>
+      <c r="S59" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T59" s="8"/>
+      <c r="U59" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="60" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
@@ -5882,13 +6275,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>9</v>
@@ -5903,7 +6296,7 @@
         <v>9</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
@@ -5915,27 +6308,24 @@
         <v>1</v>
       </c>
       <c r="M60" s="2">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N60" s="2">
         <v>0</v>
       </c>
       <c r="O60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P60">
         <v>95</v>
       </c>
       <c r="Q60">
-        <v>5</v>
-      </c>
-      <c r="R60" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="S60" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="T60" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="S60" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T60" s="8"/>
       <c r="U60" s="6" t="s">
         <v>179</v>
       </c>
@@ -5945,64 +6335,6 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J61" s="2">
-        <v>1</v>
-      </c>
-      <c r="K61" s="2">
-        <v>1</v>
-      </c>
-      <c r="L61" s="2">
-        <v>1</v>
-      </c>
-      <c r="M61" s="2">
-        <v>1</v>
-      </c>
-      <c r="N61" s="2">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>6</v>
-      </c>
-      <c r="P61">
-        <v>95</v>
-      </c>
-      <c r="Q61">
-        <v>5</v>
-      </c>
-      <c r="R61" s="6"/>
-      <c r="S61" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="T61" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="U61" s="6" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="62" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -6010,16 +6342,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>9</v>
@@ -6031,7 +6363,7 @@
         <v>9</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
@@ -6043,13 +6375,13 @@
         <v>1</v>
       </c>
       <c r="M62" s="2">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N62" s="2">
         <v>0</v>
       </c>
       <c r="O62">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="P62">
         <v>95</v>
@@ -6057,13 +6389,13 @@
       <c r="Q62">
         <v>5</v>
       </c>
-      <c r="R62" s="6"/>
+      <c r="R62" s="6" t="s">
+        <v>196</v>
+      </c>
       <c r="S62" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="T62" s="10" t="s">
-        <v>189</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="T62" s="10"/>
       <c r="U62" s="6" t="s">
         <v>179</v>
       </c>
@@ -6073,64 +6405,6 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J63" s="2">
-        <v>1</v>
-      </c>
-      <c r="K63" s="2">
-        <v>1</v>
-      </c>
-      <c r="L63" s="2">
-        <v>1</v>
-      </c>
-      <c r="M63" s="2">
-        <v>1</v>
-      </c>
-      <c r="N63" s="2">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>6</v>
-      </c>
-      <c r="P63">
-        <v>95</v>
-      </c>
-      <c r="Q63">
-        <v>5</v>
-      </c>
-      <c r="R63" s="6"/>
-      <c r="S63" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="T63" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="U63" s="6" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="64" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -6138,13 +6412,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>9</v>
@@ -6153,13 +6427,13 @@
         <v>9</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H64" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="J64" s="2">
         <v>1</v>
@@ -6177,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="O64">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P64">
         <v>95</v>
@@ -6185,9 +6459,11 @@
       <c r="Q64">
         <v>5</v>
       </c>
-      <c r="R64" s="6"/>
+      <c r="R64" s="6" t="s">
+        <v>198</v>
+      </c>
       <c r="S64" s="9" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="T64" s="10"/>
       <c r="U64" s="6" t="s">
@@ -6199,206 +6475,146 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J65" s="2">
-        <v>1</v>
-      </c>
-      <c r="K65" s="2">
-        <v>1</v>
-      </c>
-      <c r="L65" s="2">
-        <v>1</v>
-      </c>
-      <c r="M65" s="2">
-        <v>1</v>
-      </c>
-      <c r="N65" s="2">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>6</v>
-      </c>
-      <c r="P65">
-        <v>95</v>
-      </c>
-      <c r="Q65">
-        <v>5</v>
-      </c>
-      <c r="R65" s="6"/>
-      <c r="S65" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="T65" s="10"/>
-      <c r="U65" s="6" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="66" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J66" s="2">
-        <v>1</v>
-      </c>
-      <c r="K66" s="2">
-        <v>1</v>
-      </c>
-      <c r="L66" s="2">
-        <v>1</v>
-      </c>
-      <c r="M66" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N66" s="2">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>6</v>
-      </c>
-      <c r="P66">
-        <v>95</v>
-      </c>
-      <c r="Q66">
-        <v>5</v>
-      </c>
-      <c r="R66" s="6"/>
-      <c r="S66" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="T66" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="U66" s="6" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="67" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J67" s="2">
-        <v>1</v>
-      </c>
-      <c r="K67" s="2">
-        <v>1</v>
-      </c>
-      <c r="L67" s="2">
-        <v>1</v>
-      </c>
-      <c r="M67" s="2">
-        <v>1</v>
-      </c>
-      <c r="N67" s="2">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>6</v>
-      </c>
-      <c r="P67">
-        <v>95</v>
-      </c>
-      <c r="Q67">
-        <v>5</v>
-      </c>
-      <c r="R67" s="6"/>
-      <c r="S67" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="T67" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="U67" s="6" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="68" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="S68" s="15"/>
-      <c r="T68" s="15"/>
+      <c r="B68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1</v>
+      </c>
+      <c r="L68" s="2">
+        <v>1</v>
+      </c>
+      <c r="M68" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N68" s="2">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>6</v>
+      </c>
+      <c r="P68">
+        <v>95</v>
+      </c>
+      <c r="Q68">
+        <v>5</v>
+      </c>
+      <c r="R68" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="S68" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="T68" s="10"/>
+      <c r="U68" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="69" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="S69" s="15"/>
-      <c r="T69" s="15"/>
+      <c r="B69" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69" s="2">
+        <v>1</v>
+      </c>
+      <c r="L69" s="2">
+        <v>1</v>
+      </c>
+      <c r="M69" s="2">
+        <v>1</v>
+      </c>
+      <c r="N69" s="2">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>6</v>
+      </c>
+      <c r="P69">
+        <v>95</v>
+      </c>
+      <c r="Q69">
+        <v>5</v>
+      </c>
+      <c r="R69" s="6"/>
+      <c r="S69" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="T69" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="U69" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="70" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
@@ -6406,16 +6622,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>9</v>
@@ -6427,39 +6643,39 @@
         <v>9</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="J70" s="2">
         <v>1</v>
       </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70">
-        <v>1</v>
-      </c>
-      <c r="N70">
+      <c r="K70" s="2">
+        <v>1</v>
+      </c>
+      <c r="L70" s="2">
+        <v>1</v>
+      </c>
+      <c r="M70" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N70" s="2">
         <v>0</v>
       </c>
       <c r="O70">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P70">
         <v>95</v>
       </c>
       <c r="Q70">
-        <v>20</v>
-      </c>
-      <c r="R70" s="6" t="s">
-        <v>99</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R70" s="6"/>
       <c r="S70" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="T70" s="10"/>
+        <v>187</v>
+      </c>
+      <c r="T70" s="10" t="s">
+        <v>189</v>
+      </c>
       <c r="U70" s="6" t="s">
         <v>179</v>
       </c>
@@ -6470,16 +6686,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="F71" s="13" t="s">
         <v>9</v>
@@ -6491,37 +6707,39 @@
         <v>9</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
       </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71">
-        <v>1</v>
-      </c>
-      <c r="N71">
+      <c r="K71" s="2">
+        <v>1</v>
+      </c>
+      <c r="L71" s="2">
+        <v>1</v>
+      </c>
+      <c r="M71" s="2">
+        <v>1</v>
+      </c>
+      <c r="N71" s="2">
         <v>0</v>
       </c>
       <c r="O71">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P71">
         <v>95</v>
       </c>
       <c r="Q71">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R71" s="6"/>
-      <c r="S71" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="T71" s="10"/>
+      <c r="S71" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="T71" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="U71" s="6" t="s">
         <v>179</v>
       </c>
@@ -6532,56 +6750,56 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="F72" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H72" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="J72" s="2">
         <v>1</v>
       </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <v>1</v>
-      </c>
-      <c r="N72">
+      <c r="K72" s="2">
+        <v>1</v>
+      </c>
+      <c r="L72" s="2">
+        <v>1</v>
+      </c>
+      <c r="M72" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N72" s="2">
         <v>0</v>
       </c>
       <c r="O72">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P72">
         <v>95</v>
       </c>
       <c r="Q72">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R72" s="6"/>
-      <c r="S72" s="10" t="s">
-        <v>141</v>
+      <c r="S72" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="T72" s="10"/>
       <c r="U72" s="6" t="s">
@@ -6593,8 +6811,62 @@
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="S73" s="15"/>
-      <c r="T73" s="15"/>
+      <c r="B73" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J73" s="2">
+        <v>1</v>
+      </c>
+      <c r="K73" s="2">
+        <v>1</v>
+      </c>
+      <c r="L73" s="2">
+        <v>1</v>
+      </c>
+      <c r="M73" s="2">
+        <v>1</v>
+      </c>
+      <c r="N73" s="2">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>6</v>
+      </c>
+      <c r="P73">
+        <v>95</v>
+      </c>
+      <c r="Q73">
+        <v>5</v>
+      </c>
+      <c r="R73" s="6"/>
+      <c r="S73" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="T73" s="10"/>
+      <c r="U73" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="74" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
@@ -6602,28 +6874,28 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>175</v>
+        <v>9</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="J74" s="2">
         <v>1</v>
@@ -6641,21 +6913,21 @@
         <v>0</v>
       </c>
       <c r="O74">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="P74">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="Q74">
         <v>5</v>
       </c>
-      <c r="R74" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="S74" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T74" s="8"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="T74" s="10" t="s">
+        <v>189</v>
+      </c>
       <c r="U74" s="6" t="s">
         <v>179</v>
       </c>
@@ -6666,28 +6938,28 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>175</v>
+        <v>9</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="F75" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="J75" s="2">
         <v>1</v>
@@ -6708,16 +6980,18 @@
         <v>6</v>
       </c>
       <c r="P75">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="Q75">
         <v>5</v>
       </c>
       <c r="R75" s="6"/>
-      <c r="S75" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="T75" s="8"/>
+      <c r="S75" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="T75" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="U75" s="6" t="s">
         <v>179</v>
       </c>
@@ -6735,231 +7009,285 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J77" s="2">
-        <v>1</v>
-      </c>
-      <c r="K77" s="2">
-        <v>1</v>
-      </c>
-      <c r="L77" s="2">
-        <v>1</v>
-      </c>
-      <c r="M77" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N77" s="2">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>12</v>
-      </c>
-      <c r="P77">
-        <v>95</v>
-      </c>
-      <c r="Q77">
-        <v>5</v>
-      </c>
-      <c r="R77" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="S77" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="T77" s="10"/>
-      <c r="U77" s="6" t="s">
-        <v>179</v>
-      </c>
+      <c r="S77" s="15"/>
+      <c r="T77" s="15"/>
     </row>
     <row r="78" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="S78" s="15"/>
-      <c r="T78" s="15"/>
+      <c r="B78" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J78" s="2">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>18</v>
+      </c>
+      <c r="P78">
+        <v>95</v>
+      </c>
+      <c r="Q78">
+        <v>20</v>
+      </c>
+      <c r="R78" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S78" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="T78" s="10"/>
+      <c r="U78" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="79" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79">
-        <f t="shared" ref="A79:A83" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="J79" s="2">
         <v>1</v>
       </c>
-      <c r="K79" s="2">
-        <v>1</v>
-      </c>
-      <c r="L79" s="2">
-        <v>1</v>
-      </c>
-      <c r="M79" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N79" s="2">
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
         <v>0</v>
       </c>
       <c r="O79">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="P79">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="Q79">
-        <v>32</v>
-      </c>
-      <c r="R79" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S79" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T79" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="R79" s="6"/>
+      <c r="S79" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="T79" s="10"/>
       <c r="U79" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="S80" s="15"/>
-      <c r="T80" s="15"/>
+      <c r="B80" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J80" s="2">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>18</v>
+      </c>
+      <c r="P80">
+        <v>95</v>
+      </c>
+      <c r="Q80">
+        <v>20</v>
+      </c>
+      <c r="R80" s="6"/>
+      <c r="S80" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="T80" s="10"/>
+      <c r="U80" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="81" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J81" s="2">
-        <v>1</v>
-      </c>
-      <c r="K81" s="2">
-        <v>1</v>
-      </c>
-      <c r="L81" s="2">
-        <v>1</v>
-      </c>
-      <c r="M81" s="2">
-        <v>1</v>
-      </c>
-      <c r="N81" s="2">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
-      <c r="P81">
-        <v>50</v>
-      </c>
-      <c r="Q81">
-        <v>32</v>
-      </c>
-      <c r="R81" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="S81" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="T81" s="8"/>
-      <c r="U81" s="6" t="s">
-        <v>179</v>
-      </c>
+      <c r="S81" s="15"/>
+      <c r="T81" s="15"/>
     </row>
     <row r="82" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>80</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J82" s="2">
+        <v>1</v>
+      </c>
+      <c r="K82" s="2">
+        <v>1</v>
+      </c>
+      <c r="L82" s="2">
+        <v>1</v>
+      </c>
+      <c r="M82" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N82" s="2">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>36</v>
+      </c>
+      <c r="P82">
+        <v>50</v>
+      </c>
+      <c r="Q82">
+        <v>5</v>
+      </c>
+      <c r="R82" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="S82" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T82" s="8"/>
+      <c r="U82" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="F83" s="13" t="s">
         <v>9</v>
@@ -6971,7 +7299,7 @@
         <v>9</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="J83" s="2">
         <v>1</v>
@@ -6989,22 +7317,306 @@
         <v>0</v>
       </c>
       <c r="O83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P83">
         <v>50</v>
       </c>
       <c r="Q83">
-        <v>32</v>
-      </c>
-      <c r="R83" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="S83" s="8" t="s">
-        <v>114</v>
+        <v>5</v>
+      </c>
+      <c r="R83" s="6"/>
+      <c r="S83" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="T83" s="8"/>
       <c r="U83" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="S84" s="15"/>
+      <c r="T84" s="15"/>
+    </row>
+    <row r="85" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J85" s="2">
+        <v>1</v>
+      </c>
+      <c r="K85" s="2">
+        <v>1</v>
+      </c>
+      <c r="L85" s="2">
+        <v>1</v>
+      </c>
+      <c r="M85" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N85" s="2">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>12</v>
+      </c>
+      <c r="P85">
+        <v>95</v>
+      </c>
+      <c r="Q85">
+        <v>5</v>
+      </c>
+      <c r="R85" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="S85" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="T85" s="10"/>
+      <c r="U85" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f>ROW()-2</f>
+        <v>84</v>
+      </c>
+      <c r="S86" s="15"/>
+      <c r="T86" s="15"/>
+    </row>
+    <row r="87" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f t="shared" ref="A87:A91" si="1">ROW()-2</f>
+        <v>85</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J87" s="2">
+        <v>1</v>
+      </c>
+      <c r="K87" s="2">
+        <v>1</v>
+      </c>
+      <c r="L87" s="2">
+        <v>1</v>
+      </c>
+      <c r="M87" s="2">
+        <v>9999</v>
+      </c>
+      <c r="N87" s="2">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>72</v>
+      </c>
+      <c r="P87">
+        <v>50</v>
+      </c>
+      <c r="Q87">
+        <v>32</v>
+      </c>
+      <c r="R87" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S87" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T87" s="8"/>
+      <c r="U87" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f>ROW()-2</f>
+        <v>86</v>
+      </c>
+      <c r="S88" s="15"/>
+      <c r="T88" s="15"/>
+    </row>
+    <row r="89" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J89" s="2">
+        <v>1</v>
+      </c>
+      <c r="K89" s="2">
+        <v>1</v>
+      </c>
+      <c r="L89" s="2">
+        <v>1</v>
+      </c>
+      <c r="M89" s="2">
+        <v>1</v>
+      </c>
+      <c r="N89" s="2">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>50</v>
+      </c>
+      <c r="Q89">
+        <v>32</v>
+      </c>
+      <c r="R89" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S89" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="T89" s="8"/>
+      <c r="U89" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J91" s="2">
+        <v>1</v>
+      </c>
+      <c r="K91" s="2">
+        <v>1</v>
+      </c>
+      <c r="L91" s="2">
+        <v>1</v>
+      </c>
+      <c r="M91" s="2">
+        <v>1</v>
+      </c>
+      <c r="N91" s="2">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>50</v>
+      </c>
+      <c r="Q91">
+        <v>32</v>
+      </c>
+      <c r="R91" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="S91" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="T91" s="8"/>
+      <c r="U91" s="6" t="s">
         <v>179</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAFB873-87C3-4DB0-8B8F-818B790B31B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DA00C8-1A77-4B05-95E9-8C41EFC59454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="2325" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="3090" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="222">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -2669,6 +2669,10 @@
     <rPh sb="11" eb="13">
       <t>サトウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comp_count</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3114,10 +3118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:U91"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" topLeftCell="E31" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3136,10 +3140,11 @@
     <col min="18" max="18" width="38.85546875" customWidth="1"/>
     <col min="19" max="19" width="34.5703125" customWidth="1"/>
     <col min="20" max="20" width="30.5703125" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" style="20" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="20" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3203,8 +3208,11 @@
       <c r="U1" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V1" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>ROW()-2</f>
         <v>0</v>
@@ -3267,8 +3275,11 @@
       <c r="U2" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A85" si="0">ROW()-2</f>
         <v>1</v>
@@ -3329,8 +3340,11 @@
       <c r="U3" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3391,8 +3405,11 @@
       <c r="U4" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3400,7 +3417,7 @@
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3408,7 +3425,7 @@
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3471,8 +3488,11 @@
       <c r="U7" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3533,8 +3553,11 @@
       <c r="U8" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3595,8 +3618,11 @@
       <c r="U9" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3657,8 +3683,11 @@
       <c r="U10" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3719,8 +3748,11 @@
       <c r="U11" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3781,8 +3813,11 @@
       <c r="U12" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3843,8 +3878,11 @@
       <c r="U13" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3905,8 +3943,11 @@
       <c r="U14" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3967,8 +4008,11 @@
       <c r="U15" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4029,8 +4073,11 @@
       <c r="U16" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4091,8 +4138,11 @@
       <c r="U17" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4102,8 +4152,11 @@
       <c r="U18" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>ROW()-2</f>
         <v>17</v>
@@ -4166,8 +4219,11 @@
       <c r="U19" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4179,7 +4235,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <f>ROW()-2</f>
         <v>19</v>
@@ -4242,26 +4298,29 @@
       <c r="U21" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V21" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4289,7 +4348,7 @@
       <c r="T25" s="16"/>
       <c r="U25" s="3"/>
     </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4305,7 +4364,7 @@
       <c r="T26" s="8"/>
       <c r="U26" s="6"/>
     </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4368,8 +4427,11 @@
       <c r="U27" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4430,8 +4492,11 @@
       <c r="U28" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4492,8 +4557,11 @@
       <c r="U29" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4554,8 +4622,11 @@
       <c r="U30" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4616,8 +4687,11 @@
       <c r="U31" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4678,8 +4752,11 @@
       <c r="U32" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4742,8 +4819,11 @@
       <c r="U33" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4804,8 +4884,11 @@
       <c r="U34" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4866,8 +4949,11 @@
       <c r="U35" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4928,8 +5014,11 @@
       <c r="U36" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4990,8 +5079,11 @@
       <c r="U37" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5052,8 +5144,11 @@
       <c r="U38" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5114,8 +5209,11 @@
       <c r="U39" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5176,8 +5274,11 @@
       <c r="U40" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5238,8 +5339,11 @@
       <c r="U41" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5300,8 +5404,11 @@
       <c r="U42" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5362,8 +5469,11 @@
       <c r="U43" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5424,8 +5534,11 @@
       <c r="U44" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5486,8 +5599,11 @@
       <c r="U45" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5548,8 +5664,11 @@
       <c r="U46" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5610,8 +5729,11 @@
       <c r="U47" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5672,8 +5794,11 @@
       <c r="U48" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5734,8 +5859,11 @@
       <c r="U49" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5754,7 +5882,7 @@
       <c r="T50" s="10"/>
       <c r="U50" s="3"/>
     </row>
-    <row r="51" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5817,8 +5945,11 @@
       <c r="U51" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5879,8 +6010,11 @@
       <c r="U52" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -5941,8 +6075,11 @@
       <c r="U53" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -6003,8 +6140,11 @@
       <c r="U54" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -6065,8 +6205,11 @@
       <c r="U55" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -6127,8 +6270,11 @@
       <c r="U56" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -6144,7 +6290,7 @@
       <c r="T57" s="7"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="58" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -6207,8 +6353,11 @@
       <c r="U58" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -6268,8 +6417,11 @@
       <c r="U59" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -6329,14 +6481,17 @@
       <c r="U60" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -6399,14 +6554,17 @@
       <c r="U62" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -6469,26 +6627,29 @@
       <c r="U64" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -6551,8 +6712,11 @@
       <c r="U68" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -6615,8 +6779,11 @@
       <c r="U69" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -6679,8 +6846,11 @@
       <c r="U70" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -6743,8 +6913,11 @@
       <c r="U71" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -6805,8 +6978,11 @@
       <c r="U72" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -6867,8 +7043,11 @@
       <c r="U73" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -6931,8 +7110,11 @@
       <c r="U74" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -6995,8 +7177,11 @@
       <c r="U75" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -7004,7 +7189,7 @@
       <c r="S76" s="15"/>
       <c r="T76" s="15"/>
     </row>
-    <row r="77" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -7012,7 +7197,7 @@
       <c r="S77" s="15"/>
       <c r="T77" s="15"/>
     </row>
-    <row r="78" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -7075,8 +7260,11 @@
       <c r="U78" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -7137,8 +7325,11 @@
       <c r="U79" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -7199,8 +7390,11 @@
       <c r="U80" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="0"/>
         <v>79</v>
@@ -7208,7 +7402,7 @@
       <c r="S81" s="15"/>
       <c r="T81" s="15"/>
     </row>
-    <row r="82" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -7271,8 +7465,11 @@
       <c r="U82" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -7333,8 +7530,11 @@
       <c r="U83" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -7342,7 +7542,7 @@
       <c r="S84" s="15"/>
       <c r="T84" s="15"/>
     </row>
-    <row r="85" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="0"/>
         <v>83</v>
@@ -7405,8 +7605,11 @@
       <c r="U85" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <f>ROW()-2</f>
         <v>84</v>
@@ -7414,7 +7617,7 @@
       <c r="S86" s="15"/>
       <c r="T86" s="15"/>
     </row>
-    <row r="87" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" ref="A87:A91" si="1">ROW()-2</f>
         <v>85</v>
@@ -7477,8 +7680,11 @@
       <c r="U87" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <f>ROW()-2</f>
         <v>86</v>
@@ -7486,7 +7692,7 @@
       <c r="S88" s="15"/>
       <c r="T88" s="15"/>
     </row>
-    <row r="89" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -7549,14 +7755,17 @@
       <c r="U89" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -7618,6 +7827,9 @@
       <c r="T91" s="8"/>
       <c r="U91" s="6" t="s">
         <v>179</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DA00C8-1A77-4B05-95E9-8C41EFC59454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030A2EC0-9339-4C51-9018-C3EA4229625B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="3090" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -3120,8 +3120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
   <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E31" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6743,7 +6743,7 @@
         <v>9</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="J69" s="2">
         <v>1</v>
@@ -7009,7 +7009,7 @@
         <v>59</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="J73" s="2">
         <v>1</v>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030A2EC0-9339-4C51-9018-C3EA4229625B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B595CEEE-8AA2-403D-9496-6C80917123B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="229">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -2673,6 +2673,40 @@
   </si>
   <si>
     <t>comp_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aizan_neko_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>silver_chip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クッキーをベースに合成する系</t>
+    <rPh sb="9" eb="11">
+      <t>ゴウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>heart_neko_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kirakira_heart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jewely_suger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jewely_neko_cookie</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2733,7 +2767,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2764,6 +2798,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2777,7 +2817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2799,6 +2839,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3118,10 +3160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3132,7 +3174,7 @@
     <col min="5" max="8" width="15.140625" style="14" customWidth="1"/>
     <col min="9" max="9" width="21.85546875" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="13" width="14" customWidth="1"/>
+    <col min="11" max="13" width="14" style="22" customWidth="1"/>
     <col min="14" max="14" width="9.140625" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
     <col min="16" max="16" width="13.140625" customWidth="1"/>
@@ -3175,13 +3217,13 @@
       <c r="J1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="21" t="s">
         <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -3244,13 +3286,13 @@
       <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2">
+      <c r="K2" s="21">
+        <v>1</v>
+      </c>
+      <c r="L2" s="21">
+        <v>1</v>
+      </c>
+      <c r="M2" s="21">
         <v>9999</v>
       </c>
       <c r="N2" s="2">
@@ -3281,7 +3323,7 @@
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A85" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A88" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3311,13 +3353,13 @@
       <c r="J3" s="2">
         <v>1</v>
       </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="K3" s="21">
+        <v>1</v>
+      </c>
+      <c r="L3" s="21">
+        <v>1</v>
+      </c>
+      <c r="M3" s="21">
         <v>9999</v>
       </c>
       <c r="N3" s="2">
@@ -3376,13 +3418,13 @@
       <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="K4" s="21">
+        <v>1</v>
+      </c>
+      <c r="L4" s="21">
+        <v>1</v>
+      </c>
+      <c r="M4" s="21">
         <v>9999</v>
       </c>
       <c r="N4" s="2">
@@ -3457,13 +3499,13 @@
       <c r="J7" s="2">
         <v>1</v>
       </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="K7" s="21">
+        <v>1</v>
+      </c>
+      <c r="L7" s="21">
+        <v>1</v>
+      </c>
+      <c r="M7" s="21">
         <v>1</v>
       </c>
       <c r="N7" s="2">
@@ -3524,13 +3566,13 @@
       <c r="J8" s="2">
         <v>1</v>
       </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="K8" s="21">
+        <v>1</v>
+      </c>
+      <c r="L8" s="21">
+        <v>1</v>
+      </c>
+      <c r="M8" s="21">
         <v>1</v>
       </c>
       <c r="N8" s="2">
@@ -3589,13 +3631,13 @@
       <c r="J9" s="2">
         <v>1</v>
       </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="K9" s="21">
+        <v>1</v>
+      </c>
+      <c r="L9" s="21">
+        <v>1</v>
+      </c>
+      <c r="M9" s="21">
         <v>1</v>
       </c>
       <c r="N9" s="2">
@@ -3654,13 +3696,13 @@
       <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="K10" s="21">
+        <v>1</v>
+      </c>
+      <c r="L10" s="21">
+        <v>1</v>
+      </c>
+      <c r="M10" s="21">
         <v>1</v>
       </c>
       <c r="N10" s="2">
@@ -3719,13 +3761,13 @@
       <c r="J11" s="2">
         <v>1</v>
       </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="K11" s="21">
+        <v>1</v>
+      </c>
+      <c r="L11" s="21">
+        <v>1</v>
+      </c>
+      <c r="M11" s="21">
         <v>9999</v>
       </c>
       <c r="N11" s="2">
@@ -3784,13 +3826,13 @@
       <c r="J12" s="2">
         <v>1</v>
       </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
+      <c r="L12" s="21">
+        <v>1</v>
+      </c>
+      <c r="M12" s="21">
         <v>9999</v>
       </c>
       <c r="N12" s="2">
@@ -3849,13 +3891,13 @@
       <c r="J13" s="2">
         <v>1</v>
       </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="K13" s="21">
+        <v>1</v>
+      </c>
+      <c r="L13" s="21">
+        <v>1</v>
+      </c>
+      <c r="M13" s="21">
         <v>9999</v>
       </c>
       <c r="N13" s="2">
@@ -3914,13 +3956,13 @@
       <c r="J14" s="2">
         <v>1</v>
       </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="K14" s="21">
+        <v>1</v>
+      </c>
+      <c r="L14" s="21">
+        <v>1</v>
+      </c>
+      <c r="M14" s="21">
         <v>9999</v>
       </c>
       <c r="N14" s="2">
@@ -3979,13 +4021,13 @@
       <c r="J15" s="2">
         <v>1</v>
       </c>
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-      <c r="M15" s="2">
+      <c r="K15" s="21">
+        <v>1</v>
+      </c>
+      <c r="L15" s="21">
+        <v>1</v>
+      </c>
+      <c r="M15" s="21">
         <v>9999</v>
       </c>
       <c r="N15" s="2">
@@ -4044,13 +4086,13 @@
       <c r="J16" s="2">
         <v>1</v>
       </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="K16" s="21">
+        <v>1</v>
+      </c>
+      <c r="L16" s="21">
+        <v>1</v>
+      </c>
+      <c r="M16" s="21">
         <v>1</v>
       </c>
       <c r="N16" s="2">
@@ -4109,13 +4151,13 @@
       <c r="J17" s="2">
         <v>1</v>
       </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1</v>
-      </c>
-      <c r="M17" s="2">
+      <c r="K17" s="21">
+        <v>1</v>
+      </c>
+      <c r="L17" s="21">
+        <v>1</v>
+      </c>
+      <c r="M17" s="21">
         <v>9999</v>
       </c>
       <c r="N17" s="2">
@@ -4188,13 +4230,13 @@
       <c r="J19" s="2">
         <v>1</v>
       </c>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="K19" s="21">
+        <v>1</v>
+      </c>
+      <c r="L19" s="21">
+        <v>1</v>
+      </c>
+      <c r="M19" s="21">
         <v>9999</v>
       </c>
       <c r="N19" s="2">
@@ -4234,6 +4276,9 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -4267,13 +4312,13 @@
       <c r="J21" s="20">
         <v>1</v>
       </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="K21" s="21">
+        <v>1</v>
+      </c>
+      <c r="L21" s="21">
+        <v>1</v>
+      </c>
+      <c r="M21" s="21">
         <v>9999</v>
       </c>
       <c r="N21" s="2">
@@ -4320,7 +4365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4334,19 +4379,12 @@
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
       <c r="R25" s="16" t="s">
         <v>98</v>
       </c>
       <c r="S25" s="19"/>
       <c r="T25" s="16"/>
-      <c r="U25" s="3"/>
+      <c r="U25" s="16"/>
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -4396,13 +4434,13 @@
       <c r="J27" s="2">
         <v>1</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="22">
         <v>2</v>
       </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
+      <c r="L27" s="22">
+        <v>1</v>
+      </c>
+      <c r="M27" s="22">
         <v>1</v>
       </c>
       <c r="N27">
@@ -4463,13 +4501,13 @@
       <c r="J28" s="2">
         <v>1</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="22">
         <v>2</v>
       </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
+      <c r="L28" s="22">
+        <v>1</v>
+      </c>
+      <c r="M28" s="22">
         <v>1</v>
       </c>
       <c r="N28">
@@ -4528,13 +4566,13 @@
       <c r="J29" s="2">
         <v>1</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="22">
         <v>2</v>
       </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
+      <c r="L29" s="22">
+        <v>1</v>
+      </c>
+      <c r="M29" s="22">
         <v>9999</v>
       </c>
       <c r="N29">
@@ -4593,13 +4631,13 @@
       <c r="J30" s="2">
         <v>1</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="22">
         <v>2</v>
       </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
+      <c r="L30" s="22">
+        <v>1</v>
+      </c>
+      <c r="M30" s="22">
         <v>1</v>
       </c>
       <c r="N30">
@@ -4658,13 +4696,13 @@
       <c r="J31" s="2">
         <v>1</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="22">
         <v>2</v>
       </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
+      <c r="L31" s="22">
+        <v>1</v>
+      </c>
+      <c r="M31" s="22">
         <v>1</v>
       </c>
       <c r="N31">
@@ -4723,13 +4761,13 @@
       <c r="J32" s="2">
         <v>1</v>
       </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
+      <c r="K32" s="22">
+        <v>1</v>
+      </c>
+      <c r="L32" s="22">
+        <v>1</v>
+      </c>
+      <c r="M32" s="22">
         <v>1</v>
       </c>
       <c r="N32">
@@ -4788,13 +4826,13 @@
       <c r="J33" s="2">
         <v>1</v>
       </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
+      <c r="K33" s="22">
+        <v>1</v>
+      </c>
+      <c r="L33" s="22">
+        <v>1</v>
+      </c>
+      <c r="M33" s="22">
         <v>9999</v>
       </c>
       <c r="N33">
@@ -4808,9 +4846,6 @@
       </c>
       <c r="Q33">
         <v>3</v>
-      </c>
-      <c r="R33" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="S33" s="9" t="s">
         <v>61</v>
@@ -4855,13 +4890,13 @@
       <c r="J34" s="2">
         <v>1</v>
       </c>
-      <c r="K34" s="2">
-        <v>1</v>
-      </c>
-      <c r="L34" s="2">
-        <v>1</v>
-      </c>
-      <c r="M34" s="2">
+      <c r="K34" s="21">
+        <v>1</v>
+      </c>
+      <c r="L34" s="21">
+        <v>1</v>
+      </c>
+      <c r="M34" s="21">
         <v>9999</v>
       </c>
       <c r="N34" s="2">
@@ -4876,7 +4911,9 @@
       <c r="Q34">
         <v>34</v>
       </c>
-      <c r="R34" s="6"/>
+      <c r="R34" s="6" t="s">
+        <v>224</v>
+      </c>
       <c r="S34" s="11" t="s">
         <v>82</v>
       </c>
@@ -4894,39 +4931,39 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>85</v>
+        <v>222</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>67</v>
+        <v>223</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>85</v>
+        <v>222</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
       </c>
-      <c r="K35" s="2">
-        <v>1</v>
-      </c>
-      <c r="L35" s="2">
-        <v>1</v>
-      </c>
-      <c r="M35" s="2">
+      <c r="K35" s="21">
+        <v>1</v>
+      </c>
+      <c r="L35" s="21">
+        <v>1</v>
+      </c>
+      <c r="M35" s="21">
         <v>9999</v>
       </c>
       <c r="N35" s="2">
@@ -4959,13 +4996,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>9</v>
@@ -4980,18 +5017,18 @@
         <v>9</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
       </c>
-      <c r="K36" s="2">
-        <v>1</v>
-      </c>
-      <c r="L36" s="2">
-        <v>1</v>
-      </c>
-      <c r="M36" s="2">
+      <c r="K36" s="21">
+        <v>1</v>
+      </c>
+      <c r="L36" s="21">
+        <v>1</v>
+      </c>
+      <c r="M36" s="21">
         <v>9999</v>
       </c>
       <c r="N36" s="2">
@@ -5008,7 +5045,7 @@
       </c>
       <c r="R36" s="4"/>
       <c r="S36" s="11" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="T36" s="8"/>
       <c r="U36" s="6" t="s">
@@ -5024,39 +5061,39 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>94</v>
+        <v>228</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>94</v>
+        <v>228</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
       </c>
-      <c r="K37" s="2">
-        <v>1</v>
-      </c>
-      <c r="L37" s="2">
-        <v>1</v>
-      </c>
-      <c r="M37" s="2">
+      <c r="K37" s="21">
+        <v>1</v>
+      </c>
+      <c r="L37" s="21">
+        <v>1</v>
+      </c>
+      <c r="M37" s="21">
         <v>9999</v>
       </c>
       <c r="N37" s="2">
@@ -5066,14 +5103,14 @@
         <v>3</v>
       </c>
       <c r="P37">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q37">
         <v>10</v>
       </c>
       <c r="R37" s="4"/>
       <c r="S37" s="11" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="T37" s="8"/>
       <c r="U37" s="6" t="s">
@@ -5089,13 +5126,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>9</v>
@@ -5104,24 +5141,24 @@
         <v>55</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
       </c>
-      <c r="K38" s="2">
-        <v>1</v>
-      </c>
-      <c r="L38" s="2">
-        <v>1</v>
-      </c>
-      <c r="M38" s="2">
+      <c r="K38" s="21">
+        <v>1</v>
+      </c>
+      <c r="L38" s="21">
+        <v>1</v>
+      </c>
+      <c r="M38" s="21">
         <v>9999</v>
       </c>
       <c r="N38" s="2">
@@ -5134,11 +5171,11 @@
         <v>90</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R38" s="4"/>
       <c r="S38" s="11" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="T38" s="8"/>
       <c r="U38" s="6" t="s">
@@ -5154,13 +5191,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>9</v>
@@ -5175,18 +5212,18 @@
         <v>9</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>207</v>
+        <v>85</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
       </c>
-      <c r="K39" s="2">
-        <v>1</v>
-      </c>
-      <c r="L39" s="2">
-        <v>1</v>
-      </c>
-      <c r="M39" s="2">
+      <c r="K39" s="21">
+        <v>1</v>
+      </c>
+      <c r="L39" s="21">
+        <v>1</v>
+      </c>
+      <c r="M39" s="21">
         <v>9999</v>
       </c>
       <c r="N39" s="2">
@@ -5199,11 +5236,11 @@
         <v>90</v>
       </c>
       <c r="Q39">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R39" s="4"/>
       <c r="S39" s="11" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="T39" s="8"/>
       <c r="U39" s="6" t="s">
@@ -5219,39 +5256,39 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
       </c>
-      <c r="K40" s="2">
-        <v>1</v>
-      </c>
-      <c r="L40" s="2">
-        <v>1</v>
-      </c>
-      <c r="M40" s="2">
+      <c r="K40" s="21">
+        <v>1</v>
+      </c>
+      <c r="L40" s="21">
+        <v>1</v>
+      </c>
+      <c r="M40" s="21">
         <v>9999</v>
       </c>
       <c r="N40" s="2">
@@ -5261,14 +5298,14 @@
         <v>3</v>
       </c>
       <c r="P40">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R40" s="4"/>
       <c r="S40" s="11" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="T40" s="8"/>
       <c r="U40" s="6" t="s">
@@ -5284,39 +5321,39 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="J41" s="2">
         <v>1</v>
       </c>
-      <c r="K41" s="2">
-        <v>1</v>
-      </c>
-      <c r="L41" s="2">
-        <v>1</v>
-      </c>
-      <c r="M41" s="2">
+      <c r="K41" s="21">
+        <v>1</v>
+      </c>
+      <c r="L41" s="21">
+        <v>1</v>
+      </c>
+      <c r="M41" s="21">
         <v>9999</v>
       </c>
       <c r="N41" s="2">
@@ -5349,13 +5386,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>9</v>
@@ -5370,18 +5407,18 @@
         <v>9</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
       </c>
-      <c r="K42" s="2">
-        <v>1</v>
-      </c>
-      <c r="L42" s="2">
-        <v>1</v>
-      </c>
-      <c r="M42" s="2">
+      <c r="K42" s="21">
+        <v>1</v>
+      </c>
+      <c r="L42" s="21">
+        <v>1</v>
+      </c>
+      <c r="M42" s="21">
         <v>9999</v>
       </c>
       <c r="N42" s="2">
@@ -5414,13 +5451,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>9</v>
@@ -5435,18 +5472,18 @@
         <v>9</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
       </c>
-      <c r="K43" s="2">
-        <v>1</v>
-      </c>
-      <c r="L43" s="2">
-        <v>1</v>
-      </c>
-      <c r="M43" s="2">
+      <c r="K43" s="21">
+        <v>1</v>
+      </c>
+      <c r="L43" s="21">
+        <v>1</v>
+      </c>
+      <c r="M43" s="21">
         <v>9999</v>
       </c>
       <c r="N43" s="2">
@@ -5479,13 +5516,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>9</v>
@@ -5500,18 +5537,18 @@
         <v>9</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
       </c>
-      <c r="K44" s="2">
-        <v>1</v>
-      </c>
-      <c r="L44" s="2">
-        <v>1</v>
-      </c>
-      <c r="M44" s="2">
+      <c r="K44" s="21">
+        <v>1</v>
+      </c>
+      <c r="L44" s="21">
+        <v>1</v>
+      </c>
+      <c r="M44" s="21">
         <v>9999</v>
       </c>
       <c r="N44" s="2">
@@ -5544,13 +5581,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>9</v>
@@ -5565,18 +5602,18 @@
         <v>9</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
       </c>
-      <c r="K45" s="2">
-        <v>1</v>
-      </c>
-      <c r="L45" s="2">
-        <v>1</v>
-      </c>
-      <c r="M45" s="2">
+      <c r="K45" s="21">
+        <v>1</v>
+      </c>
+      <c r="L45" s="21">
+        <v>1</v>
+      </c>
+      <c r="M45" s="21">
         <v>9999</v>
       </c>
       <c r="N45" s="2">
@@ -5609,39 +5646,39 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
       </c>
-      <c r="K46" s="2">
-        <v>1</v>
-      </c>
-      <c r="L46" s="2">
-        <v>1</v>
-      </c>
-      <c r="M46" s="2">
+      <c r="K46" s="21">
+        <v>1</v>
+      </c>
+      <c r="L46" s="21">
+        <v>1</v>
+      </c>
+      <c r="M46" s="21">
         <v>9999</v>
       </c>
       <c r="N46" s="2">
@@ -5658,7 +5695,7 @@
       </c>
       <c r="R46" s="4"/>
       <c r="S46" s="11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="T46" s="8"/>
       <c r="U46" s="6" t="s">
@@ -5674,39 +5711,39 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
       </c>
-      <c r="K47" s="2">
-        <v>1</v>
-      </c>
-      <c r="L47" s="2">
-        <v>1</v>
-      </c>
-      <c r="M47" s="2">
+      <c r="K47" s="21">
+        <v>1</v>
+      </c>
+      <c r="L47" s="21">
+        <v>1</v>
+      </c>
+      <c r="M47" s="21">
         <v>9999</v>
       </c>
       <c r="N47" s="2">
@@ -5716,14 +5753,14 @@
         <v>3</v>
       </c>
       <c r="P47">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q47">
-        <v>34</v>
-      </c>
-      <c r="R47" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="R47" s="4"/>
       <c r="S47" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T47" s="8"/>
       <c r="U47" s="6" t="s">
@@ -5739,13 +5776,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>9</v>
@@ -5760,18 +5797,18 @@
         <v>9</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
       </c>
-      <c r="K48" s="2">
-        <v>1</v>
-      </c>
-      <c r="L48" s="2">
-        <v>1</v>
-      </c>
-      <c r="M48" s="2">
+      <c r="K48" s="21">
+        <v>1</v>
+      </c>
+      <c r="L48" s="21">
+        <v>1</v>
+      </c>
+      <c r="M48" s="21">
         <v>9999</v>
       </c>
       <c r="N48" s="2">
@@ -5781,14 +5818,14 @@
         <v>3</v>
       </c>
       <c r="P48">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q48">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R48" s="4"/>
       <c r="S48" s="11" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="T48" s="8"/>
       <c r="U48" s="6" t="s">
@@ -5804,58 +5841,58 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
       </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
+      <c r="K49" s="21">
+        <v>1</v>
+      </c>
+      <c r="L49" s="21">
+        <v>1</v>
+      </c>
+      <c r="M49" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N49" s="2">
         <v>0</v>
       </c>
       <c r="O49">
         <v>3</v>
       </c>
       <c r="P49">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q49">
-        <v>3</v>
-      </c>
-      <c r="R49" s="6"/>
-      <c r="S49" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="T49" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="R49" s="4"/>
+      <c r="S49" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="T49" s="8"/>
       <c r="U49" s="6" t="s">
         <v>179</v>
       </c>
@@ -5868,19 +5905,65 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="3"/>
+      <c r="B50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="21">
+        <v>1</v>
+      </c>
+      <c r="L50" s="21">
+        <v>1</v>
+      </c>
+      <c r="M50" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>3</v>
+      </c>
+      <c r="P50">
+        <v>95</v>
+      </c>
+      <c r="Q50">
+        <v>34</v>
+      </c>
+      <c r="R50" s="6"/>
+      <c r="S50" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T50" s="8"/>
+      <c r="U50" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
@@ -5888,13 +5971,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>9</v>
@@ -5909,39 +5992,37 @@
         <v>9</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
       </c>
-      <c r="K51" s="2">
-        <v>1</v>
-      </c>
-      <c r="L51" s="2">
-        <v>1</v>
-      </c>
-      <c r="M51" s="2">
+      <c r="K51" s="21">
+        <v>1</v>
+      </c>
+      <c r="L51" s="21">
+        <v>1</v>
+      </c>
+      <c r="M51" s="21">
         <v>9999</v>
       </c>
       <c r="N51" s="2">
         <v>0</v>
       </c>
       <c r="O51">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P51">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="Q51">
-        <v>5</v>
-      </c>
-      <c r="R51" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="S51" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="T51" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="R51" s="4"/>
+      <c r="S51" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="T51" s="8"/>
       <c r="U51" s="6" t="s">
         <v>179</v>
       </c>
@@ -5955,16 +6036,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>9</v>
@@ -5976,35 +6057,35 @@
         <v>9</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
       </c>
-      <c r="K52" s="2">
-        <v>4</v>
-      </c>
-      <c r="L52" s="2">
-        <v>1</v>
-      </c>
-      <c r="M52" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N52" s="2">
+      <c r="K52" s="22">
+        <v>1</v>
+      </c>
+      <c r="L52" s="22">
+        <v>1</v>
+      </c>
+      <c r="M52" s="22">
+        <v>1</v>
+      </c>
+      <c r="N52">
         <v>0</v>
       </c>
       <c r="O52">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P52">
         <v>95</v>
       </c>
       <c r="Q52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R52" s="6"/>
-      <c r="S52" s="9" t="s">
-        <v>181</v>
+      <c r="S52" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="T52" s="10"/>
       <c r="U52" s="6" t="s">
@@ -6019,65 +6100,19 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J53" s="2">
-        <v>1</v>
-      </c>
-      <c r="K53" s="2">
-        <v>1</v>
-      </c>
-      <c r="L53" s="2">
-        <v>1</v>
-      </c>
-      <c r="M53" s="2">
-        <v>1</v>
-      </c>
-      <c r="N53" s="2">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>18</v>
-      </c>
-      <c r="P53">
-        <v>95</v>
-      </c>
-      <c r="Q53">
-        <v>5</v>
-      </c>
-      <c r="R53" s="6"/>
-      <c r="S53" s="9" t="s">
-        <v>168</v>
-      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="9"/>
       <c r="T53" s="10"/>
-      <c r="U53" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
+      <c r="U53" s="3"/>
     </row>
     <row r="54" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
@@ -6085,56 +6120,58 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C54" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="J54" s="2">
-        <v>8</v>
-      </c>
-      <c r="K54" s="2">
-        <v>1</v>
-      </c>
-      <c r="L54" s="2">
-        <v>1</v>
-      </c>
-      <c r="M54" s="2">
+        <v>1</v>
+      </c>
+      <c r="K54" s="21">
+        <v>1</v>
+      </c>
+      <c r="L54" s="21">
+        <v>1</v>
+      </c>
+      <c r="M54" s="21">
         <v>9999</v>
       </c>
       <c r="N54" s="2">
         <v>0</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P54">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q54">
         <v>5</v>
       </c>
-      <c r="R54" s="6"/>
+      <c r="R54" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="S54" s="9" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="T54" s="10"/>
       <c r="U54" s="6" t="s">
@@ -6150,56 +6187,56 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C55" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D55" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="J55" s="2">
-        <v>8</v>
-      </c>
-      <c r="K55" s="2">
-        <v>1</v>
-      </c>
-      <c r="L55" s="2">
-        <v>1</v>
-      </c>
-      <c r="M55" s="2">
+        <v>1</v>
+      </c>
+      <c r="K55" s="21">
+        <v>4</v>
+      </c>
+      <c r="L55" s="21">
+        <v>1</v>
+      </c>
+      <c r="M55" s="21">
         <v>9999</v>
       </c>
       <c r="N55" s="2">
         <v>0</v>
       </c>
       <c r="O55">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P55">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q55">
         <v>5</v>
       </c>
       <c r="R55" s="6"/>
       <c r="S55" s="9" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="T55" s="10"/>
       <c r="U55" s="6" t="s">
@@ -6215,56 +6252,56 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C56" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="J56" s="2">
-        <v>8</v>
-      </c>
-      <c r="K56" s="2">
-        <v>1</v>
-      </c>
-      <c r="L56" s="2">
-        <v>1</v>
-      </c>
-      <c r="M56" s="2">
-        <v>9999</v>
+        <v>1</v>
+      </c>
+      <c r="K56" s="21">
+        <v>1</v>
+      </c>
+      <c r="L56" s="21">
+        <v>1</v>
+      </c>
+      <c r="M56" s="21">
+        <v>1</v>
       </c>
       <c r="N56" s="2">
         <v>0</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P56">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q56">
         <v>5</v>
       </c>
       <c r="R56" s="6"/>
       <c r="S56" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T56" s="10"/>
       <c r="U56" s="6" t="s">
@@ -6279,16 +6316,65 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="4"/>
+      <c r="B57" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J57" s="2">
+        <v>8</v>
+      </c>
+      <c r="K57" s="21">
+        <v>1</v>
+      </c>
+      <c r="L57" s="21">
+        <v>1</v>
+      </c>
+      <c r="M57" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>100</v>
+      </c>
+      <c r="Q57">
+        <v>5</v>
+      </c>
+      <c r="R57" s="6"/>
+      <c r="S57" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="T57" s="10"/>
+      <c r="U57" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
@@ -6296,19 +6382,19 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>9</v>
@@ -6317,37 +6403,35 @@
         <v>9</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="J58" s="2">
-        <v>1</v>
-      </c>
-      <c r="K58" s="2">
-        <v>1</v>
-      </c>
-      <c r="L58" s="2">
-        <v>1</v>
-      </c>
-      <c r="M58" s="2">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K58" s="21">
+        <v>1</v>
+      </c>
+      <c r="L58" s="21">
+        <v>1</v>
+      </c>
+      <c r="M58" s="21">
+        <v>9999</v>
       </c>
       <c r="N58" s="2">
         <v>0</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P58">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q58">
         <v>5</v>
       </c>
-      <c r="R58" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="R58" s="6"/>
       <c r="S58" s="9" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="T58" s="10"/>
       <c r="U58" s="6" t="s">
@@ -6363,57 +6447,58 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="J59" s="2">
-        <v>1</v>
-      </c>
-      <c r="K59" s="2">
-        <v>1</v>
-      </c>
-      <c r="L59" s="2">
-        <v>1</v>
-      </c>
-      <c r="M59" s="2">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K59" s="21">
+        <v>1</v>
+      </c>
+      <c r="L59" s="21">
+        <v>1</v>
+      </c>
+      <c r="M59" s="21">
+        <v>9999</v>
       </c>
       <c r="N59" s="2">
         <v>0</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P59">
+        <v>100</v>
+      </c>
+      <c r="Q59">
         <v>5</v>
       </c>
-      <c r="Q59">
-        <v>34</v>
-      </c>
-      <c r="S59" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T59" s="8"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="T59" s="10"/>
       <c r="U59" s="6" t="s">
         <v>179</v>
       </c>
@@ -6426,70 +6511,83 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J60" s="2">
-        <v>1</v>
-      </c>
-      <c r="K60" s="2">
-        <v>1</v>
-      </c>
-      <c r="L60" s="2">
-        <v>1</v>
-      </c>
-      <c r="M60" s="2">
-        <v>1</v>
-      </c>
-      <c r="N60" s="2">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>3</v>
-      </c>
-      <c r="P60">
-        <v>95</v>
-      </c>
-      <c r="Q60">
-        <v>8</v>
-      </c>
-      <c r="S60" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T60" s="8"/>
-      <c r="U60" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="4"/>
     </row>
     <row r="61" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
+      <c r="B61" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" s="21">
+        <v>1</v>
+      </c>
+      <c r="L61" s="21">
+        <v>1</v>
+      </c>
+      <c r="M61" s="21">
+        <v>1</v>
+      </c>
+      <c r="N61" s="2">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>3</v>
+      </c>
+      <c r="P61">
+        <v>95</v>
+      </c>
+      <c r="Q61">
+        <v>5</v>
+      </c>
+      <c r="R61" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S61" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T61" s="10"/>
+      <c r="U61" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -6497,60 +6595,57 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
       </c>
-      <c r="K62" s="2">
-        <v>1</v>
-      </c>
-      <c r="L62" s="2">
-        <v>1</v>
-      </c>
-      <c r="M62" s="2">
+      <c r="K62" s="21">
+        <v>1</v>
+      </c>
+      <c r="L62" s="21">
+        <v>1</v>
+      </c>
+      <c r="M62" s="21">
         <v>1</v>
       </c>
       <c r="N62" s="2">
         <v>0</v>
       </c>
       <c r="O62">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P62">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="Q62">
-        <v>5</v>
-      </c>
-      <c r="R62" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="S62" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="T62" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="S62" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T62" s="8"/>
       <c r="U62" s="6" t="s">
         <v>179</v>
       </c>
@@ -6563,79 +6658,137 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
+      <c r="B63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63" s="21">
+        <v>1</v>
+      </c>
+      <c r="L63" s="21">
+        <v>1</v>
+      </c>
+      <c r="M63" s="21">
+        <v>1</v>
+      </c>
+      <c r="N63" s="2">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>3</v>
+      </c>
+      <c r="P63">
+        <v>95</v>
+      </c>
+      <c r="Q63">
+        <v>8</v>
+      </c>
+      <c r="S63" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T63" s="8"/>
+      <c r="U63" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J64" s="2">
-        <v>1</v>
-      </c>
-      <c r="K64" s="2">
-        <v>1</v>
-      </c>
-      <c r="L64" s="2">
-        <v>1</v>
-      </c>
-      <c r="M64" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N64" s="2">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>12</v>
-      </c>
-      <c r="P64">
-        <v>95</v>
-      </c>
-      <c r="Q64">
-        <v>5</v>
-      </c>
-      <c r="R64" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="S64" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="T64" s="10"/>
-      <c r="U64" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
     </row>
     <row r="65" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
+      <c r="B65" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
+      <c r="K65" s="21">
+        <v>1</v>
+      </c>
+      <c r="L65" s="21">
+        <v>1</v>
+      </c>
+      <c r="M65" s="21">
+        <v>1</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>18</v>
+      </c>
+      <c r="P65">
+        <v>95</v>
+      </c>
+      <c r="Q65">
+        <v>5</v>
+      </c>
+      <c r="R65" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="S65" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="T65" s="10"/>
+      <c r="U65" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
@@ -6648,207 +6801,85 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="B67" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="21">
+        <v>1</v>
+      </c>
+      <c r="L67" s="21">
+        <v>1</v>
+      </c>
+      <c r="M67" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N67" s="2">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>12</v>
+      </c>
+      <c r="P67">
+        <v>95</v>
+      </c>
+      <c r="Q67">
+        <v>5</v>
+      </c>
+      <c r="R67" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="S67" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="T67" s="10"/>
+      <c r="U67" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J68" s="2">
-        <v>1</v>
-      </c>
-      <c r="K68" s="2">
-        <v>1</v>
-      </c>
-      <c r="L68" s="2">
-        <v>1</v>
-      </c>
-      <c r="M68" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N68" s="2">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>6</v>
-      </c>
-      <c r="P68">
-        <v>95</v>
-      </c>
-      <c r="Q68">
-        <v>5</v>
-      </c>
-      <c r="R68" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="S68" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="T68" s="10"/>
-      <c r="U68" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
     </row>
     <row r="69" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J69" s="2">
-        <v>1</v>
-      </c>
-      <c r="K69" s="2">
-        <v>1</v>
-      </c>
-      <c r="L69" s="2">
-        <v>1</v>
-      </c>
-      <c r="M69" s="2">
-        <v>1</v>
-      </c>
-      <c r="N69" s="2">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>6</v>
-      </c>
-      <c r="P69">
-        <v>95</v>
-      </c>
-      <c r="Q69">
-        <v>5</v>
-      </c>
-      <c r="R69" s="6"/>
-      <c r="S69" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="T69" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="U69" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J70" s="2">
-        <v>1</v>
-      </c>
-      <c r="K70" s="2">
-        <v>1</v>
-      </c>
-      <c r="L70" s="2">
-        <v>1</v>
-      </c>
-      <c r="M70" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N70" s="2">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>6</v>
-      </c>
-      <c r="P70">
-        <v>95</v>
-      </c>
-      <c r="Q70">
-        <v>5</v>
-      </c>
-      <c r="R70" s="6"/>
-      <c r="S70" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="T70" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="U70" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
     </row>
     <row r="71" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71">
@@ -6856,16 +6887,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F71" s="13" t="s">
         <v>9</v>
@@ -6877,19 +6908,19 @@
         <v>9</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
       </c>
-      <c r="K71" s="2">
-        <v>1</v>
-      </c>
-      <c r="L71" s="2">
-        <v>1</v>
-      </c>
-      <c r="M71" s="2">
-        <v>1</v>
+      <c r="K71" s="21">
+        <v>1</v>
+      </c>
+      <c r="L71" s="21">
+        <v>1</v>
+      </c>
+      <c r="M71" s="21">
+        <v>9999</v>
       </c>
       <c r="N71" s="2">
         <v>0</v>
@@ -6903,13 +6934,13 @@
       <c r="Q71">
         <v>5</v>
       </c>
-      <c r="R71" s="6"/>
+      <c r="R71" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="S71" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="T71" s="10" t="s">
-        <v>164</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="T71" s="10"/>
       <c r="U71" s="6" t="s">
         <v>179</v>
       </c>
@@ -6923,40 +6954,40 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F72" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H72" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="J72" s="2">
         <v>1</v>
       </c>
-      <c r="K72" s="2">
-        <v>1</v>
-      </c>
-      <c r="L72" s="2">
-        <v>1</v>
-      </c>
-      <c r="M72" s="2">
-        <v>9999</v>
+      <c r="K72" s="21">
+        <v>1</v>
+      </c>
+      <c r="L72" s="21">
+        <v>1</v>
+      </c>
+      <c r="M72" s="21">
+        <v>1</v>
       </c>
       <c r="N72" s="2">
         <v>0</v>
@@ -6972,9 +7003,11 @@
       </c>
       <c r="R72" s="6"/>
       <c r="S72" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="T72" s="10"/>
+        <v>162</v>
+      </c>
+      <c r="T72" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="U72" s="6" t="s">
         <v>179</v>
       </c>
@@ -6988,13 +7021,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>9</v>
@@ -7003,25 +7036,25 @@
         <v>9</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J73" s="2">
         <v>1</v>
       </c>
-      <c r="K73" s="2">
-        <v>1</v>
-      </c>
-      <c r="L73" s="2">
-        <v>1</v>
-      </c>
-      <c r="M73" s="2">
-        <v>1</v>
+      <c r="K73" s="21">
+        <v>1</v>
+      </c>
+      <c r="L73" s="21">
+        <v>1</v>
+      </c>
+      <c r="M73" s="21">
+        <v>9999</v>
       </c>
       <c r="N73" s="2">
         <v>0</v>
@@ -7037,9 +7070,11 @@
       </c>
       <c r="R73" s="6"/>
       <c r="S73" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="T73" s="10"/>
+        <v>187</v>
+      </c>
+      <c r="T73" s="10" t="s">
+        <v>189</v>
+      </c>
       <c r="U73" s="6" t="s">
         <v>179</v>
       </c>
@@ -7053,22 +7088,22 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>169</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F74" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>9</v>
@@ -7079,14 +7114,14 @@
       <c r="J74" s="2">
         <v>1</v>
       </c>
-      <c r="K74" s="2">
-        <v>1</v>
-      </c>
-      <c r="L74" s="2">
-        <v>1</v>
-      </c>
-      <c r="M74" s="2">
-        <v>9999</v>
+      <c r="K74" s="21">
+        <v>1</v>
+      </c>
+      <c r="L74" s="21">
+        <v>1</v>
+      </c>
+      <c r="M74" s="21">
+        <v>1</v>
       </c>
       <c r="N74" s="2">
         <v>0</v>
@@ -7102,10 +7137,10 @@
       </c>
       <c r="R74" s="6"/>
       <c r="S74" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T74" s="10" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="U74" s="6" t="s">
         <v>179</v>
@@ -7120,10 +7155,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>9</v>
@@ -7138,22 +7173,22 @@
         <v>58</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="J75" s="2">
         <v>1</v>
       </c>
-      <c r="K75" s="2">
-        <v>1</v>
-      </c>
-      <c r="L75" s="2">
-        <v>1</v>
-      </c>
-      <c r="M75" s="2">
-        <v>1</v>
+      <c r="K75" s="21">
+        <v>1</v>
+      </c>
+      <c r="L75" s="21">
+        <v>1</v>
+      </c>
+      <c r="M75" s="21">
+        <v>9999</v>
       </c>
       <c r="N75" s="2">
         <v>0</v>
@@ -7169,11 +7204,9 @@
       </c>
       <c r="R75" s="6"/>
       <c r="S75" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="T75" s="10" t="s">
-        <v>164</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="T75" s="10"/>
       <c r="U75" s="6" t="s">
         <v>179</v>
       </c>
@@ -7186,16 +7219,132 @@
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="S76" s="15"/>
-      <c r="T76" s="15"/>
+      <c r="B76" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J76" s="2">
+        <v>1</v>
+      </c>
+      <c r="K76" s="21">
+        <v>1</v>
+      </c>
+      <c r="L76" s="21">
+        <v>1</v>
+      </c>
+      <c r="M76" s="21">
+        <v>1</v>
+      </c>
+      <c r="N76" s="2">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>6</v>
+      </c>
+      <c r="P76">
+        <v>95</v>
+      </c>
+      <c r="Q76">
+        <v>5</v>
+      </c>
+      <c r="R76" s="6"/>
+      <c r="S76" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="T76" s="10"/>
+      <c r="U76" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="S77" s="15"/>
-      <c r="T77" s="15"/>
+      <c r="B77" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J77" s="2">
+        <v>1</v>
+      </c>
+      <c r="K77" s="21">
+        <v>1</v>
+      </c>
+      <c r="L77" s="21">
+        <v>1</v>
+      </c>
+      <c r="M77" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N77" s="2">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>6</v>
+      </c>
+      <c r="P77">
+        <v>95</v>
+      </c>
+      <c r="Q77">
+        <v>5</v>
+      </c>
+      <c r="R77" s="6"/>
+      <c r="S77" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="T77" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="U77" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
@@ -7203,60 +7352,60 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F78" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="J78" s="2">
         <v>1</v>
       </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="N78">
+      <c r="K78" s="21">
+        <v>1</v>
+      </c>
+      <c r="L78" s="21">
+        <v>1</v>
+      </c>
+      <c r="M78" s="21">
+        <v>1</v>
+      </c>
+      <c r="N78" s="2">
         <v>0</v>
       </c>
       <c r="O78">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P78">
         <v>95</v>
       </c>
       <c r="Q78">
-        <v>20</v>
-      </c>
-      <c r="R78" s="6" t="s">
-        <v>99</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R78" s="6"/>
       <c r="S78" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="T78" s="10"/>
+        <v>188</v>
+      </c>
+      <c r="T78" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="U78" s="6" t="s">
         <v>179</v>
       </c>
@@ -7269,138 +7418,83 @@
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J79" s="2">
-        <v>1</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-      <c r="L79">
-        <v>1</v>
-      </c>
-      <c r="M79">
-        <v>1</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>18</v>
-      </c>
-      <c r="P79">
-        <v>95</v>
-      </c>
-      <c r="Q79">
-        <v>20</v>
-      </c>
-      <c r="R79" s="6"/>
-      <c r="S79" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="T79" s="10"/>
-      <c r="U79" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
+      <c r="S79" s="15"/>
+      <c r="T79" s="15"/>
     </row>
     <row r="80" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H80" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J80" s="2">
-        <v>1</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="M80">
-        <v>1</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>18</v>
-      </c>
-      <c r="P80">
-        <v>95</v>
-      </c>
-      <c r="Q80">
-        <v>20</v>
-      </c>
-      <c r="R80" s="6"/>
-      <c r="S80" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="T80" s="10"/>
-      <c r="U80" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
+      <c r="S80" s="15"/>
+      <c r="T80" s="15"/>
     </row>
     <row r="81" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="S81" s="15"/>
-      <c r="T81" s="15"/>
+      <c r="B81" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J81" s="2">
+        <v>1</v>
+      </c>
+      <c r="K81" s="22">
+        <v>1</v>
+      </c>
+      <c r="L81" s="22">
+        <v>1</v>
+      </c>
+      <c r="M81" s="22">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>18</v>
+      </c>
+      <c r="P81">
+        <v>95</v>
+      </c>
+      <c r="Q81">
+        <v>20</v>
+      </c>
+      <c r="R81" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S81" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="T81" s="10"/>
+      <c r="U81" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
@@ -7408,19 +7502,19 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G82" s="13" t="s">
         <v>9</v>
@@ -7429,39 +7523,37 @@
         <v>9</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="J82" s="2">
         <v>1</v>
       </c>
-      <c r="K82" s="2">
-        <v>1</v>
-      </c>
-      <c r="L82" s="2">
-        <v>1</v>
-      </c>
-      <c r="M82" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N82" s="2">
+      <c r="K82" s="22">
+        <v>1</v>
+      </c>
+      <c r="L82" s="22">
+        <v>1</v>
+      </c>
+      <c r="M82" s="22">
+        <v>1</v>
+      </c>
+      <c r="N82">
         <v>0</v>
       </c>
       <c r="O82">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P82">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="Q82">
-        <v>5</v>
-      </c>
-      <c r="R82" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="S82" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T82" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="R82" s="6"/>
+      <c r="S82" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="T82" s="10"/>
       <c r="U82" s="6" t="s">
         <v>179</v>
       </c>
@@ -7475,13 +7567,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="E83" s="13" t="s">
         <v>147</v>
@@ -7496,37 +7588,37 @@
         <v>9</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="J83" s="2">
         <v>1</v>
       </c>
-      <c r="K83" s="2">
-        <v>1</v>
-      </c>
-      <c r="L83" s="2">
-        <v>1</v>
-      </c>
-      <c r="M83" s="2">
-        <v>1</v>
-      </c>
-      <c r="N83" s="2">
+      <c r="K83" s="22">
+        <v>1</v>
+      </c>
+      <c r="L83" s="22">
+        <v>1</v>
+      </c>
+      <c r="M83" s="22">
+        <v>1</v>
+      </c>
+      <c r="N83">
         <v>0</v>
       </c>
       <c r="O83">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="P83">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="Q83">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R83" s="6"/>
-      <c r="S83" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="T83" s="8"/>
+      <c r="S83" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="T83" s="10"/>
       <c r="U83" s="6" t="s">
         <v>179</v>
       </c>
@@ -7548,19 +7640,19 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>86</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="E85" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G85" s="13" t="s">
         <v>9</v>
@@ -7569,39 +7661,39 @@
         <v>9</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="J85" s="2">
         <v>1</v>
       </c>
-      <c r="K85" s="2">
-        <v>1</v>
-      </c>
-      <c r="L85" s="2">
-        <v>1</v>
-      </c>
-      <c r="M85" s="2">
+      <c r="K85" s="21">
+        <v>1</v>
+      </c>
+      <c r="L85" s="21">
+        <v>1</v>
+      </c>
+      <c r="M85" s="21">
         <v>9999</v>
       </c>
       <c r="N85" s="2">
         <v>0</v>
       </c>
       <c r="O85">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="P85">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="Q85">
         <v>5</v>
       </c>
       <c r="R85" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="S85" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="T85" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="S85" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T85" s="8"/>
       <c r="U85" s="6" t="s">
         <v>179</v>
       </c>
@@ -7611,224 +7703,364 @@
     </row>
     <row r="86" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="S86" s="15"/>
-      <c r="T86" s="15"/>
+      <c r="B86" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J86" s="2">
+        <v>1</v>
+      </c>
+      <c r="K86" s="21">
+        <v>1</v>
+      </c>
+      <c r="L86" s="21">
+        <v>1</v>
+      </c>
+      <c r="M86" s="21">
+        <v>1</v>
+      </c>
+      <c r="N86" s="2">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>6</v>
+      </c>
+      <c r="P86">
+        <v>50</v>
+      </c>
+      <c r="Q86">
+        <v>5</v>
+      </c>
+      <c r="R86" s="6"/>
+      <c r="S86" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="T86" s="8"/>
+      <c r="U86" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87">
-        <f t="shared" ref="A87:A91" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H87" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J87" s="2">
-        <v>1</v>
-      </c>
-      <c r="K87" s="2">
-        <v>1</v>
-      </c>
-      <c r="L87" s="2">
-        <v>1</v>
-      </c>
-      <c r="M87" s="2">
-        <v>9999</v>
-      </c>
-      <c r="N87" s="2">
-        <v>0</v>
-      </c>
-      <c r="O87">
-        <v>72</v>
-      </c>
-      <c r="P87">
-        <v>50</v>
-      </c>
-      <c r="Q87">
-        <v>32</v>
-      </c>
-      <c r="R87" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S87" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T87" s="8"/>
-      <c r="U87" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V87">
-        <v>0</v>
-      </c>
+      <c r="S87" s="15"/>
+      <c r="T87" s="15"/>
     </row>
     <row r="88" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="S88" s="15"/>
-      <c r="T88" s="15"/>
+      <c r="B88" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J88" s="2">
+        <v>1</v>
+      </c>
+      <c r="K88" s="21">
+        <v>1</v>
+      </c>
+      <c r="L88" s="21">
+        <v>1</v>
+      </c>
+      <c r="M88" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N88" s="2">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>12</v>
+      </c>
+      <c r="P88">
+        <v>95</v>
+      </c>
+      <c r="Q88">
+        <v>5</v>
+      </c>
+      <c r="R88" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="S88" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="T88" s="10"/>
+      <c r="U88" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>87</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J89" s="2">
-        <v>1</v>
-      </c>
-      <c r="K89" s="2">
-        <v>1</v>
-      </c>
-      <c r="L89" s="2">
-        <v>1</v>
-      </c>
-      <c r="M89" s="2">
-        <v>1</v>
-      </c>
-      <c r="N89" s="2">
-        <v>0</v>
-      </c>
-      <c r="O89">
-        <v>1</v>
-      </c>
-      <c r="P89">
-        <v>50</v>
-      </c>
-      <c r="Q89">
-        <v>32</v>
-      </c>
-      <c r="R89" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="S89" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="T89" s="8"/>
-      <c r="U89" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V89">
-        <v>0</v>
-      </c>
+      <c r="S89" s="15"/>
+      <c r="T89" s="15"/>
     </row>
     <row r="90" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A90:A94" si="1">ROW()-2</f>
         <v>88</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J90" s="2">
+        <v>1</v>
+      </c>
+      <c r="K90" s="21">
+        <v>1</v>
+      </c>
+      <c r="L90" s="21">
+        <v>1</v>
+      </c>
+      <c r="M90" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N90" s="2">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>72</v>
+      </c>
+      <c r="P90">
+        <v>50</v>
+      </c>
+      <c r="Q90">
+        <v>32</v>
+      </c>
+      <c r="R90" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S90" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T90" s="8"/>
+      <c r="U90" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91">
+        <f>ROW()-2</f>
+        <v>89</v>
+      </c>
+      <c r="S91" s="15"/>
+      <c r="T91" s="15"/>
+    </row>
+    <row r="92" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92">
         <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="B91" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D92" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="E92" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J92" s="2">
+        <v>1</v>
+      </c>
+      <c r="K92" s="21">
+        <v>1</v>
+      </c>
+      <c r="L92" s="21">
+        <v>1</v>
+      </c>
+      <c r="M92" s="21">
+        <v>1</v>
+      </c>
+      <c r="N92" s="2">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <v>50</v>
+      </c>
+      <c r="Q92">
+        <v>32</v>
+      </c>
+      <c r="R92" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S92" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="T92" s="8"/>
+      <c r="U92" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D94" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E91" s="13" t="s">
+      <c r="E94" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F91" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H91" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I91" s="2" t="s">
+      <c r="F94" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I94" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J91" s="2">
-        <v>1</v>
-      </c>
-      <c r="K91" s="2">
-        <v>1</v>
-      </c>
-      <c r="L91" s="2">
-        <v>1</v>
-      </c>
-      <c r="M91" s="2">
-        <v>1</v>
-      </c>
-      <c r="N91" s="2">
-        <v>0</v>
-      </c>
-      <c r="O91">
-        <v>1</v>
-      </c>
-      <c r="P91">
+      <c r="J94" s="2">
+        <v>1</v>
+      </c>
+      <c r="K94" s="21">
+        <v>1</v>
+      </c>
+      <c r="L94" s="21">
+        <v>1</v>
+      </c>
+      <c r="M94" s="21">
+        <v>1</v>
+      </c>
+      <c r="N94" s="2">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94">
         <v>50</v>
       </c>
-      <c r="Q91">
+      <c r="Q94">
         <v>32</v>
       </c>
-      <c r="R91" s="6" t="s">
+      <c r="R94" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="S91" s="8" t="s">
+      <c r="S94" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="T91" s="8"/>
-      <c r="U91" s="6" t="s">
+      <c r="T94" s="8"/>
+      <c r="U94" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="V91">
+      <c r="V94">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B595CEEE-8AA2-403D-9496-6C80917123B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0B2251-3821-470F-B08C-D0A864AFDBF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="3330" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="231">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -2707,6 +2707,14 @@
   </si>
   <si>
     <t>jewely_neko_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mixcolor_neko_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mix_color_sprinkles</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3160,10 +3168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:V94"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3323,7 +3331,7 @@
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A88" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A89" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -5126,28 +5134,28 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>67</v>
+        <v>230</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
@@ -5191,25 +5199,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>85</v>
@@ -5240,7 +5248,7 @@
       </c>
       <c r="R39" s="4"/>
       <c r="S39" s="11" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="T39" s="8"/>
       <c r="U39" s="6" t="s">
@@ -5256,28 +5264,28 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
@@ -5298,14 +5306,14 @@
         <v>3</v>
       </c>
       <c r="P40">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q40">
         <v>10</v>
       </c>
       <c r="R40" s="4"/>
       <c r="S40" s="11" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="T40" s="8"/>
       <c r="U40" s="6" t="s">
@@ -5321,13 +5329,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>9</v>
@@ -5342,7 +5350,7 @@
         <v>55</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J41" s="2">
         <v>1</v>
@@ -5363,14 +5371,14 @@
         <v>3</v>
       </c>
       <c r="P41">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q41">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R41" s="4"/>
       <c r="S41" s="11" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="T41" s="8"/>
       <c r="U41" s="6" t="s">
@@ -5386,28 +5394,28 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
@@ -5451,13 +5459,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>9</v>
@@ -5472,7 +5480,7 @@
         <v>9</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
@@ -5516,13 +5524,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>9</v>
@@ -5537,7 +5545,7 @@
         <v>9</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
@@ -5581,13 +5589,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>9</v>
@@ -5602,7 +5610,7 @@
         <v>9</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
@@ -5646,13 +5654,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>9</v>
@@ -5667,7 +5675,7 @@
         <v>9</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -5711,13 +5719,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>9</v>
@@ -5732,7 +5740,7 @@
         <v>9</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
@@ -5776,13 +5784,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>9</v>
@@ -5797,7 +5805,7 @@
         <v>9</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
@@ -5841,28 +5849,28 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
@@ -5890,7 +5898,7 @@
       </c>
       <c r="R49" s="4"/>
       <c r="S49" s="11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="T49" s="8"/>
       <c r="U49" s="6" t="s">
@@ -5906,13 +5914,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>9</v>
@@ -5927,7 +5935,7 @@
         <v>55</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -5948,14 +5956,14 @@
         <v>3</v>
       </c>
       <c r="P50">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q50">
-        <v>34</v>
-      </c>
-      <c r="R50" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="R50" s="4"/>
       <c r="S50" s="11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="T50" s="8"/>
       <c r="U50" s="6" t="s">
@@ -5971,28 +5979,28 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
@@ -6013,14 +6021,14 @@
         <v>3</v>
       </c>
       <c r="P51">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="Q51">
-        <v>10</v>
-      </c>
-      <c r="R51" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="R51" s="6"/>
       <c r="S51" s="11" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="T51" s="8"/>
       <c r="U51" s="6" t="s">
@@ -6036,16 +6044,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>9</v>
@@ -6057,37 +6065,37 @@
         <v>9</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
       </c>
-      <c r="K52" s="22">
-        <v>1</v>
-      </c>
-      <c r="L52" s="22">
-        <v>1</v>
-      </c>
-      <c r="M52" s="22">
-        <v>1</v>
-      </c>
-      <c r="N52">
+      <c r="K52" s="21">
+        <v>1</v>
+      </c>
+      <c r="L52" s="21">
+        <v>1</v>
+      </c>
+      <c r="M52" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N52" s="2">
         <v>0</v>
       </c>
       <c r="O52">
         <v>3</v>
       </c>
       <c r="P52">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="Q52">
-        <v>3</v>
-      </c>
-      <c r="R52" s="6"/>
-      <c r="S52" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="T52" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="R52" s="4"/>
+      <c r="S52" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="T52" s="8"/>
       <c r="U52" s="6" t="s">
         <v>179</v>
       </c>
@@ -6100,86 +6108,84 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="9"/>
+      <c r="B53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+      <c r="K53" s="22">
+        <v>1</v>
+      </c>
+      <c r="L53" s="22">
+        <v>1</v>
+      </c>
+      <c r="M53" s="22">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>3</v>
+      </c>
+      <c r="P53">
+        <v>95</v>
+      </c>
+      <c r="Q53">
+        <v>3</v>
+      </c>
+      <c r="R53" s="6"/>
+      <c r="S53" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="T53" s="10"/>
-      <c r="U53" s="3"/>
+      <c r="U53" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J54" s="2">
-        <v>1</v>
-      </c>
-      <c r="K54" s="21">
-        <v>1</v>
-      </c>
-      <c r="L54" s="21">
-        <v>1</v>
-      </c>
-      <c r="M54" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N54" s="2">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>18</v>
-      </c>
-      <c r="P54">
-        <v>95</v>
-      </c>
-      <c r="Q54">
-        <v>5</v>
-      </c>
-      <c r="R54" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="S54" s="9" t="s">
-        <v>128</v>
-      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="9"/>
       <c r="T54" s="10"/>
-      <c r="U54" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
+      <c r="U54" s="3"/>
     </row>
     <row r="55" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
@@ -6187,7 +6193,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>86</v>
@@ -6208,13 +6214,13 @@
         <v>9</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
       </c>
       <c r="K55" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L55" s="21">
         <v>1</v>
@@ -6234,9 +6240,11 @@
       <c r="Q55">
         <v>5</v>
       </c>
-      <c r="R55" s="6"/>
+      <c r="R55" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="S55" s="9" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="T55" s="10"/>
       <c r="U55" s="6" t="s">
@@ -6252,7 +6260,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>86</v>
@@ -6261,7 +6269,7 @@
         <v>126</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>9</v>
@@ -6273,19 +6281,19 @@
         <v>9</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
       </c>
       <c r="K56" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L56" s="21">
         <v>1</v>
       </c>
       <c r="M56" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N56" s="2">
         <v>0</v>
@@ -6301,7 +6309,7 @@
       </c>
       <c r="R56" s="6"/>
       <c r="S56" s="9" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="T56" s="10"/>
       <c r="U56" s="6" t="s">
@@ -6317,16 +6325,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>9</v>
@@ -6338,10 +6346,10 @@
         <v>9</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="J57" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K57" s="21">
         <v>1</v>
@@ -6350,23 +6358,23 @@
         <v>1</v>
       </c>
       <c r="M57" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N57" s="2">
         <v>0</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P57">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q57">
         <v>5</v>
       </c>
       <c r="R57" s="6"/>
       <c r="S57" s="9" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="T57" s="10"/>
       <c r="U57" s="6" t="s">
@@ -6382,10 +6390,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>158</v>
@@ -6447,10 +6455,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>158</v>
@@ -6468,7 +6476,7 @@
         <v>9</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="J59" s="2">
         <v>8</v>
@@ -6496,7 +6504,7 @@
       </c>
       <c r="R59" s="6"/>
       <c r="S59" s="9" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="T59" s="10"/>
       <c r="U59" s="6" t="s">
@@ -6511,83 +6519,81 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="4"/>
+      <c r="B60" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J60" s="2">
+        <v>8</v>
+      </c>
+      <c r="K60" s="21">
+        <v>1</v>
+      </c>
+      <c r="L60" s="21">
+        <v>1</v>
+      </c>
+      <c r="M60" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N60" s="2">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>100</v>
+      </c>
+      <c r="Q60">
+        <v>5</v>
+      </c>
+      <c r="R60" s="6"/>
+      <c r="S60" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="T60" s="10"/>
+      <c r="U60" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J61" s="2">
-        <v>1</v>
-      </c>
-      <c r="K61" s="21">
-        <v>1</v>
-      </c>
-      <c r="L61" s="21">
-        <v>1</v>
-      </c>
-      <c r="M61" s="21">
-        <v>1</v>
-      </c>
-      <c r="N61" s="2">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>3</v>
-      </c>
-      <c r="P61">
-        <v>95</v>
-      </c>
-      <c r="Q61">
-        <v>5</v>
-      </c>
-      <c r="R61" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="S61" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="T61" s="10"/>
-      <c r="U61" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="4"/>
     </row>
     <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -6595,13 +6601,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C62" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>44</v>
@@ -6610,10 +6616,10 @@
         <v>55</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>108</v>
@@ -6637,15 +6643,18 @@
         <v>3</v>
       </c>
       <c r="P62">
+        <v>95</v>
+      </c>
+      <c r="Q62">
         <v>5</v>
       </c>
-      <c r="Q62">
-        <v>34</v>
-      </c>
-      <c r="S62" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T62" s="8"/>
+      <c r="R62" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S62" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T62" s="10"/>
       <c r="U62" s="6" t="s">
         <v>179</v>
       </c>
@@ -6659,28 +6668,28 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C63" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
@@ -6701,10 +6710,10 @@
         <v>3</v>
       </c>
       <c r="P63">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="Q63">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="S63" s="11" t="s">
         <v>46</v>
@@ -6722,152 +6731,210 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
+      <c r="B64" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64" s="21">
+        <v>1</v>
+      </c>
+      <c r="L64" s="21">
+        <v>1</v>
+      </c>
+      <c r="M64" s="21">
+        <v>1</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>3</v>
+      </c>
+      <c r="P64">
+        <v>95</v>
+      </c>
+      <c r="Q64">
+        <v>8</v>
+      </c>
+      <c r="S64" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T64" s="8"/>
+      <c r="U64" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J65" s="2">
-        <v>1</v>
-      </c>
-      <c r="K65" s="21">
-        <v>1</v>
-      </c>
-      <c r="L65" s="21">
-        <v>1</v>
-      </c>
-      <c r="M65" s="21">
-        <v>1</v>
-      </c>
-      <c r="N65" s="2">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>18</v>
-      </c>
-      <c r="P65">
-        <v>95</v>
-      </c>
-      <c r="Q65">
-        <v>5</v>
-      </c>
-      <c r="R65" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="S65" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="T65" s="10"/>
-      <c r="U65" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
     </row>
     <row r="66" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
+      <c r="B66" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
+      <c r="K66" s="21">
+        <v>1</v>
+      </c>
+      <c r="L66" s="21">
+        <v>1</v>
+      </c>
+      <c r="M66" s="21">
+        <v>1</v>
+      </c>
+      <c r="N66" s="2">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>18</v>
+      </c>
+      <c r="P66">
+        <v>95</v>
+      </c>
+      <c r="Q66">
+        <v>5</v>
+      </c>
+      <c r="R66" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="S66" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="T66" s="10"/>
+      <c r="U66" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J67" s="2">
-        <v>1</v>
-      </c>
-      <c r="K67" s="21">
-        <v>1</v>
-      </c>
-      <c r="L67" s="21">
-        <v>1</v>
-      </c>
-      <c r="M67" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N67" s="2">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>12</v>
-      </c>
-      <c r="P67">
-        <v>95</v>
-      </c>
-      <c r="Q67">
-        <v>5</v>
-      </c>
-      <c r="R67" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="S67" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="T67" s="10"/>
-      <c r="U67" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
     </row>
     <row r="68" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
+      <c r="B68" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+      <c r="K68" s="21">
+        <v>1</v>
+      </c>
+      <c r="L68" s="21">
+        <v>1</v>
+      </c>
+      <c r="M68" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N68" s="2">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>12</v>
+      </c>
+      <c r="P68">
+        <v>95</v>
+      </c>
+      <c r="Q68">
+        <v>5</v>
+      </c>
+      <c r="R68" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="S68" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="T68" s="10"/>
+      <c r="U68" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
@@ -6886,67 +6953,6 @@
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J71" s="2">
-        <v>1</v>
-      </c>
-      <c r="K71" s="21">
-        <v>1</v>
-      </c>
-      <c r="L71" s="21">
-        <v>1</v>
-      </c>
-      <c r="M71" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N71" s="2">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>6</v>
-      </c>
-      <c r="P71">
-        <v>95</v>
-      </c>
-      <c r="Q71">
-        <v>5</v>
-      </c>
-      <c r="R71" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="S71" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="T71" s="10"/>
-      <c r="U71" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
     </row>
     <row r="72" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
@@ -6954,7 +6960,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>157</v>
@@ -6963,7 +6969,7 @@
         <v>11</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F72" s="13" t="s">
         <v>9</v>
@@ -6975,7 +6981,7 @@
         <v>9</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="J72" s="2">
         <v>1</v>
@@ -6987,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="M72" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N72" s="2">
         <v>0</v>
@@ -7001,13 +7007,13 @@
       <c r="Q72">
         <v>5</v>
       </c>
-      <c r="R72" s="6"/>
+      <c r="R72" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="S72" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="T72" s="10" t="s">
-        <v>164</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="T72" s="10"/>
       <c r="U72" s="6" t="s">
         <v>179</v>
       </c>
@@ -7021,16 +7027,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D73" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F73" s="13" t="s">
         <v>9</v>
@@ -7042,7 +7048,7 @@
         <v>9</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J73" s="2">
         <v>1</v>
@@ -7054,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="M73" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N73" s="2">
         <v>0</v>
@@ -7070,10 +7076,10 @@
       </c>
       <c r="R73" s="6"/>
       <c r="S73" s="9" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="T73" s="10" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="U73" s="6" t="s">
         <v>179</v>
@@ -7088,7 +7094,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>169</v>
@@ -7097,7 +7103,7 @@
         <v>11</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F74" s="13" t="s">
         <v>9</v>
@@ -7121,7 +7127,7 @@
         <v>1</v>
       </c>
       <c r="M74" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N74" s="2">
         <v>0</v>
@@ -7137,10 +7143,10 @@
       </c>
       <c r="R74" s="6"/>
       <c r="S74" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T74" s="10" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="U74" s="6" t="s">
         <v>179</v>
@@ -7155,28 +7161,28 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F75" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H75" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="J75" s="2">
         <v>1</v>
@@ -7188,7 +7194,7 @@
         <v>1</v>
       </c>
       <c r="M75" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N75" s="2">
         <v>0</v>
@@ -7204,9 +7210,11 @@
       </c>
       <c r="R75" s="6"/>
       <c r="S75" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="T75" s="10"/>
+        <v>188</v>
+      </c>
+      <c r="T75" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="U75" s="6" t="s">
         <v>179</v>
       </c>
@@ -7220,7 +7228,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>157</v>
@@ -7238,10 +7246,10 @@
         <v>58</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="J76" s="2">
         <v>1</v>
@@ -7253,7 +7261,7 @@
         <v>1</v>
       </c>
       <c r="M76" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N76" s="2">
         <v>0</v>
@@ -7269,7 +7277,7 @@
       </c>
       <c r="R76" s="6"/>
       <c r="S76" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="T76" s="10"/>
       <c r="U76" s="6" t="s">
@@ -7285,10 +7293,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>9</v>
@@ -7303,10 +7311,10 @@
         <v>58</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J77" s="2">
         <v>1</v>
@@ -7318,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="M77" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N77" s="2">
         <v>0</v>
@@ -7334,11 +7342,9 @@
       </c>
       <c r="R77" s="6"/>
       <c r="S77" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="T77" s="10" t="s">
-        <v>189</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="T77" s="10"/>
       <c r="U77" s="6" t="s">
         <v>179</v>
       </c>
@@ -7352,7 +7358,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>169</v>
@@ -7370,7 +7376,7 @@
         <v>58</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>165</v>
@@ -7385,7 +7391,7 @@
         <v>1</v>
       </c>
       <c r="M78" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N78" s="2">
         <v>0</v>
@@ -7401,10 +7407,10 @@
       </c>
       <c r="R78" s="6"/>
       <c r="S78" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T78" s="10" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="U78" s="6" t="s">
         <v>179</v>
@@ -7418,8 +7424,67 @@
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="S79" s="15"/>
-      <c r="T79" s="15"/>
+      <c r="B79" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J79" s="2">
+        <v>1</v>
+      </c>
+      <c r="K79" s="21">
+        <v>1</v>
+      </c>
+      <c r="L79" s="21">
+        <v>1</v>
+      </c>
+      <c r="M79" s="21">
+        <v>1</v>
+      </c>
+      <c r="N79" s="2">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>6</v>
+      </c>
+      <c r="P79">
+        <v>95</v>
+      </c>
+      <c r="Q79">
+        <v>5</v>
+      </c>
+      <c r="R79" s="6"/>
+      <c r="S79" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="T79" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="U79" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
@@ -7434,67 +7499,8 @@
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J81" s="2">
-        <v>1</v>
-      </c>
-      <c r="K81" s="22">
-        <v>1</v>
-      </c>
-      <c r="L81" s="22">
-        <v>1</v>
-      </c>
-      <c r="M81" s="22">
-        <v>1</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>18</v>
-      </c>
-      <c r="P81">
-        <v>95</v>
-      </c>
-      <c r="Q81">
-        <v>20</v>
-      </c>
-      <c r="R81" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="S81" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="T81" s="10"/>
-      <c r="U81" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
+      <c r="S81" s="15"/>
+      <c r="T81" s="15"/>
     </row>
     <row r="82" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
@@ -7502,28 +7508,28 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="C82" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I82" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F82" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H82" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="J82" s="2">
         <v>1</v>
@@ -7549,9 +7555,11 @@
       <c r="Q82">
         <v>20</v>
       </c>
-      <c r="R82" s="6"/>
-      <c r="S82" s="10" t="s">
-        <v>141</v>
+      <c r="R82" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S82" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="T82" s="10"/>
       <c r="U82" s="6" t="s">
@@ -7567,16 +7575,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>89</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F83" s="13" t="s">
         <v>9</v>
@@ -7588,7 +7596,7 @@
         <v>9</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J83" s="2">
         <v>1</v>
@@ -7631,75 +7639,73 @@
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="S84" s="15"/>
-      <c r="T84" s="15"/>
+      <c r="B84" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J84" s="2">
+        <v>1</v>
+      </c>
+      <c r="K84" s="22">
+        <v>1</v>
+      </c>
+      <c r="L84" s="22">
+        <v>1</v>
+      </c>
+      <c r="M84" s="22">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>18</v>
+      </c>
+      <c r="P84">
+        <v>95</v>
+      </c>
+      <c r="Q84">
+        <v>20</v>
+      </c>
+      <c r="R84" s="6"/>
+      <c r="S84" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="T84" s="10"/>
+      <c r="U84" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H85" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J85" s="2">
-        <v>1</v>
-      </c>
-      <c r="K85" s="21">
-        <v>1</v>
-      </c>
-      <c r="L85" s="21">
-        <v>1</v>
-      </c>
-      <c r="M85" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N85" s="2">
-        <v>0</v>
-      </c>
-      <c r="O85">
-        <v>36</v>
-      </c>
-      <c r="P85">
-        <v>50</v>
-      </c>
-      <c r="Q85">
-        <v>5</v>
-      </c>
-      <c r="R85" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="S85" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T85" s="8"/>
-      <c r="U85" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V85">
-        <v>0</v>
-      </c>
+      <c r="S85" s="15"/>
+      <c r="T85" s="15"/>
     </row>
     <row r="86" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86">
@@ -7707,19 +7713,19 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D86" s="13" t="s">
         <v>175</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G86" s="13" t="s">
         <v>9</v>
@@ -7728,7 +7734,7 @@
         <v>9</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c r="J86" s="2">
         <v>1</v>
@@ -7740,13 +7746,13 @@
         <v>1</v>
       </c>
       <c r="M86" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N86" s="2">
         <v>0</v>
       </c>
       <c r="O86">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="P86">
         <v>50</v>
@@ -7754,9 +7760,11 @@
       <c r="Q86">
         <v>5</v>
       </c>
-      <c r="R86" s="6"/>
+      <c r="R86" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="S86" s="11" t="s">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="T86" s="8"/>
       <c r="U86" s="6" t="s">
@@ -7771,296 +7779,361 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="S87" s="15"/>
-      <c r="T87" s="15"/>
+      <c r="B87" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J87" s="2">
+        <v>1</v>
+      </c>
+      <c r="K87" s="21">
+        <v>1</v>
+      </c>
+      <c r="L87" s="21">
+        <v>1</v>
+      </c>
+      <c r="M87" s="21">
+        <v>1</v>
+      </c>
+      <c r="N87" s="2">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>6</v>
+      </c>
+      <c r="P87">
+        <v>50</v>
+      </c>
+      <c r="Q87">
+        <v>5</v>
+      </c>
+      <c r="R87" s="6"/>
+      <c r="S87" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="T87" s="8"/>
+      <c r="U87" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J88" s="2">
-        <v>1</v>
-      </c>
-      <c r="K88" s="21">
-        <v>1</v>
-      </c>
-      <c r="L88" s="21">
-        <v>1</v>
-      </c>
-      <c r="M88" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N88" s="2">
-        <v>0</v>
-      </c>
-      <c r="O88">
-        <v>12</v>
-      </c>
-      <c r="P88">
-        <v>95</v>
-      </c>
-      <c r="Q88">
-        <v>5</v>
-      </c>
-      <c r="R88" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="S88" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="T88" s="10"/>
-      <c r="U88" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V88">
-        <v>0</v>
-      </c>
+      <c r="S88" s="15"/>
+      <c r="T88" s="15"/>
     </row>
     <row r="89" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="S89" s="15"/>
-      <c r="T89" s="15"/>
+      <c r="B89" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J89" s="2">
+        <v>1</v>
+      </c>
+      <c r="K89" s="21">
+        <v>1</v>
+      </c>
+      <c r="L89" s="21">
+        <v>1</v>
+      </c>
+      <c r="M89" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N89" s="2">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>12</v>
+      </c>
+      <c r="P89">
+        <v>95</v>
+      </c>
+      <c r="Q89">
+        <v>5</v>
+      </c>
+      <c r="R89" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="S89" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="T89" s="10"/>
+      <c r="U89" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f t="shared" ref="A90:A94" si="1">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>88</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H90" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J90" s="2">
-        <v>1</v>
-      </c>
-      <c r="K90" s="21">
-        <v>1</v>
-      </c>
-      <c r="L90" s="21">
-        <v>1</v>
-      </c>
-      <c r="M90" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N90" s="2">
-        <v>0</v>
-      </c>
-      <c r="O90">
-        <v>72</v>
-      </c>
-      <c r="P90">
-        <v>50</v>
-      </c>
-      <c r="Q90">
-        <v>32</v>
-      </c>
-      <c r="R90" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S90" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T90" s="8"/>
-      <c r="U90" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V90">
-        <v>0</v>
-      </c>
+      <c r="S90" s="15"/>
+      <c r="T90" s="15"/>
     </row>
     <row r="91" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A91:A95" si="1">ROW()-2</f>
         <v>89</v>
       </c>
-      <c r="S91" s="15"/>
-      <c r="T91" s="15"/>
+      <c r="B91" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J91" s="2">
+        <v>1</v>
+      </c>
+      <c r="K91" s="21">
+        <v>1</v>
+      </c>
+      <c r="L91" s="21">
+        <v>1</v>
+      </c>
+      <c r="M91" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N91" s="2">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>72</v>
+      </c>
+      <c r="P91">
+        <v>50</v>
+      </c>
+      <c r="Q91">
+        <v>32</v>
+      </c>
+      <c r="R91" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S91" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T91" s="8"/>
+      <c r="U91" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>90</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H92" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J92" s="2">
-        <v>1</v>
-      </c>
-      <c r="K92" s="21">
-        <v>1</v>
-      </c>
-      <c r="L92" s="21">
-        <v>1</v>
-      </c>
-      <c r="M92" s="21">
-        <v>1</v>
-      </c>
-      <c r="N92" s="2">
-        <v>0</v>
-      </c>
-      <c r="O92">
-        <v>1</v>
-      </c>
-      <c r="P92">
-        <v>50</v>
-      </c>
-      <c r="Q92">
-        <v>32</v>
-      </c>
-      <c r="R92" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="S92" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="T92" s="8"/>
-      <c r="U92" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V92">
-        <v>0</v>
-      </c>
+      <c r="S92" s="15"/>
+      <c r="T92" s="15"/>
     </row>
     <row r="93" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
+      <c r="B93" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J93" s="2">
+        <v>1</v>
+      </c>
+      <c r="K93" s="21">
+        <v>1</v>
+      </c>
+      <c r="L93" s="21">
+        <v>1</v>
+      </c>
+      <c r="M93" s="21">
+        <v>1</v>
+      </c>
+      <c r="N93" s="2">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>50</v>
+      </c>
+      <c r="Q93">
+        <v>32</v>
+      </c>
+      <c r="R93" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S93" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="T93" s="8"/>
+      <c r="U93" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B94" s="2" t="s">
+    </row>
+    <row r="95" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C95" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D95" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="13" t="s">
+      <c r="E95" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F94" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H94" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I94" s="2" t="s">
+      <c r="F95" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I95" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J94" s="2">
-        <v>1</v>
-      </c>
-      <c r="K94" s="21">
-        <v>1</v>
-      </c>
-      <c r="L94" s="21">
-        <v>1</v>
-      </c>
-      <c r="M94" s="21">
-        <v>1</v>
-      </c>
-      <c r="N94" s="2">
-        <v>0</v>
-      </c>
-      <c r="O94">
-        <v>1</v>
-      </c>
-      <c r="P94">
+      <c r="J95" s="2">
+        <v>1</v>
+      </c>
+      <c r="K95" s="21">
+        <v>1</v>
+      </c>
+      <c r="L95" s="21">
+        <v>1</v>
+      </c>
+      <c r="M95" s="21">
+        <v>1</v>
+      </c>
+      <c r="N95" s="2">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
         <v>50</v>
       </c>
-      <c r="Q94">
+      <c r="Q95">
         <v>32</v>
       </c>
-      <c r="R94" s="6" t="s">
+      <c r="R95" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="S94" s="8" t="s">
+      <c r="S95" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="T94" s="8"/>
-      <c r="U94" s="6" t="s">
+      <c r="T95" s="8"/>
+      <c r="U95" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="V94">
+      <c r="V95">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0B2251-3821-470F-B08C-D0A864AFDBF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE235A39-F3BA-420B-AA21-3BB9DFF17BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3330" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="3135" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="250">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -2715,6 +2715,355 @@
   </si>
   <si>
     <t>mix_color_sprinkles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appaleil_milk2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appaleil_creampuff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>塩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バター</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>牛乳</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ギュウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>塩ミルク</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>鍋</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appaleil_creampuff2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シュークリーム系</t>
+    <rPh sb="7" eb="8">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>siboribukuro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>creampuff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>シュー用生地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>絞り袋</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ブクロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>puff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>シュー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ホイップクリーム</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whisk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>row_cream</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタードクリーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホイップクリーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メレンゲ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生クリーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>泡だて器</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whipped cream_row</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ホイップクリーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>絞り袋</t>
+    </r>
+    <rPh sb="9" eb="10">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ブクロ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3168,10 +3517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:V95"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3331,7 +3680,7 @@
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A89" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A98" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3523,7 +3872,7 @@
         <v>1</v>
       </c>
       <c r="P7">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3590,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3655,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="P9">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -3678,16 +4027,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>9</v>
@@ -3699,7 +4048,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -3720,14 +4069,14 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q10">
         <v>3</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="11" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="T10" s="8"/>
       <c r="U10" s="6" t="s">
@@ -3743,28 +4092,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>9</v>
+        <v>231</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -3776,23 +4125,23 @@
         <v>1</v>
       </c>
       <c r="M11" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="P11">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q11">
         <v>3</v>
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="11" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="T11" s="8"/>
       <c r="U11" s="6" t="s">
@@ -3808,28 +4157,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -3841,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -3850,14 +4199,14 @@
         <v>1</v>
       </c>
       <c r="P12">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q12">
         <v>3</v>
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="11" t="s">
-        <v>49</v>
+        <v>234</v>
       </c>
       <c r="T12" s="8"/>
       <c r="U12" s="6" t="s">
@@ -3873,28 +4222,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -3906,23 +4255,23 @@
         <v>1</v>
       </c>
       <c r="M13" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="P13">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q13">
         <v>3</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="11" t="s">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="T13" s="8"/>
       <c r="U13" s="6" t="s">
@@ -3938,28 +4287,28 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
@@ -3974,20 +4323,20 @@
         <v>9999</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
       <c r="P14">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q14">
         <v>3</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="11" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="T14" s="8"/>
       <c r="U14" s="6" t="s">
@@ -4003,13 +4352,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>9</v>
@@ -4018,13 +4367,13 @@
         <v>55</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
@@ -4045,14 +4394,14 @@
         <v>1</v>
       </c>
       <c r="P15">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q15">
         <v>3</v>
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="T15" s="8"/>
       <c r="U15" s="6" t="s">
@@ -4068,28 +4417,28 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
@@ -4101,23 +4450,23 @@
         <v>1</v>
       </c>
       <c r="M16" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
       <c r="P16">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q16">
         <v>3</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="11" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="T16" s="8"/>
       <c r="U16" s="6" t="s">
@@ -4133,13 +4482,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>9</v>
@@ -4154,7 +4503,7 @@
         <v>9</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
@@ -4175,14 +4524,14 @@
         <v>1</v>
       </c>
       <c r="P17">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="11" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="T17" s="8"/>
       <c r="U17" s="6" t="s">
@@ -4197,8 +4546,61 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
+      <c r="B18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="21">
+        <v>1</v>
+      </c>
+      <c r="L18" s="21">
+        <v>1</v>
+      </c>
+      <c r="M18" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>100</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" s="8"/>
       <c r="U18" s="6" t="s">
         <v>179</v>
       </c>
@@ -4208,20 +4610,20 @@
     </row>
     <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>115</v>
+      <c r="B19" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>9</v>
@@ -4233,7 +4635,7 @@
         <v>9</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -4245,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
@@ -4254,16 +4656,16 @@
         <v>1</v>
       </c>
       <c r="P19">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q19">
         <v>3</v>
       </c>
-      <c r="R19" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S19" s="8" t="s">
-        <v>117</v>
+      <c r="R19" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="S19" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="T19" s="8"/>
       <c r="U19" s="6" t="s">
@@ -4273,37 +4675,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
+    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="21">
+        <v>1</v>
+      </c>
+      <c r="L20" s="21">
+        <v>1</v>
+      </c>
+      <c r="M20" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>100</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20" s="6"/>
+      <c r="S20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="T20" s="8"/>
+      <c r="U20" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>68</v>
+        <v>243</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>9</v>
+        <v>242</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>9</v>
@@ -4315,9 +4767,9 @@
         <v>9</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="20">
+        <v>248</v>
+      </c>
+      <c r="J21" s="2">
         <v>1</v>
       </c>
       <c r="K21" s="21">
@@ -4327,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -4336,22 +4788,22 @@
         <v>1</v>
       </c>
       <c r="P21">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q21">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="S21" s="8" t="s">
-        <v>131</v>
+        <v>4</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="S21" s="11" t="s">
+        <v>247</v>
       </c>
       <c r="T21" s="8"/>
       <c r="U21" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="V21" s="20">
+      <c r="V21">
         <v>0</v>
       </c>
     </row>
@@ -4360,382 +4812,283 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="B22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="21">
+        <v>1</v>
+      </c>
+      <c r="L22" s="21">
+        <v>1</v>
+      </c>
+      <c r="M22" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>100</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22" s="6"/>
+      <c r="S22" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="T22" s="8"/>
+      <c r="U22" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17">
+      <c r="B24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="21">
+        <v>1</v>
+      </c>
+      <c r="L24" s="21">
+        <v>1</v>
+      </c>
+      <c r="M24" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>95</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T24" s="8"/>
+      <c r="U24" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="R25" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="S25" s="19"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>24</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="11"/>
+      <c r="B26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="20">
+        <v>1</v>
+      </c>
+      <c r="K26" s="21">
+        <v>1</v>
+      </c>
+      <c r="L26" s="21">
+        <v>1</v>
+      </c>
+      <c r="M26" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>95</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="T26" s="8"/>
-      <c r="U26" s="6"/>
+      <c r="U26" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V26" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="22">
-        <v>2</v>
-      </c>
-      <c r="L27" s="22">
-        <v>1</v>
-      </c>
-      <c r="M27" s="22">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>12</v>
-      </c>
-      <c r="P27">
-        <v>95</v>
-      </c>
-      <c r="Q27">
-        <v>3</v>
-      </c>
-      <c r="R27" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="S27" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="T27" s="10"/>
-      <c r="U27" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
     </row>
     <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1</v>
-      </c>
-      <c r="K28" s="22">
-        <v>2</v>
-      </c>
-      <c r="L28" s="22">
-        <v>1</v>
-      </c>
-      <c r="M28" s="22">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>12</v>
-      </c>
-      <c r="P28">
-        <v>95</v>
-      </c>
-      <c r="Q28">
-        <v>3</v>
-      </c>
-      <c r="R28" s="6"/>
-      <c r="S28" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="T28" s="10"/>
-      <c r="U28" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1</v>
-      </c>
-      <c r="K29" s="22">
-        <v>2</v>
-      </c>
-      <c r="L29" s="22">
-        <v>1</v>
-      </c>
-      <c r="M29" s="22">
-        <v>9999</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>12</v>
-      </c>
-      <c r="P29">
-        <v>95</v>
-      </c>
-      <c r="Q29">
-        <v>2</v>
-      </c>
-      <c r="R29" s="6"/>
-      <c r="S29" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="T29" s="10"/>
-      <c r="U29" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30">
+    </row>
+    <row r="30" spans="1:22" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="17">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="22">
-        <v>2</v>
-      </c>
-      <c r="L30" s="22">
-        <v>1</v>
-      </c>
-      <c r="M30" s="22">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>12</v>
-      </c>
-      <c r="P30">
-        <v>75</v>
-      </c>
-      <c r="Q30">
-        <v>65</v>
-      </c>
-      <c r="R30" s="6"/>
-      <c r="S30" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="T30" s="10"/>
-      <c r="U30" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="R30" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="S30" s="19"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
     </row>
     <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J31" s="2">
-        <v>1</v>
-      </c>
-      <c r="K31" s="22">
-        <v>2</v>
-      </c>
-      <c r="L31" s="22">
-        <v>1</v>
-      </c>
-      <c r="M31" s="22">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>2</v>
-      </c>
-      <c r="O31">
-        <v>12</v>
-      </c>
-      <c r="P31">
-        <v>95</v>
-      </c>
-      <c r="Q31">
-        <v>3</v>
-      </c>
-      <c r="R31" s="6"/>
-      <c r="S31" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="T31" s="10"/>
-      <c r="U31" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="6"/>
     </row>
     <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -4743,16 +5096,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>86</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>60</v>
@@ -4761,16 +5114,16 @@
         <v>60</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
       </c>
       <c r="K32" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" s="22">
         <v>1</v>
@@ -4790,9 +5143,11 @@
       <c r="Q32">
         <v>3</v>
       </c>
-      <c r="R32" s="12"/>
+      <c r="R32" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="S32" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="T32" s="10"/>
       <c r="U32" s="6" t="s">
@@ -4808,16 +5163,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>86</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>9</v>
@@ -4829,19 +5184,19 @@
         <v>9</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="J33" s="2">
         <v>1</v>
       </c>
       <c r="K33" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33" s="22">
         <v>1</v>
       </c>
       <c r="M33" s="22">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -4855,12 +5210,13 @@
       <c r="Q33">
         <v>3</v>
       </c>
+      <c r="R33" s="6"/>
       <c r="S33" s="9" t="s">
-        <v>61</v>
+        <v>220</v>
       </c>
       <c r="T33" s="10"/>
       <c r="U33" s="6" t="s">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -4872,62 +5228,60 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
       </c>
-      <c r="K34" s="21">
-        <v>1</v>
-      </c>
-      <c r="L34" s="21">
-        <v>1</v>
-      </c>
-      <c r="M34" s="21">
+      <c r="K34" s="22">
+        <v>2</v>
+      </c>
+      <c r="L34" s="22">
+        <v>1</v>
+      </c>
+      <c r="M34" s="22">
         <v>9999</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P34">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="Q34">
-        <v>34</v>
-      </c>
-      <c r="R34" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="S34" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="T34" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="R34" s="6"/>
+      <c r="S34" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="T34" s="10"/>
       <c r="U34" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -4939,16 +5293,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>223</v>
+        <v>64</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>9</v>
@@ -4960,39 +5314,39 @@
         <v>9</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
       </c>
-      <c r="K35" s="21">
-        <v>1</v>
-      </c>
-      <c r="L35" s="21">
-        <v>1</v>
-      </c>
-      <c r="M35" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N35" s="2">
+      <c r="K35" s="22">
+        <v>2</v>
+      </c>
+      <c r="L35" s="22">
+        <v>1</v>
+      </c>
+      <c r="M35" s="22">
+        <v>1</v>
+      </c>
+      <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P35">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Q35">
-        <v>10</v>
-      </c>
-      <c r="R35" s="4"/>
-      <c r="S35" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="T35" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="R35" s="6"/>
+      <c r="S35" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T35" s="10"/>
       <c r="U35" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -5004,60 +5358,60 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="C36" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="J36" s="2">
         <v>1</v>
       </c>
-      <c r="K36" s="21">
-        <v>1</v>
-      </c>
-      <c r="L36" s="21">
-        <v>1</v>
-      </c>
-      <c r="M36" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N36" s="2">
-        <v>0</v>
+      <c r="K36" s="22">
+        <v>2</v>
+      </c>
+      <c r="L36" s="22">
+        <v>1</v>
+      </c>
+      <c r="M36" s="22">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
       </c>
       <c r="O36">
+        <v>12</v>
+      </c>
+      <c r="P36">
+        <v>95</v>
+      </c>
+      <c r="Q36">
         <v>3</v>
       </c>
-      <c r="P36">
-        <v>90</v>
-      </c>
-      <c r="Q36">
-        <v>10</v>
-      </c>
-      <c r="R36" s="4"/>
-      <c r="S36" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="T36" s="8"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="T36" s="10"/>
       <c r="U36" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -5069,60 +5423,60 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>228</v>
+        <v>96</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>227</v>
+        <v>63</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>228</v>
+        <v>96</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
       </c>
-      <c r="K37" s="21">
-        <v>1</v>
-      </c>
-      <c r="L37" s="21">
-        <v>1</v>
-      </c>
-      <c r="M37" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N37" s="2">
+      <c r="K37" s="22">
+        <v>1</v>
+      </c>
+      <c r="L37" s="22">
+        <v>1</v>
+      </c>
+      <c r="M37" s="22">
+        <v>1</v>
+      </c>
+      <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
+        <v>12</v>
+      </c>
+      <c r="P37">
+        <v>95</v>
+      </c>
+      <c r="Q37">
         <v>3</v>
       </c>
-      <c r="P37">
-        <v>90</v>
-      </c>
-      <c r="Q37">
-        <v>10</v>
-      </c>
-      <c r="R37" s="4"/>
-      <c r="S37" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="T37" s="8"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T37" s="10"/>
       <c r="U37" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -5134,13 +5488,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>9</v>
@@ -5155,39 +5509,38 @@
         <v>9</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
       </c>
-      <c r="K38" s="21">
-        <v>1</v>
-      </c>
-      <c r="L38" s="21">
-        <v>1</v>
-      </c>
-      <c r="M38" s="21">
+      <c r="K38" s="22">
+        <v>1</v>
+      </c>
+      <c r="L38" s="22">
+        <v>1</v>
+      </c>
+      <c r="M38" s="22">
         <v>9999</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38">
         <v>0</v>
       </c>
       <c r="O38">
+        <v>12</v>
+      </c>
+      <c r="P38">
+        <v>95</v>
+      </c>
+      <c r="Q38">
         <v>3</v>
       </c>
-      <c r="P38">
-        <v>90</v>
-      </c>
-      <c r="Q38">
-        <v>10</v>
-      </c>
-      <c r="R38" s="4"/>
-      <c r="S38" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="T38" s="8"/>
+      <c r="S38" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T38" s="10"/>
       <c r="U38" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -5199,16 +5552,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>55</v>
@@ -5220,7 +5573,7 @@
         <v>55</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
@@ -5241,14 +5594,16 @@
         <v>3</v>
       </c>
       <c r="P39">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q39">
-        <v>10</v>
-      </c>
-      <c r="R39" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>224</v>
+      </c>
       <c r="S39" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T39" s="8"/>
       <c r="U39" s="6" t="s">
@@ -5264,13 +5619,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>9</v>
@@ -5285,7 +5640,7 @@
         <v>9</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>85</v>
+        <v>222</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
@@ -5313,7 +5668,7 @@
       </c>
       <c r="R40" s="4"/>
       <c r="S40" s="11" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="T40" s="8"/>
       <c r="U40" s="6" t="s">
@@ -5329,28 +5684,28 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c r="J41" s="2">
         <v>1</v>
@@ -5371,14 +5726,14 @@
         <v>3</v>
       </c>
       <c r="P41">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q41">
         <v>10</v>
       </c>
       <c r="R41" s="4"/>
       <c r="S41" s="11" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="T41" s="8"/>
       <c r="U41" s="6" t="s">
@@ -5394,28 +5749,28 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
@@ -5439,11 +5794,11 @@
         <v>90</v>
       </c>
       <c r="Q42">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R42" s="4"/>
       <c r="S42" s="11" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="T42" s="8"/>
       <c r="U42" s="6" t="s">
@@ -5459,13 +5814,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>9</v>
@@ -5480,7 +5835,7 @@
         <v>9</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
@@ -5504,11 +5859,11 @@
         <v>90</v>
       </c>
       <c r="Q43">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R43" s="4"/>
       <c r="S43" s="11" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="T43" s="8"/>
       <c r="U43" s="6" t="s">
@@ -5524,28 +5879,28 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>208</v>
+        <v>85</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>208</v>
+        <v>85</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
@@ -5569,11 +5924,11 @@
         <v>90</v>
       </c>
       <c r="Q44">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R44" s="4"/>
       <c r="S44" s="11" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="T44" s="8"/>
       <c r="U44" s="6" t="s">
@@ -5589,13 +5944,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>9</v>
@@ -5610,7 +5965,7 @@
         <v>9</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>210</v>
+        <v>85</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
@@ -5634,11 +5989,11 @@
         <v>90</v>
       </c>
       <c r="Q45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R45" s="4"/>
       <c r="S45" s="11" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="T45" s="8"/>
       <c r="U45" s="6" t="s">
@@ -5654,28 +6009,28 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>211</v>
+        <v>50</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -5696,14 +6051,14 @@
         <v>3</v>
       </c>
       <c r="P46">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R46" s="4"/>
       <c r="S46" s="11" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="T46" s="8"/>
       <c r="U46" s="6" t="s">
@@ -5719,28 +6074,28 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>214</v>
+        <v>92</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>214</v>
+        <v>92</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
@@ -5784,13 +6139,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>9</v>
@@ -5805,7 +6160,7 @@
         <v>9</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
@@ -5849,13 +6204,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>9</v>
@@ -5870,7 +6225,7 @@
         <v>9</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
@@ -5914,28 +6269,28 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -5963,7 +6318,7 @@
       </c>
       <c r="R50" s="4"/>
       <c r="S50" s="11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="T50" s="8"/>
       <c r="U50" s="6" t="s">
@@ -5979,28 +6334,28 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
@@ -6021,14 +6376,14 @@
         <v>3</v>
       </c>
       <c r="P51">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q51">
-        <v>34</v>
-      </c>
-      <c r="R51" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="R51" s="4"/>
       <c r="S51" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T51" s="8"/>
       <c r="U51" s="6" t="s">
@@ -6044,13 +6399,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>9</v>
@@ -6065,7 +6420,7 @@
         <v>9</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
@@ -6086,14 +6441,14 @@
         <v>3</v>
       </c>
       <c r="P52">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q52">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R52" s="4"/>
       <c r="S52" s="11" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="T52" s="8"/>
       <c r="U52" s="6" t="s">
@@ -6109,16 +6464,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>80</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>149</v>
+        <v>215</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="F53" s="13" t="s">
         <v>9</v>
@@ -6130,37 +6485,37 @@
         <v>9</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
       </c>
-      <c r="K53" s="22">
-        <v>1</v>
-      </c>
-      <c r="L53" s="22">
-        <v>1</v>
-      </c>
-      <c r="M53" s="22">
-        <v>1</v>
-      </c>
-      <c r="N53">
+      <c r="K53" s="21">
+        <v>1</v>
+      </c>
+      <c r="L53" s="21">
+        <v>1</v>
+      </c>
+      <c r="M53" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N53" s="2">
         <v>0</v>
       </c>
       <c r="O53">
         <v>3</v>
       </c>
       <c r="P53">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q53">
-        <v>3</v>
-      </c>
-      <c r="R53" s="6"/>
-      <c r="S53" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="T53" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="R53" s="4"/>
+      <c r="S53" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T53" s="8"/>
       <c r="U53" s="6" t="s">
         <v>179</v>
       </c>
@@ -6173,19 +6528,65 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="3"/>
+      <c r="B54" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1</v>
+      </c>
+      <c r="K54" s="21">
+        <v>1</v>
+      </c>
+      <c r="L54" s="21">
+        <v>1</v>
+      </c>
+      <c r="M54" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N54" s="2">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>3</v>
+      </c>
+      <c r="P54">
+        <v>90</v>
+      </c>
+      <c r="Q54">
+        <v>11</v>
+      </c>
+      <c r="R54" s="4"/>
+      <c r="S54" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T54" s="8"/>
+      <c r="U54" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
@@ -6193,28 +6594,28 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -6232,21 +6633,19 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P55">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q55">
-        <v>5</v>
-      </c>
-      <c r="R55" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="S55" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="T55" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="R55" s="4"/>
+      <c r="S55" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="T55" s="8"/>
       <c r="U55" s="6" t="s">
         <v>179</v>
       </c>
@@ -6260,34 +6659,34 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
       </c>
       <c r="K56" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L56" s="21">
         <v>1</v>
@@ -6299,19 +6698,19 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P56">
         <v>95</v>
       </c>
       <c r="Q56">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="R56" s="6"/>
-      <c r="S56" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="T56" s="10"/>
+      <c r="S56" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T56" s="8"/>
       <c r="U56" s="6" t="s">
         <v>179</v>
       </c>
@@ -6325,16 +6724,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>9</v>
@@ -6346,7 +6745,7 @@
         <v>9</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
@@ -6358,25 +6757,25 @@
         <v>1</v>
       </c>
       <c r="M57" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N57" s="2">
         <v>0</v>
       </c>
       <c r="O57">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P57">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="Q57">
-        <v>5</v>
-      </c>
-      <c r="R57" s="6"/>
-      <c r="S57" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="T57" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="R57" s="4"/>
+      <c r="S57" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="T57" s="8"/>
       <c r="U57" s="6" t="s">
         <v>179</v>
       </c>
@@ -6390,16 +6789,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>9</v>
@@ -6411,35 +6810,35 @@
         <v>9</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="J58" s="2">
-        <v>8</v>
-      </c>
-      <c r="K58" s="21">
-        <v>1</v>
-      </c>
-      <c r="L58" s="21">
-        <v>1</v>
-      </c>
-      <c r="M58" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N58" s="2">
+        <v>1</v>
+      </c>
+      <c r="K58" s="22">
+        <v>1</v>
+      </c>
+      <c r="L58" s="22">
+        <v>1</v>
+      </c>
+      <c r="M58" s="22">
+        <v>1</v>
+      </c>
+      <c r="N58">
         <v>0</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R58" s="6"/>
-      <c r="S58" s="9" t="s">
-        <v>159</v>
+      <c r="S58" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="T58" s="10"/>
       <c r="U58" s="6" t="s">
@@ -6454,65 +6853,19 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J59" s="2">
-        <v>8</v>
-      </c>
-      <c r="K59" s="21">
-        <v>1</v>
-      </c>
-      <c r="L59" s="21">
-        <v>1</v>
-      </c>
-      <c r="M59" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N59" s="2">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>1</v>
-      </c>
-      <c r="P59">
-        <v>100</v>
-      </c>
-      <c r="Q59">
-        <v>5</v>
-      </c>
-      <c r="R59" s="6"/>
-      <c r="S59" s="9" t="s">
-        <v>159</v>
-      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="9"/>
       <c r="T59" s="10"/>
-      <c r="U59" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
+      <c r="U59" s="3"/>
     </row>
     <row r="60" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
@@ -6520,13 +6873,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>9</v>
@@ -6541,10 +6894,10 @@
         <v>9</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="J60" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K60" s="21">
         <v>1</v>
@@ -6559,17 +6912,19 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P60">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q60">
         <v>5</v>
       </c>
-      <c r="R60" s="6"/>
+      <c r="R60" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="S60" s="9" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="T60" s="10"/>
       <c r="U60" s="6" t="s">
@@ -6584,16 +6939,65 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="9"/>
-      <c r="T61" s="7"/>
-      <c r="U61" s="4"/>
+      <c r="B61" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" s="21">
+        <v>4</v>
+      </c>
+      <c r="L61" s="21">
+        <v>1</v>
+      </c>
+      <c r="M61" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N61" s="2">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>18</v>
+      </c>
+      <c r="P61">
+        <v>95</v>
+      </c>
+      <c r="Q61">
+        <v>5</v>
+      </c>
+      <c r="R61" s="6"/>
+      <c r="S61" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="T61" s="10"/>
+      <c r="U61" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -6601,19 +7005,19 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>9</v>
@@ -6622,7 +7026,7 @@
         <v>9</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
@@ -6640,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="P62">
         <v>95</v>
@@ -6648,11 +7052,9 @@
       <c r="Q62">
         <v>5</v>
       </c>
-      <c r="R62" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="R62" s="6"/>
       <c r="S62" s="9" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="T62" s="10"/>
       <c r="U62" s="6" t="s">
@@ -6668,31 +7070,31 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="J63" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K63" s="21">
         <v>1</v>
@@ -6701,24 +7103,25 @@
         <v>1</v>
       </c>
       <c r="M63" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N63" s="2">
         <v>0</v>
       </c>
       <c r="O63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P63">
+        <v>100</v>
+      </c>
+      <c r="Q63">
         <v>5</v>
       </c>
-      <c r="Q63">
-        <v>34</v>
-      </c>
-      <c r="S63" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T63" s="8"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="T63" s="10"/>
       <c r="U63" s="6" t="s">
         <v>179</v>
       </c>
@@ -6732,32 +7135,32 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="D64" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J64" s="2">
         <v>8</v>
       </c>
-      <c r="E64" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J64" s="2">
-        <v>1</v>
-      </c>
       <c r="K64" s="21">
         <v>1</v>
       </c>
@@ -6765,24 +7168,25 @@
         <v>1</v>
       </c>
       <c r="M64" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N64" s="2">
         <v>0</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P64">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q64">
-        <v>8</v>
-      </c>
-      <c r="S64" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T64" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="R64" s="6"/>
+      <c r="S64" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="T64" s="10"/>
       <c r="U64" s="6" t="s">
         <v>179</v>
       </c>
@@ -6795,79 +7199,148 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
+      <c r="B65" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J65" s="2">
+        <v>8</v>
+      </c>
+      <c r="K65" s="21">
+        <v>1</v>
+      </c>
+      <c r="L65" s="21">
+        <v>1</v>
+      </c>
+      <c r="M65" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N65" s="2">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>100</v>
+      </c>
+      <c r="Q65">
+        <v>5</v>
+      </c>
+      <c r="R65" s="6"/>
+      <c r="S65" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="T65" s="10"/>
+      <c r="U65" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J66" s="2">
-        <v>1</v>
-      </c>
-      <c r="K66" s="21">
-        <v>1</v>
-      </c>
-      <c r="L66" s="21">
-        <v>1</v>
-      </c>
-      <c r="M66" s="21">
-        <v>1</v>
-      </c>
-      <c r="N66" s="2">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>18</v>
-      </c>
-      <c r="P66">
-        <v>95</v>
-      </c>
-      <c r="Q66">
-        <v>5</v>
-      </c>
-      <c r="R66" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="S66" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="T66" s="10"/>
-      <c r="U66" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="4"/>
     </row>
     <row r="67" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="B67" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="21">
+        <v>1</v>
+      </c>
+      <c r="L67" s="21">
+        <v>1</v>
+      </c>
+      <c r="M67" s="21">
+        <v>1</v>
+      </c>
+      <c r="N67" s="2">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>3</v>
+      </c>
+      <c r="P67">
+        <v>95</v>
+      </c>
+      <c r="Q67">
+        <v>5</v>
+      </c>
+      <c r="R67" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S67" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T67" s="10"/>
+      <c r="U67" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
@@ -6875,28 +7348,28 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="J68" s="2">
         <v>1</v>
@@ -6908,27 +7381,24 @@
         <v>1</v>
       </c>
       <c r="M68" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N68" s="2">
         <v>0</v>
       </c>
       <c r="O68">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P68">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="Q68">
-        <v>5</v>
-      </c>
-      <c r="R68" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="S68" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="T68" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="S68" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T68" s="8"/>
       <c r="U68" s="6" t="s">
         <v>179</v>
       </c>
@@ -6941,6 +7411,64 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
+      <c r="B69" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69" s="21">
+        <v>1</v>
+      </c>
+      <c r="L69" s="21">
+        <v>1</v>
+      </c>
+      <c r="M69" s="21">
+        <v>1</v>
+      </c>
+      <c r="N69" s="2">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>3</v>
+      </c>
+      <c r="P69">
+        <v>95</v>
+      </c>
+      <c r="Q69">
+        <v>8</v>
+      </c>
+      <c r="S69" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T69" s="8"/>
+      <c r="U69" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
@@ -6953,73 +7481,73 @@
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
+      <c r="B71" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J71" s="2">
+        <v>1</v>
+      </c>
+      <c r="K71" s="21">
+        <v>1</v>
+      </c>
+      <c r="L71" s="21">
+        <v>1</v>
+      </c>
+      <c r="M71" s="21">
+        <v>1</v>
+      </c>
+      <c r="N71" s="2">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>18</v>
+      </c>
+      <c r="P71">
+        <v>95</v>
+      </c>
+      <c r="Q71">
+        <v>5</v>
+      </c>
+      <c r="R71" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="S71" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="T71" s="10"/>
+      <c r="U71" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J72" s="2">
-        <v>1</v>
-      </c>
-      <c r="K72" s="21">
-        <v>1</v>
-      </c>
-      <c r="L72" s="21">
-        <v>1</v>
-      </c>
-      <c r="M72" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N72" s="2">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>6</v>
-      </c>
-      <c r="P72">
-        <v>95</v>
-      </c>
-      <c r="Q72">
-        <v>5</v>
-      </c>
-      <c r="R72" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="S72" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="T72" s="10"/>
-      <c r="U72" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
     </row>
     <row r="73" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
@@ -7027,16 +7555,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F73" s="13" t="s">
         <v>9</v>
@@ -7048,7 +7576,7 @@
         <v>9</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="J73" s="2">
         <v>1</v>
@@ -7060,13 +7588,13 @@
         <v>1</v>
       </c>
       <c r="M73" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N73" s="2">
         <v>0</v>
       </c>
       <c r="O73">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P73">
         <v>95</v>
@@ -7074,13 +7602,13 @@
       <c r="Q73">
         <v>5</v>
       </c>
-      <c r="R73" s="6"/>
+      <c r="R73" s="6" t="s">
+        <v>198</v>
+      </c>
       <c r="S73" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="T73" s="10" t="s">
-        <v>164</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="T73" s="10"/>
       <c r="U73" s="6" t="s">
         <v>179</v>
       </c>
@@ -7093,199 +7621,18 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H74" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J74" s="2">
-        <v>1</v>
-      </c>
-      <c r="K74" s="21">
-        <v>1</v>
-      </c>
-      <c r="L74" s="21">
-        <v>1</v>
-      </c>
-      <c r="M74" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N74" s="2">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>6</v>
-      </c>
-      <c r="P74">
-        <v>95</v>
-      </c>
-      <c r="Q74">
-        <v>5</v>
-      </c>
-      <c r="R74" s="6"/>
-      <c r="S74" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="T74" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="U74" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
     </row>
     <row r="75" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J75" s="2">
-        <v>1</v>
-      </c>
-      <c r="K75" s="21">
-        <v>1</v>
-      </c>
-      <c r="L75" s="21">
-        <v>1</v>
-      </c>
-      <c r="M75" s="21">
-        <v>1</v>
-      </c>
-      <c r="N75" s="2">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>6</v>
-      </c>
-      <c r="P75">
-        <v>95</v>
-      </c>
-      <c r="Q75">
-        <v>5</v>
-      </c>
-      <c r="R75" s="6"/>
-      <c r="S75" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="T75" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="U75" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
     </row>
     <row r="76" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J76" s="2">
-        <v>1</v>
-      </c>
-      <c r="K76" s="21">
-        <v>1</v>
-      </c>
-      <c r="L76" s="21">
-        <v>1</v>
-      </c>
-      <c r="M76" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N76" s="2">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>6</v>
-      </c>
-      <c r="P76">
-        <v>95</v>
-      </c>
-      <c r="Q76">
-        <v>5</v>
-      </c>
-      <c r="R76" s="6"/>
-      <c r="S76" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="T76" s="10"/>
-      <c r="U76" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
     </row>
     <row r="77" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
@@ -7293,13 +7640,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>9</v>
@@ -7308,13 +7655,13 @@
         <v>9</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="J77" s="2">
         <v>1</v>
@@ -7326,7 +7673,7 @@
         <v>1</v>
       </c>
       <c r="M77" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N77" s="2">
         <v>0</v>
@@ -7340,9 +7687,11 @@
       <c r="Q77">
         <v>5</v>
       </c>
-      <c r="R77" s="6"/>
+      <c r="R77" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="S77" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="T77" s="10"/>
       <c r="U77" s="6" t="s">
@@ -7358,28 +7707,28 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F78" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J78" s="2">
         <v>1</v>
@@ -7391,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="M78" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N78" s="2">
         <v>0</v>
@@ -7407,10 +7756,10 @@
       </c>
       <c r="R78" s="6"/>
       <c r="S78" s="9" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="T78" s="10" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="U78" s="6" t="s">
         <v>179</v>
@@ -7425,13 +7774,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>169</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>9</v>
@@ -7440,10 +7789,10 @@
         <v>9</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>165</v>
@@ -7458,7 +7807,7 @@
         <v>1</v>
       </c>
       <c r="M79" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N79" s="2">
         <v>0</v>
@@ -7474,10 +7823,10 @@
       </c>
       <c r="R79" s="6"/>
       <c r="S79" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T79" s="10" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="U79" s="6" t="s">
         <v>179</v>
@@ -7491,16 +7840,132 @@
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="S80" s="15"/>
-      <c r="T80" s="15"/>
+      <c r="B80" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J80" s="2">
+        <v>1</v>
+      </c>
+      <c r="K80" s="21">
+        <v>1</v>
+      </c>
+      <c r="L80" s="21">
+        <v>1</v>
+      </c>
+      <c r="M80" s="21">
+        <v>1</v>
+      </c>
+      <c r="N80" s="2">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>6</v>
+      </c>
+      <c r="P80">
+        <v>95</v>
+      </c>
+      <c r="Q80">
+        <v>5</v>
+      </c>
+      <c r="R80" s="6"/>
+      <c r="S80" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="T80" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="U80" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="S81" s="15"/>
-      <c r="T81" s="15"/>
+      <c r="B81" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J81" s="2">
+        <v>1</v>
+      </c>
+      <c r="K81" s="21">
+        <v>1</v>
+      </c>
+      <c r="L81" s="21">
+        <v>1</v>
+      </c>
+      <c r="M81" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N81" s="2">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>6</v>
+      </c>
+      <c r="P81">
+        <v>95</v>
+      </c>
+      <c r="Q81">
+        <v>5</v>
+      </c>
+      <c r="R81" s="6"/>
+      <c r="S81" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="T81" s="10"/>
+      <c r="U81" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
@@ -7508,58 +7973,56 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F82" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="J82" s="2">
         <v>1</v>
       </c>
-      <c r="K82" s="22">
-        <v>1</v>
-      </c>
-      <c r="L82" s="22">
-        <v>1</v>
-      </c>
-      <c r="M82" s="22">
-        <v>1</v>
-      </c>
-      <c r="N82">
+      <c r="K82" s="21">
+        <v>1</v>
+      </c>
+      <c r="L82" s="21">
+        <v>1</v>
+      </c>
+      <c r="M82" s="21">
+        <v>1</v>
+      </c>
+      <c r="N82" s="2">
         <v>0</v>
       </c>
       <c r="O82">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P82">
         <v>95</v>
       </c>
       <c r="Q82">
-        <v>20</v>
-      </c>
-      <c r="R82" s="6" t="s">
-        <v>99</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R82" s="6"/>
       <c r="S82" s="9" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="T82" s="10"/>
       <c r="U82" s="6" t="s">
@@ -7575,58 +8038,60 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="F83" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="J83" s="2">
         <v>1</v>
       </c>
-      <c r="K83" s="22">
-        <v>1</v>
-      </c>
-      <c r="L83" s="22">
-        <v>1</v>
-      </c>
-      <c r="M83" s="22">
-        <v>1</v>
-      </c>
-      <c r="N83">
+      <c r="K83" s="21">
+        <v>1</v>
+      </c>
+      <c r="L83" s="21">
+        <v>1</v>
+      </c>
+      <c r="M83" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N83" s="2">
         <v>0</v>
       </c>
       <c r="O83">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P83">
         <v>95</v>
       </c>
       <c r="Q83">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R83" s="6"/>
-      <c r="S83" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="T83" s="10"/>
+      <c r="S83" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="T83" s="10" t="s">
+        <v>189</v>
+      </c>
       <c r="U83" s="6" t="s">
         <v>179</v>
       </c>
@@ -7640,58 +8105,60 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="F84" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="J84" s="2">
         <v>1</v>
       </c>
-      <c r="K84" s="22">
-        <v>1</v>
-      </c>
-      <c r="L84" s="22">
-        <v>1</v>
-      </c>
-      <c r="M84" s="22">
-        <v>1</v>
-      </c>
-      <c r="N84">
+      <c r="K84" s="21">
+        <v>1</v>
+      </c>
+      <c r="L84" s="21">
+        <v>1</v>
+      </c>
+      <c r="M84" s="21">
+        <v>1</v>
+      </c>
+      <c r="N84" s="2">
         <v>0</v>
       </c>
       <c r="O84">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P84">
         <v>95</v>
       </c>
       <c r="Q84">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R84" s="6"/>
-      <c r="S84" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="T84" s="10"/>
+      <c r="S84" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="T84" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="U84" s="6" t="s">
         <v>179</v>
       </c>
@@ -7712,67 +8179,8 @@
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J86" s="2">
-        <v>1</v>
-      </c>
-      <c r="K86" s="21">
-        <v>1</v>
-      </c>
-      <c r="L86" s="21">
-        <v>1</v>
-      </c>
-      <c r="M86" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N86" s="2">
-        <v>0</v>
-      </c>
-      <c r="O86">
-        <v>36</v>
-      </c>
-      <c r="P86">
-        <v>50</v>
-      </c>
-      <c r="Q86">
-        <v>5</v>
-      </c>
-      <c r="R86" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="S86" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T86" s="8"/>
-      <c r="U86" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
+      <c r="S86" s="15"/>
+      <c r="T86" s="15"/>
     </row>
     <row r="87" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87">
@@ -7780,16 +8188,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>203</v>
+        <v>89</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="F87" s="13" t="s">
         <v>9</v>
@@ -7801,37 +8209,39 @@
         <v>9</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>203</v>
+        <v>89</v>
       </c>
       <c r="J87" s="2">
         <v>1</v>
       </c>
-      <c r="K87" s="21">
-        <v>1</v>
-      </c>
-      <c r="L87" s="21">
-        <v>1</v>
-      </c>
-      <c r="M87" s="21">
-        <v>1</v>
-      </c>
-      <c r="N87" s="2">
+      <c r="K87" s="22">
+        <v>1</v>
+      </c>
+      <c r="L87" s="22">
+        <v>1</v>
+      </c>
+      <c r="M87" s="22">
+        <v>1</v>
+      </c>
+      <c r="N87">
         <v>0</v>
       </c>
       <c r="O87">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="P87">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="Q87">
-        <v>5</v>
-      </c>
-      <c r="R87" s="6"/>
-      <c r="S87" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="T87" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="R87" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S87" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="T87" s="10"/>
       <c r="U87" s="6" t="s">
         <v>179</v>
       </c>
@@ -7844,8 +8254,65 @@
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="S88" s="15"/>
-      <c r="T88" s="15"/>
+      <c r="B88" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J88" s="2">
+        <v>1</v>
+      </c>
+      <c r="K88" s="22">
+        <v>1</v>
+      </c>
+      <c r="L88" s="22">
+        <v>1</v>
+      </c>
+      <c r="M88" s="22">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>18</v>
+      </c>
+      <c r="P88">
+        <v>95</v>
+      </c>
+      <c r="Q88">
+        <v>20</v>
+      </c>
+      <c r="R88" s="6"/>
+      <c r="S88" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="T88" s="10"/>
+      <c r="U88" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89">
@@ -7853,16 +8320,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="F89" s="13" t="s">
         <v>9</v>
@@ -7874,37 +8341,35 @@
         <v>9</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="J89" s="2">
         <v>1</v>
       </c>
-      <c r="K89" s="21">
-        <v>1</v>
-      </c>
-      <c r="L89" s="21">
-        <v>1</v>
-      </c>
-      <c r="M89" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N89" s="2">
+      <c r="K89" s="22">
+        <v>1</v>
+      </c>
+      <c r="L89" s="22">
+        <v>1</v>
+      </c>
+      <c r="M89" s="22">
+        <v>1</v>
+      </c>
+      <c r="N89">
         <v>0</v>
       </c>
       <c r="O89">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P89">
         <v>95</v>
       </c>
       <c r="Q89">
-        <v>5</v>
-      </c>
-      <c r="R89" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="S89" s="9" t="s">
-        <v>193</v>
+        <v>20</v>
+      </c>
+      <c r="R89" s="6"/>
+      <c r="S89" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="T89" s="10"/>
       <c r="U89" s="6" t="s">
@@ -7916,7 +8381,7 @@
     </row>
     <row r="90" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="S90" s="15"/>
@@ -7924,64 +8389,64 @@
     </row>
     <row r="91" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f t="shared" ref="A91:A95" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="E91" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="J91" s="2">
-        <v>1</v>
-      </c>
-      <c r="K91" s="21">
-        <v>1</v>
-      </c>
-      <c r="L91" s="21">
-        <v>1</v>
-      </c>
-      <c r="M91" s="21">
+        <v>5</v>
+      </c>
+      <c r="K91" s="22">
+        <v>1</v>
+      </c>
+      <c r="L91" s="22">
+        <v>1</v>
+      </c>
+      <c r="M91" s="22">
         <v>9999</v>
       </c>
-      <c r="N91" s="2">
+      <c r="N91">
         <v>0</v>
       </c>
       <c r="O91">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="P91">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="Q91">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="R91" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S91" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T91" s="8"/>
+        <v>236</v>
+      </c>
+      <c r="S91" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="T91" s="10"/>
       <c r="U91" s="6" t="s">
         <v>179</v>
       </c>
@@ -7991,104 +8456,126 @@
     </row>
     <row r="92" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="S92" s="15"/>
-      <c r="T92" s="15"/>
+      <c r="B92" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J92" s="2">
+        <v>1</v>
+      </c>
+      <c r="K92" s="22">
+        <v>1</v>
+      </c>
+      <c r="L92" s="22">
+        <v>1</v>
+      </c>
+      <c r="M92" s="22">
+        <v>9999</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>18</v>
+      </c>
+      <c r="P92">
+        <v>95</v>
+      </c>
+      <c r="Q92">
+        <v>20</v>
+      </c>
+      <c r="R92" s="6"/>
+      <c r="S92" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="T92" s="10"/>
+      <c r="U92" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D93" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G93" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H93" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J93" s="2">
-        <v>1</v>
-      </c>
-      <c r="K93" s="21">
-        <v>1</v>
-      </c>
-      <c r="L93" s="21">
-        <v>1</v>
-      </c>
-      <c r="M93" s="21">
-        <v>1</v>
-      </c>
-      <c r="N93" s="2">
-        <v>0</v>
-      </c>
-      <c r="O93">
-        <v>1</v>
-      </c>
-      <c r="P93">
-        <v>50</v>
-      </c>
-      <c r="Q93">
-        <v>32</v>
-      </c>
-      <c r="R93" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="S93" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="T93" s="8"/>
-      <c r="U93" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V93">
-        <v>0</v>
-      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="9"/>
+      <c r="T93" s="10"/>
+      <c r="U93" s="6"/>
     </row>
     <row r="94" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="10"/>
+      <c r="U94" s="6"/>
     </row>
     <row r="95" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G95" s="13" t="s">
         <v>9</v>
@@ -8097,7 +8584,7 @@
         <v>9</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="J95" s="2">
         <v>1</v>
@@ -8109,31 +8596,394 @@
         <v>1</v>
       </c>
       <c r="M95" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N95" s="2">
         <v>0</v>
       </c>
       <c r="O95">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="P95">
         <v>50</v>
       </c>
       <c r="Q95">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="R95" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="S95" s="8" t="s">
-        <v>114</v>
+        <v>100</v>
+      </c>
+      <c r="S95" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="T95" s="8"/>
       <c r="U95" s="6" t="s">
         <v>179</v>
       </c>
       <c r="V95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J96" s="2">
+        <v>1</v>
+      </c>
+      <c r="K96" s="21">
+        <v>1</v>
+      </c>
+      <c r="L96" s="21">
+        <v>1</v>
+      </c>
+      <c r="M96" s="21">
+        <v>1</v>
+      </c>
+      <c r="N96" s="2">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>6</v>
+      </c>
+      <c r="P96">
+        <v>50</v>
+      </c>
+      <c r="Q96">
+        <v>5</v>
+      </c>
+      <c r="R96" s="6"/>
+      <c r="S96" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="T96" s="8"/>
+      <c r="U96" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="S97" s="15"/>
+      <c r="T97" s="15"/>
+    </row>
+    <row r="98" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J98" s="2">
+        <v>1</v>
+      </c>
+      <c r="K98" s="21">
+        <v>1</v>
+      </c>
+      <c r="L98" s="21">
+        <v>1</v>
+      </c>
+      <c r="M98" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N98" s="2">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>12</v>
+      </c>
+      <c r="P98">
+        <v>95</v>
+      </c>
+      <c r="Q98">
+        <v>5</v>
+      </c>
+      <c r="R98" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="S98" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="T98" s="10"/>
+      <c r="U98" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f>ROW()-2</f>
+        <v>97</v>
+      </c>
+      <c r="S99" s="15"/>
+      <c r="T99" s="15"/>
+    </row>
+    <row r="100" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <f t="shared" ref="A100:A104" si="1">ROW()-2</f>
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J100" s="2">
+        <v>1</v>
+      </c>
+      <c r="K100" s="21">
+        <v>1</v>
+      </c>
+      <c r="L100" s="21">
+        <v>1</v>
+      </c>
+      <c r="M100" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N100" s="2">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>72</v>
+      </c>
+      <c r="P100">
+        <v>50</v>
+      </c>
+      <c r="Q100">
+        <v>32</v>
+      </c>
+      <c r="R100" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S100" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T100" s="8"/>
+      <c r="U100" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f>ROW()-2</f>
+        <v>99</v>
+      </c>
+      <c r="S101" s="15"/>
+      <c r="T101" s="15"/>
+    </row>
+    <row r="102" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J102" s="2">
+        <v>1</v>
+      </c>
+      <c r="K102" s="21">
+        <v>1</v>
+      </c>
+      <c r="L102" s="21">
+        <v>1</v>
+      </c>
+      <c r="M102" s="21">
+        <v>1</v>
+      </c>
+      <c r="N102" s="2">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>50</v>
+      </c>
+      <c r="Q102">
+        <v>32</v>
+      </c>
+      <c r="R102" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S102" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="T102" s="8"/>
+      <c r="U102" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J104" s="2">
+        <v>1</v>
+      </c>
+      <c r="K104" s="21">
+        <v>1</v>
+      </c>
+      <c r="L104" s="21">
+        <v>1</v>
+      </c>
+      <c r="M104" s="21">
+        <v>1</v>
+      </c>
+      <c r="N104" s="2">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104">
+        <v>50</v>
+      </c>
+      <c r="Q104">
+        <v>32</v>
+      </c>
+      <c r="R104" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="S104" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="T104" s="8"/>
+      <c r="U104" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V104">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE235A39-F3BA-420B-AA21-3BB9DFF17BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBA1410-6508-44E1-93A8-5E4D139B8EEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="3135" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2910" yWindow="2325" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="252">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -3064,6 +3064,14 @@
     <rPh sb="11" eb="12">
       <t>ブクロ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rusk_emerald</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rusk_butter_emerald</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3517,10 +3525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3536,7 +3544,7 @@
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
     <col min="16" max="16" width="13.140625" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" customWidth="1"/>
-    <col min="18" max="18" width="38.85546875" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" customWidth="1"/>
     <col min="19" max="19" width="34.5703125" customWidth="1"/>
     <col min="20" max="20" width="30.5703125" customWidth="1"/>
     <col min="21" max="21" width="14.85546875" style="20" customWidth="1"/>
@@ -3680,7 +3688,7 @@
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A98" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A100" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4323,7 +4331,7 @@
         <v>9999</v>
       </c>
       <c r="N14" s="2">
-        <v>2</v>
+        <v>9999</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -4453,7 +4461,7 @@
         <v>9999</v>
       </c>
       <c r="N16" s="2">
-        <v>2</v>
+        <v>9999</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -5394,7 +5402,7 @@
         <v>1</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>9999</v>
       </c>
       <c r="O36">
         <v>12</v>
@@ -7707,16 +7715,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>163</v>
+        <v>250</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>157</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F78" s="13" t="s">
         <v>9</v>
@@ -7728,7 +7736,7 @@
         <v>9</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="J78" s="2">
         <v>1</v>
@@ -7740,7 +7748,7 @@
         <v>1</v>
       </c>
       <c r="M78" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N78" s="2">
         <v>0</v>
@@ -7756,11 +7764,9 @@
       </c>
       <c r="R78" s="6"/>
       <c r="S78" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="T78" s="10" t="s">
-        <v>164</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="T78" s="10"/>
       <c r="U78" s="6" t="s">
         <v>179</v>
       </c>
@@ -7774,16 +7780,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D79" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F79" s="13" t="s">
         <v>9</v>
@@ -7795,7 +7801,7 @@
         <v>9</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J79" s="2">
         <v>1</v>
@@ -7807,7 +7813,7 @@
         <v>1</v>
       </c>
       <c r="M79" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N79" s="2">
         <v>0</v>
@@ -7823,10 +7829,10 @@
       </c>
       <c r="R79" s="6"/>
       <c r="S79" s="9" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="T79" s="10" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="U79" s="6" t="s">
         <v>179</v>
@@ -7841,13 +7847,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>184</v>
+        <v>251</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>68</v>
@@ -7862,7 +7868,7 @@
         <v>9</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J80" s="2">
         <v>1</v>
@@ -7890,7 +7896,7 @@
       </c>
       <c r="R80" s="6"/>
       <c r="S80" s="9" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="T80" s="10" t="s">
         <v>164</v>
@@ -7908,13 +7914,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>9</v>
@@ -7923,13 +7929,13 @@
         <v>9</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H81" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="J81" s="2">
         <v>1</v>
@@ -7957,9 +7963,11 @@
       </c>
       <c r="R81" s="6"/>
       <c r="S81" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="T81" s="10"/>
+        <v>187</v>
+      </c>
+      <c r="T81" s="10" t="s">
+        <v>189</v>
+      </c>
       <c r="U81" s="6" t="s">
         <v>179</v>
       </c>
@@ -7973,28 +7981,28 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F82" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J82" s="2">
         <v>1</v>
@@ -8022,9 +8030,11 @@
       </c>
       <c r="R82" s="6"/>
       <c r="S82" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="T82" s="10"/>
+        <v>188</v>
+      </c>
+      <c r="T82" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="U82" s="6" t="s">
         <v>179</v>
       </c>
@@ -8038,10 +8048,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D83" s="13" t="s">
         <v>9</v>
@@ -8059,7 +8069,7 @@
         <v>9</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="J83" s="2">
         <v>1</v>
@@ -8074,7 +8084,7 @@
         <v>9999</v>
       </c>
       <c r="N83" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="O83">
         <v>6</v>
@@ -8087,11 +8097,9 @@
       </c>
       <c r="R83" s="6"/>
       <c r="S83" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="T83" s="10" t="s">
-        <v>189</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="T83" s="10"/>
       <c r="U83" s="6" t="s">
         <v>179</v>
       </c>
@@ -8105,10 +8113,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D84" s="13" t="s">
         <v>9</v>
@@ -8126,7 +8134,7 @@
         <v>59</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J84" s="2">
         <v>1</v>
@@ -8141,7 +8149,7 @@
         <v>1</v>
       </c>
       <c r="N84" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="O84">
         <v>6</v>
@@ -8154,11 +8162,9 @@
       </c>
       <c r="R84" s="6"/>
       <c r="S84" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="T84" s="10" t="s">
-        <v>164</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="T84" s="10"/>
       <c r="U84" s="6" t="s">
         <v>179</v>
       </c>
@@ -8171,148 +8177,150 @@
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="S85" s="15"/>
-      <c r="T85" s="15"/>
+      <c r="B85" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J85" s="2">
+        <v>1</v>
+      </c>
+      <c r="K85" s="21">
+        <v>1</v>
+      </c>
+      <c r="L85" s="21">
+        <v>1</v>
+      </c>
+      <c r="M85" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N85" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O85">
+        <v>6</v>
+      </c>
+      <c r="P85">
+        <v>95</v>
+      </c>
+      <c r="Q85">
+        <v>5</v>
+      </c>
+      <c r="R85" s="6"/>
+      <c r="S85" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="T85" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="U85" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="S86" s="15"/>
-      <c r="T86" s="15"/>
+      <c r="B86" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J86" s="2">
+        <v>1</v>
+      </c>
+      <c r="K86" s="21">
+        <v>1</v>
+      </c>
+      <c r="L86" s="21">
+        <v>1</v>
+      </c>
+      <c r="M86" s="21">
+        <v>1</v>
+      </c>
+      <c r="N86" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O86">
+        <v>6</v>
+      </c>
+      <c r="P86">
+        <v>95</v>
+      </c>
+      <c r="Q86">
+        <v>5</v>
+      </c>
+      <c r="R86" s="6"/>
+      <c r="S86" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="T86" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="U86" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H87" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J87" s="2">
-        <v>1</v>
-      </c>
-      <c r="K87" s="22">
-        <v>1</v>
-      </c>
-      <c r="L87" s="22">
-        <v>1</v>
-      </c>
-      <c r="M87" s="22">
-        <v>1</v>
-      </c>
-      <c r="N87">
-        <v>0</v>
-      </c>
-      <c r="O87">
-        <v>18</v>
-      </c>
-      <c r="P87">
-        <v>95</v>
-      </c>
-      <c r="Q87">
-        <v>20</v>
-      </c>
-      <c r="R87" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="S87" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="T87" s="10"/>
-      <c r="U87" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V87">
-        <v>0</v>
-      </c>
+      <c r="S87" s="15"/>
+      <c r="T87" s="15"/>
     </row>
     <row r="88" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J88" s="2">
-        <v>1</v>
-      </c>
-      <c r="K88" s="22">
-        <v>1</v>
-      </c>
-      <c r="L88" s="22">
-        <v>1</v>
-      </c>
-      <c r="M88" s="22">
-        <v>1</v>
-      </c>
-      <c r="N88">
-        <v>0</v>
-      </c>
-      <c r="O88">
-        <v>18</v>
-      </c>
-      <c r="P88">
-        <v>95</v>
-      </c>
-      <c r="Q88">
-        <v>20</v>
-      </c>
-      <c r="R88" s="6"/>
-      <c r="S88" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="T88" s="10"/>
-      <c r="U88" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V88">
-        <v>0</v>
-      </c>
+      <c r="S88" s="15"/>
+      <c r="T88" s="15"/>
     </row>
     <row r="89" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89">
@@ -8320,28 +8328,28 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="C89" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I89" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="J89" s="2">
         <v>1</v>
@@ -8367,9 +8375,11 @@
       <c r="Q89">
         <v>20</v>
       </c>
-      <c r="R89" s="6"/>
-      <c r="S89" s="10" t="s">
-        <v>141</v>
+      <c r="R89" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S89" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="T89" s="10"/>
       <c r="U89" s="6" t="s">
@@ -8384,8 +8394,65 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="S90" s="15"/>
-      <c r="T90" s="15"/>
+      <c r="B90" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J90" s="2">
+        <v>1</v>
+      </c>
+      <c r="K90" s="22">
+        <v>1</v>
+      </c>
+      <c r="L90" s="22">
+        <v>1</v>
+      </c>
+      <c r="M90" s="22">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>18</v>
+      </c>
+      <c r="P90">
+        <v>95</v>
+      </c>
+      <c r="Q90">
+        <v>20</v>
+      </c>
+      <c r="R90" s="6"/>
+      <c r="S90" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="T90" s="10"/>
+      <c r="U90" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91">
@@ -8393,16 +8460,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>235</v>
+        <v>89</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="F91" s="13" t="s">
         <v>9</v>
@@ -8414,10 +8481,10 @@
         <v>9</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="J91" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K91" s="22">
         <v>1</v>
@@ -8426,7 +8493,7 @@
         <v>1</v>
       </c>
       <c r="M91" s="22">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -8440,11 +8507,9 @@
       <c r="Q91">
         <v>20</v>
       </c>
-      <c r="R91" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="S91" s="9" t="s">
-        <v>239</v>
+      <c r="R91" s="6"/>
+      <c r="S91" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="T91" s="10"/>
       <c r="U91" s="6" t="s">
@@ -8459,243 +8524,245 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H92" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J92" s="2">
-        <v>1</v>
-      </c>
-      <c r="K92" s="22">
-        <v>1</v>
-      </c>
-      <c r="L92" s="22">
-        <v>1</v>
-      </c>
-      <c r="M92" s="22">
-        <v>9999</v>
-      </c>
-      <c r="N92">
-        <v>0</v>
-      </c>
-      <c r="O92">
-        <v>18</v>
-      </c>
-      <c r="P92">
-        <v>95</v>
-      </c>
-      <c r="Q92">
-        <v>20</v>
-      </c>
-      <c r="R92" s="6"/>
-      <c r="S92" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="T92" s="10"/>
-      <c r="U92" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V92">
-        <v>0</v>
-      </c>
+      <c r="S92" s="15"/>
+      <c r="T92" s="15"/>
     </row>
     <row r="93" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="9"/>
+      <c r="B93" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J93" s="2">
+        <v>5</v>
+      </c>
+      <c r="K93" s="22">
+        <v>1</v>
+      </c>
+      <c r="L93" s="22">
+        <v>1</v>
+      </c>
+      <c r="M93" s="22">
+        <v>9999</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>18</v>
+      </c>
+      <c r="P93">
+        <v>95</v>
+      </c>
+      <c r="Q93">
+        <v>20</v>
+      </c>
+      <c r="R93" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S93" s="9" t="s">
+        <v>239</v>
+      </c>
       <c r="T93" s="10"/>
-      <c r="U93" s="6"/>
+      <c r="U93" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
+      <c r="B94" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J94" s="2">
+        <v>1</v>
+      </c>
+      <c r="K94" s="22">
+        <v>1</v>
+      </c>
+      <c r="L94" s="22">
+        <v>1</v>
+      </c>
+      <c r="M94" s="22">
+        <v>9999</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>18</v>
+      </c>
+      <c r="P94">
+        <v>95</v>
+      </c>
+      <c r="Q94">
+        <v>20</v>
+      </c>
       <c r="R94" s="6"/>
-      <c r="S94" s="9"/>
+      <c r="S94" s="9" t="s">
+        <v>241</v>
+      </c>
       <c r="T94" s="10"/>
-      <c r="U94" s="6"/>
+      <c r="U94" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J95" s="2">
-        <v>1</v>
-      </c>
-      <c r="K95" s="21">
-        <v>1</v>
-      </c>
-      <c r="L95" s="21">
-        <v>1</v>
-      </c>
-      <c r="M95" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N95" s="2">
-        <v>0</v>
-      </c>
-      <c r="O95">
-        <v>36</v>
-      </c>
-      <c r="P95">
-        <v>50</v>
-      </c>
-      <c r="Q95">
-        <v>5</v>
-      </c>
-      <c r="R95" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="S95" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T95" s="8"/>
-      <c r="U95" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V95">
-        <v>0</v>
-      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="10"/>
+      <c r="U95" s="6"/>
     </row>
     <row r="96" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J96" s="2">
-        <v>1</v>
-      </c>
-      <c r="K96" s="21">
-        <v>1</v>
-      </c>
-      <c r="L96" s="21">
-        <v>1</v>
-      </c>
-      <c r="M96" s="21">
-        <v>1</v>
-      </c>
-      <c r="N96" s="2">
-        <v>0</v>
-      </c>
-      <c r="O96">
-        <v>6</v>
-      </c>
-      <c r="P96">
-        <v>50</v>
-      </c>
-      <c r="Q96">
-        <v>5</v>
-      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
       <c r="R96" s="6"/>
-      <c r="S96" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="T96" s="8"/>
-      <c r="U96" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V96">
-        <v>0</v>
-      </c>
+      <c r="S96" s="9"/>
+      <c r="T96" s="10"/>
+      <c r="U96" s="6"/>
     </row>
     <row r="97" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="S97" s="15"/>
-      <c r="T97" s="15"/>
+      <c r="B97" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J97" s="2">
+        <v>1</v>
+      </c>
+      <c r="K97" s="21">
+        <v>1</v>
+      </c>
+      <c r="L97" s="21">
+        <v>1</v>
+      </c>
+      <c r="M97" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N97" s="2">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>36</v>
+      </c>
+      <c r="P97">
+        <v>50</v>
+      </c>
+      <c r="Q97">
+        <v>5</v>
+      </c>
+      <c r="R97" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="S97" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T97" s="8"/>
+      <c r="U97" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98">
@@ -8703,16 +8770,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="F98" s="13" t="s">
         <v>9</v>
@@ -8724,7 +8791,7 @@
         <v>9</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="J98" s="2">
         <v>1</v>
@@ -8736,27 +8803,25 @@
         <v>1</v>
       </c>
       <c r="M98" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N98" s="2">
         <v>0</v>
       </c>
       <c r="O98">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P98">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="Q98">
         <v>5</v>
       </c>
-      <c r="R98" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="S98" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="T98" s="10"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="T98" s="8"/>
       <c r="U98" s="6" t="s">
         <v>179</v>
       </c>
@@ -8766,7 +8831,7 @@
     </row>
     <row r="99" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="S99" s="15"/>
@@ -8774,32 +8839,32 @@
     </row>
     <row r="100" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100">
-        <f t="shared" ref="A100:A104" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="E100" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="J100" s="2">
         <v>1</v>
@@ -8817,21 +8882,21 @@
         <v>0</v>
       </c>
       <c r="O100">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="P100">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="Q100">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="R100" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S100" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T100" s="8"/>
+        <v>191</v>
+      </c>
+      <c r="S100" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="T100" s="10"/>
       <c r="U100" s="6" t="s">
         <v>179</v>
       </c>
@@ -8849,32 +8914,32 @@
     </row>
     <row r="102" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A102:A106" si="1">ROW()-2</f>
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="J102" s="2">
         <v>1</v>
@@ -8886,13 +8951,13 @@
         <v>1</v>
       </c>
       <c r="M102" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N102" s="2">
         <v>0</v>
       </c>
       <c r="O102">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="P102">
         <v>50</v>
@@ -8901,10 +8966,10 @@
         <v>32</v>
       </c>
       <c r="R102" s="6" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="S102" s="8" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="T102" s="8"/>
       <c r="U102" s="6" t="s">
@@ -8916,9 +8981,11 @@
     </row>
     <row r="103" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>101</v>
       </c>
+      <c r="S103" s="15"/>
+      <c r="T103" s="15"/>
     </row>
     <row r="104" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104">
@@ -8926,16 +8993,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D104" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C104" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="E104" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>9</v>
@@ -8947,7 +9014,7 @@
         <v>9</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J104" s="2">
         <v>1</v>
@@ -8974,16 +9041,89 @@
         <v>32</v>
       </c>
       <c r="R104" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="S104" s="8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="T104" s="8"/>
       <c r="U104" s="6" t="s">
         <v>179</v>
       </c>
       <c r="V104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J106" s="2">
+        <v>1</v>
+      </c>
+      <c r="K106" s="21">
+        <v>1</v>
+      </c>
+      <c r="L106" s="21">
+        <v>1</v>
+      </c>
+      <c r="M106" s="21">
+        <v>1</v>
+      </c>
+      <c r="N106" s="2">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106">
+        <v>50</v>
+      </c>
+      <c r="Q106">
+        <v>32</v>
+      </c>
+      <c r="R106" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="S106" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="T106" s="8"/>
+      <c r="U106" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V106">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBA1410-6508-44E1-93A8-5E4D139B8EEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848548F6-DFC6-4850-B8DD-4E01E515B2ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="2325" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="2430" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="262">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -753,74 +753,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>salad_Oil</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>butter</t>
   </si>
   <si>
     <t>suger</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>小麦粉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>サラダ油</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>砂糖</t>
-    </r>
-    <rPh sb="0" eb="3">
-      <t>コムギコ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アブラ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サトウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1011,10 +947,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cookie_salad_oil</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>sponge_cake</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3072,6 +3004,244 @@
   </si>
   <si>
     <t>rusk_butter_emerald</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>himawari_Oil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cookie_himawari_oil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小麦粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ひまわり油</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>砂糖</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oil_extracter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>himawari_seed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひまわり油</t>
+    <rPh sb="4" eb="5">
+      <t>アブラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ひまわりの種</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>油絞り器</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>タネ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appaleil_donuts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アパレイユ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小麦粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ベーキングパウダー</t>
+    </r>
+    <rPh sb="6" eb="9">
+      <t>コムギコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flyer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>donuts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドーナツ系</t>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ドーナツ用生地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>フライヤー</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3525,10 +3695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:V106"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3556,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3580,7 +3750,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>24</v>
@@ -3613,10 +3783,10 @@
         <v>7</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3625,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>8</v>
@@ -3673,14 +3843,14 @@
         <v>3</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="T2" s="8"/>
       <c r="U2" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -3688,11 +3858,11 @@
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A100" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A103" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>8</v>
@@ -3745,7 +3915,7 @@
       </c>
       <c r="T3" s="8"/>
       <c r="U3" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -3757,7 +3927,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>9</v>
@@ -3806,11 +3976,11 @@
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="T4" s="8"/>
       <c r="U4" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -3844,10 +4014,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>9</v>
@@ -3886,14 +4056,14 @@
         <v>3</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="T7" s="8"/>
       <c r="U7" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -3905,16 +4075,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>9</v>
@@ -3926,7 +4096,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -3954,11 +4124,11 @@
       </c>
       <c r="R8" s="6"/>
       <c r="S8" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="T8" s="8"/>
       <c r="U8" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -3970,16 +4140,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>9</v>
@@ -3991,7 +4161,7 @@
         <v>9</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -4019,11 +4189,11 @@
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="T9" s="8"/>
       <c r="U9" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -4035,16 +4205,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>9</v>
@@ -4056,7 +4226,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -4084,11 +4254,11 @@
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="T10" s="8"/>
       <c r="U10" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -4100,16 +4270,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>231</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>9</v>
@@ -4121,7 +4291,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -4149,11 +4319,11 @@
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T11" s="8"/>
       <c r="U11" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -4165,28 +4335,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -4214,11 +4384,11 @@
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="T12" s="8"/>
       <c r="U12" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -4230,16 +4400,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>9</v>
@@ -4251,7 +4421,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -4279,11 +4449,11 @@
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="11" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="T13" s="8"/>
       <c r="U13" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -4295,28 +4465,28 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
@@ -4328,10 +4498,10 @@
         <v>1</v>
       </c>
       <c r="M14" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -4344,11 +4514,11 @@
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="11" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="T14" s="8"/>
       <c r="U14" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -4360,10 +4530,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>9</v>
@@ -4372,16 +4542,16 @@
         <v>9</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>
@@ -4396,7 +4566,7 @@
         <v>9999</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -4409,11 +4579,11 @@
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="11" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="T15" s="8"/>
       <c r="U15" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -4425,10 +4595,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>9</v>
@@ -4437,16 +4607,16 @@
         <v>9</v>
       </c>
       <c r="F16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
@@ -4461,7 +4631,7 @@
         <v>9999</v>
       </c>
       <c r="N16" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -4474,11 +4644,11 @@
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="11" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="T16" s="8"/>
       <c r="U16" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -4490,28 +4660,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>153</v>
+        <v>9</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
@@ -4526,7 +4696,7 @@
         <v>9999</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -4539,11 +4709,11 @@
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="11" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="T17" s="8"/>
       <c r="U17" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -4555,10 +4725,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>11</v>
@@ -4567,16 +4737,16 @@
         <v>9</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -4602,15 +4772,13 @@
       <c r="Q18">
         <v>3</v>
       </c>
-      <c r="R18" s="6" t="s">
-        <v>246</v>
-      </c>
+      <c r="R18" s="6"/>
       <c r="S18" s="11" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="T18" s="8"/>
       <c r="U18" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -4622,28 +4790,28 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -4655,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
@@ -4670,14 +4838,14 @@
         <v>3</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="T19" s="8"/>
       <c r="U19" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -4689,17 +4857,17 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="C20" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="F20" s="13" t="s">
         <v>9</v>
       </c>
@@ -4710,7 +4878,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -4722,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
@@ -4734,15 +4902,17 @@
         <v>100</v>
       </c>
       <c r="Q20">
-        <v>4</v>
-      </c>
-      <c r="R20" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>241</v>
+      </c>
       <c r="S20" s="11" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="T20" s="8"/>
       <c r="U20" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -4754,16 +4924,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>243</v>
+        <v>84</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>242</v>
+        <v>9</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>9</v>
@@ -4775,7 +4945,7 @@
         <v>9</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -4787,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -4801,15 +4971,13 @@
       <c r="Q21">
         <v>4</v>
       </c>
-      <c r="R21" s="6" t="s">
-        <v>245</v>
-      </c>
+      <c r="R21" s="6"/>
       <c r="S21" s="11" t="s">
-        <v>247</v>
+        <v>117</v>
       </c>
       <c r="T21" s="8"/>
       <c r="U21" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -4821,16 +4989,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>9</v>
+        <v>239</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>9</v>
@@ -4842,7 +5010,7 @@
         <v>9</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -4854,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -4868,13 +5036,15 @@
       <c r="Q22">
         <v>4</v>
       </c>
-      <c r="R22" s="6"/>
+      <c r="R22" s="6" t="s">
+        <v>242</v>
+      </c>
       <c r="S22" s="11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="T22" s="8"/>
       <c r="U22" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -4885,10 +5055,61 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
+      <c r="B23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="21">
+        <v>1</v>
+      </c>
+      <c r="L23" s="21">
+        <v>1</v>
+      </c>
+      <c r="M23" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>100</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23" s="6"/>
+      <c r="S23" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="T23" s="8"/>
       <c r="U23" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -4896,17 +5117,17 @@
     </row>
     <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>115</v>
+      <c r="B24" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>8</v>
+        <v>253</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>9</v>
@@ -4921,7 +5142,7 @@
         <v>9</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>115</v>
+        <v>249</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -4942,53 +5163,52 @@
         <v>1</v>
       </c>
       <c r="P24">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q24">
-        <v>3</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S24" s="8" t="s">
-        <v>117</v>
+        <v>4</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="S24" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="T24" s="8"/>
       <c r="U24" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20">
+    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <f>ROW()-2</f>
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>44</v>
+      <c r="B26" t="s">
+        <v>112</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>9</v>
@@ -5003,9 +5223,9 @@
         <v>9</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J26" s="20">
+        <v>112</v>
+      </c>
+      <c r="J26" s="2">
         <v>1</v>
       </c>
       <c r="K26" s="21">
@@ -5030,29 +5250,99 @@
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="T26" s="8"/>
       <c r="U26" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V26" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27">
+        <v>176</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
     </row>
     <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="20">
+        <v>1</v>
+      </c>
+      <c r="K28" s="21">
+        <v>1</v>
+      </c>
+      <c r="L28" s="21">
+        <v>1</v>
+      </c>
+      <c r="M28" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>95</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="T28" s="8"/>
+      <c r="U28" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V28" s="20">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5061,174 +5351,54 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="17">
+    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="R30" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="S30" s="19"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
     </row>
     <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="6"/>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32">
+    </row>
+    <row r="32" spans="1:22" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="17">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="22">
-        <v>2</v>
-      </c>
-      <c r="L32" s="22">
-        <v>1</v>
-      </c>
-      <c r="M32" s="22">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>12</v>
-      </c>
-      <c r="P32">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="R32" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="Q32">
-        <v>3</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="S32" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="T32" s="10"/>
-      <c r="U32" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
+      <c r="S32" s="19"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="J33" s="2">
-        <v>1</v>
-      </c>
-      <c r="K33" s="22">
-        <v>2</v>
-      </c>
-      <c r="L33" s="22">
-        <v>1</v>
-      </c>
-      <c r="M33" s="22">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>12</v>
-      </c>
-      <c r="P33">
-        <v>95</v>
-      </c>
-      <c r="Q33">
-        <v>3</v>
-      </c>
-      <c r="R33" s="6"/>
-      <c r="S33" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="T33" s="10"/>
-      <c r="U33" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="6"/>
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -5236,28 +5406,28 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
@@ -5269,7 +5439,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="22">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -5281,15 +5451,17 @@
         <v>95</v>
       </c>
       <c r="Q34">
-        <v>2</v>
-      </c>
-      <c r="R34" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="S34" s="9" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="T34" s="10"/>
       <c r="U34" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -5301,16 +5473,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>9</v>
@@ -5322,7 +5494,7 @@
         <v>9</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
@@ -5343,18 +5515,18 @@
         <v>12</v>
       </c>
       <c r="P35">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="Q35">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="R35" s="6"/>
       <c r="S35" s="9" t="s">
-        <v>61</v>
+        <v>217</v>
       </c>
       <c r="T35" s="10"/>
       <c r="U35" s="6" t="s">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -5366,13 +5538,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>9</v>
@@ -5381,13 +5553,13 @@
         <v>9</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -5399,10 +5571,10 @@
         <v>1</v>
       </c>
       <c r="M36" s="22">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N36">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="O36">
         <v>12</v>
@@ -5411,15 +5583,15 @@
         <v>95</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R36" s="6"/>
       <c r="S36" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="T36" s="10"/>
       <c r="U36" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -5431,34 +5603,34 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>63</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
       </c>
       <c r="K37" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37" s="22">
         <v>1</v>
@@ -5473,18 +5645,18 @@
         <v>12</v>
       </c>
       <c r="P37">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="Q37">
-        <v>3</v>
-      </c>
-      <c r="R37" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="R37" s="6"/>
       <c r="S37" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="T37" s="10"/>
       <c r="U37" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -5496,13 +5668,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>9</v>
@@ -5511,28 +5683,28 @@
         <v>9</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
       </c>
       <c r="K38" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" s="22">
         <v>1</v>
       </c>
       <c r="M38" s="22">
+        <v>1</v>
+      </c>
+      <c r="N38">
         <v>9999</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
       </c>
       <c r="O38">
         <v>12</v>
@@ -5543,12 +5715,13 @@
       <c r="Q38">
         <v>3</v>
       </c>
+      <c r="R38" s="6"/>
       <c r="S38" s="9" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="T38" s="10"/>
       <c r="U38" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -5560,62 +5733,60 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>80</v>
-      </c>
       <c r="D39" s="13" t="s">
-        <v>35</v>
+        <v>249</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
       </c>
-      <c r="K39" s="21">
-        <v>1</v>
-      </c>
-      <c r="L39" s="21">
-        <v>1</v>
-      </c>
-      <c r="M39" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N39" s="2">
+      <c r="K39" s="22">
+        <v>1</v>
+      </c>
+      <c r="L39" s="22">
+        <v>1</v>
+      </c>
+      <c r="M39" s="22">
+        <v>1</v>
+      </c>
+      <c r="N39">
         <v>0</v>
       </c>
       <c r="O39">
+        <v>12</v>
+      </c>
+      <c r="P39">
+        <v>95</v>
+      </c>
+      <c r="Q39">
         <v>3</v>
       </c>
-      <c r="P39">
-        <v>80</v>
-      </c>
-      <c r="Q39">
-        <v>34</v>
-      </c>
-      <c r="R39" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="S39" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="T39" s="8"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="T39" s="10"/>
       <c r="U39" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -5627,13 +5798,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>9</v>
@@ -5648,39 +5819,38 @@
         <v>9</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
       </c>
-      <c r="K40" s="21">
-        <v>1</v>
-      </c>
-      <c r="L40" s="21">
-        <v>1</v>
-      </c>
-      <c r="M40" s="21">
+      <c r="K40" s="22">
+        <v>1</v>
+      </c>
+      <c r="L40" s="22">
+        <v>1</v>
+      </c>
+      <c r="M40" s="22">
         <v>9999</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
+        <v>12</v>
+      </c>
+      <c r="P40">
+        <v>95</v>
+      </c>
+      <c r="Q40">
         <v>3</v>
       </c>
-      <c r="P40">
-        <v>90</v>
-      </c>
-      <c r="Q40">
-        <v>10</v>
-      </c>
-      <c r="R40" s="4"/>
-      <c r="S40" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="T40" s="8"/>
+      <c r="S40" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T40" s="10"/>
       <c r="U40" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -5692,28 +5862,28 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="J41" s="2">
         <v>1</v>
@@ -5734,18 +5904,20 @@
         <v>3</v>
       </c>
       <c r="P41">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q41">
-        <v>10</v>
-      </c>
-      <c r="R41" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>221</v>
+      </c>
       <c r="S41" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T41" s="8"/>
       <c r="U41" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -5757,13 +5929,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>9</v>
@@ -5778,7 +5950,7 @@
         <v>9</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
@@ -5806,11 +5978,11 @@
       </c>
       <c r="R42" s="4"/>
       <c r="S42" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T42" s="8"/>
       <c r="U42" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -5822,13 +5994,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>9</v>
@@ -5843,7 +6015,7 @@
         <v>9</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
@@ -5871,11 +6043,11 @@
       </c>
       <c r="R43" s="4"/>
       <c r="S43" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T43" s="8"/>
       <c r="U43" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -5887,28 +6059,28 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>67</v>
+        <v>224</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
@@ -5936,11 +6108,11 @@
       </c>
       <c r="R44" s="4"/>
       <c r="S44" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="T44" s="8"/>
       <c r="U44" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -5952,13 +6124,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>9</v>
@@ -5973,7 +6145,7 @@
         <v>9</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>85</v>
+        <v>226</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
@@ -6001,11 +6173,11 @@
       </c>
       <c r="R45" s="4"/>
       <c r="S45" s="11" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="T45" s="8"/>
       <c r="U45" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -6017,13 +6189,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>9</v>
@@ -6032,13 +6204,13 @@
         <v>55</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -6059,18 +6231,18 @@
         <v>3</v>
       </c>
       <c r="P46">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q46">
         <v>10</v>
       </c>
       <c r="R46" s="4"/>
       <c r="S46" s="11" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="T46" s="8"/>
       <c r="U46" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -6082,28 +6254,28 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
@@ -6127,15 +6299,15 @@
         <v>90</v>
       </c>
       <c r="Q47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R47" s="4"/>
       <c r="S47" s="11" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="T47" s="8"/>
       <c r="U47" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -6147,28 +6319,28 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>206</v>
+        <v>50</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
@@ -6189,18 +6361,18 @@
         <v>3</v>
       </c>
       <c r="P48">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q48">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R48" s="4"/>
       <c r="S48" s="11" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="T48" s="8"/>
       <c r="U48" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -6212,28 +6384,28 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
@@ -6265,7 +6437,7 @@
       </c>
       <c r="T49" s="8"/>
       <c r="U49" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -6277,13 +6449,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>9</v>
@@ -6298,7 +6470,7 @@
         <v>9</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -6330,7 +6502,7 @@
       </c>
       <c r="T50" s="8"/>
       <c r="U50" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -6342,13 +6514,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>9</v>
@@ -6363,7 +6535,7 @@
         <v>9</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
@@ -6395,7 +6567,7 @@
       </c>
       <c r="T51" s="8"/>
       <c r="U51" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -6407,13 +6579,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>9</v>
@@ -6428,7 +6600,7 @@
         <v>9</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
@@ -6460,7 +6632,7 @@
       </c>
       <c r="T52" s="8"/>
       <c r="U52" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -6472,13 +6644,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>9</v>
@@ -6493,7 +6665,7 @@
         <v>9</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
@@ -6525,7 +6697,7 @@
       </c>
       <c r="T53" s="8"/>
       <c r="U53" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -6537,13 +6709,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>9</v>
@@ -6558,7 +6730,7 @@
         <v>9</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J54" s="2">
         <v>1</v>
@@ -6590,7 +6762,7 @@
       </c>
       <c r="T54" s="8"/>
       <c r="U54" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -6602,28 +6774,28 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -6651,11 +6823,11 @@
       </c>
       <c r="R55" s="4"/>
       <c r="S55" s="11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="T55" s="8"/>
       <c r="U55" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -6667,28 +6839,28 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>31</v>
-      </c>
       <c r="D56" s="13" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
@@ -6709,18 +6881,18 @@
         <v>3</v>
       </c>
       <c r="P56">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q56">
-        <v>34</v>
-      </c>
-      <c r="R56" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="R56" s="4"/>
       <c r="S56" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T56" s="8"/>
       <c r="U56" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -6732,28 +6904,28 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
@@ -6774,18 +6946,18 @@
         <v>3</v>
       </c>
       <c r="P57">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q57">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R57" s="4"/>
       <c r="S57" s="11" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="T57" s="8"/>
       <c r="U57" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -6797,42 +6969,42 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="J58" s="2">
         <v>1</v>
       </c>
-      <c r="K58" s="22">
-        <v>1</v>
-      </c>
-      <c r="L58" s="22">
-        <v>1</v>
-      </c>
-      <c r="M58" s="22">
-        <v>1</v>
-      </c>
-      <c r="N58">
+      <c r="K58" s="21">
+        <v>1</v>
+      </c>
+      <c r="L58" s="21">
+        <v>1</v>
+      </c>
+      <c r="M58" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N58" s="2">
         <v>0</v>
       </c>
       <c r="O58">
@@ -6842,15 +7014,15 @@
         <v>95</v>
       </c>
       <c r="Q58">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="R58" s="6"/>
-      <c r="S58" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="T58" s="10"/>
+      <c r="S58" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T58" s="8"/>
       <c r="U58" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -6861,19 +7033,65 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="R59" s="12"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="3"/>
+      <c r="B59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
+      <c r="K59" s="21">
+        <v>1</v>
+      </c>
+      <c r="L59" s="21">
+        <v>1</v>
+      </c>
+      <c r="M59" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N59" s="2">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>3</v>
+      </c>
+      <c r="P59">
+        <v>60</v>
+      </c>
+      <c r="Q59">
+        <v>10</v>
+      </c>
+      <c r="R59" s="4"/>
+      <c r="S59" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="T59" s="8"/>
+      <c r="U59" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60">
@@ -6881,16 +7099,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>9</v>
@@ -6902,41 +7120,39 @@
         <v>9</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
       </c>
-      <c r="K60" s="21">
-        <v>1</v>
-      </c>
-      <c r="L60" s="21">
-        <v>1</v>
-      </c>
-      <c r="M60" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N60" s="2">
+      <c r="K60" s="22">
+        <v>1</v>
+      </c>
+      <c r="L60" s="22">
+        <v>1</v>
+      </c>
+      <c r="M60" s="22">
+        <v>1</v>
+      </c>
+      <c r="N60">
         <v>0</v>
       </c>
       <c r="O60">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P60">
         <v>95</v>
       </c>
       <c r="Q60">
-        <v>5</v>
-      </c>
-      <c r="R60" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="S60" s="9" t="s">
-        <v>128</v>
+        <v>3</v>
+      </c>
+      <c r="R60" s="6"/>
+      <c r="S60" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="T60" s="10"/>
       <c r="U60" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -6947,65 +7163,19 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J61" s="2">
-        <v>1</v>
-      </c>
-      <c r="K61" s="21">
-        <v>4</v>
-      </c>
-      <c r="L61" s="21">
-        <v>1</v>
-      </c>
-      <c r="M61" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N61" s="2">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>18</v>
-      </c>
-      <c r="P61">
-        <v>95</v>
-      </c>
-      <c r="Q61">
-        <v>5</v>
-      </c>
-      <c r="R61" s="6"/>
-      <c r="S61" s="9" t="s">
-        <v>181</v>
-      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="9"/>
       <c r="T61" s="10"/>
-      <c r="U61" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
+      <c r="U61" s="3"/>
     </row>
     <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -7013,16 +7183,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>9</v>
@@ -7034,7 +7204,7 @@
         <v>9</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="J62" s="2">
         <v>1</v>
@@ -7046,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="M62" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N62" s="2">
         <v>0</v>
@@ -7060,13 +7230,15 @@
       <c r="Q62">
         <v>5</v>
       </c>
-      <c r="R62" s="6"/>
+      <c r="R62" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="S62" s="9" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="T62" s="10"/>
       <c r="U62" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -7078,14 +7250,14 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="C63" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="13" t="s">
-        <v>158</v>
-      </c>
       <c r="E63" s="13" t="s">
         <v>9</v>
       </c>
@@ -7099,13 +7271,13 @@
         <v>9</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="J63" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K63" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L63" s="21">
         <v>1</v>
@@ -7117,21 +7289,21 @@
         <v>0</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P63">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q63">
         <v>5</v>
       </c>
       <c r="R63" s="6"/>
       <c r="S63" s="9" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="T63" s="10"/>
       <c r="U63" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -7143,16 +7315,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="F64" s="13" t="s">
         <v>9</v>
@@ -7164,10 +7336,10 @@
         <v>9</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="J64" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K64" s="21">
         <v>1</v>
@@ -7176,27 +7348,27 @@
         <v>1</v>
       </c>
       <c r="M64" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N64" s="2">
         <v>0</v>
       </c>
       <c r="O64">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P64">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q64">
         <v>5</v>
       </c>
       <c r="R64" s="6"/>
       <c r="S64" s="9" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="T64" s="10"/>
       <c r="U64" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -7208,13 +7380,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>9</v>
@@ -7229,7 +7401,7 @@
         <v>9</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="J65" s="2">
         <v>8</v>
@@ -7257,11 +7429,11 @@
       </c>
       <c r="R65" s="6"/>
       <c r="S65" s="9" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="T65" s="10"/>
       <c r="U65" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -7272,16 +7444,65 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="4"/>
+      <c r="B66" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J66" s="2">
+        <v>8</v>
+      </c>
+      <c r="K66" s="21">
+        <v>1</v>
+      </c>
+      <c r="L66" s="21">
+        <v>1</v>
+      </c>
+      <c r="M66" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N66" s="2">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>100</v>
+      </c>
+      <c r="Q66">
+        <v>5</v>
+      </c>
+      <c r="R66" s="6"/>
+      <c r="S66" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="T66" s="10"/>
+      <c r="U66" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
@@ -7289,19 +7510,19 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G67" s="13" t="s">
         <v>9</v>
@@ -7310,10 +7531,10 @@
         <v>9</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="J67" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K67" s="21">
         <v>1</v>
@@ -7322,29 +7543,27 @@
         <v>1</v>
       </c>
       <c r="M67" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N67" s="2">
         <v>0</v>
       </c>
       <c r="O67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P67">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q67">
         <v>5</v>
       </c>
-      <c r="R67" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="R67" s="6"/>
       <c r="S67" s="9" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="T67" s="10"/>
       <c r="U67" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V67">
         <v>0</v>
@@ -7355,64 +7574,16 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J68" s="2">
-        <v>1</v>
-      </c>
-      <c r="K68" s="21">
-        <v>1</v>
-      </c>
-      <c r="L68" s="21">
-        <v>1</v>
-      </c>
-      <c r="M68" s="21">
-        <v>1</v>
-      </c>
-      <c r="N68" s="2">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>3</v>
-      </c>
-      <c r="P68">
-        <v>5</v>
-      </c>
-      <c r="Q68">
-        <v>34</v>
-      </c>
-      <c r="S68" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T68" s="8"/>
-      <c r="U68" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="4"/>
     </row>
     <row r="69" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
@@ -7420,19 +7591,19 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G69" s="13" t="s">
         <v>9</v>
@@ -7441,7 +7612,7 @@
         <v>9</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="J69" s="2">
         <v>1</v>
@@ -7465,14 +7636,17 @@
         <v>95</v>
       </c>
       <c r="Q69">
-        <v>8</v>
-      </c>
-      <c r="S69" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T69" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="R69" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="S69" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T69" s="10"/>
       <c r="U69" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V69">
         <v>0</v>
@@ -7483,6 +7657,64 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
+      <c r="B70" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1</v>
+      </c>
+      <c r="K70" s="21">
+        <v>1</v>
+      </c>
+      <c r="L70" s="21">
+        <v>1</v>
+      </c>
+      <c r="M70" s="21">
+        <v>1</v>
+      </c>
+      <c r="N70" s="2">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>3</v>
+      </c>
+      <c r="P70">
+        <v>5</v>
+      </c>
+      <c r="Q70">
+        <v>34</v>
+      </c>
+      <c r="S70" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T70" s="8"/>
+      <c r="U70" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71">
@@ -7490,16 +7722,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
       <c r="F71" s="13" t="s">
         <v>9</v>
@@ -7511,7 +7743,7 @@
         <v>9</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
@@ -7529,23 +7761,20 @@
         <v>0</v>
       </c>
       <c r="O71">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P71">
         <v>95</v>
       </c>
       <c r="Q71">
-        <v>5</v>
-      </c>
-      <c r="R71" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="S71" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="T71" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="S71" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T71" s="8"/>
       <c r="U71" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V71">
         <v>0</v>
@@ -7563,16 +7792,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="F73" s="13" t="s">
         <v>9</v>
@@ -7584,7 +7813,7 @@
         <v>9</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="J73" s="2">
         <v>1</v>
@@ -7596,13 +7825,13 @@
         <v>1</v>
       </c>
       <c r="M73" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N73" s="2">
         <v>0</v>
       </c>
       <c r="O73">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P73">
         <v>95</v>
@@ -7611,14 +7840,14 @@
         <v>5</v>
       </c>
       <c r="R73" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="S73" s="9" t="s">
         <v>202</v>
       </c>
       <c r="T73" s="10"/>
       <c r="U73" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V73">
         <v>0</v>
@@ -7635,6 +7864,67 @@
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
+      <c r="B75" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J75" s="2">
+        <v>1</v>
+      </c>
+      <c r="K75" s="21">
+        <v>1</v>
+      </c>
+      <c r="L75" s="21">
+        <v>1</v>
+      </c>
+      <c r="M75" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N75" s="2">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>12</v>
+      </c>
+      <c r="P75">
+        <v>95</v>
+      </c>
+      <c r="Q75">
+        <v>5</v>
+      </c>
+      <c r="R75" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="S75" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="T75" s="10"/>
+      <c r="U75" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
@@ -7647,132 +7937,12 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J77" s="2">
-        <v>1</v>
-      </c>
-      <c r="K77" s="21">
-        <v>1</v>
-      </c>
-      <c r="L77" s="21">
-        <v>1</v>
-      </c>
-      <c r="M77" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N77" s="2">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>6</v>
-      </c>
-      <c r="P77">
-        <v>95</v>
-      </c>
-      <c r="Q77">
-        <v>5</v>
-      </c>
-      <c r="R77" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="S77" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="T77" s="10"/>
-      <c r="U77" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
     </row>
     <row r="78" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J78" s="2">
-        <v>1</v>
-      </c>
-      <c r="K78" s="21">
-        <v>1</v>
-      </c>
-      <c r="L78" s="21">
-        <v>1</v>
-      </c>
-      <c r="M78" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N78" s="2">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>6</v>
-      </c>
-      <c r="P78">
-        <v>95</v>
-      </c>
-      <c r="Q78">
-        <v>5</v>
-      </c>
-      <c r="R78" s="6"/>
-      <c r="S78" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="T78" s="10"/>
-      <c r="U78" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V78">
-        <v>0</v>
-      </c>
     </row>
     <row r="79" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -7780,16 +7950,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D79" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F79" s="13" t="s">
         <v>9</v>
@@ -7801,7 +7971,7 @@
         <v>9</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="J79" s="2">
         <v>1</v>
@@ -7813,7 +7983,7 @@
         <v>1</v>
       </c>
       <c r="M79" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N79" s="2">
         <v>0</v>
@@ -7827,15 +7997,15 @@
       <c r="Q79">
         <v>5</v>
       </c>
-      <c r="R79" s="6"/>
+      <c r="R79" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="S79" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="T79" s="10" t="s">
-        <v>164</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="T79" s="10"/>
       <c r="U79" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V79">
         <v>0</v>
@@ -7847,16 +8017,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="F80" s="13" t="s">
         <v>9</v>
@@ -7868,7 +8038,7 @@
         <v>9</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="J80" s="2">
         <v>1</v>
@@ -7880,7 +8050,7 @@
         <v>1</v>
       </c>
       <c r="M80" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N80" s="2">
         <v>0</v>
@@ -7896,13 +8066,11 @@
       </c>
       <c r="R80" s="6"/>
       <c r="S80" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="T80" s="10" t="s">
-        <v>164</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="T80" s="10"/>
       <c r="U80" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V80">
         <v>0</v>
@@ -7914,16 +8082,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D81" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="F81" s="13" t="s">
         <v>9</v>
@@ -7935,7 +8103,7 @@
         <v>9</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J81" s="2">
         <v>1</v>
@@ -7947,7 +8115,7 @@
         <v>1</v>
       </c>
       <c r="M81" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N81" s="2">
         <v>0</v>
@@ -7963,13 +8131,13 @@
       </c>
       <c r="R81" s="6"/>
       <c r="S81" s="9" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="T81" s="10" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="U81" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V81">
         <v>0</v>
@@ -7981,16 +8149,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F82" s="13" t="s">
         <v>9</v>
@@ -8002,7 +8170,7 @@
         <v>9</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J82" s="2">
         <v>1</v>
@@ -8030,13 +8198,13 @@
       </c>
       <c r="R82" s="6"/>
       <c r="S82" s="9" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="T82" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="U82" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V82">
         <v>0</v>
@@ -8048,13 +8216,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E83" s="13" t="s">
         <v>9</v>
@@ -8063,13 +8231,13 @@
         <v>9</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="J83" s="2">
         <v>1</v>
@@ -8084,7 +8252,7 @@
         <v>9999</v>
       </c>
       <c r="N83" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="O83">
         <v>6</v>
@@ -8097,11 +8265,13 @@
       </c>
       <c r="R83" s="6"/>
       <c r="S83" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="T83" s="10"/>
+        <v>184</v>
+      </c>
+      <c r="T83" s="10" t="s">
+        <v>186</v>
+      </c>
       <c r="U83" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V83">
         <v>0</v>
@@ -8113,28 +8283,28 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="F84" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J84" s="2">
         <v>1</v>
@@ -8149,7 +8319,7 @@
         <v>1</v>
       </c>
       <c r="N84" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="O84">
         <v>6</v>
@@ -8162,11 +8332,13 @@
       </c>
       <c r="R84" s="6"/>
       <c r="S84" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="T84" s="10"/>
+        <v>185</v>
+      </c>
+      <c r="T84" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="U84" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V84">
         <v>0</v>
@@ -8178,10 +8350,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D85" s="13" t="s">
         <v>9</v>
@@ -8199,7 +8371,7 @@
         <v>9</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="J85" s="2">
         <v>1</v>
@@ -8227,13 +8399,11 @@
       </c>
       <c r="R85" s="6"/>
       <c r="S85" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="T85" s="10" t="s">
-        <v>189</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="T85" s="10"/>
       <c r="U85" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V85">
         <v>0</v>
@@ -8245,10 +8415,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D86" s="13" t="s">
         <v>9</v>
@@ -8266,7 +8436,7 @@
         <v>59</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J86" s="2">
         <v>1</v>
@@ -8294,13 +8464,11 @@
       </c>
       <c r="R86" s="6"/>
       <c r="S86" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="T86" s="10" t="s">
-        <v>164</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="T86" s="10"/>
       <c r="U86" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V86">
         <v>0</v>
@@ -8311,148 +8479,150 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="S87" s="15"/>
-      <c r="T87" s="15"/>
+      <c r="B87" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J87" s="2">
+        <v>1</v>
+      </c>
+      <c r="K87" s="21">
+        <v>1</v>
+      </c>
+      <c r="L87" s="21">
+        <v>1</v>
+      </c>
+      <c r="M87" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N87" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O87">
+        <v>6</v>
+      </c>
+      <c r="P87">
+        <v>95</v>
+      </c>
+      <c r="Q87">
+        <v>5</v>
+      </c>
+      <c r="R87" s="6"/>
+      <c r="S87" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="T87" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="U87" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="S88" s="15"/>
-      <c r="T88" s="15"/>
+      <c r="B88" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J88" s="2">
+        <v>1</v>
+      </c>
+      <c r="K88" s="21">
+        <v>1</v>
+      </c>
+      <c r="L88" s="21">
+        <v>1</v>
+      </c>
+      <c r="M88" s="21">
+        <v>1</v>
+      </c>
+      <c r="N88" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O88">
+        <v>6</v>
+      </c>
+      <c r="P88">
+        <v>95</v>
+      </c>
+      <c r="Q88">
+        <v>5</v>
+      </c>
+      <c r="R88" s="6"/>
+      <c r="S88" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="T88" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="U88" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J89" s="2">
-        <v>1</v>
-      </c>
-      <c r="K89" s="22">
-        <v>1</v>
-      </c>
-      <c r="L89" s="22">
-        <v>1</v>
-      </c>
-      <c r="M89" s="22">
-        <v>1</v>
-      </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-      <c r="O89">
-        <v>18</v>
-      </c>
-      <c r="P89">
-        <v>95</v>
-      </c>
-      <c r="Q89">
-        <v>20</v>
-      </c>
-      <c r="R89" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="S89" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="T89" s="10"/>
-      <c r="U89" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V89">
-        <v>0</v>
-      </c>
+      <c r="S89" s="15"/>
+      <c r="T89" s="15"/>
     </row>
     <row r="90" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H90" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J90" s="2">
-        <v>1</v>
-      </c>
-      <c r="K90" s="22">
-        <v>1</v>
-      </c>
-      <c r="L90" s="22">
-        <v>1</v>
-      </c>
-      <c r="M90" s="22">
-        <v>1</v>
-      </c>
-      <c r="N90">
-        <v>0</v>
-      </c>
-      <c r="O90">
-        <v>18</v>
-      </c>
-      <c r="P90">
-        <v>95</v>
-      </c>
-      <c r="Q90">
-        <v>20</v>
-      </c>
-      <c r="R90" s="6"/>
-      <c r="S90" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="T90" s="10"/>
-      <c r="U90" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V90">
-        <v>0</v>
-      </c>
+      <c r="S90" s="15"/>
+      <c r="T90" s="15"/>
     </row>
     <row r="91" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91">
@@ -8460,16 +8630,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="F91" s="13" t="s">
         <v>9</v>
@@ -8481,7 +8651,7 @@
         <v>9</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="J91" s="2">
         <v>1</v>
@@ -8507,13 +8677,15 @@
       <c r="Q91">
         <v>20</v>
       </c>
-      <c r="R91" s="6"/>
-      <c r="S91" s="10" t="s">
-        <v>141</v>
+      <c r="R91" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="S91" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="T91" s="10"/>
       <c r="U91" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V91">
         <v>0</v>
@@ -8524,8 +8696,65 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="S92" s="15"/>
-      <c r="T92" s="15"/>
+      <c r="B92" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J92" s="2">
+        <v>1</v>
+      </c>
+      <c r="K92" s="22">
+        <v>1</v>
+      </c>
+      <c r="L92" s="22">
+        <v>1</v>
+      </c>
+      <c r="M92" s="22">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>18</v>
+      </c>
+      <c r="P92">
+        <v>95</v>
+      </c>
+      <c r="Q92">
+        <v>20</v>
+      </c>
+      <c r="R92" s="6"/>
+      <c r="S92" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="T92" s="10"/>
+      <c r="U92" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93">
@@ -8533,16 +8762,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="F93" s="13" t="s">
         <v>9</v>
@@ -8554,10 +8783,10 @@
         <v>9</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="J93" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K93" s="22">
         <v>1</v>
@@ -8566,7 +8795,7 @@
         <v>1</v>
       </c>
       <c r="M93" s="22">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -8580,15 +8809,13 @@
       <c r="Q93">
         <v>20</v>
       </c>
-      <c r="R93" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="S93" s="9" t="s">
-        <v>239</v>
+      <c r="R93" s="6"/>
+      <c r="S93" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="T93" s="10"/>
       <c r="U93" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V93">
         <v>0</v>
@@ -8599,170 +8826,159 @@
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H94" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J94" s="2">
-        <v>1</v>
-      </c>
-      <c r="K94" s="22">
-        <v>1</v>
-      </c>
-      <c r="L94" s="22">
-        <v>1</v>
-      </c>
-      <c r="M94" s="22">
-        <v>9999</v>
-      </c>
-      <c r="N94">
-        <v>0</v>
-      </c>
-      <c r="O94">
-        <v>18</v>
-      </c>
-      <c r="P94">
-        <v>95</v>
-      </c>
-      <c r="Q94">
-        <v>20</v>
-      </c>
-      <c r="R94" s="6"/>
-      <c r="S94" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="T94" s="10"/>
-      <c r="U94" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V94">
-        <v>0</v>
-      </c>
+      <c r="S94" s="15"/>
+      <c r="T94" s="15"/>
     </row>
     <row r="95" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="9"/>
+      <c r="B95" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J95" s="2">
+        <v>5</v>
+      </c>
+      <c r="K95" s="22">
+        <v>1</v>
+      </c>
+      <c r="L95" s="22">
+        <v>1</v>
+      </c>
+      <c r="M95" s="22">
+        <v>9999</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>18</v>
+      </c>
+      <c r="P95">
+        <v>95</v>
+      </c>
+      <c r="Q95">
+        <v>20</v>
+      </c>
+      <c r="R95" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="S95" s="9" t="s">
+        <v>236</v>
+      </c>
       <c r="T95" s="10"/>
-      <c r="U95" s="6"/>
+      <c r="U95" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
+      <c r="B96" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J96" s="2">
+        <v>1</v>
+      </c>
+      <c r="K96" s="22">
+        <v>1</v>
+      </c>
+      <c r="L96" s="22">
+        <v>1</v>
+      </c>
+      <c r="M96" s="22">
+        <v>9999</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>18</v>
+      </c>
+      <c r="P96">
+        <v>95</v>
+      </c>
+      <c r="Q96">
+        <v>20</v>
+      </c>
       <c r="R96" s="6"/>
-      <c r="S96" s="9"/>
+      <c r="S96" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="T96" s="10"/>
-      <c r="U96" s="6"/>
+      <c r="U96" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G97" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H97" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J97" s="2">
-        <v>1</v>
-      </c>
-      <c r="K97" s="21">
-        <v>1</v>
-      </c>
-      <c r="L97" s="21">
-        <v>1</v>
-      </c>
-      <c r="M97" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N97" s="2">
-        <v>0</v>
-      </c>
-      <c r="O97">
-        <v>36</v>
-      </c>
-      <c r="P97">
-        <v>50</v>
-      </c>
-      <c r="Q97">
-        <v>5</v>
-      </c>
-      <c r="R97" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="S97" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T97" s="8"/>
-      <c r="U97" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V97">
-        <v>0</v>
-      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="10"/>
+      <c r="U97" s="6"/>
     </row>
     <row r="98" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98">
@@ -8770,16 +8986,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>97</v>
+        <v>256</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="F98" s="13" t="s">
         <v>9</v>
@@ -8791,39 +9007,41 @@
         <v>9</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="J98" s="2">
-        <v>1</v>
-      </c>
-      <c r="K98" s="21">
-        <v>1</v>
-      </c>
-      <c r="L98" s="21">
-        <v>1</v>
-      </c>
-      <c r="M98" s="21">
-        <v>1</v>
-      </c>
-      <c r="N98" s="2">
+        <v>3</v>
+      </c>
+      <c r="K98" s="22">
+        <v>1</v>
+      </c>
+      <c r="L98" s="22">
+        <v>1</v>
+      </c>
+      <c r="M98" s="22">
+        <v>9999</v>
+      </c>
+      <c r="N98">
         <v>0</v>
       </c>
       <c r="O98">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="P98">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="Q98">
-        <v>5</v>
-      </c>
-      <c r="R98" s="6"/>
-      <c r="S98" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="T98" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="R98" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="S98" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="T98" s="10"/>
       <c r="U98" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V98">
         <v>0</v>
@@ -8834,8 +9052,19 @@
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="S99" s="15"/>
-      <c r="T99" s="15"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="10"/>
+      <c r="U99" s="6"/>
     </row>
     <row r="100" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100">
@@ -8843,19 +9072,19 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="E100" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G100" s="13" t="s">
         <v>9</v>
@@ -8864,7 +9093,7 @@
         <v>9</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="J100" s="2">
         <v>1</v>
@@ -8882,23 +9111,23 @@
         <v>0</v>
       </c>
       <c r="O100">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="P100">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="Q100">
         <v>5</v>
       </c>
       <c r="R100" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="S100" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="T100" s="10"/>
+        <v>97</v>
+      </c>
+      <c r="S100" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T100" s="8"/>
       <c r="U100" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="V100">
         <v>0</v>
@@ -8906,224 +9135,364 @@
     </row>
     <row r="101" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="S101" s="15"/>
-      <c r="T101" s="15"/>
+      <c r="B101" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J101" s="2">
+        <v>1</v>
+      </c>
+      <c r="K101" s="21">
+        <v>1</v>
+      </c>
+      <c r="L101" s="21">
+        <v>1</v>
+      </c>
+      <c r="M101" s="21">
+        <v>1</v>
+      </c>
+      <c r="N101" s="2">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>6</v>
+      </c>
+      <c r="P101">
+        <v>50</v>
+      </c>
+      <c r="Q101">
+        <v>5</v>
+      </c>
+      <c r="R101" s="6"/>
+      <c r="S101" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="T101" s="8"/>
+      <c r="U101" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102">
-        <f t="shared" ref="A102:A106" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G102" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H102" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J102" s="2">
-        <v>1</v>
-      </c>
-      <c r="K102" s="21">
-        <v>1</v>
-      </c>
-      <c r="L102" s="21">
-        <v>1</v>
-      </c>
-      <c r="M102" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N102" s="2">
-        <v>0</v>
-      </c>
-      <c r="O102">
-        <v>72</v>
-      </c>
-      <c r="P102">
-        <v>50</v>
-      </c>
-      <c r="Q102">
-        <v>32</v>
-      </c>
-      <c r="R102" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S102" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T102" s="8"/>
-      <c r="U102" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V102">
-        <v>0</v>
-      </c>
+      <c r="S102" s="15"/>
+      <c r="T102" s="15"/>
     </row>
     <row r="103" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="S103" s="15"/>
-      <c r="T103" s="15"/>
+      <c r="B103" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J103" s="2">
+        <v>1</v>
+      </c>
+      <c r="K103" s="21">
+        <v>1</v>
+      </c>
+      <c r="L103" s="21">
+        <v>1</v>
+      </c>
+      <c r="M103" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N103" s="2">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>12</v>
+      </c>
+      <c r="P103">
+        <v>95</v>
+      </c>
+      <c r="Q103">
+        <v>5</v>
+      </c>
+      <c r="R103" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="S103" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="T103" s="10"/>
+      <c r="U103" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>102</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F104" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G104" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H104" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J104" s="2">
-        <v>1</v>
-      </c>
-      <c r="K104" s="21">
-        <v>1</v>
-      </c>
-      <c r="L104" s="21">
-        <v>1</v>
-      </c>
-      <c r="M104" s="21">
-        <v>1</v>
-      </c>
-      <c r="N104" s="2">
-        <v>0</v>
-      </c>
-      <c r="O104">
-        <v>1</v>
-      </c>
-      <c r="P104">
-        <v>50</v>
-      </c>
-      <c r="Q104">
-        <v>32</v>
-      </c>
-      <c r="R104" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="S104" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="T104" s="8"/>
-      <c r="U104" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V104">
-        <v>0</v>
-      </c>
+      <c r="S104" s="15"/>
+      <c r="T104" s="15"/>
     </row>
     <row r="105" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A105:A109" si="1">ROW()-2</f>
         <v>103</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J105" s="2">
+        <v>1</v>
+      </c>
+      <c r="K105" s="21">
+        <v>1</v>
+      </c>
+      <c r="L105" s="21">
+        <v>1</v>
+      </c>
+      <c r="M105" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N105" s="2">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>72</v>
+      </c>
+      <c r="P105">
+        <v>50</v>
+      </c>
+      <c r="Q105">
+        <v>32</v>
+      </c>
+      <c r="R105" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S105" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T105" s="8"/>
+      <c r="U105" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106">
+        <f>ROW()-2</f>
+        <v>104</v>
+      </c>
+      <c r="S106" s="15"/>
+      <c r="T106" s="15"/>
+    </row>
+    <row r="107" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107">
         <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C107" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="D107" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J107" s="2">
+        <v>1</v>
+      </c>
+      <c r="K107" s="21">
+        <v>1</v>
+      </c>
+      <c r="L107" s="21">
+        <v>1</v>
+      </c>
+      <c r="M107" s="21">
+        <v>1</v>
+      </c>
+      <c r="N107" s="2">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="P107">
+        <v>50</v>
+      </c>
+      <c r="Q107">
+        <v>32</v>
+      </c>
+      <c r="R107" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="S107" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="T107" s="8"/>
+      <c r="U107" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C106" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F106" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J106" s="2">
-        <v>1</v>
-      </c>
-      <c r="K106" s="21">
-        <v>1</v>
-      </c>
-      <c r="L106" s="21">
-        <v>1</v>
-      </c>
-      <c r="M106" s="21">
-        <v>1</v>
-      </c>
-      <c r="N106" s="2">
-        <v>0</v>
-      </c>
-      <c r="O106">
-        <v>1</v>
-      </c>
-      <c r="P106">
+      <c r="F109" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J109" s="2">
+        <v>1</v>
+      </c>
+      <c r="K109" s="21">
+        <v>1</v>
+      </c>
+      <c r="L109" s="21">
+        <v>1</v>
+      </c>
+      <c r="M109" s="21">
+        <v>1</v>
+      </c>
+      <c r="N109" s="2">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109">
         <v>50</v>
       </c>
-      <c r="Q106">
+      <c r="Q109">
         <v>32</v>
       </c>
-      <c r="R106" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="S106" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="T106" s="8"/>
-      <c r="U106" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="V106">
+      <c r="R109" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="S109" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="T109" s="8"/>
+      <c r="U109" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V109">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848548F6-DFC6-4850-B8DD-4E01E515B2ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCCF995-A8DF-4458-9E01-AACA516D9766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="2430" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="23505" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="264">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -3242,6 +3242,14 @@
     <rPh sb="5" eb="7">
       <t>キジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cherry_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cherry</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3695,10 +3703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3858,7 +3866,7 @@
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A103" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A104" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -6774,13 +6782,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>78</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>9</v>
@@ -6795,7 +6803,7 @@
         <v>9</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -6839,13 +6847,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>78</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>9</v>
@@ -6860,7 +6868,7 @@
         <v>9</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
@@ -6904,28 +6912,28 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>78</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
@@ -6953,7 +6961,7 @@
       </c>
       <c r="R57" s="4"/>
       <c r="S57" s="11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="T57" s="8"/>
       <c r="U57" s="6" t="s">
@@ -6969,13 +6977,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>9</v>
@@ -6990,7 +6998,7 @@
         <v>55</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="J58" s="2">
         <v>1</v>
@@ -7011,14 +7019,14 @@
         <v>3</v>
       </c>
       <c r="P58">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q58">
-        <v>34</v>
-      </c>
-      <c r="R58" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="R58" s="4"/>
       <c r="S58" s="11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="T58" s="8"/>
       <c r="U58" s="6" t="s">
@@ -7034,28 +7042,28 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
@@ -7076,14 +7084,14 @@
         <v>3</v>
       </c>
       <c r="P59">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="Q59">
-        <v>10</v>
-      </c>
-      <c r="R59" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="R59" s="6"/>
       <c r="S59" s="11" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="T59" s="8"/>
       <c r="U59" s="6" t="s">
@@ -7099,16 +7107,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>78</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>9</v>
@@ -7120,37 +7128,37 @@
         <v>9</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
       </c>
-      <c r="K60" s="22">
-        <v>1</v>
-      </c>
-      <c r="L60" s="22">
-        <v>1</v>
-      </c>
-      <c r="M60" s="22">
-        <v>1</v>
-      </c>
-      <c r="N60">
+      <c r="K60" s="21">
+        <v>1</v>
+      </c>
+      <c r="L60" s="21">
+        <v>1</v>
+      </c>
+      <c r="M60" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N60" s="2">
         <v>0</v>
       </c>
       <c r="O60">
         <v>3</v>
       </c>
       <c r="P60">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="Q60">
-        <v>3</v>
-      </c>
-      <c r="R60" s="6"/>
-      <c r="S60" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="T60" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="R60" s="4"/>
+      <c r="S60" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="T60" s="8"/>
       <c r="U60" s="6" t="s">
         <v>176</v>
       </c>
@@ -7163,86 +7171,84 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="R61" s="12"/>
-      <c r="S61" s="9"/>
+      <c r="B61" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" s="22">
+        <v>1</v>
+      </c>
+      <c r="L61" s="22">
+        <v>1</v>
+      </c>
+      <c r="M61" s="22">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>3</v>
+      </c>
+      <c r="P61">
+        <v>95</v>
+      </c>
+      <c r="Q61">
+        <v>3</v>
+      </c>
+      <c r="R61" s="6"/>
+      <c r="S61" s="10" t="s">
+        <v>147</v>
+      </c>
       <c r="T61" s="10"/>
-      <c r="U61" s="3"/>
+      <c r="U61" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J62" s="2">
-        <v>1</v>
-      </c>
-      <c r="K62" s="21">
-        <v>1</v>
-      </c>
-      <c r="L62" s="21">
-        <v>1</v>
-      </c>
-      <c r="M62" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N62" s="2">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>18</v>
-      </c>
-      <c r="P62">
-        <v>95</v>
-      </c>
-      <c r="Q62">
-        <v>5</v>
-      </c>
-      <c r="R62" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="S62" s="9" t="s">
-        <v>125</v>
-      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="9"/>
       <c r="T62" s="10"/>
-      <c r="U62" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
+      <c r="U62" s="3"/>
     </row>
     <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -7250,7 +7256,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>84</v>
@@ -7271,13 +7277,13 @@
         <v>9</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
       </c>
       <c r="K63" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L63" s="21">
         <v>1</v>
@@ -7297,9 +7303,11 @@
       <c r="Q63">
         <v>5</v>
       </c>
-      <c r="R63" s="6"/>
+      <c r="R63" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="S63" s="9" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="T63" s="10"/>
       <c r="U63" s="6" t="s">
@@ -7315,7 +7323,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>84</v>
@@ -7324,7 +7332,7 @@
         <v>123</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="F64" s="13" t="s">
         <v>9</v>
@@ -7336,19 +7344,19 @@
         <v>9</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="J64" s="2">
         <v>1</v>
       </c>
       <c r="K64" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L64" s="21">
         <v>1</v>
       </c>
       <c r="M64" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N64" s="2">
         <v>0</v>
@@ -7364,7 +7372,7 @@
       </c>
       <c r="R64" s="6"/>
       <c r="S64" s="9" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="T64" s="10"/>
       <c r="U64" s="6" t="s">
@@ -7380,16 +7388,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="F65" s="13" t="s">
         <v>9</v>
@@ -7401,10 +7409,10 @@
         <v>9</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="J65" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K65" s="21">
         <v>1</v>
@@ -7413,23 +7421,23 @@
         <v>1</v>
       </c>
       <c r="M65" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N65" s="2">
         <v>0</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P65">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q65">
         <v>5</v>
       </c>
       <c r="R65" s="6"/>
       <c r="S65" s="9" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="T65" s="10"/>
       <c r="U65" s="6" t="s">
@@ -7445,10 +7453,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>155</v>
@@ -7510,10 +7518,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>155</v>
@@ -7531,7 +7539,7 @@
         <v>9</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="J67" s="2">
         <v>8</v>
@@ -7559,7 +7567,7 @@
       </c>
       <c r="R67" s="6"/>
       <c r="S67" s="9" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="T67" s="10"/>
       <c r="U67" s="6" t="s">
@@ -7574,83 +7582,81 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="4"/>
+      <c r="B68" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J68" s="2">
+        <v>8</v>
+      </c>
+      <c r="K68" s="21">
+        <v>1</v>
+      </c>
+      <c r="L68" s="21">
+        <v>1</v>
+      </c>
+      <c r="M68" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N68" s="2">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>100</v>
+      </c>
+      <c r="Q68">
+        <v>5</v>
+      </c>
+      <c r="R68" s="6"/>
+      <c r="S68" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="T68" s="10"/>
+      <c r="U68" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J69" s="2">
-        <v>1</v>
-      </c>
-      <c r="K69" s="21">
-        <v>1</v>
-      </c>
-      <c r="L69" s="21">
-        <v>1</v>
-      </c>
-      <c r="M69" s="21">
-        <v>1</v>
-      </c>
-      <c r="N69" s="2">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>3</v>
-      </c>
-      <c r="P69">
-        <v>95</v>
-      </c>
-      <c r="Q69">
-        <v>5</v>
-      </c>
-      <c r="R69" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="S69" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="T69" s="10"/>
-      <c r="U69" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="4"/>
     </row>
     <row r="70" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
@@ -7658,13 +7664,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C70" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>44</v>
@@ -7673,10 +7679,10 @@
         <v>55</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>105</v>
@@ -7700,15 +7706,18 @@
         <v>3</v>
       </c>
       <c r="P70">
+        <v>95</v>
+      </c>
+      <c r="Q70">
         <v>5</v>
       </c>
-      <c r="Q70">
-        <v>34</v>
-      </c>
-      <c r="S70" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T70" s="8"/>
+      <c r="R70" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="S70" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T70" s="10"/>
       <c r="U70" s="6" t="s">
         <v>176</v>
       </c>
@@ -7722,28 +7731,28 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C71" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
@@ -7764,10 +7773,10 @@
         <v>3</v>
       </c>
       <c r="P71">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="Q71">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="S71" s="11" t="s">
         <v>46</v>
@@ -7785,152 +7794,210 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="B72" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" s="21">
+        <v>1</v>
+      </c>
+      <c r="L72" s="21">
+        <v>1</v>
+      </c>
+      <c r="M72" s="21">
+        <v>1</v>
+      </c>
+      <c r="N72" s="2">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>3</v>
+      </c>
+      <c r="P72">
+        <v>95</v>
+      </c>
+      <c r="Q72">
+        <v>8</v>
+      </c>
+      <c r="S72" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T72" s="8"/>
+      <c r="U72" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J73" s="2">
-        <v>1</v>
-      </c>
-      <c r="K73" s="21">
-        <v>1</v>
-      </c>
-      <c r="L73" s="21">
-        <v>1</v>
-      </c>
-      <c r="M73" s="21">
-        <v>1</v>
-      </c>
-      <c r="N73" s="2">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>18</v>
-      </c>
-      <c r="P73">
-        <v>95</v>
-      </c>
-      <c r="Q73">
-        <v>5</v>
-      </c>
-      <c r="R73" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="S73" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="T73" s="10"/>
-      <c r="U73" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
     </row>
     <row r="74" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
+      <c r="B74" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J74" s="2">
+        <v>1</v>
+      </c>
+      <c r="K74" s="21">
+        <v>1</v>
+      </c>
+      <c r="L74" s="21">
+        <v>1</v>
+      </c>
+      <c r="M74" s="21">
+        <v>1</v>
+      </c>
+      <c r="N74" s="2">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>18</v>
+      </c>
+      <c r="P74">
+        <v>95</v>
+      </c>
+      <c r="Q74">
+        <v>5</v>
+      </c>
+      <c r="R74" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="S74" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="T74" s="10"/>
+      <c r="U74" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J75" s="2">
-        <v>1</v>
-      </c>
-      <c r="K75" s="21">
-        <v>1</v>
-      </c>
-      <c r="L75" s="21">
-        <v>1</v>
-      </c>
-      <c r="M75" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N75" s="2">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>12</v>
-      </c>
-      <c r="P75">
-        <v>95</v>
-      </c>
-      <c r="Q75">
-        <v>5</v>
-      </c>
-      <c r="R75" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="S75" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="T75" s="10"/>
-      <c r="U75" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
     </row>
     <row r="76" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
+      <c r="B76" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J76" s="2">
+        <v>1</v>
+      </c>
+      <c r="K76" s="21">
+        <v>1</v>
+      </c>
+      <c r="L76" s="21">
+        <v>1</v>
+      </c>
+      <c r="M76" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N76" s="2">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>12</v>
+      </c>
+      <c r="P76">
+        <v>95</v>
+      </c>
+      <c r="Q76">
+        <v>5</v>
+      </c>
+      <c r="R76" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="S76" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="T76" s="10"/>
+      <c r="U76" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77">
@@ -7949,67 +8016,6 @@
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J79" s="2">
-        <v>1</v>
-      </c>
-      <c r="K79" s="21">
-        <v>1</v>
-      </c>
-      <c r="L79" s="21">
-        <v>1</v>
-      </c>
-      <c r="M79" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N79" s="2">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>6</v>
-      </c>
-      <c r="P79">
-        <v>95</v>
-      </c>
-      <c r="Q79">
-        <v>5</v>
-      </c>
-      <c r="R79" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="S79" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="T79" s="10"/>
-      <c r="U79" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
     </row>
     <row r="80" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
@@ -8017,13 +8023,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>247</v>
+        <v>119</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>154</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>9</v>
@@ -8064,7 +8070,9 @@
       <c r="Q80">
         <v>5</v>
       </c>
-      <c r="R80" s="6"/>
+      <c r="R80" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="S80" s="9" t="s">
         <v>157</v>
       </c>
@@ -8082,16 +8090,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>160</v>
+        <v>247</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>154</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="F81" s="13" t="s">
         <v>9</v>
@@ -8103,7 +8111,7 @@
         <v>9</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="J81" s="2">
         <v>1</v>
@@ -8115,7 +8123,7 @@
         <v>1</v>
       </c>
       <c r="M81" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N81" s="2">
         <v>0</v>
@@ -8131,11 +8139,9 @@
       </c>
       <c r="R81" s="6"/>
       <c r="S81" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="T81" s="10" t="s">
-        <v>161</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="T81" s="10"/>
       <c r="U81" s="6" t="s">
         <v>176</v>
       </c>
@@ -8149,13 +8155,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>248</v>
+        <v>160</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>154</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="E82" s="13" t="s">
         <v>66</v>
@@ -8216,16 +8222,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="F83" s="13" t="s">
         <v>9</v>
@@ -8237,7 +8243,7 @@
         <v>9</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J83" s="2">
         <v>1</v>
@@ -8249,7 +8255,7 @@
         <v>1</v>
       </c>
       <c r="M83" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N83" s="2">
         <v>0</v>
@@ -8265,10 +8271,10 @@
       </c>
       <c r="R83" s="6"/>
       <c r="S83" s="9" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="T83" s="10" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="U83" s="6" t="s">
         <v>176</v>
@@ -8283,7 +8289,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>166</v>
@@ -8292,7 +8298,7 @@
         <v>11</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="F84" s="13" t="s">
         <v>9</v>
@@ -8316,7 +8322,7 @@
         <v>1</v>
       </c>
       <c r="M84" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N84" s="2">
         <v>0</v>
@@ -8332,10 +8338,10 @@
       </c>
       <c r="R84" s="6"/>
       <c r="S84" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T84" s="10" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="U84" s="6" t="s">
         <v>176</v>
@@ -8350,28 +8356,28 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="F85" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="J85" s="2">
         <v>1</v>
@@ -8383,10 +8389,10 @@
         <v>1</v>
       </c>
       <c r="M85" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N85" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="O85">
         <v>6</v>
@@ -8399,9 +8405,11 @@
       </c>
       <c r="R85" s="6"/>
       <c r="S85" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="T85" s="10"/>
+        <v>185</v>
+      </c>
+      <c r="T85" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="U85" s="6" t="s">
         <v>176</v>
       </c>
@@ -8415,7 +8423,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>154</v>
@@ -8433,10 +8441,10 @@
         <v>58</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="J86" s="2">
         <v>1</v>
@@ -8448,7 +8456,7 @@
         <v>1</v>
       </c>
       <c r="M86" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N86" s="2">
         <v>9999</v>
@@ -8464,7 +8472,7 @@
       </c>
       <c r="R86" s="6"/>
       <c r="S86" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="T86" s="10"/>
       <c r="U86" s="6" t="s">
@@ -8480,10 +8488,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D87" s="13" t="s">
         <v>9</v>
@@ -8498,10 +8506,10 @@
         <v>58</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J87" s="2">
         <v>1</v>
@@ -8513,7 +8521,7 @@
         <v>1</v>
       </c>
       <c r="M87" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N87" s="2">
         <v>9999</v>
@@ -8529,11 +8537,9 @@
       </c>
       <c r="R87" s="6"/>
       <c r="S87" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="T87" s="10" t="s">
-        <v>186</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="T87" s="10"/>
       <c r="U87" s="6" t="s">
         <v>176</v>
       </c>
@@ -8547,7 +8553,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>166</v>
@@ -8565,7 +8571,7 @@
         <v>58</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>162</v>
@@ -8580,7 +8586,7 @@
         <v>1</v>
       </c>
       <c r="M88" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N88" s="2">
         <v>9999</v>
@@ -8596,10 +8602,10 @@
       </c>
       <c r="R88" s="6"/>
       <c r="S88" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T88" s="10" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="U88" s="6" t="s">
         <v>176</v>
@@ -8613,8 +8619,67 @@
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="S89" s="15"/>
-      <c r="T89" s="15"/>
+      <c r="B89" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J89" s="2">
+        <v>1</v>
+      </c>
+      <c r="K89" s="21">
+        <v>1</v>
+      </c>
+      <c r="L89" s="21">
+        <v>1</v>
+      </c>
+      <c r="M89" s="21">
+        <v>1</v>
+      </c>
+      <c r="N89" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O89">
+        <v>6</v>
+      </c>
+      <c r="P89">
+        <v>95</v>
+      </c>
+      <c r="Q89">
+        <v>5</v>
+      </c>
+      <c r="R89" s="6"/>
+      <c r="S89" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="T89" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="U89" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90">
@@ -8629,67 +8694,8 @@
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H91" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J91" s="2">
-        <v>1</v>
-      </c>
-      <c r="K91" s="22">
-        <v>1</v>
-      </c>
-      <c r="L91" s="22">
-        <v>1</v>
-      </c>
-      <c r="M91" s="22">
-        <v>1</v>
-      </c>
-      <c r="N91">
-        <v>0</v>
-      </c>
-      <c r="O91">
-        <v>18</v>
-      </c>
-      <c r="P91">
-        <v>95</v>
-      </c>
-      <c r="Q91">
-        <v>20</v>
-      </c>
-      <c r="R91" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="S91" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="T91" s="10"/>
-      <c r="U91" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V91">
-        <v>0</v>
-      </c>
+      <c r="S91" s="15"/>
+      <c r="T91" s="15"/>
     </row>
     <row r="92" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92">
@@ -8697,28 +8703,28 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="C92" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I92" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H92" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="J92" s="2">
         <v>1</v>
@@ -8744,9 +8750,11 @@
       <c r="Q92">
         <v>20</v>
       </c>
-      <c r="R92" s="6"/>
-      <c r="S92" s="10" t="s">
-        <v>138</v>
+      <c r="R92" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="S92" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="T92" s="10"/>
       <c r="U92" s="6" t="s">
@@ -8762,16 +8770,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>87</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F93" s="13" t="s">
         <v>9</v>
@@ -8783,7 +8791,7 @@
         <v>9</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J93" s="2">
         <v>1</v>
@@ -8826,75 +8834,73 @@
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="S94" s="15"/>
-      <c r="T94" s="15"/>
+      <c r="B94" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J94" s="2">
+        <v>1</v>
+      </c>
+      <c r="K94" s="22">
+        <v>1</v>
+      </c>
+      <c r="L94" s="22">
+        <v>1</v>
+      </c>
+      <c r="M94" s="22">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>18</v>
+      </c>
+      <c r="P94">
+        <v>95</v>
+      </c>
+      <c r="Q94">
+        <v>20</v>
+      </c>
+      <c r="R94" s="6"/>
+      <c r="S94" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="T94" s="10"/>
+      <c r="U94" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="J95" s="2">
-        <v>5</v>
-      </c>
-      <c r="K95" s="22">
-        <v>1</v>
-      </c>
-      <c r="L95" s="22">
-        <v>1</v>
-      </c>
-      <c r="M95" s="22">
-        <v>9999</v>
-      </c>
-      <c r="N95">
-        <v>0</v>
-      </c>
-      <c r="O95">
-        <v>18</v>
-      </c>
-      <c r="P95">
-        <v>95</v>
-      </c>
-      <c r="Q95">
-        <v>20</v>
-      </c>
-      <c r="R95" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="S95" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="T95" s="10"/>
-      <c r="U95" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V95">
-        <v>0</v>
-      </c>
+      <c r="S95" s="15"/>
+      <c r="T95" s="15"/>
     </row>
     <row r="96" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96">
@@ -8902,31 +8908,31 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C96" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I96" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D96" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="J96" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K96" s="22">
         <v>1</v>
@@ -8949,9 +8955,11 @@
       <c r="Q96">
         <v>20</v>
       </c>
-      <c r="R96" s="6"/>
+      <c r="R96" s="6" t="s">
+        <v>233</v>
+      </c>
       <c r="S96" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T96" s="10"/>
       <c r="U96" s="6" t="s">
@@ -8966,172 +8974,170 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
+      <c r="B97" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J97" s="2">
+        <v>1</v>
+      </c>
+      <c r="K97" s="22">
+        <v>1</v>
+      </c>
+      <c r="L97" s="22">
+        <v>1</v>
+      </c>
+      <c r="M97" s="22">
+        <v>9999</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>18</v>
+      </c>
+      <c r="P97">
+        <v>95</v>
+      </c>
+      <c r="Q97">
+        <v>20</v>
+      </c>
       <c r="R97" s="6"/>
-      <c r="S97" s="9"/>
+      <c r="S97" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="T97" s="10"/>
-      <c r="U97" s="6"/>
+      <c r="U97" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H98" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="J98" s="2">
-        <v>3</v>
-      </c>
-      <c r="K98" s="22">
-        <v>1</v>
-      </c>
-      <c r="L98" s="22">
-        <v>1</v>
-      </c>
-      <c r="M98" s="22">
-        <v>9999</v>
-      </c>
-      <c r="N98">
-        <v>0</v>
-      </c>
-      <c r="O98">
-        <v>18</v>
-      </c>
-      <c r="P98">
-        <v>95</v>
-      </c>
-      <c r="Q98">
-        <v>20</v>
-      </c>
-      <c r="R98" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="S98" s="9" t="s">
-        <v>261</v>
-      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="9"/>
       <c r="T98" s="10"/>
-      <c r="U98" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V98">
-        <v>0</v>
-      </c>
+      <c r="U98" s="6"/>
     </row>
     <row r="99" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="R99" s="6"/>
-      <c r="S99" s="9"/>
+      <c r="B99" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J99" s="2">
+        <v>3</v>
+      </c>
+      <c r="K99" s="22">
+        <v>1</v>
+      </c>
+      <c r="L99" s="22">
+        <v>1</v>
+      </c>
+      <c r="M99" s="22">
+        <v>9999</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>18</v>
+      </c>
+      <c r="P99">
+        <v>95</v>
+      </c>
+      <c r="Q99">
+        <v>20</v>
+      </c>
+      <c r="R99" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="S99" s="9" t="s">
+        <v>261</v>
+      </c>
       <c r="T99" s="10"/>
-      <c r="U99" s="6"/>
+      <c r="U99" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E100" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H100" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J100" s="2">
-        <v>1</v>
-      </c>
-      <c r="K100" s="21">
-        <v>1</v>
-      </c>
-      <c r="L100" s="21">
-        <v>1</v>
-      </c>
-      <c r="M100" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N100" s="2">
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <v>36</v>
-      </c>
-      <c r="P100">
-        <v>50</v>
-      </c>
-      <c r="Q100">
-        <v>5</v>
-      </c>
-      <c r="R100" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="S100" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T100" s="8"/>
-      <c r="U100" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V100">
-        <v>0</v>
-      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="10"/>
+      <c r="U100" s="6"/>
     </row>
     <row r="101" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101">
@@ -9139,19 +9145,19 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>172</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G101" s="13" t="s">
         <v>9</v>
@@ -9160,7 +9166,7 @@
         <v>9</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
       <c r="J101" s="2">
         <v>1</v>
@@ -9172,13 +9178,13 @@
         <v>1</v>
       </c>
       <c r="M101" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N101" s="2">
         <v>0</v>
       </c>
       <c r="O101">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="P101">
         <v>50</v>
@@ -9186,9 +9192,11 @@
       <c r="Q101">
         <v>5</v>
       </c>
-      <c r="R101" s="6"/>
+      <c r="R101" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="S101" s="11" t="s">
-        <v>201</v>
+        <v>28</v>
       </c>
       <c r="T101" s="8"/>
       <c r="U101" s="6" t="s">
@@ -9203,296 +9211,361 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="S102" s="15"/>
-      <c r="T102" s="15"/>
+      <c r="B102" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J102" s="2">
+        <v>1</v>
+      </c>
+      <c r="K102" s="21">
+        <v>1</v>
+      </c>
+      <c r="L102" s="21">
+        <v>1</v>
+      </c>
+      <c r="M102" s="21">
+        <v>1</v>
+      </c>
+      <c r="N102" s="2">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>6</v>
+      </c>
+      <c r="P102">
+        <v>50</v>
+      </c>
+      <c r="Q102">
+        <v>5</v>
+      </c>
+      <c r="R102" s="6"/>
+      <c r="S102" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="T102" s="8"/>
+      <c r="U102" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E103" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G103" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H103" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="J103" s="2">
-        <v>1</v>
-      </c>
-      <c r="K103" s="21">
-        <v>1</v>
-      </c>
-      <c r="L103" s="21">
-        <v>1</v>
-      </c>
-      <c r="M103" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N103" s="2">
-        <v>0</v>
-      </c>
-      <c r="O103">
-        <v>12</v>
-      </c>
-      <c r="P103">
-        <v>95</v>
-      </c>
-      <c r="Q103">
-        <v>5</v>
-      </c>
-      <c r="R103" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="S103" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="T103" s="10"/>
-      <c r="U103" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V103">
-        <v>0</v>
-      </c>
+      <c r="S103" s="15"/>
+      <c r="T103" s="15"/>
     </row>
     <row r="104" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="S104" s="15"/>
-      <c r="T104" s="15"/>
+      <c r="B104" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J104" s="2">
+        <v>1</v>
+      </c>
+      <c r="K104" s="21">
+        <v>1</v>
+      </c>
+      <c r="L104" s="21">
+        <v>1</v>
+      </c>
+      <c r="M104" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N104" s="2">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>12</v>
+      </c>
+      <c r="P104">
+        <v>95</v>
+      </c>
+      <c r="Q104">
+        <v>5</v>
+      </c>
+      <c r="R104" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="S104" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="T104" s="10"/>
+      <c r="U104" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105">
-        <f t="shared" ref="A105:A109" si="1">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>103</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H105" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J105" s="2">
-        <v>1</v>
-      </c>
-      <c r="K105" s="21">
-        <v>1</v>
-      </c>
-      <c r="L105" s="21">
-        <v>1</v>
-      </c>
-      <c r="M105" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N105" s="2">
-        <v>0</v>
-      </c>
-      <c r="O105">
-        <v>72</v>
-      </c>
-      <c r="P105">
-        <v>50</v>
-      </c>
-      <c r="Q105">
-        <v>32</v>
-      </c>
-      <c r="R105" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S105" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T105" s="8"/>
-      <c r="U105" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V105">
-        <v>0</v>
-      </c>
+      <c r="S105" s="15"/>
+      <c r="T105" s="15"/>
     </row>
     <row r="106" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A106:A110" si="1">ROW()-2</f>
         <v>104</v>
       </c>
-      <c r="S106" s="15"/>
-      <c r="T106" s="15"/>
+      <c r="B106" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J106" s="2">
+        <v>1</v>
+      </c>
+      <c r="K106" s="21">
+        <v>1</v>
+      </c>
+      <c r="L106" s="21">
+        <v>1</v>
+      </c>
+      <c r="M106" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N106" s="2">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>72</v>
+      </c>
+      <c r="P106">
+        <v>50</v>
+      </c>
+      <c r="Q106">
+        <v>32</v>
+      </c>
+      <c r="R106" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S106" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T106" s="8"/>
+      <c r="U106" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>105</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E107" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F107" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G107" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H107" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J107" s="2">
-        <v>1</v>
-      </c>
-      <c r="K107" s="21">
-        <v>1</v>
-      </c>
-      <c r="L107" s="21">
-        <v>1</v>
-      </c>
-      <c r="M107" s="21">
-        <v>1</v>
-      </c>
-      <c r="N107" s="2">
-        <v>0</v>
-      </c>
-      <c r="O107">
-        <v>1</v>
-      </c>
-      <c r="P107">
-        <v>50</v>
-      </c>
-      <c r="Q107">
-        <v>32</v>
-      </c>
-      <c r="R107" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="S107" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="T107" s="8"/>
-      <c r="U107" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V107">
-        <v>0</v>
-      </c>
+      <c r="S107" s="15"/>
+      <c r="T107" s="15"/>
     </row>
     <row r="108" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
+      <c r="B108" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J108" s="2">
+        <v>1</v>
+      </c>
+      <c r="K108" s="21">
+        <v>1</v>
+      </c>
+      <c r="L108" s="21">
+        <v>1</v>
+      </c>
+      <c r="M108" s="21">
+        <v>1</v>
+      </c>
+      <c r="N108" s="2">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108">
+        <v>50</v>
+      </c>
+      <c r="Q108">
+        <v>32</v>
+      </c>
+      <c r="R108" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="S108" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="T108" s="8"/>
+      <c r="U108" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="B109" s="2" t="s">
+    </row>
+    <row r="110" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C110" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D109" s="13" t="s">
+      <c r="D110" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E109" s="13" t="s">
+      <c r="E110" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F109" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G109" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H109" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I109" s="2" t="s">
+      <c r="F110" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I110" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J109" s="2">
-        <v>1</v>
-      </c>
-      <c r="K109" s="21">
-        <v>1</v>
-      </c>
-      <c r="L109" s="21">
-        <v>1</v>
-      </c>
-      <c r="M109" s="21">
-        <v>1</v>
-      </c>
-      <c r="N109" s="2">
-        <v>0</v>
-      </c>
-      <c r="O109">
-        <v>1</v>
-      </c>
-      <c r="P109">
+      <c r="J110" s="2">
+        <v>1</v>
+      </c>
+      <c r="K110" s="21">
+        <v>1</v>
+      </c>
+      <c r="L110" s="21">
+        <v>1</v>
+      </c>
+      <c r="M110" s="21">
+        <v>1</v>
+      </c>
+      <c r="N110" s="2">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110">
         <v>50</v>
       </c>
-      <c r="Q109">
+      <c r="Q110">
         <v>32</v>
       </c>
-      <c r="R109" s="6" t="s">
+      <c r="R110" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="S109" s="8" t="s">
+      <c r="S110" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="T109" s="8"/>
-      <c r="U109" s="6" t="s">
+      <c r="T110" s="8"/>
+      <c r="U110" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="V109">
+      <c r="V110">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCCF995-A8DF-4458-9E01-AACA516D9766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6357169-28FD-4C7A-9D00-BC340E70B055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="23505" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="23505" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="274">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -760,10 +760,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>orange</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>butter</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1874,62 +1870,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>orange_pele</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>bugget_orange</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>薄力粉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>水</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>オレンジピール</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3250,6 +3191,238 @@
   </si>
   <si>
     <t>cherry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cream_crepe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>クレープ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生クリーム</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>ナマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バゲット</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>オレンジ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bugget_blueberry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バゲット</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ブルーベリー</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bugget_blueberry_sliced</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バゲット＜ブルーベリー＞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>パンナイフ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cream_row_strawberry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>作りたてクリーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>いちご</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whipped cream_strawberry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>いちごホイップクリーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>絞り袋</t>
+    </r>
+    <rPh sb="12" eb="13">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ブクロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shishamo_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shishamo</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3703,10 +3876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:V110"/>
+  <dimension ref="A1:V116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3734,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3758,7 +3931,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>24</v>
@@ -3791,10 +3964,10 @@
         <v>7</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3803,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>8</v>
@@ -3851,14 +4024,14 @@
         <v>3</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="T2" s="8"/>
       <c r="U2" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -3866,11 +4039,11 @@
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A104" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A110" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>8</v>
@@ -3923,7 +4096,7 @@
       </c>
       <c r="T3" s="8"/>
       <c r="U3" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -3935,7 +4108,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>9</v>
@@ -3984,11 +4157,11 @@
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T4" s="8"/>
       <c r="U4" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -4022,10 +4195,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>9</v>
@@ -4064,14 +4237,14 @@
         <v>3</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T7" s="8"/>
       <c r="U7" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -4083,28 +4256,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -4132,11 +4305,11 @@
       </c>
       <c r="R8" s="6"/>
       <c r="S8" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T8" s="8"/>
       <c r="U8" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -4148,16 +4321,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>9</v>
@@ -4169,7 +4342,7 @@
         <v>9</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J9" s="2">
         <v>1</v>
@@ -4197,11 +4370,11 @@
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T9" s="8"/>
       <c r="U9" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -4213,16 +4386,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>9</v>
@@ -4234,7 +4407,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -4262,11 +4435,11 @@
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="T10" s="8"/>
       <c r="U10" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -4278,16 +4451,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>9</v>
@@ -4299,7 +4472,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
@@ -4327,11 +4500,11 @@
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="T11" s="8"/>
       <c r="U11" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -4343,28 +4516,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="J12" s="2">
         <v>1</v>
@@ -4392,11 +4565,11 @@
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="T12" s="8"/>
       <c r="U12" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -4408,16 +4581,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>9</v>
@@ -4429,7 +4602,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J13" s="2">
         <v>1</v>
@@ -4457,11 +4630,11 @@
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="T13" s="8"/>
       <c r="U13" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -4473,16 +4646,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>9</v>
@@ -4494,7 +4667,7 @@
         <v>9</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J14" s="2">
         <v>1</v>
@@ -4522,11 +4695,11 @@
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="T14" s="8"/>
       <c r="U14" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -4538,7 +4711,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>9</v>
@@ -4587,11 +4760,11 @@
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T15" s="8"/>
       <c r="U15" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -4603,7 +4776,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>48</v>
@@ -4656,7 +4829,7 @@
       </c>
       <c r="T16" s="8"/>
       <c r="U16" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -4668,7 +4841,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>9</v>
@@ -4721,7 +4894,7 @@
       </c>
       <c r="T17" s="8"/>
       <c r="U17" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -4733,10 +4906,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>149</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>150</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>11</v>
@@ -4754,7 +4927,7 @@
         <v>9</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -4782,11 +4955,11 @@
       </c>
       <c r="R18" s="6"/>
       <c r="S18" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T18" s="8"/>
       <c r="U18" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -4798,7 +4971,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>41</v>
@@ -4819,7 +4992,7 @@
         <v>55</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -4846,14 +5019,14 @@
         <v>3</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>43</v>
       </c>
       <c r="T19" s="8"/>
       <c r="U19" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -4865,16 +5038,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>9</v>
@@ -4886,7 +5059,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -4913,14 +5086,14 @@
         <v>3</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T20" s="8"/>
       <c r="U20" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -4935,7 +5108,7 @@
         <v>45</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>40</v>
@@ -4981,11 +5154,11 @@
       </c>
       <c r="R21" s="6"/>
       <c r="S21" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T21" s="8"/>
       <c r="U21" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -4997,16 +5170,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>9</v>
@@ -5018,7 +5191,7 @@
         <v>9</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
@@ -5045,14 +5218,14 @@
         <v>4</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="T22" s="8"/>
       <c r="U22" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -5064,13 +5237,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>144</v>
+        <v>268</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>9</v>
@@ -5085,7 +5258,7 @@
         <v>9</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>144</v>
+        <v>268</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -5113,11 +5286,11 @@
       </c>
       <c r="R23" s="6"/>
       <c r="S23" s="11" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="T23" s="8"/>
       <c r="U23" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -5129,13 +5302,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>9</v>
@@ -5150,7 +5323,7 @@
         <v>9</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -5176,15 +5349,13 @@
       <c r="Q24">
         <v>4</v>
       </c>
-      <c r="R24" s="6" t="s">
-        <v>254</v>
-      </c>
+      <c r="R24" s="6"/>
       <c r="S24" s="11" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="T24" s="8"/>
       <c r="U24" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -5195,10 +5366,61 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
+      <c r="B25" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="21">
+        <v>1</v>
+      </c>
+      <c r="L25" s="21">
+        <v>1</v>
+      </c>
+      <c r="M25" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>100</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25" s="6"/>
+      <c r="S25" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="T25" s="8"/>
       <c r="U25" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -5206,17 +5428,17 @@
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>112</v>
+      <c r="B26" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>9</v>
@@ -5231,13 +5453,13 @@
         <v>9</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
       </c>
       <c r="K26" s="21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L26" s="21">
         <v>1</v>
@@ -5252,53 +5474,52 @@
         <v>1</v>
       </c>
       <c r="P26">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q26">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="S26" s="8" t="s">
-        <v>114</v>
+        <v>4</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="S26" s="11" t="s">
+        <v>252</v>
       </c>
       <c r="T26" s="8"/>
       <c r="U26" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20">
+    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <f>ROW()-2</f>
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>44</v>
+      <c r="B28" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>9</v>
@@ -5313,9 +5534,9 @@
         <v>9</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J28" s="20">
+        <v>111</v>
+      </c>
+      <c r="J28" s="2">
         <v>1</v>
       </c>
       <c r="K28" s="21">
@@ -5343,26 +5564,96 @@
         <v>121</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="T28" s="8"/>
       <c r="U28" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V28" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29">
+        <v>173</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="20">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="20">
+        <v>1</v>
+      </c>
+      <c r="K30" s="21">
+        <v>1</v>
+      </c>
+      <c r="L30" s="21">
+        <v>1</v>
+      </c>
+      <c r="M30" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>95</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="T30" s="8"/>
+      <c r="U30" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V30" s="20">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5371,174 +5662,54 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17">
+    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="R32" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="S32" s="19"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="6"/>
-    </row>
-    <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34">
+    </row>
+    <row r="34" spans="1:22" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="17">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J34" s="2">
-        <v>1</v>
-      </c>
-      <c r="K34" s="22">
-        <v>2</v>
-      </c>
-      <c r="L34" s="22">
-        <v>1</v>
-      </c>
-      <c r="M34" s="22">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>12</v>
-      </c>
-      <c r="P34">
-        <v>95</v>
-      </c>
-      <c r="Q34">
-        <v>3</v>
-      </c>
-      <c r="R34" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="S34" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="T34" s="10"/>
-      <c r="U34" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="R34" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="S34" s="19"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="J35" s="2">
-        <v>1</v>
-      </c>
-      <c r="K35" s="22">
-        <v>2</v>
-      </c>
-      <c r="L35" s="22">
-        <v>1</v>
-      </c>
-      <c r="M35" s="22">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>12</v>
-      </c>
-      <c r="P35">
-        <v>95</v>
-      </c>
-      <c r="Q35">
-        <v>3</v>
-      </c>
-      <c r="R35" s="6"/>
-      <c r="S35" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="T35" s="10"/>
-      <c r="U35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="6"/>
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
@@ -5546,28 +5717,28 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>63</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -5579,7 +5750,7 @@
         <v>1</v>
       </c>
       <c r="M36" s="22">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -5591,15 +5762,17 @@
         <v>95</v>
       </c>
       <c r="Q36">
-        <v>2</v>
-      </c>
-      <c r="R36" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="S36" s="9" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="T36" s="10"/>
       <c r="U36" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -5611,16 +5784,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>9</v>
@@ -5632,7 +5805,7 @@
         <v>9</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -5653,18 +5826,18 @@
         <v>12</v>
       </c>
       <c r="P37">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="Q37">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="R37" s="6"/>
       <c r="S37" s="9" t="s">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="T37" s="10"/>
       <c r="U37" s="6" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -5676,13 +5849,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>9</v>
@@ -5691,13 +5864,13 @@
         <v>9</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
@@ -5709,10 +5882,10 @@
         <v>1</v>
       </c>
       <c r="M38" s="22">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N38">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="O38">
         <v>12</v>
@@ -5721,15 +5894,15 @@
         <v>95</v>
       </c>
       <c r="Q38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R38" s="6"/>
       <c r="S38" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="T38" s="10"/>
       <c r="U38" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -5741,34 +5914,34 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>250</v>
+        <v>88</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>249</v>
+        <v>63</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>250</v>
+        <v>88</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
       </c>
       <c r="K39" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39" s="22">
         <v>1</v>
@@ -5783,18 +5956,18 @@
         <v>12</v>
       </c>
       <c r="P39">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="Q39">
-        <v>3</v>
-      </c>
-      <c r="R39" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="R39" s="6"/>
       <c r="S39" s="9" t="s">
-        <v>251</v>
+        <v>61</v>
       </c>
       <c r="T39" s="10"/>
       <c r="U39" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -5806,13 +5979,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>9</v>
@@ -5821,25 +5994,25 @@
         <v>9</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
       </c>
       <c r="K40" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L40" s="22">
         <v>1</v>
       </c>
       <c r="M40" s="22">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -5853,12 +6026,13 @@
       <c r="Q40">
         <v>3</v>
       </c>
+      <c r="R40" s="6"/>
       <c r="S40" s="9" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="T40" s="10"/>
       <c r="U40" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -5870,62 +6044,60 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>35</v>
+        <v>246</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="J41" s="2">
         <v>1</v>
       </c>
-      <c r="K41" s="21">
-        <v>1</v>
-      </c>
-      <c r="L41" s="21">
-        <v>1</v>
-      </c>
-      <c r="M41" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N41" s="2">
+      <c r="K41" s="22">
+        <v>1</v>
+      </c>
+      <c r="L41" s="22">
+        <v>1</v>
+      </c>
+      <c r="M41" s="22">
+        <v>1</v>
+      </c>
+      <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
+        <v>12</v>
+      </c>
+      <c r="P41">
+        <v>95</v>
+      </c>
+      <c r="Q41">
         <v>3</v>
       </c>
-      <c r="P41">
-        <v>80</v>
-      </c>
-      <c r="Q41">
-        <v>34</v>
-      </c>
-      <c r="R41" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="S41" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="T41" s="8"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="T41" s="10"/>
       <c r="U41" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -5937,13 +6109,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>9</v>
@@ -5958,39 +6130,38 @@
         <v>9</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
       </c>
-      <c r="K42" s="21">
-        <v>1</v>
-      </c>
-      <c r="L42" s="21">
-        <v>1</v>
-      </c>
-      <c r="M42" s="21">
+      <c r="K42" s="22">
+        <v>1</v>
+      </c>
+      <c r="L42" s="22">
+        <v>1</v>
+      </c>
+      <c r="M42" s="22">
         <v>9999</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
+        <v>12</v>
+      </c>
+      <c r="P42">
+        <v>95</v>
+      </c>
+      <c r="Q42">
         <v>3</v>
       </c>
-      <c r="P42">
-        <v>90</v>
-      </c>
-      <c r="Q42">
-        <v>10</v>
-      </c>
-      <c r="R42" s="4"/>
-      <c r="S42" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="T42" s="8"/>
+      <c r="S42" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T42" s="10"/>
       <c r="U42" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -6002,28 +6173,28 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G43" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
@@ -6044,18 +6215,20 @@
         <v>3</v>
       </c>
       <c r="P43">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q43">
-        <v>10</v>
-      </c>
-      <c r="R43" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="S43" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T43" s="8"/>
       <c r="U43" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -6067,13 +6240,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>9</v>
@@ -6088,7 +6261,7 @@
         <v>9</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
@@ -6116,11 +6289,11 @@
       </c>
       <c r="R44" s="4"/>
       <c r="S44" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T44" s="8"/>
       <c r="U44" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -6132,13 +6305,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>9</v>
@@ -6153,7 +6326,7 @@
         <v>9</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
@@ -6181,11 +6354,11 @@
       </c>
       <c r="R45" s="4"/>
       <c r="S45" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T45" s="8"/>
       <c r="U45" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -6197,28 +6370,28 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>65</v>
+        <v>221</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>9</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -6246,11 +6419,11 @@
       </c>
       <c r="R46" s="4"/>
       <c r="S46" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T46" s="8"/>
       <c r="U46" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -6262,13 +6435,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>9</v>
@@ -6283,7 +6456,7 @@
         <v>9</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>83</v>
+        <v>223</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
@@ -6311,11 +6484,11 @@
       </c>
       <c r="R47" s="4"/>
       <c r="S47" s="11" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="T47" s="8"/>
       <c r="U47" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -6327,13 +6500,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>9</v>
@@ -6342,13 +6515,13 @@
         <v>55</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
@@ -6369,18 +6542,18 @@
         <v>3</v>
       </c>
       <c r="P48">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q48">
         <v>10</v>
       </c>
       <c r="R48" s="4"/>
       <c r="S48" s="11" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="T48" s="8"/>
       <c r="U48" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -6392,28 +6565,28 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
@@ -6437,15 +6610,15 @@
         <v>90</v>
       </c>
       <c r="Q49">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R49" s="4"/>
       <c r="S49" s="11" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="T49" s="8"/>
       <c r="U49" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -6457,28 +6630,28 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>203</v>
+        <v>50</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -6499,18 +6672,18 @@
         <v>3</v>
       </c>
       <c r="P50">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q50">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R50" s="4"/>
       <c r="S50" s="11" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="T50" s="8"/>
       <c r="U50" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -6522,28 +6695,28 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>205</v>
+        <v>89</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>205</v>
+        <v>89</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
@@ -6575,7 +6748,7 @@
       </c>
       <c r="T51" s="8"/>
       <c r="U51" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -6587,13 +6760,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>9</v>
@@ -6608,7 +6781,7 @@
         <v>9</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
@@ -6640,7 +6813,7 @@
       </c>
       <c r="T52" s="8"/>
       <c r="U52" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -6652,13 +6825,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>9</v>
@@ -6673,7 +6846,7 @@
         <v>9</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
@@ -6705,7 +6878,7 @@
       </c>
       <c r="T53" s="8"/>
       <c r="U53" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -6717,13 +6890,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>9</v>
@@ -6738,7 +6911,7 @@
         <v>9</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="J54" s="2">
         <v>1</v>
@@ -6770,7 +6943,7 @@
       </c>
       <c r="T54" s="8"/>
       <c r="U54" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -6782,13 +6955,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>263</v>
+        <v>205</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>9</v>
@@ -6803,7 +6976,7 @@
         <v>9</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -6835,7 +7008,7 @@
       </c>
       <c r="T55" s="8"/>
       <c r="U55" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -6847,13 +7020,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>9</v>
@@ -6868,7 +7041,7 @@
         <v>9</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
@@ -6900,7 +7073,7 @@
       </c>
       <c r="T56" s="8"/>
       <c r="U56" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -6912,13 +7085,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>115</v>
+        <v>260</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>9</v>
@@ -6933,7 +7106,7 @@
         <v>9</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
@@ -6965,7 +7138,7 @@
       </c>
       <c r="T57" s="8"/>
       <c r="U57" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -6977,28 +7150,28 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="J58" s="2">
         <v>1</v>
@@ -7026,11 +7199,11 @@
       </c>
       <c r="R58" s="4"/>
       <c r="S58" s="11" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="T58" s="8"/>
       <c r="U58" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -7042,28 +7215,28 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
@@ -7084,18 +7257,18 @@
         <v>3</v>
       </c>
       <c r="P59">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q59">
-        <v>34</v>
-      </c>
-      <c r="R59" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="R59" s="4"/>
       <c r="S59" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T59" s="8"/>
       <c r="U59" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -7107,28 +7280,28 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
@@ -7149,18 +7322,18 @@
         <v>3</v>
       </c>
       <c r="P60">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q60">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R60" s="4"/>
       <c r="S60" s="11" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="T60" s="8"/>
       <c r="U60" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -7172,16 +7345,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>145</v>
+        <v>272</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>146</v>
+        <v>273</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>9</v>
@@ -7193,39 +7366,39 @@
         <v>9</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>145</v>
+        <v>272</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
       </c>
-      <c r="K61" s="22">
-        <v>1</v>
-      </c>
-      <c r="L61" s="22">
-        <v>1</v>
-      </c>
-      <c r="M61" s="22">
-        <v>1</v>
-      </c>
-      <c r="N61">
+      <c r="K61" s="21">
+        <v>1</v>
+      </c>
+      <c r="L61" s="21">
+        <v>1</v>
+      </c>
+      <c r="M61" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N61" s="2">
         <v>0</v>
       </c>
       <c r="O61">
         <v>3</v>
       </c>
       <c r="P61">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q61">
-        <v>3</v>
-      </c>
-      <c r="R61" s="6"/>
-      <c r="S61" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="T61" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="R61" s="4"/>
+      <c r="S61" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="T61" s="8"/>
       <c r="U61" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -7236,19 +7409,65 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="3"/>
+      <c r="B62" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+      <c r="K62" s="21">
+        <v>1</v>
+      </c>
+      <c r="L62" s="21">
+        <v>1</v>
+      </c>
+      <c r="M62" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N62" s="2">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>3</v>
+      </c>
+      <c r="P62">
+        <v>95</v>
+      </c>
+      <c r="Q62">
+        <v>34</v>
+      </c>
+      <c r="R62" s="6"/>
+      <c r="S62" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T62" s="8"/>
+      <c r="U62" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -7256,13 +7475,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>9</v>
@@ -7277,7 +7496,7 @@
         <v>9</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
@@ -7295,23 +7514,21 @@
         <v>0</v>
       </c>
       <c r="O63">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P63">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="Q63">
-        <v>5</v>
-      </c>
-      <c r="R63" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="S63" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="T63" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="R63" s="4"/>
+      <c r="S63" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="T63" s="8"/>
       <c r="U63" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -7323,16 +7540,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="F64" s="13" t="s">
         <v>9</v>
@@ -7344,39 +7561,39 @@
         <v>9</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="J64" s="2">
         <v>1</v>
       </c>
-      <c r="K64" s="21">
-        <v>4</v>
-      </c>
-      <c r="L64" s="21">
-        <v>1</v>
-      </c>
-      <c r="M64" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N64" s="2">
+      <c r="K64" s="22">
+        <v>1</v>
+      </c>
+      <c r="L64" s="22">
+        <v>1</v>
+      </c>
+      <c r="M64" s="22">
+        <v>1</v>
+      </c>
+      <c r="N64">
         <v>0</v>
       </c>
       <c r="O64">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P64">
         <v>95</v>
       </c>
       <c r="Q64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R64" s="6"/>
-      <c r="S64" s="9" t="s">
-        <v>178</v>
+      <c r="S64" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="T64" s="10"/>
       <c r="U64" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -7387,65 +7604,19 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J65" s="2">
-        <v>1</v>
-      </c>
-      <c r="K65" s="21">
-        <v>1</v>
-      </c>
-      <c r="L65" s="21">
-        <v>1</v>
-      </c>
-      <c r="M65" s="21">
-        <v>1</v>
-      </c>
-      <c r="N65" s="2">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>18</v>
-      </c>
-      <c r="P65">
-        <v>95</v>
-      </c>
-      <c r="Q65">
-        <v>5</v>
-      </c>
-      <c r="R65" s="6"/>
-      <c r="S65" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="9"/>
       <c r="T65" s="10"/>
-      <c r="U65" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
+      <c r="U65" s="3"/>
     </row>
     <row r="66" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66">
@@ -7453,13 +7624,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>9</v>
@@ -7474,10 +7645,10 @@
         <v>9</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="J66" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K66" s="21">
         <v>1</v>
@@ -7492,21 +7663,23 @@
         <v>0</v>
       </c>
       <c r="O66">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P66">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q66">
         <v>5</v>
       </c>
-      <c r="R66" s="6"/>
+      <c r="R66" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="S66" s="9" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="T66" s="10"/>
       <c r="U66" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V66">
         <v>0</v>
@@ -7518,13 +7691,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>9</v>
@@ -7539,13 +7712,13 @@
         <v>9</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="J67" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K67" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L67" s="21">
         <v>1</v>
@@ -7557,21 +7730,21 @@
         <v>0</v>
       </c>
       <c r="O67">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P67">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q67">
         <v>5</v>
       </c>
       <c r="R67" s="6"/>
       <c r="S67" s="9" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="T67" s="10"/>
       <c r="U67" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V67">
         <v>0</v>
@@ -7583,13 +7756,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>9</v>
@@ -7604,10 +7777,10 @@
         <v>9</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J68" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K68" s="21">
         <v>1</v>
@@ -7622,21 +7795,21 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P68">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q68">
         <v>5</v>
       </c>
       <c r="R68" s="6"/>
       <c r="S68" s="9" t="s">
-        <v>167</v>
+        <v>263</v>
       </c>
       <c r="T68" s="10"/>
       <c r="U68" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V68">
         <v>0</v>
@@ -7647,16 +7820,65 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="7"/>
-      <c r="U69" s="4"/>
+      <c r="B69" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69" s="21">
+        <v>1</v>
+      </c>
+      <c r="L69" s="21">
+        <v>1</v>
+      </c>
+      <c r="M69" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N69" s="2">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>18</v>
+      </c>
+      <c r="P69">
+        <v>95</v>
+      </c>
+      <c r="Q69">
+        <v>5</v>
+      </c>
+      <c r="R69" s="6"/>
+      <c r="S69" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="T69" s="10"/>
+      <c r="U69" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70">
@@ -7664,19 +7886,19 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G70" s="13" t="s">
         <v>9</v>
@@ -7685,10 +7907,10 @@
         <v>9</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="J70" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K70" s="21">
         <v>1</v>
@@ -7697,29 +7919,27 @@
         <v>1</v>
       </c>
       <c r="M70" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N70" s="2">
         <v>0</v>
       </c>
       <c r="O70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P70">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q70">
         <v>5</v>
       </c>
-      <c r="R70" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="R70" s="6"/>
       <c r="S70" s="9" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="T70" s="10"/>
       <c r="U70" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V70">
         <v>0</v>
@@ -7731,31 +7951,31 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="J71" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K71" s="21">
         <v>1</v>
@@ -7764,26 +7984,27 @@
         <v>1</v>
       </c>
       <c r="M71" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N71" s="2">
         <v>0</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P71">
+        <v>100</v>
+      </c>
+      <c r="Q71">
         <v>5</v>
       </c>
-      <c r="Q71">
-        <v>34</v>
-      </c>
-      <c r="S71" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T71" s="8"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="T71" s="10"/>
       <c r="U71" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V71">
         <v>0</v>
@@ -7795,13 +8016,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>9</v>
@@ -7816,10 +8037,10 @@
         <v>9</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="J72" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K72" s="21">
         <v>1</v>
@@ -7828,26 +8049,27 @@
         <v>1</v>
       </c>
       <c r="M72" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N72" s="2">
         <v>0</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P72">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q72">
-        <v>8</v>
-      </c>
-      <c r="S72" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T72" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="R72" s="6"/>
+      <c r="S72" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="T72" s="10"/>
       <c r="U72" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V72">
         <v>0</v>
@@ -7858,79 +8080,148 @@
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
+      <c r="B73" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J73" s="2">
+        <v>4</v>
+      </c>
+      <c r="K73" s="21">
+        <v>1</v>
+      </c>
+      <c r="L73" s="21">
+        <v>1</v>
+      </c>
+      <c r="M73" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N73" s="2">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>100</v>
+      </c>
+      <c r="Q73">
+        <v>5</v>
+      </c>
+      <c r="R73" s="6"/>
+      <c r="S73" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="T73" s="10"/>
+      <c r="U73" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H74" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J74" s="2">
-        <v>1</v>
-      </c>
-      <c r="K74" s="21">
-        <v>1</v>
-      </c>
-      <c r="L74" s="21">
-        <v>1</v>
-      </c>
-      <c r="M74" s="21">
-        <v>1</v>
-      </c>
-      <c r="N74" s="2">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>18</v>
-      </c>
-      <c r="P74">
-        <v>95</v>
-      </c>
-      <c r="Q74">
-        <v>5</v>
-      </c>
-      <c r="R74" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="S74" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="T74" s="10"/>
-      <c r="U74" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="4"/>
     </row>
     <row r="75" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
+      <c r="B75" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J75" s="2">
+        <v>1</v>
+      </c>
+      <c r="K75" s="21">
+        <v>1</v>
+      </c>
+      <c r="L75" s="21">
+        <v>1</v>
+      </c>
+      <c r="M75" s="21">
+        <v>1</v>
+      </c>
+      <c r="N75" s="2">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>3</v>
+      </c>
+      <c r="P75">
+        <v>95</v>
+      </c>
+      <c r="Q75">
+        <v>5</v>
+      </c>
+      <c r="R75" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="S75" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T75" s="10"/>
+      <c r="U75" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76">
@@ -7938,28 +8229,28 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="J76" s="2">
         <v>1</v>
@@ -7971,29 +8262,26 @@
         <v>1</v>
       </c>
       <c r="M76" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N76" s="2">
         <v>0</v>
       </c>
       <c r="O76">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="Q76">
-        <v>5</v>
-      </c>
-      <c r="R76" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="S76" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="T76" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="S76" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T76" s="8"/>
       <c r="U76" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V76">
         <v>0</v>
@@ -8004,6 +8292,64 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
+      <c r="B77" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J77" s="2">
+        <v>1</v>
+      </c>
+      <c r="K77" s="21">
+        <v>1</v>
+      </c>
+      <c r="L77" s="21">
+        <v>1</v>
+      </c>
+      <c r="M77" s="21">
+        <v>1</v>
+      </c>
+      <c r="N77" s="2">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>3</v>
+      </c>
+      <c r="P77">
+        <v>95</v>
+      </c>
+      <c r="Q77">
+        <v>8</v>
+      </c>
+      <c r="S77" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T77" s="8"/>
+      <c r="U77" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
@@ -8016,73 +8362,73 @@
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
+      <c r="B79" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J79" s="2">
+        <v>1</v>
+      </c>
+      <c r="K79" s="21">
+        <v>1</v>
+      </c>
+      <c r="L79" s="21">
+        <v>1</v>
+      </c>
+      <c r="M79" s="21">
+        <v>1</v>
+      </c>
+      <c r="N79" s="2">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>18</v>
+      </c>
+      <c r="P79">
+        <v>95</v>
+      </c>
+      <c r="Q79">
+        <v>5</v>
+      </c>
+      <c r="R79" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="S79" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="T79" s="10"/>
+      <c r="U79" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H80" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="J80" s="2">
-        <v>1</v>
-      </c>
-      <c r="K80" s="21">
-        <v>1</v>
-      </c>
-      <c r="L80" s="21">
-        <v>1</v>
-      </c>
-      <c r="M80" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N80" s="2">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>6</v>
-      </c>
-      <c r="P80">
-        <v>95</v>
-      </c>
-      <c r="Q80">
-        <v>5</v>
-      </c>
-      <c r="R80" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="S80" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="T80" s="10"/>
-      <c r="U80" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
     </row>
     <row r="81" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81">
@@ -8090,13 +8436,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>9</v>
@@ -8111,7 +8457,7 @@
         <v>9</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="J81" s="2">
         <v>1</v>
@@ -8129,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="O81">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P81">
         <v>95</v>
@@ -8137,13 +8483,15 @@
       <c r="Q81">
         <v>5</v>
       </c>
-      <c r="R81" s="6"/>
+      <c r="R81" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="S81" s="9" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="T81" s="10"/>
       <c r="U81" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V81">
         <v>0</v>
@@ -8154,201 +8502,18 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F82" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H82" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J82" s="2">
-        <v>1</v>
-      </c>
-      <c r="K82" s="21">
-        <v>1</v>
-      </c>
-      <c r="L82" s="21">
-        <v>1</v>
-      </c>
-      <c r="M82" s="21">
-        <v>1</v>
-      </c>
-      <c r="N82" s="2">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>6</v>
-      </c>
-      <c r="P82">
-        <v>95</v>
-      </c>
-      <c r="Q82">
-        <v>5</v>
-      </c>
-      <c r="R82" s="6"/>
-      <c r="S82" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="T82" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="U82" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
     </row>
     <row r="83" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H83" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J83" s="2">
-        <v>1</v>
-      </c>
-      <c r="K83" s="21">
-        <v>1</v>
-      </c>
-      <c r="L83" s="21">
-        <v>1</v>
-      </c>
-      <c r="M83" s="21">
-        <v>1</v>
-      </c>
-      <c r="N83" s="2">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>6</v>
-      </c>
-      <c r="P83">
-        <v>95</v>
-      </c>
-      <c r="Q83">
-        <v>5</v>
-      </c>
-      <c r="R83" s="6"/>
-      <c r="S83" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="T83" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="U83" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
     </row>
     <row r="84" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J84" s="2">
-        <v>1</v>
-      </c>
-      <c r="K84" s="21">
-        <v>1</v>
-      </c>
-      <c r="L84" s="21">
-        <v>1</v>
-      </c>
-      <c r="M84" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N84" s="2">
-        <v>0</v>
-      </c>
-      <c r="O84">
-        <v>6</v>
-      </c>
-      <c r="P84">
-        <v>95</v>
-      </c>
-      <c r="Q84">
-        <v>5</v>
-      </c>
-      <c r="R84" s="6"/>
-      <c r="S84" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="T84" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="U84" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
     </row>
     <row r="85" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85">
@@ -8356,16 +8521,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D85" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="F85" s="13" t="s">
         <v>9</v>
@@ -8377,7 +8542,7 @@
         <v>9</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="J85" s="2">
         <v>1</v>
@@ -8389,7 +8554,7 @@
         <v>1</v>
       </c>
       <c r="M85" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N85" s="2">
         <v>0</v>
@@ -8403,15 +8568,15 @@
       <c r="Q85">
         <v>5</v>
       </c>
-      <c r="R85" s="6"/>
+      <c r="R85" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="S85" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="T85" s="10" t="s">
-        <v>161</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="T85" s="10"/>
       <c r="U85" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V85">
         <v>0</v>
@@ -8423,13 +8588,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="E86" s="13" t="s">
         <v>9</v>
@@ -8438,13 +8603,13 @@
         <v>9</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J86" s="2">
         <v>1</v>
@@ -8459,7 +8624,7 @@
         <v>9999</v>
       </c>
       <c r="N86" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="O86">
         <v>6</v>
@@ -8472,11 +8637,11 @@
       </c>
       <c r="R86" s="6"/>
       <c r="S86" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T86" s="10"/>
       <c r="U86" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V86">
         <v>0</v>
@@ -8488,28 +8653,28 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="F87" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J87" s="2">
         <v>1</v>
@@ -8524,7 +8689,7 @@
         <v>1</v>
       </c>
       <c r="N87" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="O87">
         <v>6</v>
@@ -8537,11 +8702,13 @@
       </c>
       <c r="R87" s="6"/>
       <c r="S87" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="T87" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="T87" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="U87" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V87">
         <v>0</v>
@@ -8553,28 +8720,28 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="F88" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H88" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J88" s="2">
         <v>1</v>
@@ -8586,10 +8753,10 @@
         <v>1</v>
       </c>
       <c r="M88" s="21">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N88" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="O88">
         <v>6</v>
@@ -8602,13 +8769,13 @@
       </c>
       <c r="R88" s="6"/>
       <c r="S88" s="9" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="T88" s="10" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="U88" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V88">
         <v>0</v>
@@ -8620,13 +8787,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>9</v>
@@ -8635,13 +8802,13 @@
         <v>9</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J89" s="2">
         <v>1</v>
@@ -8653,10 +8820,10 @@
         <v>1</v>
       </c>
       <c r="M89" s="21">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="N89" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="O89">
         <v>6</v>
@@ -8669,13 +8836,13 @@
       </c>
       <c r="R89" s="6"/>
       <c r="S89" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="T89" s="10" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="U89" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V89">
         <v>0</v>
@@ -8686,16 +8853,132 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="S90" s="15"/>
-      <c r="T90" s="15"/>
+      <c r="B90" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J90" s="2">
+        <v>1</v>
+      </c>
+      <c r="K90" s="21">
+        <v>1</v>
+      </c>
+      <c r="L90" s="21">
+        <v>1</v>
+      </c>
+      <c r="M90" s="21">
+        <v>1</v>
+      </c>
+      <c r="N90" s="2">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>6</v>
+      </c>
+      <c r="P90">
+        <v>95</v>
+      </c>
+      <c r="Q90">
+        <v>5</v>
+      </c>
+      <c r="R90" s="6"/>
+      <c r="S90" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="T90" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="U90" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="S91" s="15"/>
-      <c r="T91" s="15"/>
+      <c r="B91" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J91" s="2">
+        <v>1</v>
+      </c>
+      <c r="K91" s="21">
+        <v>1</v>
+      </c>
+      <c r="L91" s="21">
+        <v>1</v>
+      </c>
+      <c r="M91" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N91" s="2">
+        <v>9999</v>
+      </c>
+      <c r="O91">
+        <v>6</v>
+      </c>
+      <c r="P91">
+        <v>95</v>
+      </c>
+      <c r="Q91">
+        <v>5</v>
+      </c>
+      <c r="R91" s="6"/>
+      <c r="S91" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="T91" s="10"/>
+      <c r="U91" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92">
@@ -8703,62 +8986,60 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="F92" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="J92" s="2">
         <v>1</v>
       </c>
-      <c r="K92" s="22">
-        <v>1</v>
-      </c>
-      <c r="L92" s="22">
-        <v>1</v>
-      </c>
-      <c r="M92" s="22">
-        <v>1</v>
-      </c>
-      <c r="N92">
-        <v>0</v>
+      <c r="K92" s="21">
+        <v>1</v>
+      </c>
+      <c r="L92" s="21">
+        <v>1</v>
+      </c>
+      <c r="M92" s="21">
+        <v>1</v>
+      </c>
+      <c r="N92" s="2">
+        <v>9999</v>
       </c>
       <c r="O92">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P92">
         <v>95</v>
       </c>
       <c r="Q92">
-        <v>20</v>
-      </c>
-      <c r="R92" s="6" t="s">
-        <v>96</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R92" s="6"/>
       <c r="S92" s="9" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="T92" s="10"/>
       <c r="U92" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V92">
         <v>0</v>
@@ -8770,60 +9051,62 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F93" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H93" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="J93" s="2">
         <v>1</v>
       </c>
-      <c r="K93" s="22">
-        <v>1</v>
-      </c>
-      <c r="L93" s="22">
-        <v>1</v>
-      </c>
-      <c r="M93" s="22">
-        <v>1</v>
-      </c>
-      <c r="N93">
-        <v>0</v>
+      <c r="K93" s="21">
+        <v>1</v>
+      </c>
+      <c r="L93" s="21">
+        <v>1</v>
+      </c>
+      <c r="M93" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N93" s="2">
+        <v>9999</v>
       </c>
       <c r="O93">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P93">
         <v>95</v>
       </c>
       <c r="Q93">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R93" s="6"/>
-      <c r="S93" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="T93" s="10"/>
+      <c r="S93" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="T93" s="10" t="s">
+        <v>183</v>
+      </c>
       <c r="U93" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V93">
         <v>0</v>
@@ -8835,60 +9118,62 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="J94" s="2">
         <v>1</v>
       </c>
-      <c r="K94" s="22">
-        <v>1</v>
-      </c>
-      <c r="L94" s="22">
-        <v>1</v>
-      </c>
-      <c r="M94" s="22">
-        <v>1</v>
-      </c>
-      <c r="N94">
-        <v>0</v>
+      <c r="K94" s="21">
+        <v>1</v>
+      </c>
+      <c r="L94" s="21">
+        <v>1</v>
+      </c>
+      <c r="M94" s="21">
+        <v>1</v>
+      </c>
+      <c r="N94" s="2">
+        <v>9999</v>
       </c>
       <c r="O94">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P94">
         <v>95</v>
       </c>
       <c r="Q94">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R94" s="6"/>
-      <c r="S94" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="T94" s="10"/>
+      <c r="S94" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="T94" s="10" t="s">
+        <v>160</v>
+      </c>
       <c r="U94" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V94">
         <v>0</v>
@@ -8907,67 +9192,8 @@
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="J96" s="2">
-        <v>5</v>
-      </c>
-      <c r="K96" s="22">
-        <v>1</v>
-      </c>
-      <c r="L96" s="22">
-        <v>1</v>
-      </c>
-      <c r="M96" s="22">
-        <v>9999</v>
-      </c>
-      <c r="N96">
-        <v>0</v>
-      </c>
-      <c r="O96">
-        <v>18</v>
-      </c>
-      <c r="P96">
-        <v>95</v>
-      </c>
-      <c r="Q96">
-        <v>20</v>
-      </c>
-      <c r="R96" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="S96" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="T96" s="10"/>
-      <c r="U96" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V96">
-        <v>0</v>
-      </c>
+      <c r="S96" s="15"/>
+      <c r="T96" s="15"/>
     </row>
     <row r="97" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97">
@@ -8975,16 +9201,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>237</v>
+        <v>83</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="F97" s="13" t="s">
         <v>9</v>
@@ -8996,7 +9222,7 @@
         <v>9</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="J97" s="2">
         <v>1</v>
@@ -9008,7 +9234,7 @@
         <v>1</v>
       </c>
       <c r="M97" s="22">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -9022,13 +9248,15 @@
       <c r="Q97">
         <v>20</v>
       </c>
-      <c r="R97" s="6"/>
+      <c r="R97" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="S97" s="9" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="T97" s="10"/>
       <c r="U97" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V97">
         <v>0</v>
@@ -9039,19 +9267,65 @@
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
+      <c r="B98" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J98" s="2">
+        <v>1</v>
+      </c>
+      <c r="K98" s="22">
+        <v>1</v>
+      </c>
+      <c r="L98" s="22">
+        <v>1</v>
+      </c>
+      <c r="M98" s="22">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>18</v>
+      </c>
+      <c r="P98">
+        <v>95</v>
+      </c>
+      <c r="Q98">
+        <v>20</v>
+      </c>
       <c r="R98" s="6"/>
-      <c r="S98" s="9"/>
+      <c r="S98" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="T98" s="10"/>
-      <c r="U98" s="6"/>
+      <c r="U98" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99">
@@ -9059,16 +9333,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>259</v>
+        <v>141</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>256</v>
+        <v>86</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>258</v>
+        <v>142</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="F99" s="13" t="s">
         <v>9</v>
@@ -9080,10 +9354,10 @@
         <v>9</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>259</v>
+        <v>141</v>
       </c>
       <c r="J99" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K99" s="22">
         <v>1</v>
@@ -9092,7 +9366,7 @@
         <v>1</v>
       </c>
       <c r="M99" s="22">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -9106,15 +9380,13 @@
       <c r="Q99">
         <v>20</v>
       </c>
-      <c r="R99" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="S99" s="9" t="s">
-        <v>261</v>
+      <c r="R99" s="6"/>
+      <c r="S99" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="T99" s="10"/>
       <c r="U99" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V99">
         <v>0</v>
@@ -9125,19 +9397,8 @@
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="R100" s="6"/>
-      <c r="S100" s="9"/>
-      <c r="T100" s="10"/>
-      <c r="U100" s="6"/>
+      <c r="S100" s="15"/>
+      <c r="T100" s="15"/>
     </row>
     <row r="101" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101">
@@ -9145,19 +9406,19 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>94</v>
+        <v>234</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>84</v>
+        <v>229</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="E101" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G101" s="13" t="s">
         <v>9</v>
@@ -9166,41 +9427,41 @@
         <v>9</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>94</v>
+        <v>234</v>
       </c>
       <c r="J101" s="2">
-        <v>1</v>
-      </c>
-      <c r="K101" s="21">
-        <v>1</v>
-      </c>
-      <c r="L101" s="21">
-        <v>1</v>
-      </c>
-      <c r="M101" s="21">
+        <v>5</v>
+      </c>
+      <c r="K101" s="22">
+        <v>1</v>
+      </c>
+      <c r="L101" s="22">
+        <v>1</v>
+      </c>
+      <c r="M101" s="22">
         <v>9999</v>
       </c>
-      <c r="N101" s="2">
+      <c r="N101">
         <v>0</v>
       </c>
       <c r="O101">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P101">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="Q101">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R101" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="S101" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T101" s="8"/>
+        <v>230</v>
+      </c>
+      <c r="S101" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="T101" s="10"/>
       <c r="U101" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V101">
         <v>0</v>
@@ -9212,16 +9473,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>94</v>
+        <v>234</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="F102" s="13" t="s">
         <v>9</v>
@@ -9233,39 +9494,39 @@
         <v>9</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="J102" s="2">
         <v>1</v>
       </c>
-      <c r="K102" s="21">
-        <v>1</v>
-      </c>
-      <c r="L102" s="21">
-        <v>1</v>
-      </c>
-      <c r="M102" s="21">
-        <v>1</v>
-      </c>
-      <c r="N102" s="2">
+      <c r="K102" s="22">
+        <v>1</v>
+      </c>
+      <c r="L102" s="22">
+        <v>1</v>
+      </c>
+      <c r="M102" s="22">
+        <v>9999</v>
+      </c>
+      <c r="N102">
         <v>0</v>
       </c>
       <c r="O102">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="P102">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="Q102">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R102" s="6"/>
-      <c r="S102" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="T102" s="8"/>
+      <c r="S102" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="T102" s="10"/>
       <c r="U102" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V102">
         <v>0</v>
@@ -9276,8 +9537,19 @@
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="S103" s="15"/>
-      <c r="T103" s="15"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="10"/>
+      <c r="U103" s="6"/>
     </row>
     <row r="104" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104">
@@ -9285,13 +9557,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>84</v>
+        <v>253</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>134</v>
+        <v>255</v>
       </c>
       <c r="E104" s="13" t="s">
         <v>9</v>
@@ -9306,41 +9578,41 @@
         <v>9</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="J104" s="2">
         <v>1</v>
       </c>
-      <c r="K104" s="21">
-        <v>1</v>
-      </c>
-      <c r="L104" s="21">
-        <v>1</v>
-      </c>
-      <c r="M104" s="21">
+      <c r="K104" s="22">
+        <v>1</v>
+      </c>
+      <c r="L104" s="22">
+        <v>1</v>
+      </c>
+      <c r="M104" s="22">
         <v>9999</v>
       </c>
-      <c r="N104" s="2">
+      <c r="N104">
         <v>0</v>
       </c>
       <c r="O104">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P104">
         <v>95</v>
       </c>
       <c r="Q104">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R104" s="6" t="s">
-        <v>188</v>
+        <v>257</v>
       </c>
       <c r="S104" s="9" t="s">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="T104" s="10"/>
       <c r="U104" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V104">
         <v>0</v>
@@ -9348,25 +9620,36 @@
     </row>
     <row r="105" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="S105" s="15"/>
-      <c r="T105" s="15"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="10"/>
+      <c r="U105" s="6"/>
     </row>
     <row r="106" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106">
-        <f t="shared" ref="A106:A110" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="E106" s="13" t="s">
         <v>9</v>
@@ -9375,13 +9658,13 @@
         <v>55</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="J106" s="2">
         <v>1</v>
@@ -9399,23 +9682,23 @@
         <v>0</v>
       </c>
       <c r="O106">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="P106">
         <v>50</v>
       </c>
       <c r="Q106">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="R106" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S106" s="8" t="s">
-        <v>14</v>
+        <v>96</v>
+      </c>
+      <c r="S106" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="T106" s="8"/>
       <c r="U106" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="V106">
         <v>0</v>
@@ -9423,149 +9706,429 @@
     </row>
     <row r="107" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="S107" s="15"/>
-      <c r="T107" s="15"/>
+      <c r="B107" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J107" s="2">
+        <v>1</v>
+      </c>
+      <c r="K107" s="21">
+        <v>1</v>
+      </c>
+      <c r="L107" s="21">
+        <v>1</v>
+      </c>
+      <c r="M107" s="21">
+        <v>1</v>
+      </c>
+      <c r="N107" s="2">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>6</v>
+      </c>
+      <c r="P107">
+        <v>50</v>
+      </c>
+      <c r="Q107">
+        <v>5</v>
+      </c>
+      <c r="R107" s="6"/>
+      <c r="S107" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="T107" s="8"/>
+      <c r="U107" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E108" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F108" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G108" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J108" s="2">
-        <v>1</v>
-      </c>
-      <c r="K108" s="21">
-        <v>1</v>
-      </c>
-      <c r="L108" s="21">
-        <v>1</v>
-      </c>
-      <c r="M108" s="21">
-        <v>1</v>
-      </c>
-      <c r="N108" s="2">
-        <v>0</v>
-      </c>
-      <c r="O108">
-        <v>1</v>
-      </c>
-      <c r="P108">
-        <v>50</v>
-      </c>
-      <c r="Q108">
-        <v>32</v>
-      </c>
-      <c r="R108" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="S108" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="T108" s="8"/>
-      <c r="U108" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V108">
-        <v>0</v>
-      </c>
+      <c r="S108" s="15"/>
+      <c r="T108" s="15"/>
     </row>
     <row r="109" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>107</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J109" s="2">
+        <v>1</v>
+      </c>
+      <c r="K109" s="21">
+        <v>1</v>
+      </c>
+      <c r="L109" s="21">
+        <v>1</v>
+      </c>
+      <c r="M109" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N109" s="2">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>12</v>
+      </c>
+      <c r="P109">
+        <v>95</v>
+      </c>
+      <c r="Q109">
+        <v>5</v>
+      </c>
+      <c r="R109" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="S109" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="T109" s="10"/>
+      <c r="U109" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J110" s="2">
+        <v>1</v>
+      </c>
+      <c r="K110" s="21">
+        <v>1</v>
+      </c>
+      <c r="L110" s="21">
+        <v>1</v>
+      </c>
+      <c r="M110" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N110" s="2">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>12</v>
+      </c>
+      <c r="P110">
+        <v>95</v>
+      </c>
+      <c r="Q110">
+        <v>5</v>
+      </c>
+      <c r="R110" s="6"/>
+      <c r="S110" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="T110" s="10"/>
+      <c r="U110" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <f>ROW()-2</f>
+        <v>109</v>
+      </c>
+      <c r="S111" s="15"/>
+      <c r="T111" s="15"/>
+    </row>
+    <row r="112" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <f t="shared" ref="A112:A116" si="1">ROW()-2</f>
+        <v>110</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H112" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J112" s="2">
+        <v>1</v>
+      </c>
+      <c r="K112" s="21">
+        <v>1</v>
+      </c>
+      <c r="L112" s="21">
+        <v>1</v>
+      </c>
+      <c r="M112" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N112" s="2">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>72</v>
+      </c>
+      <c r="P112">
+        <v>50</v>
+      </c>
+      <c r="Q112">
+        <v>32</v>
+      </c>
+      <c r="R112" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S112" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T112" s="8"/>
+      <c r="U112" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <f>ROW()-2</f>
+        <v>111</v>
+      </c>
+      <c r="S113" s="15"/>
+      <c r="T113" s="15"/>
+    </row>
+    <row r="114" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114">
         <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J114" s="2">
+        <v>1</v>
+      </c>
+      <c r="K114" s="21">
+        <v>1</v>
+      </c>
+      <c r="L114" s="21">
+        <v>1</v>
+      </c>
+      <c r="M114" s="21">
+        <v>1</v>
+      </c>
+      <c r="N114" s="2">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114">
+        <v>50</v>
+      </c>
+      <c r="Q114">
+        <v>32</v>
+      </c>
+      <c r="R114" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="S114" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="T114" s="8"/>
+      <c r="U114" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J116" s="2">
+        <v>1</v>
+      </c>
+      <c r="K116" s="21">
+        <v>1</v>
+      </c>
+      <c r="L116" s="21">
+        <v>1</v>
+      </c>
+      <c r="M116" s="21">
+        <v>1</v>
+      </c>
+      <c r="N116" s="2">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116">
+        <v>50</v>
+      </c>
+      <c r="Q116">
+        <v>32</v>
+      </c>
+      <c r="R116" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="13" t="s">
+      <c r="S116" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F110" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G110" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H110" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J110" s="2">
-        <v>1</v>
-      </c>
-      <c r="K110" s="21">
-        <v>1</v>
-      </c>
-      <c r="L110" s="21">
-        <v>1</v>
-      </c>
-      <c r="M110" s="21">
-        <v>1</v>
-      </c>
-      <c r="N110" s="2">
-        <v>0</v>
-      </c>
-      <c r="O110">
-        <v>1</v>
-      </c>
-      <c r="P110">
-        <v>50</v>
-      </c>
-      <c r="Q110">
-        <v>32</v>
-      </c>
-      <c r="R110" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="S110" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="T110" s="8"/>
-      <c r="U110" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V110">
+      <c r="T116" s="8"/>
+      <c r="U116" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V116">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_compoItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6357169-28FD-4C7A-9D00-BC340E70B055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BFF327-D91E-44E7-B690-9C664367C922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="23505" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="2175" windowWidth="24090" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compound_ItemDB" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="287">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1"/>
@@ -3423,6 +3423,133 @@
   </si>
   <si>
     <t>shishamo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bugget_sliced_karikari</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stone_oven</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>スライスしたバゲット</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>オーブン</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bugget_sliced_karikari_butter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>スライスしたバゲット</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>オーブン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バター</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cream_row_orange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whipped cream_orange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cream_row_grape</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whipped cream_grape</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cream_row_blueberry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whipped cream_blurberry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cream_row_banana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whipped cream_banana</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3876,10 +4003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334418A3-75FA-4AEA-89C8-ED6620CA07DA}">
-  <dimension ref="A1:V116"/>
+  <dimension ref="A1:V126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="J101" sqref="J101"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4039,7 +4166,7 @@
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A110" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A120" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -5237,13 +5364,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>242</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>9</v>
@@ -5258,7 +5385,7 @@
         <v>9</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -5302,13 +5429,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>143</v>
+        <v>281</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>242</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>9</v>
@@ -5323,7 +5450,7 @@
         <v>9</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>143</v>
+        <v>281</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -5351,7 +5478,7 @@
       </c>
       <c r="R24" s="6"/>
       <c r="S24" s="11" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="T24" s="8"/>
       <c r="U24" s="6" t="s">
@@ -5367,13 +5494,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>9</v>
@@ -5388,7 +5515,7 @@
         <v>9</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>143</v>
+        <v>283</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -5416,7 +5543,7 @@
       </c>
       <c r="R25" s="6"/>
       <c r="S25" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="T25" s="8"/>
       <c r="U25" s="6" t="s">
@@ -5432,13 +5559,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>9</v>
@@ -5453,13 +5580,13 @@
         <v>9</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
       </c>
       <c r="K26" s="21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L26" s="21">
         <v>1</v>
@@ -5479,11 +5606,9 @@
       <c r="Q26">
         <v>4</v>
       </c>
-      <c r="R26" s="6" t="s">
-        <v>251</v>
-      </c>
+      <c r="R26" s="6"/>
       <c r="S26" s="11" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="T26" s="8"/>
       <c r="U26" s="6" t="s">
@@ -5498,8 +5623,59 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
+      <c r="B27" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="21">
+        <v>1</v>
+      </c>
+      <c r="L27" s="21">
+        <v>1</v>
+      </c>
+      <c r="M27" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>100</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27" s="6"/>
+      <c r="S27" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="T27" s="8"/>
       <c r="U27" s="6" t="s">
         <v>173</v>
       </c>
@@ -5509,17 +5685,17 @@
     </row>
     <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>111</v>
+      <c r="B28" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>8</v>
+        <v>242</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>9</v>
@@ -5534,7 +5710,7 @@
         <v>9</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -5555,16 +5731,14 @@
         <v>1</v>
       </c>
       <c r="P28">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q28">
-        <v>3</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="S28" s="8" t="s">
-        <v>113</v>
+        <v>4</v>
+      </c>
+      <c r="R28" s="6"/>
+      <c r="S28" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="T28" s="8"/>
       <c r="U28" s="6" t="s">
@@ -5574,34 +5748,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20">
+    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
+      <c r="B29" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="21">
+        <v>1</v>
+      </c>
+      <c r="L29" s="21">
+        <v>1</v>
+      </c>
+      <c r="M29" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>100</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29" s="6"/>
+      <c r="S29" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="T29" s="8"/>
+      <c r="U29" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>9</v>
@@ -5616,9 +5840,9 @@
         <v>9</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J30" s="20">
+        <v>282</v>
+      </c>
+      <c r="J30" s="2">
         <v>1</v>
       </c>
       <c r="K30" s="21">
@@ -5637,22 +5861,20 @@
         <v>1</v>
       </c>
       <c r="P30">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q30">
-        <v>3</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="S30" s="8" t="s">
-        <v>127</v>
+        <v>4</v>
+      </c>
+      <c r="R30" s="6"/>
+      <c r="S30" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="T30" s="8"/>
       <c r="U30" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="V30" s="20">
+      <c r="V30">
         <v>0</v>
       </c>
     </row>
@@ -5661,102 +5883,323 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
+      <c r="B31" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="21">
+        <v>1</v>
+      </c>
+      <c r="L31" s="21">
+        <v>1</v>
+      </c>
+      <c r="M31" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>100</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
+      </c>
+      <c r="R31" s="6"/>
+      <c r="S31" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="T31" s="8"/>
+      <c r="U31" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="B32" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="21">
+        <v>1</v>
+      </c>
+      <c r="L32" s="21">
+        <v>1</v>
+      </c>
+      <c r="M32" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>100</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+      <c r="R32" s="6"/>
+      <c r="S32" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="T32" s="8"/>
+      <c r="U32" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17">
+      <c r="B33" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="21">
+        <v>1</v>
+      </c>
+      <c r="L33" s="21">
+        <v>1</v>
+      </c>
+      <c r="M33" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>100</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="R33" s="6"/>
+      <c r="S33" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="T33" s="8"/>
+      <c r="U33" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="R34" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="S34" s="19"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
+      <c r="B34" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="21">
+        <v>10</v>
+      </c>
+      <c r="L34" s="21">
+        <v>1</v>
+      </c>
+      <c r="M34" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>100</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="S34" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="T34" s="8"/>
+      <c r="U34" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="6"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>77</v>
+      <c r="B36" t="s">
+        <v>111</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
       </c>
-      <c r="K36" s="22">
-        <v>2</v>
-      </c>
-      <c r="L36" s="22">
-        <v>1</v>
-      </c>
-      <c r="M36" s="22">
-        <v>1</v>
-      </c>
-      <c r="N36">
+      <c r="K36" s="21">
+        <v>1</v>
+      </c>
+      <c r="L36" s="21">
+        <v>1</v>
+      </c>
+      <c r="M36" s="21">
+        <v>9999</v>
+      </c>
+      <c r="N36" s="2">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P36">
         <v>95</v>
@@ -5764,98 +6207,48 @@
       <c r="Q36">
         <v>3</v>
       </c>
-      <c r="R36" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="S36" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="T36" s="10"/>
+      <c r="R36" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S36" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="T36" s="8"/>
       <c r="U36" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="37" spans="1:22" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J37" s="2">
-        <v>1</v>
-      </c>
-      <c r="K37" s="22">
-        <v>2</v>
-      </c>
-      <c r="L37" s="22">
-        <v>1</v>
-      </c>
-      <c r="M37" s="22">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>12</v>
-      </c>
-      <c r="P37">
-        <v>95</v>
-      </c>
-      <c r="Q37">
-        <v>3</v>
-      </c>
-      <c r="R37" s="6"/>
-      <c r="S37" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="T37" s="10"/>
-      <c r="U37" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
     </row>
     <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>9</v>
@@ -5870,41 +6263,43 @@
         <v>9</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J38" s="2">
-        <v>1</v>
-      </c>
-      <c r="K38" s="22">
-        <v>2</v>
-      </c>
-      <c r="L38" s="22">
-        <v>1</v>
-      </c>
-      <c r="M38" s="22">
+        <v>44</v>
+      </c>
+      <c r="J38" s="20">
+        <v>1</v>
+      </c>
+      <c r="K38" s="21">
+        <v>1</v>
+      </c>
+      <c r="L38" s="21">
+        <v>1</v>
+      </c>
+      <c r="M38" s="21">
         <v>9999</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="2">
         <v>0</v>
       </c>
       <c r="O38">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P38">
         <v>95</v>
       </c>
       <c r="Q38">
-        <v>2</v>
-      </c>
-      <c r="R38" s="6"/>
-      <c r="S38" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="T38" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="S38" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="T38" s="8"/>
       <c r="U38" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="V38">
+        <v>173</v>
+      </c>
+      <c r="V38" s="20">
         <v>0</v>
       </c>
     </row>
@@ -5913,326 +6308,55 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J39" s="2">
-        <v>1</v>
-      </c>
-      <c r="K39" s="22">
-        <v>2</v>
-      </c>
-      <c r="L39" s="22">
-        <v>1</v>
-      </c>
-      <c r="M39" s="22">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>12</v>
-      </c>
-      <c r="P39">
-        <v>75</v>
-      </c>
-      <c r="Q39">
-        <v>65</v>
-      </c>
-      <c r="R39" s="6"/>
-      <c r="S39" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="T39" s="10"/>
-      <c r="U39" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J40" s="2">
-        <v>1</v>
-      </c>
-      <c r="K40" s="22">
-        <v>2</v>
-      </c>
-      <c r="L40" s="22">
-        <v>1</v>
-      </c>
-      <c r="M40" s="22">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>12</v>
-      </c>
-      <c r="P40">
-        <v>95</v>
-      </c>
-      <c r="Q40">
-        <v>3</v>
-      </c>
-      <c r="R40" s="6"/>
-      <c r="S40" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="T40" s="10"/>
-      <c r="U40" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="J41" s="2">
-        <v>1</v>
-      </c>
-      <c r="K41" s="22">
-        <v>1</v>
-      </c>
-      <c r="L41" s="22">
-        <v>1</v>
-      </c>
-      <c r="M41" s="22">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>12</v>
-      </c>
-      <c r="P41">
-        <v>95</v>
-      </c>
-      <c r="Q41">
-        <v>3</v>
-      </c>
-      <c r="R41" s="12"/>
-      <c r="S41" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="T41" s="10"/>
-      <c r="U41" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42">
+    </row>
+    <row r="42" spans="1:22" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="17">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="J42" s="2">
-        <v>1</v>
-      </c>
-      <c r="K42" s="22">
-        <v>1</v>
-      </c>
-      <c r="L42" s="22">
-        <v>1</v>
-      </c>
-      <c r="M42" s="22">
-        <v>9999</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>12</v>
-      </c>
-      <c r="P42">
-        <v>95</v>
-      </c>
-      <c r="Q42">
-        <v>3</v>
-      </c>
-      <c r="S42" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="T42" s="10"/>
-      <c r="U42" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="R42" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="S42" s="19"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J43" s="2">
-        <v>1</v>
-      </c>
-      <c r="K43" s="21">
-        <v>1</v>
-      </c>
-      <c r="L43" s="21">
-        <v>1</v>
-      </c>
-      <c r="M43" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N43" s="2">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>3</v>
-      </c>
-      <c r="P43">
-        <v>80</v>
-      </c>
-      <c r="Q43">
-        <v>34</v>
-      </c>
-      <c r="R43" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="S43" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="11"/>
       <c r="T43" s="8"/>
-      <c r="U43" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
+      <c r="U43" s="6"/>
     </row>
     <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -6240,60 +6364,62 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="C44" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="J44" s="2">
         <v>1</v>
       </c>
-      <c r="K44" s="21">
-        <v>1</v>
-      </c>
-      <c r="L44" s="21">
-        <v>1</v>
-      </c>
-      <c r="M44" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N44" s="2">
+      <c r="K44" s="22">
+        <v>2</v>
+      </c>
+      <c r="L44" s="22">
+        <v>1</v>
+      </c>
+      <c r="M44" s="22">
+        <v>1</v>
+      </c>
+      <c r="N44">
         <v>0</v>
       </c>
       <c r="O44">
+        <v>12</v>
+      </c>
+      <c r="P44">
+        <v>95</v>
+      </c>
+      <c r="Q44">
         <v>3</v>
       </c>
-      <c r="P44">
-        <v>90</v>
-      </c>
-      <c r="Q44">
-        <v>10</v>
-      </c>
-      <c r="R44" s="4"/>
-      <c r="S44" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="T44" s="8"/>
+      <c r="R44" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="S44" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T44" s="10"/>
       <c r="U44" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -6305,16 +6431,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>9</v>
@@ -6326,39 +6452,39 @@
         <v>9</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
       </c>
-      <c r="K45" s="21">
-        <v>1</v>
-      </c>
-      <c r="L45" s="21">
-        <v>1</v>
-      </c>
-      <c r="M45" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N45" s="2">
+      <c r="K45" s="22">
+        <v>2</v>
+      </c>
+      <c r="L45" s="22">
+        <v>1</v>
+      </c>
+      <c r="M45" s="22">
+        <v>1</v>
+      </c>
+      <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
+        <v>12</v>
+      </c>
+      <c r="P45">
+        <v>95</v>
+      </c>
+      <c r="Q45">
         <v>3</v>
       </c>
-      <c r="P45">
-        <v>90</v>
-      </c>
-      <c r="Q45">
-        <v>10</v>
-      </c>
-      <c r="R45" s="4"/>
-      <c r="S45" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="T45" s="8"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="T45" s="10"/>
       <c r="U45" s="6" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -6370,13 +6496,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>9</v>
@@ -6391,39 +6517,39 @@
         <v>9</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
       </c>
-      <c r="K46" s="21">
-        <v>1</v>
-      </c>
-      <c r="L46" s="21">
-        <v>1</v>
-      </c>
-      <c r="M46" s="21">
+      <c r="K46" s="22">
+        <v>2</v>
+      </c>
+      <c r="L46" s="22">
+        <v>1</v>
+      </c>
+      <c r="M46" s="22">
         <v>9999</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P46">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Q46">
-        <v>10</v>
-      </c>
-      <c r="R46" s="4"/>
-      <c r="S46" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="T46" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="R46" s="6"/>
+      <c r="S46" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="T46" s="10"/>
       <c r="U46" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -6435,16 +6561,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>223</v>
+        <v>88</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>224</v>
+        <v>63</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="F47" s="13" t="s">
         <v>9</v>
@@ -6456,39 +6582,39 @@
         <v>9</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>223</v>
+        <v>88</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
       </c>
-      <c r="K47" s="21">
-        <v>1</v>
-      </c>
-      <c r="L47" s="21">
-        <v>1</v>
-      </c>
-      <c r="M47" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N47" s="2">
+      <c r="K47" s="22">
+        <v>2</v>
+      </c>
+      <c r="L47" s="22">
+        <v>1</v>
+      </c>
+      <c r="M47" s="22">
+        <v>1</v>
+      </c>
+      <c r="N47">
         <v>0</v>
       </c>
       <c r="O47">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P47">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Q47">
-        <v>10</v>
-      </c>
-      <c r="R47" s="4"/>
-      <c r="S47" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="T47" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="R47" s="6"/>
+      <c r="S47" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T47" s="10"/>
       <c r="U47" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -6500,60 +6626,60 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="C48" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="J48" s="2">
         <v>1</v>
       </c>
-      <c r="K48" s="21">
-        <v>1</v>
-      </c>
-      <c r="L48" s="21">
-        <v>1</v>
-      </c>
-      <c r="M48" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N48" s="2">
+      <c r="K48" s="22">
+        <v>2</v>
+      </c>
+      <c r="L48" s="22">
+        <v>1</v>
+      </c>
+      <c r="M48" s="22">
+        <v>1</v>
+      </c>
+      <c r="N48">
         <v>0</v>
       </c>
       <c r="O48">
+        <v>12</v>
+      </c>
+      <c r="P48">
+        <v>95</v>
+      </c>
+      <c r="Q48">
         <v>3</v>
       </c>
-      <c r="P48">
-        <v>90</v>
-      </c>
-      <c r="Q48">
-        <v>10</v>
-      </c>
-      <c r="R48" s="4"/>
-      <c r="S48" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="T48" s="8"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="T48" s="10"/>
       <c r="U48" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -6565,60 +6691,60 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>166</v>
+        <v>247</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>111</v>
+        <v>246</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
       </c>
-      <c r="K49" s="21">
-        <v>1</v>
-      </c>
-      <c r="L49" s="21">
-        <v>1</v>
-      </c>
-      <c r="M49" s="21">
-        <v>9999</v>
-      </c>
-      <c r="N49" s="2">
+      <c r="K49" s="22">
+        <v>1</v>
+      </c>
+      <c r="L49" s="22">
+        <v>1</v>
+      </c>
+      <c r="M49" s="22">
+        <v>1</v>
+      </c>
+      <c r="N49">
         <v>0</v>
       </c>
       <c r="O49">
+        <v>12</v>
+      </c>
+      <c r="P49">
+        <v>95</v>
+      </c>
+      <c r="Q49">
         <v>3</v>
       </c>
-      <c r="P49">
-        <v>90</v>
-      </c>
-      <c r="Q49">
-        <v>10</v>
-      </c>
-      <c r="R49" s="4"/>
-      <c r="S49" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="T49" s="8"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="T49" s="10"/>
       <c r="U49" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -6630,60 +6756,59 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
       </c>
-      <c r="K50" s="21">
-        <v>1</v>
-      </c>
-      <c r="L50" s="21">
-        <v>1</v>
-      </c>
-      <c r="M50" s="21">
+      <c r="K50" s="22">
+        <v>1</v>
+      </c>
+      <c r="L50" s="22">
+        <v>1</v>
+      </c>
+      <c r="M50" s="22">
         <v>9999</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50">
         <v>0</v>
       </c>
       <c r="O50">
+        <v>12</v>
+      </c>
+      <c r="P50">
+        <v>95</v>
+      </c>
+      <c r="Q50">
         <v>3</v>
       </c>
-      <c r="P50">
-        <v>85</v>
-      </c>
-      <c r="Q50">
-        <v>10</v>
-      </c>
-      <c r="R50" s="4"/>
-      <c r="S50" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="T50" s="8"/>
+      <c r="S50" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T50" s="10"/>
       <c r="U50" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -6695,28 +6820,28 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F51" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>55</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
@@ -6737,14 +6862,16 @@
         <v>3</v>
       </c>
       <c r="P51">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q51">
-        <v>11</v>
-      </c>
-      <c r="R51" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="S51" s="11" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="T51" s="8"/>
       <c r="U51" s="6" t="s">
@@ -6760,13 +6887,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>9</v>
@@ -6781,7 +6908,7 @@
         <v>9</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
@@ -6805,11 +6932,11 @@
         <v>90</v>
       </c>
       <c r="Q52">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R52" s="4"/>
       <c r="S52" s="11" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="T52" s="8"/>
       <c r="U52" s="6" t="s">
@@ -6825,13 +6952,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>9</v>
@@ -6846,7 +6973,7 @@
         <v>9</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
@@ -6870,11 +6997,11 @@
         <v>90</v>
       </c>
       <c r="Q53">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R53" s="4"/>
       <c r="S53" s="11" t="s">
-        <v>36</v>
+        <v>80</v>
 